--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="1017">
   <si>
     <t>No</t>
   </si>
@@ -38,28 +38,199 @@
     <t>AADI</t>
   </si>
   <si>
-    <t>-</t>
+    <t>55273000000000</t>
+  </si>
+  <si>
+    <t>114931000000000</t>
+  </si>
+  <si>
+    <t>90236000000000</t>
+  </si>
+  <si>
+    <t>84315000000000</t>
   </si>
   <si>
     <t>AALI</t>
   </si>
   <si>
+    <t>14121000000000</t>
+  </si>
+  <si>
+    <t>17306000000000</t>
+  </si>
+  <si>
+    <t>19084000000000</t>
+  </si>
+  <si>
+    <t>17453000000000</t>
+  </si>
+  <si>
+    <t>18807000000000</t>
+  </si>
+  <si>
+    <t>24322000000000</t>
+  </si>
+  <si>
+    <t>21829000000000</t>
+  </si>
+  <si>
+    <t>20745000000000</t>
+  </si>
+  <si>
+    <t>21815000000000</t>
+  </si>
+  <si>
     <t>ABBA</t>
   </si>
   <si>
+    <t>290000000000</t>
+  </si>
+  <si>
+    <t>268000000000</t>
+  </si>
+  <si>
+    <t>213000000000</t>
+  </si>
+  <si>
+    <t>251000000000</t>
+  </si>
+  <si>
+    <t>159000000000</t>
+  </si>
+  <si>
+    <t>169000000000</t>
+  </si>
+  <si>
+    <t>170000000000</t>
+  </si>
+  <si>
+    <t>201000000000</t>
+  </si>
+  <si>
+    <t>209000000000</t>
+  </si>
+  <si>
     <t>ABDA</t>
   </si>
   <si>
+    <t>1202000000000</t>
+  </si>
+  <si>
+    <t>1115000000000</t>
+  </si>
+  <si>
+    <t>1057000000000</t>
+  </si>
+  <si>
+    <t>909000000000</t>
+  </si>
+  <si>
+    <t>761000000000</t>
+  </si>
+  <si>
+    <t>658000000000</t>
+  </si>
+  <si>
+    <t>653000000000</t>
+  </si>
+  <si>
+    <t>650000000000</t>
+  </si>
+  <si>
+    <t>764000000000</t>
+  </si>
+  <si>
     <t>ABMM</t>
   </si>
   <si>
+    <t>7861000000000</t>
+  </si>
+  <si>
+    <t>9245000000000</t>
+  </si>
+  <si>
+    <t>11016000000000</t>
+  </si>
+  <si>
+    <t>8380000000000</t>
+  </si>
+  <si>
+    <t>8839000000000</t>
+  </si>
+  <si>
+    <t>14625000000000</t>
+  </si>
+  <si>
+    <t>21504000000000</t>
+  </si>
+  <si>
+    <t>22775000000000</t>
+  </si>
+  <si>
+    <t>19022000000000</t>
+  </si>
+  <si>
     <t>ACES</t>
   </si>
   <si>
+    <t>4936000000000</t>
+  </si>
+  <si>
+    <t>5939000000000</t>
+  </si>
+  <si>
+    <t>7240000000000</t>
+  </si>
+  <si>
+    <t>8143000000000</t>
+  </si>
+  <si>
+    <t>7413000000000</t>
+  </si>
+  <si>
+    <t>6543000000000</t>
+  </si>
+  <si>
+    <t>6763000000000</t>
+  </si>
+  <si>
+    <t>7620000000000</t>
+  </si>
+  <si>
+    <t>8583000000000</t>
+  </si>
+  <si>
     <t>ACRO</t>
   </si>
   <si>
     <t>ACST</t>
+  </si>
+  <si>
+    <t>1794000000000</t>
+  </si>
+  <si>
+    <t>3027000000000</t>
+  </si>
+  <si>
+    <t>3725000000000</t>
+  </si>
+  <si>
+    <t>3947000000000</t>
+  </si>
+  <si>
+    <t>1204000000000</t>
+  </si>
+  <si>
+    <t>1495000000000</t>
+  </si>
+  <si>
+    <t>1037000000000</t>
+  </si>
+  <si>
+    <t>2350000000000</t>
+  </si>
+  <si>
+    <t>3172000000000</t>
   </si>
   <si>
     <t>ADCP</t>
@@ -3527,9 +3698,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3916,14 +4090,17 @@
   <dimension ref="A1:AY958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="43" width="5.375" customWidth="1"/>
+    <col min="3" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="43" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:51">
@@ -4065,7 +4242,6 @@
       <c r="AT1" s="1">
         <v>2059</v>
       </c>
-      <c r="AU1"/>
       <c r="AY1" s="1">
         <v>2060</v>
       </c>
@@ -4077,17 +4253,23 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4110,17 +4292,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4143,17 +4343,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4176,17 +4394,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4209,17 +4445,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -4242,17 +4496,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4275,17 +4547,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="G8" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>52000000000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>39000000000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44000000000</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4308,17 +4590,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4341,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4374,7 +4674,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4407,7 +4707,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4440,7 +4740,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4473,7 +4773,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4506,7 +4806,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4539,7 +4839,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4572,7 +4872,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4605,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4638,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4671,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4704,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4737,7 +5037,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4770,7 +5070,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4803,7 +5103,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4836,7 +5136,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4869,7 +5169,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4902,7 +5202,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4935,7 +5235,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4968,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5001,7 +5301,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5034,7 +5334,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5067,7 +5367,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5100,7 +5400,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5133,7 +5433,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5166,7 +5466,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5199,7 +5499,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5232,7 +5532,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5265,7 +5565,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5298,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5331,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5364,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5397,7 +5697,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5430,7 +5730,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5463,7 +5763,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5496,7 +5796,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5529,7 +5829,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5562,7 +5862,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5595,7 +5895,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5628,7 +5928,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5661,7 +5961,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5694,7 +5994,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5727,7 +6027,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5760,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5793,7 +6093,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5826,7 +6126,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5859,7 +6159,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5892,7 +6192,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5925,7 +6225,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5958,7 +6258,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5991,7 +6291,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6024,7 +6324,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6057,7 +6357,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6090,7 +6390,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6123,7 +6423,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6156,7 +6456,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6189,7 +6489,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6222,7 +6522,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6255,7 +6555,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6288,7 +6588,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6321,7 +6621,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6354,7 +6654,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6387,7 +6687,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6420,7 +6720,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6453,7 +6753,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6486,7 +6786,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6519,7 +6819,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6552,7 +6852,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6585,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6618,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6651,7 +6951,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6684,7 +6984,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6717,7 +7017,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6750,7 +7050,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6783,7 +7083,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6816,7 +7116,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6849,7 +7149,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6882,7 +7182,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6915,7 +7215,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6948,7 +7248,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6981,7 +7281,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7014,7 +7314,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7047,7 +7347,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7080,7 +7380,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7113,7 +7413,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7146,7 +7446,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7179,7 +7479,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7212,7 +7512,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7245,7 +7545,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7278,7 +7578,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7311,7 +7611,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7344,7 +7644,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7377,7 +7677,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7410,7 +7710,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7443,7 +7743,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7476,7 +7776,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7509,7 +7809,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7542,7 +7842,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7575,7 +7875,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7608,7 +7908,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7641,7 +7941,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7674,7 +7974,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -7707,7 +8007,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -7740,7 +8040,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -7773,7 +8073,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7806,7 +8106,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7839,7 +8139,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7872,7 +8172,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7905,7 +8205,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7938,7 +8238,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7971,7 +8271,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8004,7 +8304,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8037,7 +8337,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8070,7 +8370,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8103,7 +8403,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8136,7 +8436,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8169,7 +8469,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8202,7 +8502,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8235,7 +8535,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8268,7 +8568,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8301,7 +8601,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8334,7 +8634,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8367,7 +8667,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8400,7 +8700,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8433,7 +8733,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8466,7 +8766,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8499,7 +8799,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8532,7 +8832,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8565,7 +8865,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8598,7 +8898,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8631,7 +8931,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8664,7 +8964,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8697,7 +8997,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -8730,7 +9030,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8763,7 +9063,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -8796,7 +9096,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -8829,7 +9129,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -8862,7 +9162,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -8895,7 +9195,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -8928,7 +9228,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8961,7 +9261,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -8994,7 +9294,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9027,7 +9327,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9060,7 +9360,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9093,7 +9393,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9126,7 +9426,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9159,7 +9459,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9192,7 +9492,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9225,7 +9525,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9258,7 +9558,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9291,7 +9591,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9324,7 +9624,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9357,7 +9657,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9390,7 +9690,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9423,7 +9723,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9456,7 +9756,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9489,7 +9789,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9522,7 +9822,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9555,7 +9855,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9588,7 +9888,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9621,7 +9921,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9654,7 +9954,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9687,7 +9987,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -9720,7 +10020,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9753,7 +10053,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -9786,7 +10086,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -9819,7 +10119,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -9852,7 +10152,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -9885,7 +10185,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -9918,7 +10218,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -9951,7 +10251,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -9984,7 +10284,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10017,7 +10317,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10050,7 +10350,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10083,7 +10383,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10116,7 +10416,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10149,7 +10449,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10182,7 +10482,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10215,7 +10515,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10248,7 +10548,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10281,7 +10581,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10314,7 +10614,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10347,7 +10647,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10380,7 +10680,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10413,7 +10713,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -10446,7 +10746,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -10479,7 +10779,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -10512,7 +10812,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -10545,7 +10845,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -10578,7 +10878,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -10611,7 +10911,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -10644,7 +10944,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -10677,7 +10977,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -10710,7 +11010,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -10743,7 +11043,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -10776,7 +11076,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -10809,7 +11109,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -10842,7 +11142,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -10875,7 +11175,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -10908,7 +11208,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -10941,7 +11241,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -10974,7 +11274,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11007,7 +11307,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11040,7 +11340,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11073,7 +11373,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -11106,7 +11406,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -11139,7 +11439,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -11172,7 +11472,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -11205,7 +11505,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -11238,7 +11538,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -11271,7 +11571,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -11304,7 +11604,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -11337,7 +11637,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -11370,7 +11670,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -11403,7 +11703,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -11436,7 +11736,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -11469,7 +11769,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -11502,7 +11802,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -11535,7 +11835,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -11568,7 +11868,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -11601,7 +11901,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -11634,7 +11934,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -11667,7 +11967,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -11700,7 +12000,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -11733,7 +12033,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -11766,7 +12066,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -11799,7 +12099,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -11832,7 +12132,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -11865,7 +12165,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -11898,7 +12198,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -11931,7 +12231,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -11964,7 +12264,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -11997,7 +12297,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -12030,7 +12330,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -12063,7 +12363,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -12096,7 +12396,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -12129,7 +12429,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -12162,7 +12462,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -12195,7 +12495,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -12228,7 +12528,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -12261,7 +12561,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -12294,7 +12594,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -12327,7 +12627,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -12360,7 +12660,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -12393,7 +12693,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -12426,7 +12726,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -12459,7 +12759,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -12492,7 +12792,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -12525,7 +12825,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -12558,7 +12858,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -12591,7 +12891,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -12624,7 +12924,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -12657,7 +12957,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -12690,7 +12990,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -12723,7 +13023,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -12756,7 +13056,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -12789,7 +13089,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -12822,7 +13122,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -12855,7 +13155,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -12888,7 +13188,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -12921,7 +13221,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -12954,7 +13254,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -12987,7 +13287,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -13020,7 +13320,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -13053,7 +13353,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -13086,7 +13386,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -13119,7 +13419,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -13152,7 +13452,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -13185,7 +13485,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -13218,7 +13518,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -13251,7 +13551,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -13284,7 +13584,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -13317,7 +13617,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -13350,7 +13650,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -13383,7 +13683,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -13416,7 +13716,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -13449,7 +13749,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -13482,7 +13782,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -13515,7 +13815,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -13548,7 +13848,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -13581,7 +13881,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -13614,7 +13914,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -13647,7 +13947,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -13680,7 +13980,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -13713,7 +14013,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -13746,7 +14046,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -13779,7 +14079,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -13812,7 +14112,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -13845,7 +14145,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -13878,7 +14178,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -13911,7 +14211,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -13944,7 +14244,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -13977,7 +14277,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -14010,7 +14310,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -14043,7 +14343,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -14076,7 +14376,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -14109,7 +14409,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -14142,7 +14442,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -14175,7 +14475,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -14208,7 +14508,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -14241,7 +14541,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -14274,7 +14574,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -14307,7 +14607,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -14340,7 +14640,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -14373,7 +14673,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -14406,7 +14706,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -14439,7 +14739,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -14472,7 +14772,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -14505,7 +14805,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -14538,7 +14838,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -14571,7 +14871,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -14604,7 +14904,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -14637,7 +14937,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -14670,7 +14970,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -14703,7 +15003,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -14736,7 +15036,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -14769,7 +15069,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -14802,7 +15102,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -14835,7 +15135,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -14868,7 +15168,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -14901,7 +15201,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -14934,7 +15234,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -14967,7 +15267,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -15000,7 +15300,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -15033,7 +15333,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -15066,7 +15366,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -15099,7 +15399,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -15132,7 +15432,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -15165,7 +15465,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -15198,7 +15498,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -15231,7 +15531,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -15264,7 +15564,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -15297,7 +15597,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -15330,7 +15630,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -15363,7 +15663,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -15396,7 +15696,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -15429,7 +15729,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -15462,7 +15762,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -15495,7 +15795,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -15528,7 +15828,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -15561,7 +15861,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -15594,7 +15894,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -15627,7 +15927,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -15660,7 +15960,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -15693,7 +15993,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -15726,7 +16026,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -15759,7 +16059,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -15792,7 +16092,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -15825,7 +16125,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -15858,7 +16158,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -15891,7 +16191,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -15924,7 +16224,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -15957,7 +16257,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -15990,7 +16290,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -16023,7 +16323,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -16056,7 +16356,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -16089,7 +16389,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -16122,7 +16422,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -16155,7 +16455,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -16188,7 +16488,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -16221,7 +16521,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -16254,7 +16554,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -16287,7 +16587,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -16320,7 +16620,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -16353,7 +16653,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -16386,7 +16686,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -16419,7 +16719,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -16452,7 +16752,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -16485,7 +16785,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -16518,7 +16818,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -16551,7 +16851,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -16584,7 +16884,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -16617,7 +16917,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -16650,7 +16950,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -16683,7 +16983,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -16716,7 +17016,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -16749,7 +17049,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -16782,7 +17082,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -16815,7 +17115,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -16848,7 +17148,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -16881,7 +17181,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -16914,7 +17214,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -16947,7 +17247,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -16980,7 +17280,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -17013,7 +17313,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -17046,7 +17346,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -17079,7 +17379,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -17112,7 +17412,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -17145,7 +17445,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -17178,7 +17478,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -17211,7 +17511,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -17244,7 +17544,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -17277,7 +17577,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -17310,7 +17610,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -17343,7 +17643,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -17376,7 +17676,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -17409,7 +17709,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -17442,7 +17742,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -17475,7 +17775,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -17508,7 +17808,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -17541,7 +17841,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -17574,7 +17874,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -17607,7 +17907,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -17640,7 +17940,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -17673,7 +17973,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -17706,7 +18006,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -17739,7 +18039,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -17772,7 +18072,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -17805,7 +18105,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -17838,7 +18138,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -17871,7 +18171,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -17904,7 +18204,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -17937,7 +18237,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -17970,7 +18270,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -18003,7 +18303,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -18036,7 +18336,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -18069,7 +18369,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -18102,7 +18402,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -18135,7 +18435,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -18168,7 +18468,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -18201,7 +18501,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -18234,7 +18534,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -18267,7 +18567,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -18300,7 +18600,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -18333,7 +18633,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -18366,7 +18666,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -18399,7 +18699,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -18432,7 +18732,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -18465,7 +18765,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -18498,7 +18798,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -18531,7 +18831,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -18564,7 +18864,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -18597,7 +18897,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -18630,7 +18930,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -18663,7 +18963,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -18696,7 +18996,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -18729,7 +19029,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -18762,7 +19062,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -18795,7 +19095,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -18828,7 +19128,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -18861,7 +19161,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -18894,7 +19194,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -18927,7 +19227,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -18960,7 +19260,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -18993,7 +19293,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -19026,7 +19326,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -19059,7 +19359,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -19092,7 +19392,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -19125,7 +19425,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -19158,7 +19458,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -19191,7 +19491,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -19224,7 +19524,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -19257,7 +19557,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -19290,7 +19590,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -19323,7 +19623,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -19356,7 +19656,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -19389,7 +19689,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -19422,7 +19722,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -19455,7 +19755,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -19488,7 +19788,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -19521,7 +19821,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -19554,7 +19854,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -19587,7 +19887,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -19620,7 +19920,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -19653,7 +19953,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -19686,7 +19986,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -19719,7 +20019,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -19752,7 +20052,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -19785,7 +20085,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -19818,7 +20118,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -19851,7 +20151,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -19884,7 +20184,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -19917,7 +20217,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -19950,7 +20250,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -19983,7 +20283,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -20016,7 +20316,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -20049,7 +20349,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -20082,7 +20382,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -20115,7 +20415,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -20148,7 +20448,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -20181,7 +20481,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -20214,7 +20514,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -20247,7 +20547,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -20280,7 +20580,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -20313,7 +20613,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -20346,7 +20646,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -20379,7 +20679,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -20412,7 +20712,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -20445,7 +20745,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -20478,7 +20778,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -20511,7 +20811,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -20544,7 +20844,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -20577,7 +20877,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -20610,7 +20910,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -20643,7 +20943,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -20676,7 +20976,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -20709,7 +21009,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -20742,7 +21042,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -20775,7 +21075,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -20808,7 +21108,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -20841,7 +21141,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -20874,7 +21174,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -20907,7 +21207,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -20940,7 +21240,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -20973,7 +21273,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -21006,7 +21306,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -21039,7 +21339,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -21072,7 +21372,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -21105,7 +21405,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -21138,7 +21438,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -21171,7 +21471,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -21204,7 +21504,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -21237,7 +21537,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -21270,7 +21570,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -21303,7 +21603,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -21336,7 +21636,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -21369,7 +21669,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -21402,7 +21702,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -21435,7 +21735,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -21468,7 +21768,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -21501,7 +21801,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -21534,7 +21834,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -21567,7 +21867,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -21600,7 +21900,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -21633,7 +21933,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -21666,7 +21966,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -21699,7 +21999,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -21732,7 +22032,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -21765,7 +22065,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -21798,7 +22098,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -21831,7 +22131,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -21864,7 +22164,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -21897,7 +22197,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -21930,7 +22230,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -21963,7 +22263,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -21996,7 +22296,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -22029,7 +22329,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -22062,7 +22362,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -22095,7 +22395,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -22128,7 +22428,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -22161,7 +22461,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -22194,7 +22494,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -22227,7 +22527,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -22260,7 +22560,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -22293,7 +22593,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -22326,7 +22626,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -22359,7 +22659,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -22392,7 +22692,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -22425,7 +22725,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -22458,7 +22758,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -22491,7 +22791,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -22524,7 +22824,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -22557,7 +22857,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -22590,7 +22890,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -22623,7 +22923,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -22656,7 +22956,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -22689,7 +22989,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -22722,7 +23022,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -22755,7 +23055,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -22788,7 +23088,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -22821,7 +23121,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -22854,7 +23154,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -22887,7 +23187,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -22920,7 +23220,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -22953,7 +23253,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -22986,7 +23286,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -23019,7 +23319,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -23052,7 +23352,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -23085,7 +23385,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -23118,7 +23418,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -23151,7 +23451,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -23184,7 +23484,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -23217,7 +23517,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -23250,7 +23550,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -23283,7 +23583,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -23316,7 +23616,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -23349,7 +23649,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -23382,7 +23682,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -23415,7 +23715,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -23448,7 +23748,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -23481,7 +23781,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -23514,7 +23814,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -23547,7 +23847,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -23580,7 +23880,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -23613,7 +23913,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -23646,7 +23946,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -23679,7 +23979,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -23712,7 +24012,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -23745,7 +24045,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -23778,7 +24078,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -23811,7 +24111,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -23844,7 +24144,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -23877,7 +24177,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -23910,7 +24210,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -23943,7 +24243,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -23976,7 +24276,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -24009,7 +24309,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -24042,7 +24342,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -24075,7 +24375,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -24108,7 +24408,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -24141,7 +24441,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -24174,7 +24474,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -24207,7 +24507,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -24240,7 +24540,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -24273,7 +24573,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>615</v>
+        <v>672</v>
       </c>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -24306,7 +24606,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -24339,7 +24639,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -24372,7 +24672,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -24405,7 +24705,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -24438,7 +24738,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -24471,7 +24771,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -24504,7 +24804,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -24537,7 +24837,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -24570,7 +24870,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -24603,7 +24903,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -24636,7 +24936,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -24669,7 +24969,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -24702,7 +25002,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -24735,7 +25035,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -24768,7 +25068,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -24801,7 +25101,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -24834,7 +25134,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -24867,7 +25167,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -24900,7 +25200,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -24933,7 +25233,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -24966,7 +25266,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>636</v>
+        <v>693</v>
       </c>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -24999,7 +25299,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -25032,7 +25332,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -25065,7 +25365,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -25098,7 +25398,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -25131,7 +25431,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -25164,7 +25464,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -25197,7 +25497,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -25230,7 +25530,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -25263,7 +25563,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -25296,7 +25596,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -25329,7 +25629,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -25362,7 +25662,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -25395,7 +25695,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>649</v>
+        <v>706</v>
       </c>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -25428,7 +25728,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>650</v>
+        <v>707</v>
       </c>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -25461,7 +25761,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -25494,7 +25794,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -25527,7 +25827,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -25560,7 +25860,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>654</v>
+        <v>711</v>
       </c>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -25593,7 +25893,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -25626,7 +25926,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -25659,7 +25959,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -25692,7 +25992,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -25725,7 +26025,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -25758,7 +26058,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -25791,7 +26091,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -25824,7 +26124,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -25857,7 +26157,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -25890,7 +26190,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -25923,7 +26223,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -25956,7 +26256,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -25989,7 +26289,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -26022,7 +26322,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -26055,7 +26355,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -26088,7 +26388,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -26121,7 +26421,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -26154,7 +26454,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -26187,7 +26487,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -26220,7 +26520,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -26253,7 +26553,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -26286,7 +26586,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -26319,7 +26619,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -26352,7 +26652,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -26385,7 +26685,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -26418,7 +26718,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>680</v>
+        <v>737</v>
       </c>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -26451,7 +26751,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -26484,7 +26784,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -26517,7 +26817,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -26550,7 +26850,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -26583,7 +26883,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -26616,7 +26916,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -26649,7 +26949,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -26682,7 +26982,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -26715,7 +27015,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -26748,7 +27048,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -26781,7 +27081,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -26814,7 +27114,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -26847,7 +27147,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -26880,7 +27180,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>694</v>
+        <v>751</v>
       </c>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -26913,7 +27213,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -26946,7 +27246,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -26979,7 +27279,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>697</v>
+        <v>754</v>
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -27012,7 +27312,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>698</v>
+        <v>755</v>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -27045,7 +27345,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -27078,7 +27378,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -27111,7 +27411,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -27144,7 +27444,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -27177,7 +27477,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>703</v>
+        <v>760</v>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -27210,7 +27510,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>704</v>
+        <v>761</v>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -27243,7 +27543,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -27276,7 +27576,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -27309,7 +27609,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -27342,7 +27642,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -27375,7 +27675,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -27408,7 +27708,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -27441,7 +27741,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -27474,7 +27774,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -27507,7 +27807,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -27540,7 +27840,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -27573,7 +27873,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -27606,7 +27906,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -27639,7 +27939,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -27672,7 +27972,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -27705,7 +28005,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -27738,7 +28038,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -27771,7 +28071,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -27804,7 +28104,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -27837,7 +28137,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -27870,7 +28170,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -27903,7 +28203,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>725</v>
+        <v>782</v>
       </c>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -27936,7 +28236,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>726</v>
+        <v>783</v>
       </c>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -27969,7 +28269,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>727</v>
+        <v>784</v>
       </c>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -28002,7 +28302,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>728</v>
+        <v>785</v>
       </c>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -28035,7 +28335,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>729</v>
+        <v>786</v>
       </c>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -28068,7 +28368,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>730</v>
+        <v>787</v>
       </c>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -28101,7 +28401,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -28134,7 +28434,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>732</v>
+        <v>789</v>
       </c>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -28167,7 +28467,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>733</v>
+        <v>790</v>
       </c>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -28200,7 +28500,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>734</v>
+        <v>791</v>
       </c>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -28233,7 +28533,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>735</v>
+        <v>792</v>
       </c>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -28266,7 +28566,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>736</v>
+        <v>793</v>
       </c>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -28299,7 +28599,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>737</v>
+        <v>794</v>
       </c>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -28332,7 +28632,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>738</v>
+        <v>795</v>
       </c>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -28365,7 +28665,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>739</v>
+        <v>796</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -28398,7 +28698,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -28431,7 +28731,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -28464,7 +28764,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -28497,7 +28797,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -28530,7 +28830,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -28563,7 +28863,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>745</v>
+        <v>802</v>
       </c>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -28596,7 +28896,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -28629,7 +28929,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>747</v>
+        <v>804</v>
       </c>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -28662,7 +28962,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>748</v>
+        <v>805</v>
       </c>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -28695,7 +28995,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -28728,7 +29028,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>750</v>
+        <v>807</v>
       </c>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -28761,7 +29061,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>751</v>
+        <v>808</v>
       </c>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -28794,7 +29094,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -28827,7 +29127,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -28860,7 +29160,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -28893,7 +29193,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -28926,7 +29226,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -28959,7 +29259,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -28992,7 +29292,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -29025,7 +29325,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -29058,7 +29358,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -29091,7 +29391,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>761</v>
+        <v>818</v>
       </c>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -29124,7 +29424,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -29157,7 +29457,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -29190,7 +29490,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -29223,7 +29523,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -29256,7 +29556,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -29289,7 +29589,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -29322,7 +29622,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -29355,7 +29655,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>769</v>
+        <v>826</v>
       </c>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -29388,7 +29688,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -29421,7 +29721,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -29454,7 +29754,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>772</v>
+        <v>829</v>
       </c>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -29487,7 +29787,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -29520,7 +29820,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>774</v>
+        <v>831</v>
       </c>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -29553,7 +29853,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>775</v>
+        <v>832</v>
       </c>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -29586,7 +29886,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>776</v>
+        <v>833</v>
       </c>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -29619,7 +29919,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -29652,7 +29952,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>778</v>
+        <v>835</v>
       </c>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -29685,7 +29985,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>779</v>
+        <v>836</v>
       </c>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -29718,7 +30018,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>780</v>
+        <v>837</v>
       </c>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -29751,7 +30051,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -29784,7 +30084,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -29817,7 +30117,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>783</v>
+        <v>840</v>
       </c>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -29850,7 +30150,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -29883,7 +30183,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>785</v>
+        <v>842</v>
       </c>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -29916,7 +30216,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -29949,7 +30249,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -29982,7 +30282,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -30015,7 +30315,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -30048,7 +30348,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -30081,7 +30381,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -30114,7 +30414,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -30147,7 +30447,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -30180,7 +30480,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>794</v>
+        <v>851</v>
       </c>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -30213,7 +30513,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -30246,7 +30546,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -30279,7 +30579,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>797</v>
+        <v>854</v>
       </c>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -30312,7 +30612,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -30345,7 +30645,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -30378,7 +30678,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -30411,7 +30711,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -30444,7 +30744,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -30477,7 +30777,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -30510,7 +30810,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -30543,7 +30843,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -30576,7 +30876,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -30609,7 +30909,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -30642,7 +30942,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -30675,7 +30975,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -30708,7 +31008,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -30741,7 +31041,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -30774,7 +31074,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -30807,7 +31107,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -30840,7 +31140,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -30873,7 +31173,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -30906,7 +31206,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>816</v>
+        <v>873</v>
       </c>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -30939,7 +31239,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -30972,7 +31272,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -31005,7 +31305,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -31038,7 +31338,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -31071,7 +31371,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -31104,7 +31404,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>822</v>
+        <v>879</v>
       </c>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -31137,7 +31437,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -31170,7 +31470,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -31203,7 +31503,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -31236,7 +31536,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -31269,7 +31569,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>827</v>
+        <v>884</v>
       </c>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -31302,7 +31602,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>828</v>
+        <v>885</v>
       </c>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -31335,7 +31635,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>829</v>
+        <v>886</v>
       </c>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -31368,7 +31668,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -31401,7 +31701,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>831</v>
+        <v>888</v>
       </c>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -31434,7 +31734,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -31467,7 +31767,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -31500,7 +31800,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -31533,7 +31833,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -31566,7 +31866,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -31599,7 +31899,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -31632,7 +31932,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>838</v>
+        <v>895</v>
       </c>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -31665,7 +31965,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -31698,7 +31998,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>840</v>
+        <v>897</v>
       </c>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -31731,7 +32031,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>841</v>
+        <v>898</v>
       </c>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -31764,7 +32064,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>842</v>
+        <v>899</v>
       </c>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -31797,7 +32097,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -31830,7 +32130,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>844</v>
+        <v>901</v>
       </c>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -31863,7 +32163,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -31896,7 +32196,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>846</v>
+        <v>903</v>
       </c>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -31929,7 +32229,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -31962,7 +32262,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -31995,7 +32295,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -32028,7 +32328,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -32061,7 +32361,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -32094,7 +32394,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>852</v>
+        <v>909</v>
       </c>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -32127,7 +32427,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -32160,7 +32460,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>854</v>
+        <v>911</v>
       </c>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -32193,7 +32493,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -32226,7 +32526,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -32259,7 +32559,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -32292,7 +32592,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -32325,7 +32625,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -32358,7 +32658,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -32391,7 +32691,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -32424,7 +32724,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>862</v>
+        <v>919</v>
       </c>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -32457,7 +32757,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>863</v>
+        <v>920</v>
       </c>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -32490,7 +32790,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>864</v>
+        <v>921</v>
       </c>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -32523,7 +32823,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>865</v>
+        <v>922</v>
       </c>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -32556,7 +32856,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -32589,7 +32889,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>867</v>
+        <v>924</v>
       </c>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -32622,7 +32922,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>868</v>
+        <v>925</v>
       </c>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -32655,7 +32955,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>869</v>
+        <v>926</v>
       </c>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -32688,7 +32988,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>870</v>
+        <v>927</v>
       </c>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -32721,7 +33021,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -32754,7 +33054,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>872</v>
+        <v>929</v>
       </c>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -32787,7 +33087,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>873</v>
+        <v>930</v>
       </c>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -32820,7 +33120,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>874</v>
+        <v>931</v>
       </c>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -32853,7 +33153,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -32886,7 +33186,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>876</v>
+        <v>933</v>
       </c>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -32919,7 +33219,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>877</v>
+        <v>934</v>
       </c>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -32952,7 +33252,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>878</v>
+        <v>935</v>
       </c>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -32985,7 +33285,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>879</v>
+        <v>936</v>
       </c>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -33018,7 +33318,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>880</v>
+        <v>937</v>
       </c>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -33051,7 +33351,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>881</v>
+        <v>938</v>
       </c>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -33084,7 +33384,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>882</v>
+        <v>939</v>
       </c>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -33117,7 +33417,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -33150,7 +33450,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -33183,7 +33483,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>885</v>
+        <v>942</v>
       </c>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -33216,7 +33516,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>886</v>
+        <v>943</v>
       </c>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
@@ -33249,7 +33549,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>887</v>
+        <v>944</v>
       </c>
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
@@ -33282,7 +33582,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>888</v>
+        <v>945</v>
       </c>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -33315,7 +33615,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>889</v>
+        <v>946</v>
       </c>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -33348,7 +33648,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>890</v>
+        <v>947</v>
       </c>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -33381,7 +33681,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>891</v>
+        <v>948</v>
       </c>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -33414,7 +33714,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>892</v>
+        <v>949</v>
       </c>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -33447,7 +33747,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>893</v>
+        <v>950</v>
       </c>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -33480,7 +33780,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>894</v>
+        <v>951</v>
       </c>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -33513,7 +33813,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>895</v>
+        <v>952</v>
       </c>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -33546,7 +33846,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>896</v>
+        <v>953</v>
       </c>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -33579,7 +33879,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>897</v>
+        <v>954</v>
       </c>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -33612,7 +33912,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -33645,7 +33945,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>899</v>
+        <v>956</v>
       </c>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -33678,7 +33978,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>900</v>
+        <v>957</v>
       </c>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -33711,7 +34011,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>901</v>
+        <v>958</v>
       </c>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -33744,7 +34044,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>902</v>
+        <v>959</v>
       </c>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -33777,7 +34077,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>903</v>
+        <v>960</v>
       </c>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -33810,7 +34110,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>904</v>
+        <v>961</v>
       </c>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -33843,7 +34143,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>905</v>
+        <v>962</v>
       </c>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -33876,7 +34176,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>906</v>
+        <v>963</v>
       </c>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -33909,7 +34209,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>907</v>
+        <v>964</v>
       </c>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -33942,7 +34242,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>908</v>
+        <v>965</v>
       </c>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -33975,7 +34275,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>909</v>
+        <v>966</v>
       </c>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -34008,7 +34308,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>910</v>
+        <v>967</v>
       </c>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -34041,7 +34341,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>911</v>
+        <v>968</v>
       </c>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -34074,7 +34374,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>912</v>
+        <v>969</v>
       </c>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -34107,7 +34407,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>913</v>
+        <v>970</v>
       </c>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -34140,7 +34440,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
@@ -34173,7 +34473,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>915</v>
+        <v>972</v>
       </c>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -34206,7 +34506,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>916</v>
+        <v>973</v>
       </c>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -34239,7 +34539,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>917</v>
+        <v>974</v>
       </c>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -34272,7 +34572,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>918</v>
+        <v>975</v>
       </c>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -34305,7 +34605,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>919</v>
+        <v>976</v>
       </c>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -34338,7 +34638,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>920</v>
+        <v>977</v>
       </c>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -34371,7 +34671,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>921</v>
+        <v>978</v>
       </c>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -34404,7 +34704,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>922</v>
+        <v>979</v>
       </c>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -34437,7 +34737,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>923</v>
+        <v>980</v>
       </c>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -34470,7 +34770,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>924</v>
+        <v>981</v>
       </c>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -34503,7 +34803,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>925</v>
+        <v>982</v>
       </c>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -34536,7 +34836,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>926</v>
+        <v>983</v>
       </c>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -34569,7 +34869,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>927</v>
+        <v>984</v>
       </c>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -34602,7 +34902,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>928</v>
+        <v>985</v>
       </c>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -34635,7 +34935,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>929</v>
+        <v>986</v>
       </c>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -34668,7 +34968,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>930</v>
+        <v>987</v>
       </c>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -34701,7 +35001,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>931</v>
+        <v>988</v>
       </c>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -34734,7 +35034,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>932</v>
+        <v>989</v>
       </c>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -34767,7 +35067,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>933</v>
+        <v>990</v>
       </c>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -34800,7 +35100,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -34833,7 +35133,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>935</v>
+        <v>992</v>
       </c>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -34866,7 +35166,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>936</v>
+        <v>993</v>
       </c>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -34899,7 +35199,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>937</v>
+        <v>994</v>
       </c>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -34932,7 +35232,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>938</v>
+        <v>995</v>
       </c>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -34965,7 +35265,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>939</v>
+        <v>996</v>
       </c>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -34998,7 +35298,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>940</v>
+        <v>997</v>
       </c>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -35031,7 +35331,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>941</v>
+        <v>998</v>
       </c>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -35064,7 +35364,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>942</v>
+        <v>999</v>
       </c>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
@@ -35097,7 +35397,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
@@ -35130,7 +35430,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>944</v>
+        <v>1001</v>
       </c>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
@@ -35163,7 +35463,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>945</v>
+        <v>1002</v>
       </c>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
@@ -35196,7 +35496,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>946</v>
+        <v>1003</v>
       </c>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
@@ -35229,7 +35529,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>947</v>
+        <v>1004</v>
       </c>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
@@ -35262,7 +35562,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>948</v>
+        <v>1005</v>
       </c>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
@@ -35295,7 +35595,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>949</v>
+        <v>1006</v>
       </c>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
@@ -35328,7 +35628,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>950</v>
+        <v>1007</v>
       </c>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
@@ -35361,7 +35661,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>951</v>
+        <v>1008</v>
       </c>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
@@ -35394,7 +35694,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>952</v>
+        <v>1009</v>
       </c>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
@@ -35427,7 +35727,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>953</v>
+        <v>1010</v>
       </c>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
@@ -35460,7 +35760,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>954</v>
+        <v>1011</v>
       </c>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
@@ -35493,7 +35793,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>955</v>
+        <v>1012</v>
       </c>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
@@ -35526,7 +35826,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>956</v>
+        <v>1013</v>
       </c>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
@@ -35559,7 +35859,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>957</v>
+        <v>1014</v>
       </c>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
@@ -35592,7 +35892,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>958</v>
+        <v>1015</v>
       </c>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
@@ -35625,7 +35925,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>959</v>
+        <v>1016</v>
       </c>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11460"/>
+    <workbookView windowWidth="12585" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1129">
   <si>
     <t>No</t>
   </si>
@@ -236,49 +236,385 @@
     <t>ADCP</t>
   </si>
   <si>
+    <t>439000000000</t>
+  </si>
+  <si>
+    <t>809000000000</t>
+  </si>
+  <si>
+    <t>977000000000</t>
+  </si>
+  <si>
+    <t>564000000000</t>
+  </si>
+  <si>
+    <t>593000000000</t>
+  </si>
+  <si>
+    <t>652000000000</t>
+  </si>
+  <si>
+    <t>300000000000</t>
+  </si>
+  <si>
     <t>ADES</t>
   </si>
   <si>
+    <t>888000000000</t>
+  </si>
+  <si>
+    <t>814000000000</t>
+  </si>
+  <si>
+    <t>804000000000</t>
+  </si>
+  <si>
+    <t>834000000000</t>
+  </si>
+  <si>
+    <t>673000000000</t>
+  </si>
+  <si>
+    <t>935000000000</t>
+  </si>
+  <si>
+    <t>1291000000000</t>
+  </si>
+  <si>
+    <t>1525000000000</t>
+  </si>
+  <si>
+    <t>1956000000000</t>
+  </si>
+  <si>
     <t>ADHI</t>
   </si>
   <si>
+    <t>11064000000000</t>
+  </si>
+  <si>
+    <t>15156000000000</t>
+  </si>
+  <si>
+    <t>15665000000000</t>
+  </si>
+  <si>
+    <t>15308000000000</t>
+  </si>
+  <si>
+    <t>10828000000000</t>
+  </si>
+  <si>
+    <t>11530000000000</t>
+  </si>
+  <si>
+    <t>13549000000000</t>
+  </si>
+  <si>
+    <t>20073000000000</t>
+  </si>
+  <si>
+    <t>13352000000000</t>
+  </si>
+  <si>
     <t>ADMF</t>
   </si>
   <si>
+    <t>8413000000000</t>
+  </si>
+  <si>
+    <t>9137000000000</t>
+  </si>
+  <si>
+    <t>10184000000000</t>
+  </si>
+  <si>
+    <t>11338000000000</t>
+  </si>
+  <si>
+    <t>9435000000000</t>
+  </si>
+  <si>
+    <t>8653000000000</t>
+  </si>
+  <si>
+    <t>8340000000000</t>
+  </si>
+  <si>
+    <t>9508000000000</t>
+  </si>
+  <si>
+    <t>9990000000000</t>
+  </si>
+  <si>
     <t>ADMG</t>
   </si>
   <si>
+    <t>4753000000000</t>
+  </si>
+  <si>
+    <t>5082000000000</t>
+  </si>
+  <si>
+    <t>3302000000000</t>
+  </si>
+  <si>
+    <t>2226000000000</t>
+  </si>
+  <si>
+    <t>2722000000000</t>
+  </si>
+  <si>
+    <t>2124000000000</t>
+  </si>
+  <si>
+    <t>1599000000000</t>
+  </si>
+  <si>
+    <t>1738000000000</t>
+  </si>
+  <si>
     <t>ADMR</t>
   </si>
   <si>
+    <t>1745000000000</t>
+  </si>
+  <si>
+    <t>1545000000000</t>
+  </si>
+  <si>
+    <t>1797000000000</t>
+  </si>
+  <si>
+    <t>6586000000000</t>
+  </si>
+  <si>
+    <t>13509000000000</t>
+  </si>
+  <si>
+    <t>16566000000000</t>
+  </si>
+  <si>
+    <t>18294000000000</t>
+  </si>
+  <si>
     <t>ADRO</t>
   </si>
   <si>
+    <t>33591000000000</t>
+  </si>
+  <si>
+    <t>43610000000000</t>
+  </si>
+  <si>
+    <t>51580000000000</t>
+  </si>
+  <si>
+    <t>48906000000000</t>
+  </si>
+  <si>
+    <t>36950000000000</t>
+  </si>
+  <si>
+    <t>57142000000000</t>
+  </si>
+  <si>
+    <t>32574000000000</t>
+  </si>
+  <si>
+    <t>32947000000000</t>
+  </si>
+  <si>
     <t>AEGS</t>
   </si>
   <si>
     <t>AGAR</t>
   </si>
   <si>
+    <t>350000000000</t>
+  </si>
+  <si>
+    <t>381000000000</t>
+  </si>
+  <si>
+    <t>329000000000</t>
+  </si>
+  <si>
+    <t>393000000000</t>
+  </si>
+  <si>
+    <t>541000000000</t>
+  </si>
+  <si>
+    <t>438000000000</t>
+  </si>
+  <si>
+    <t>337000000000</t>
+  </si>
+  <si>
     <t>AGII</t>
   </si>
   <si>
+    <t>1651000000000</t>
+  </si>
+  <si>
+    <t>1838000000000</t>
+  </si>
+  <si>
+    <t>2703000000000</t>
+  </si>
+  <si>
+    <t>2204000000000</t>
+  </si>
+  <si>
+    <t>2188000000000</t>
+  </si>
+  <si>
+    <t>2739000000000</t>
+  </si>
+  <si>
+    <t>2612000000000</t>
+  </si>
+  <si>
+    <t>2823000000000</t>
+  </si>
+  <si>
+    <t>2908000000000</t>
+  </si>
+  <si>
     <t>AGRO</t>
   </si>
   <si>
+    <t>965000000000</t>
+  </si>
+  <si>
+    <t>1252000000000</t>
+  </si>
+  <si>
+    <t>1664000000000</t>
+  </si>
+  <si>
+    <t>2055000000000</t>
+  </si>
+  <si>
+    <t>1932000000000</t>
+  </si>
+  <si>
+    <t>1647000000000</t>
+  </si>
+  <si>
+    <t>1030000000000</t>
+  </si>
+  <si>
+    <t>891000000000</t>
+  </si>
+  <si>
+    <t>1045000000000</t>
+  </si>
+  <si>
     <t>AGRS</t>
   </si>
   <si>
+    <t>375000000000</t>
+  </si>
+  <si>
+    <t>359000000000</t>
+  </si>
+  <si>
+    <t>344000000000</t>
+  </si>
+  <si>
+    <t>540000000000</t>
+  </si>
+  <si>
+    <t>432000000000</t>
+  </si>
+  <si>
+    <t>544000000000</t>
+  </si>
+  <si>
+    <t>787000000000</t>
+  </si>
+  <si>
+    <t>1264000000000</t>
+  </si>
+  <si>
+    <t>1369000000000</t>
+  </si>
+  <si>
     <t>AHAP</t>
   </si>
   <si>
+    <t>224000000000</t>
+  </si>
+  <si>
+    <t>173000000000</t>
+  </si>
+  <si>
+    <t>147000000000</t>
+  </si>
+  <si>
+    <t>116000000000</t>
+  </si>
+  <si>
+    <t>141000000000</t>
+  </si>
+  <si>
+    <t>203000000000</t>
+  </si>
+  <si>
+    <t>244000000000</t>
+  </si>
+  <si>
+    <t>274000000000</t>
+  </si>
+  <si>
+    <t>285000000000</t>
+  </si>
+  <si>
     <t>AIMS</t>
   </si>
   <si>
     <t>AISA</t>
   </si>
   <si>
+    <t>6546000000000</t>
+  </si>
+  <si>
+    <t>1951000000000</t>
+  </si>
+  <si>
+    <t>1583000000000</t>
+  </si>
+  <si>
+    <t>1510000000000</t>
+  </si>
+  <si>
+    <t>1283000000000</t>
+  </si>
+  <si>
+    <t>1521000000000</t>
+  </si>
+  <si>
+    <t>1844000000000</t>
+  </si>
+  <si>
+    <t>1704000000000</t>
+  </si>
+  <si>
+    <t>1921000000000</t>
+  </si>
+  <si>
     <t>AKKU</t>
+  </si>
+  <si>
+    <t>101000000000</t>
+  </si>
+  <si>
+    <t>107000000000</t>
+  </si>
+  <si>
+    <t>208000000000</t>
   </si>
   <si>
     <t>AKPI</t>
@@ -4089,8 +4425,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4099,8 +4435,9 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="43" width="5.375" customWidth="1"/>
+    <col min="10" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="43" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:51">
@@ -4498,31 +4835,31 @@
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="1"/>
@@ -4645,13 +4982,27 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4674,17 +5025,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4707,17 +5076,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4740,17 +5127,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4773,17 +5178,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4806,17 +5229,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4839,17 +5276,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="1">
+        <v>120531</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4872,17 +5327,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="2">
+        <v>17000000000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>28000000000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30000000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>29000000000</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4905,17 +5368,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4938,17 +5415,35 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4971,18 +5466,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -5004,17 +5516,35 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -5037,17 +5567,35 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -5070,17 +5618,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3000000000</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="G23" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>39000000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>33000000000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -5103,17 +5665,35 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -5136,17 +5716,35 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1">
+        <v>17000000000</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="1">
+        <v>22000000000</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7000000000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9000000000</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -5169,7 +5767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5202,7 +5800,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5235,7 +5833,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5268,7 +5866,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5301,7 +5899,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5334,7 +5932,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5367,7 +5965,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5400,7 +5998,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5433,7 +6031,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5466,7 +6064,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5499,7 +6097,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5532,7 +6130,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5565,7 +6163,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5598,7 +6196,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5631,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5664,7 +6262,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5697,7 +6295,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5730,7 +6328,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5763,7 +6361,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5796,7 +6394,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5829,7 +6427,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5862,7 +6460,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5895,7 +6493,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5928,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5961,7 +6559,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5994,7 +6592,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6027,7 +6625,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6060,7 +6658,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6093,7 +6691,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6126,7 +6724,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6159,7 +6757,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6192,7 +6790,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6225,7 +6823,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6258,7 +6856,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6291,7 +6889,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6324,7 +6922,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6357,7 +6955,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6390,7 +6988,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6423,7 +7021,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6456,7 +7054,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6489,7 +7087,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6522,7 +7120,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6555,7 +7153,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6588,7 +7186,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6621,7 +7219,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6654,7 +7252,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6687,7 +7285,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6720,7 +7318,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6753,7 +7351,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6786,7 +7384,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6819,7 +7417,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6852,7 +7450,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6885,7 +7483,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6918,7 +7516,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6951,7 +7549,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6984,7 +7582,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -7017,7 +7615,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -7050,7 +7648,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7083,7 +7681,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -7116,7 +7714,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -7149,7 +7747,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7182,7 +7780,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -7215,7 +7813,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7248,7 +7846,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7281,7 +7879,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7314,7 +7912,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7347,7 +7945,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7380,7 +7978,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7413,7 +8011,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7446,7 +8044,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7479,7 +8077,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7512,7 +8110,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7545,7 +8143,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7578,7 +8176,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7611,7 +8209,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7644,7 +8242,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7677,7 +8275,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7710,7 +8308,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7743,7 +8341,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7776,7 +8374,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7809,7 +8407,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7842,7 +8440,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7875,7 +8473,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7908,7 +8506,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7941,7 +8539,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7974,7 +8572,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -8007,7 +8605,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -8040,7 +8638,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -8073,7 +8671,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -8106,7 +8704,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -8139,7 +8737,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -8172,7 +8770,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -8205,7 +8803,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -8238,7 +8836,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -8271,7 +8869,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8304,7 +8902,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8337,7 +8935,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8370,7 +8968,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8403,7 +9001,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8436,7 +9034,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8469,7 +9067,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8502,7 +9100,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8535,7 +9133,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8568,7 +9166,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8601,7 +9199,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8634,7 +9232,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8667,7 +9265,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8700,7 +9298,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8733,7 +9331,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8766,7 +9364,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8799,7 +9397,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8832,7 +9430,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8865,7 +9463,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8898,7 +9496,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8931,7 +9529,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8964,7 +9562,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8997,7 +9595,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9030,7 +9628,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9063,7 +9661,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -9096,7 +9694,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9129,7 +9727,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -9162,7 +9760,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -9195,7 +9793,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -9228,7 +9826,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -9261,7 +9859,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -9294,7 +9892,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9327,7 +9925,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9360,7 +9958,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9393,7 +9991,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9426,7 +10024,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9459,7 +10057,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9492,7 +10090,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9525,7 +10123,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9558,7 +10156,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9591,7 +10189,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9624,7 +10222,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9657,7 +10255,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9690,7 +10288,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9723,7 +10321,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9756,7 +10354,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9789,7 +10387,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9822,7 +10420,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9855,7 +10453,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9888,7 +10486,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9921,7 +10519,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9954,7 +10552,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9987,7 +10585,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -10020,7 +10618,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -10053,7 +10651,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10086,7 +10684,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10119,7 +10717,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10152,7 +10750,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10185,7 +10783,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10218,7 +10816,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10251,7 +10849,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10284,7 +10882,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10317,7 +10915,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10350,7 +10948,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10383,7 +10981,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10416,7 +11014,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10449,7 +11047,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10482,7 +11080,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10515,7 +11113,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10548,7 +11146,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10581,7 +11179,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10614,7 +11212,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>249</v>
+        <v>361</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10647,7 +11245,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10680,7 +11278,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10713,7 +11311,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -10746,7 +11344,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -10779,7 +11377,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -10812,7 +11410,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -10845,7 +11443,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -10878,7 +11476,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -10911,7 +11509,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>258</v>
+        <v>370</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -10944,7 +11542,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -10977,7 +11575,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -11010,7 +11608,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -11043,7 +11641,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -11076,7 +11674,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -11109,7 +11707,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -11142,7 +11740,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -11175,7 +11773,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -11208,7 +11806,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -11241,7 +11839,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -11274,7 +11872,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11307,7 +11905,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11340,7 +11938,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11373,7 +11971,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -11406,7 +12004,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -11439,7 +12037,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -11472,7 +12070,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -11505,7 +12103,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -11538,7 +12136,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -11571,7 +12169,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -11604,7 +12202,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -11637,7 +12235,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -11670,7 +12268,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -11703,7 +12301,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -11736,7 +12334,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -11769,7 +12367,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -11802,7 +12400,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -11835,7 +12433,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -11868,7 +12466,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -11901,7 +12499,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -11934,7 +12532,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -11967,7 +12565,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -12000,7 +12598,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -12033,7 +12631,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -12066,7 +12664,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -12099,7 +12697,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -12132,7 +12730,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -12165,7 +12763,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -12198,7 +12796,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -12231,7 +12829,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -12264,7 +12862,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>299</v>
+        <v>411</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -12297,7 +12895,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -12330,7 +12928,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>301</v>
+        <v>413</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -12363,7 +12961,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>302</v>
+        <v>414</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -12396,7 +12994,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>303</v>
+        <v>415</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -12429,7 +13027,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -12462,7 +13060,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -12495,7 +13093,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>306</v>
+        <v>418</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -12528,7 +13126,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -12561,7 +13159,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -12594,7 +13192,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>309</v>
+        <v>421</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -12627,7 +13225,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>310</v>
+        <v>422</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -12660,7 +13258,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -12693,7 +13291,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -12726,7 +13324,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -12759,7 +13357,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -12792,7 +13390,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>315</v>
+        <v>427</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -12825,7 +13423,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>316</v>
+        <v>428</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -12858,7 +13456,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>317</v>
+        <v>429</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -12891,7 +13489,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -12924,7 +13522,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -12957,7 +13555,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -12990,7 +13588,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -13023,7 +13621,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -13056,7 +13654,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -13089,7 +13687,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -13122,7 +13720,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>325</v>
+        <v>437</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -13155,7 +13753,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -13188,7 +13786,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>327</v>
+        <v>439</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -13221,7 +13819,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -13254,7 +13852,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -13287,7 +13885,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -13320,7 +13918,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>331</v>
+        <v>443</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -13353,7 +13951,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -13386,7 +13984,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -13419,7 +14017,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -13452,7 +14050,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>335</v>
+        <v>447</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -13485,7 +14083,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -13518,7 +14116,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -13551,7 +14149,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -13584,7 +14182,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -13617,7 +14215,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>340</v>
+        <v>452</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -13650,7 +14248,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -13683,7 +14281,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>342</v>
+        <v>454</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -13716,7 +14314,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -13749,7 +14347,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -13782,7 +14380,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -13815,7 +14413,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -13848,7 +14446,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -13881,7 +14479,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -13914,7 +14512,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -13947,7 +14545,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -13980,7 +14578,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>351</v>
+        <v>463</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -14013,7 +14611,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -14046,7 +14644,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>353</v>
+        <v>465</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -14079,7 +14677,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>354</v>
+        <v>466</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -14112,7 +14710,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -14145,7 +14743,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>356</v>
+        <v>468</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -14178,7 +14776,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>357</v>
+        <v>469</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -14211,7 +14809,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -14244,7 +14842,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -14277,7 +14875,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -14310,7 +14908,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>361</v>
+        <v>473</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -14343,7 +14941,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -14376,7 +14974,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -14409,7 +15007,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -14442,7 +15040,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>365</v>
+        <v>477</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -14475,7 +15073,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>366</v>
+        <v>478</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -14508,7 +15106,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -14541,7 +15139,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>368</v>
+        <v>480</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -14574,7 +15172,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>369</v>
+        <v>481</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -14607,7 +15205,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>370</v>
+        <v>482</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -14640,7 +15238,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>371</v>
+        <v>483</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -14673,7 +15271,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>372</v>
+        <v>484</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -14706,7 +15304,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>373</v>
+        <v>485</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -14739,7 +15337,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>374</v>
+        <v>486</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -14772,7 +15370,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -14805,7 +15403,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -14838,7 +15436,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>377</v>
+        <v>489</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -14871,7 +15469,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -14904,7 +15502,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>379</v>
+        <v>491</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -14937,7 +15535,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -14970,7 +15568,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>381</v>
+        <v>493</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -15003,7 +15601,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -15036,7 +15634,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -15069,7 +15667,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -15102,7 +15700,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>385</v>
+        <v>497</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -15135,7 +15733,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -15168,7 +15766,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -15201,7 +15799,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>388</v>
+        <v>500</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -15234,7 +15832,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>389</v>
+        <v>501</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -15267,7 +15865,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>390</v>
+        <v>502</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -15300,7 +15898,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>391</v>
+        <v>503</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -15333,7 +15931,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -15366,7 +15964,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -15399,7 +15997,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -15432,7 +16030,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>395</v>
+        <v>507</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -15465,7 +16063,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -15498,7 +16096,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -15531,7 +16129,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -15564,7 +16162,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -15597,7 +16195,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -15630,7 +16228,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -15663,7 +16261,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -15696,7 +16294,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -15729,7 +16327,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -15762,7 +16360,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -15795,7 +16393,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>406</v>
+        <v>518</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -15828,7 +16426,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -15861,7 +16459,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>408</v>
+        <v>520</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -15894,7 +16492,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -15927,7 +16525,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>410</v>
+        <v>522</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -15960,7 +16558,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -15993,7 +16591,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>412</v>
+        <v>524</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -16026,7 +16624,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>413</v>
+        <v>525</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -16059,7 +16657,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>414</v>
+        <v>526</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -16092,7 +16690,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>415</v>
+        <v>527</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -16125,7 +16723,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -16158,7 +16756,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -16191,7 +16789,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -16224,7 +16822,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -16257,7 +16855,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -16290,7 +16888,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -16323,7 +16921,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>422</v>
+        <v>534</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -16356,7 +16954,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>423</v>
+        <v>535</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -16389,7 +16987,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -16422,7 +17020,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>425</v>
+        <v>537</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -16455,7 +17053,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>426</v>
+        <v>538</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -16488,7 +17086,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -16521,7 +17119,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>428</v>
+        <v>540</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -16554,7 +17152,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>429</v>
+        <v>541</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -16587,7 +17185,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>430</v>
+        <v>542</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -16620,7 +17218,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>431</v>
+        <v>543</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -16653,7 +17251,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>432</v>
+        <v>544</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -16686,7 +17284,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>433</v>
+        <v>545</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -16719,7 +17317,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>434</v>
+        <v>546</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -16752,7 +17350,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>435</v>
+        <v>547</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -16785,7 +17383,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -16818,7 +17416,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>437</v>
+        <v>549</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -16851,7 +17449,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>438</v>
+        <v>550</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -16884,7 +17482,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>439</v>
+        <v>551</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -16917,7 +17515,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>440</v>
+        <v>552</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -16950,7 +17548,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -16983,7 +17581,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>442</v>
+        <v>554</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -17016,7 +17614,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>443</v>
+        <v>555</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -17049,7 +17647,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -17082,7 +17680,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -17115,7 +17713,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>446</v>
+        <v>558</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -17148,7 +17746,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>447</v>
+        <v>559</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -17181,7 +17779,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>448</v>
+        <v>560</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -17214,7 +17812,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>449</v>
+        <v>561</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -17247,7 +17845,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -17280,7 +17878,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>451</v>
+        <v>563</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -17313,7 +17911,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>452</v>
+        <v>564</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -17346,7 +17944,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>453</v>
+        <v>565</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -17379,7 +17977,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>454</v>
+        <v>566</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -17412,7 +18010,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>455</v>
+        <v>567</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -17445,7 +18043,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>456</v>
+        <v>568</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -17478,7 +18076,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>457</v>
+        <v>569</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -17511,7 +18109,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>458</v>
+        <v>570</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -17544,7 +18142,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>459</v>
+        <v>571</v>
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -17577,7 +18175,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>460</v>
+        <v>572</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -17610,7 +18208,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>461</v>
+        <v>573</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -17643,7 +18241,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>462</v>
+        <v>574</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -17676,7 +18274,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -17709,7 +18307,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>464</v>
+        <v>576</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -17742,7 +18340,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -17775,7 +18373,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>466</v>
+        <v>578</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -17808,7 +18406,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>467</v>
+        <v>579</v>
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -17841,7 +18439,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>468</v>
+        <v>580</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -17874,7 +18472,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -17907,7 +18505,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>470</v>
+        <v>582</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -17940,7 +18538,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -17973,7 +18571,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -18006,7 +18604,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>473</v>
+        <v>585</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -18039,7 +18637,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>474</v>
+        <v>586</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -18072,7 +18670,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>475</v>
+        <v>587</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -18105,7 +18703,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -18138,7 +18736,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -18171,7 +18769,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>478</v>
+        <v>590</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -18204,7 +18802,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -18237,7 +18835,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>480</v>
+        <v>592</v>
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -18270,7 +18868,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>481</v>
+        <v>593</v>
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -18303,7 +18901,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>482</v>
+        <v>594</v>
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -18336,7 +18934,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>483</v>
+        <v>595</v>
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -18369,7 +18967,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>484</v>
+        <v>596</v>
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -18402,7 +19000,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -18435,7 +19033,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>486</v>
+        <v>598</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -18468,7 +19066,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>487</v>
+        <v>599</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -18501,7 +19099,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>488</v>
+        <v>600</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -18534,7 +19132,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>489</v>
+        <v>601</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -18567,7 +19165,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -18600,7 +19198,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>491</v>
+        <v>603</v>
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -18633,7 +19231,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>492</v>
+        <v>604</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -18666,7 +19264,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>493</v>
+        <v>605</v>
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -18699,7 +19297,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -18732,7 +19330,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>495</v>
+        <v>607</v>
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -18765,7 +19363,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -18798,7 +19396,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -18831,7 +19429,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>498</v>
+        <v>610</v>
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -18864,7 +19462,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>499</v>
+        <v>611</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -18897,7 +19495,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -18930,7 +19528,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>501</v>
+        <v>613</v>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -18963,7 +19561,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>502</v>
+        <v>614</v>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -18996,7 +19594,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>503</v>
+        <v>615</v>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -19029,7 +19627,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>504</v>
+        <v>616</v>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -19062,7 +19660,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -19095,7 +19693,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>506</v>
+        <v>618</v>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -19128,7 +19726,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>507</v>
+        <v>619</v>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -19161,7 +19759,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>508</v>
+        <v>620</v>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -19194,7 +19792,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>509</v>
+        <v>621</v>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -19227,7 +19825,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>510</v>
+        <v>622</v>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -19260,7 +19858,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>511</v>
+        <v>623</v>
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -19293,7 +19891,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>512</v>
+        <v>624</v>
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -19326,7 +19924,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>513</v>
+        <v>625</v>
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -19359,7 +19957,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>514</v>
+        <v>626</v>
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -19392,7 +19990,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>515</v>
+        <v>627</v>
       </c>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -19425,7 +20023,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>516</v>
+        <v>628</v>
       </c>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -19458,7 +20056,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>517</v>
+        <v>629</v>
       </c>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -19491,7 +20089,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>518</v>
+        <v>630</v>
       </c>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -19524,7 +20122,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -19557,7 +20155,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>520</v>
+        <v>632</v>
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -19590,7 +20188,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>521</v>
+        <v>633</v>
       </c>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -19623,7 +20221,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -19656,7 +20254,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>523</v>
+        <v>635</v>
       </c>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -19689,7 +20287,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -19722,7 +20320,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>525</v>
+        <v>637</v>
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -19755,7 +20353,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>526</v>
+        <v>638</v>
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -19788,7 +20386,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>527</v>
+        <v>639</v>
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -19821,7 +20419,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -19854,7 +20452,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>529</v>
+        <v>641</v>
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -19887,7 +20485,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -19920,7 +20518,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>531</v>
+        <v>643</v>
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -19953,7 +20551,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -19986,7 +20584,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>533</v>
+        <v>645</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -20019,7 +20617,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>534</v>
+        <v>646</v>
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -20052,7 +20650,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>535</v>
+        <v>647</v>
       </c>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -20085,7 +20683,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -20118,7 +20716,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -20151,7 +20749,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>538</v>
+        <v>650</v>
       </c>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -20184,7 +20782,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>539</v>
+        <v>651</v>
       </c>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -20217,7 +20815,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>540</v>
+        <v>652</v>
       </c>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -20250,7 +20848,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>541</v>
+        <v>653</v>
       </c>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -20283,7 +20881,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>542</v>
+        <v>654</v>
       </c>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -20316,7 +20914,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>543</v>
+        <v>655</v>
       </c>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -20349,7 +20947,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>544</v>
+        <v>656</v>
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -20382,7 +20980,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>545</v>
+        <v>657</v>
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -20415,7 +21013,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>546</v>
+        <v>658</v>
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -20448,7 +21046,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>547</v>
+        <v>659</v>
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -20481,7 +21079,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>548</v>
+        <v>660</v>
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -20514,7 +21112,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>549</v>
+        <v>661</v>
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -20547,7 +21145,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>550</v>
+        <v>662</v>
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -20580,7 +21178,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>551</v>
+        <v>663</v>
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -20613,7 +21211,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -20646,7 +21244,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>553</v>
+        <v>665</v>
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -20679,7 +21277,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>554</v>
+        <v>666</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -20712,7 +21310,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>555</v>
+        <v>667</v>
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -20745,7 +21343,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>556</v>
+        <v>668</v>
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -20778,7 +21376,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>557</v>
+        <v>669</v>
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -20811,7 +21409,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>558</v>
+        <v>670</v>
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -20844,7 +21442,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>559</v>
+        <v>671</v>
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -20877,7 +21475,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -20910,7 +21508,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>561</v>
+        <v>673</v>
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -20943,7 +21541,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>562</v>
+        <v>674</v>
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -20976,7 +21574,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -21009,7 +21607,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>564</v>
+        <v>676</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -21042,7 +21640,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>565</v>
+        <v>677</v>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -21075,7 +21673,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>566</v>
+        <v>678</v>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -21108,7 +21706,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>567</v>
+        <v>679</v>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -21141,7 +21739,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -21174,7 +21772,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>569</v>
+        <v>681</v>
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -21207,7 +21805,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>570</v>
+        <v>682</v>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -21240,7 +21838,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>571</v>
+        <v>683</v>
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -21273,7 +21871,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>572</v>
+        <v>684</v>
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -21306,7 +21904,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>573</v>
+        <v>685</v>
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -21339,7 +21937,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>574</v>
+        <v>686</v>
       </c>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -21372,7 +21970,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>575</v>
+        <v>687</v>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -21405,7 +22003,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -21438,7 +22036,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -21471,7 +22069,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>578</v>
+        <v>690</v>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -21504,7 +22102,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>579</v>
+        <v>691</v>
       </c>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -21537,7 +22135,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -21570,7 +22168,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -21603,7 +22201,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>582</v>
+        <v>694</v>
       </c>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -21636,7 +22234,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>583</v>
+        <v>695</v>
       </c>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -21669,7 +22267,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>584</v>
+        <v>696</v>
       </c>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -21702,7 +22300,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>585</v>
+        <v>697</v>
       </c>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -21735,7 +22333,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>586</v>
+        <v>698</v>
       </c>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -21768,7 +22366,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>587</v>
+        <v>699</v>
       </c>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -21801,7 +22399,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>588</v>
+        <v>700</v>
       </c>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -21834,7 +22432,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>589</v>
+        <v>701</v>
       </c>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -21867,7 +22465,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>590</v>
+        <v>702</v>
       </c>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -21900,7 +22498,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>591</v>
+        <v>703</v>
       </c>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -21933,7 +22531,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>592</v>
+        <v>704</v>
       </c>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -21966,7 +22564,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>593</v>
+        <v>705</v>
       </c>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -21999,7 +22597,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>594</v>
+        <v>706</v>
       </c>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -22032,7 +22630,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>595</v>
+        <v>707</v>
       </c>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -22065,7 +22663,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>596</v>
+        <v>708</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -22098,7 +22696,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>597</v>
+        <v>709</v>
       </c>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -22131,7 +22729,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>598</v>
+        <v>710</v>
       </c>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -22164,7 +22762,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>599</v>
+        <v>711</v>
       </c>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -22197,7 +22795,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>600</v>
+        <v>712</v>
       </c>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -22230,7 +22828,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>601</v>
+        <v>713</v>
       </c>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -22263,7 +22861,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>602</v>
+        <v>714</v>
       </c>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -22296,7 +22894,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>603</v>
+        <v>715</v>
       </c>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -22329,7 +22927,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>604</v>
+        <v>716</v>
       </c>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -22362,7 +22960,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>605</v>
+        <v>717</v>
       </c>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -22395,7 +22993,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -22428,7 +23026,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>607</v>
+        <v>719</v>
       </c>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -22461,7 +23059,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -22494,7 +23092,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>609</v>
+        <v>721</v>
       </c>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -22527,7 +23125,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>610</v>
+        <v>722</v>
       </c>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -22560,7 +23158,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>611</v>
+        <v>723</v>
       </c>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -22593,7 +23191,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>612</v>
+        <v>724</v>
       </c>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -22626,7 +23224,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>613</v>
+        <v>725</v>
       </c>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -22659,7 +23257,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>614</v>
+        <v>726</v>
       </c>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -22692,7 +23290,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>615</v>
+        <v>727</v>
       </c>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -22725,7 +23323,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>616</v>
+        <v>728</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -22758,7 +23356,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>617</v>
+        <v>729</v>
       </c>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -22791,7 +23389,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>618</v>
+        <v>730</v>
       </c>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -22824,7 +23422,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>619</v>
+        <v>731</v>
       </c>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -22857,7 +23455,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>620</v>
+        <v>732</v>
       </c>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -22890,7 +23488,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>621</v>
+        <v>733</v>
       </c>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -22923,7 +23521,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>622</v>
+        <v>734</v>
       </c>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -22956,7 +23554,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>623</v>
+        <v>735</v>
       </c>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -22989,7 +23587,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>624</v>
+        <v>736</v>
       </c>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -23022,7 +23620,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>625</v>
+        <v>737</v>
       </c>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -23055,7 +23653,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>626</v>
+        <v>738</v>
       </c>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -23088,7 +23686,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>627</v>
+        <v>739</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -23121,7 +23719,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>628</v>
+        <v>740</v>
       </c>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -23154,7 +23752,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -23187,7 +23785,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -23220,7 +23818,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>631</v>
+        <v>743</v>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -23253,7 +23851,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>632</v>
+        <v>744</v>
       </c>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -23286,7 +23884,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>633</v>
+        <v>745</v>
       </c>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -23319,7 +23917,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>634</v>
+        <v>746</v>
       </c>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -23352,7 +23950,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>635</v>
+        <v>747</v>
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -23385,7 +23983,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>636</v>
+        <v>748</v>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -23418,7 +24016,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>637</v>
+        <v>749</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -23451,7 +24049,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -23484,7 +24082,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>639</v>
+        <v>751</v>
       </c>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -23517,7 +24115,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>640</v>
+        <v>752</v>
       </c>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -23550,7 +24148,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -23583,7 +24181,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>642</v>
+        <v>754</v>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -23616,7 +24214,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>643</v>
+        <v>755</v>
       </c>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -23649,7 +24247,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -23682,7 +24280,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>645</v>
+        <v>757</v>
       </c>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -23715,7 +24313,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -23748,7 +24346,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>647</v>
+        <v>759</v>
       </c>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -23781,7 +24379,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>648</v>
+        <v>760</v>
       </c>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -23814,7 +24412,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>649</v>
+        <v>761</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -23847,7 +24445,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>650</v>
+        <v>762</v>
       </c>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -23880,7 +24478,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>651</v>
+        <v>763</v>
       </c>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -23913,7 +24511,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>652</v>
+        <v>764</v>
       </c>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -23946,7 +24544,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>653</v>
+        <v>765</v>
       </c>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -23979,7 +24577,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>654</v>
+        <v>766</v>
       </c>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -24012,7 +24610,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>655</v>
+        <v>767</v>
       </c>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -24045,7 +24643,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -24078,7 +24676,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>657</v>
+        <v>769</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -24111,7 +24709,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>658</v>
+        <v>770</v>
       </c>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -24144,7 +24742,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>659</v>
+        <v>771</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -24177,7 +24775,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>660</v>
+        <v>772</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -24210,7 +24808,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>661</v>
+        <v>773</v>
       </c>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -24243,7 +24841,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>662</v>
+        <v>774</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -24276,7 +24874,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>663</v>
+        <v>775</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -24309,7 +24907,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>664</v>
+        <v>776</v>
       </c>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -24342,7 +24940,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>665</v>
+        <v>777</v>
       </c>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -24375,7 +24973,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>666</v>
+        <v>778</v>
       </c>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -24408,7 +25006,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>667</v>
+        <v>779</v>
       </c>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -24441,7 +25039,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>668</v>
+        <v>780</v>
       </c>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -24474,7 +25072,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>669</v>
+        <v>781</v>
       </c>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -24507,7 +25105,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>670</v>
+        <v>782</v>
       </c>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -24540,7 +25138,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>671</v>
+        <v>783</v>
       </c>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -24573,7 +25171,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>672</v>
+        <v>784</v>
       </c>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -24606,7 +25204,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>673</v>
+        <v>785</v>
       </c>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -24639,7 +25237,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>674</v>
+        <v>786</v>
       </c>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -24672,7 +25270,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -24705,7 +25303,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>676</v>
+        <v>788</v>
       </c>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -24738,7 +25336,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>677</v>
+        <v>789</v>
       </c>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -24771,7 +25369,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>678</v>
+        <v>790</v>
       </c>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -24804,7 +25402,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>679</v>
+        <v>791</v>
       </c>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -24837,7 +25435,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>680</v>
+        <v>792</v>
       </c>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -24870,7 +25468,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>681</v>
+        <v>793</v>
       </c>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -24903,7 +25501,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>682</v>
+        <v>794</v>
       </c>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -24936,7 +25534,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>683</v>
+        <v>795</v>
       </c>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -24969,7 +25567,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>684</v>
+        <v>796</v>
       </c>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -25002,7 +25600,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>685</v>
+        <v>797</v>
       </c>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -25035,7 +25633,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>686</v>
+        <v>798</v>
       </c>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -25068,7 +25666,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>687</v>
+        <v>799</v>
       </c>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -25101,7 +25699,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -25134,7 +25732,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>689</v>
+        <v>801</v>
       </c>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -25167,7 +25765,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -25200,7 +25798,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>691</v>
+        <v>803</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -25233,7 +25831,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>692</v>
+        <v>804</v>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -25266,7 +25864,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>693</v>
+        <v>805</v>
       </c>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -25299,7 +25897,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>694</v>
+        <v>806</v>
       </c>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -25332,7 +25930,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>695</v>
+        <v>807</v>
       </c>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -25365,7 +25963,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>696</v>
+        <v>808</v>
       </c>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -25398,7 +25996,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>697</v>
+        <v>809</v>
       </c>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -25431,7 +26029,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>698</v>
+        <v>810</v>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -25464,7 +26062,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>699</v>
+        <v>811</v>
       </c>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -25497,7 +26095,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>700</v>
+        <v>812</v>
       </c>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -25530,7 +26128,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>701</v>
+        <v>813</v>
       </c>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -25563,7 +26161,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>702</v>
+        <v>814</v>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -25596,7 +26194,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>703</v>
+        <v>815</v>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -25629,7 +26227,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>704</v>
+        <v>816</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -25662,7 +26260,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>705</v>
+        <v>817</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -25695,7 +26293,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>706</v>
+        <v>818</v>
       </c>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -25728,7 +26326,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>707</v>
+        <v>819</v>
       </c>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -25761,7 +26359,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>708</v>
+        <v>820</v>
       </c>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -25794,7 +26392,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>709</v>
+        <v>821</v>
       </c>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -25827,7 +26425,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -25860,7 +26458,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>711</v>
+        <v>823</v>
       </c>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -25893,7 +26491,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>712</v>
+        <v>824</v>
       </c>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -25926,7 +26524,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>713</v>
+        <v>825</v>
       </c>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -25959,7 +26557,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>714</v>
+        <v>826</v>
       </c>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -25992,7 +26590,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>715</v>
+        <v>827</v>
       </c>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -26025,7 +26623,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>716</v>
+        <v>828</v>
       </c>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -26058,7 +26656,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>717</v>
+        <v>829</v>
       </c>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -26091,7 +26689,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>718</v>
+        <v>830</v>
       </c>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -26124,7 +26722,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>719</v>
+        <v>831</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -26157,7 +26755,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>720</v>
+        <v>832</v>
       </c>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -26190,7 +26788,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>721</v>
+        <v>833</v>
       </c>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -26223,7 +26821,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -26256,7 +26854,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>723</v>
+        <v>835</v>
       </c>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -26289,7 +26887,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>724</v>
+        <v>836</v>
       </c>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -26322,7 +26920,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -26355,7 +26953,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>726</v>
+        <v>838</v>
       </c>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -26388,7 +26986,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>727</v>
+        <v>839</v>
       </c>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -26421,7 +27019,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>728</v>
+        <v>840</v>
       </c>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -26454,7 +27052,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>729</v>
+        <v>841</v>
       </c>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -26487,7 +27085,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>730</v>
+        <v>842</v>
       </c>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -26520,7 +27118,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>731</v>
+        <v>843</v>
       </c>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -26553,7 +27151,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>732</v>
+        <v>844</v>
       </c>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -26586,7 +27184,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>733</v>
+        <v>845</v>
       </c>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -26619,7 +27217,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>734</v>
+        <v>846</v>
       </c>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -26652,7 +27250,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>735</v>
+        <v>847</v>
       </c>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -26685,7 +27283,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>736</v>
+        <v>848</v>
       </c>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -26718,7 +27316,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>737</v>
+        <v>849</v>
       </c>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -26751,7 +27349,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>738</v>
+        <v>850</v>
       </c>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -26784,7 +27382,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -26817,7 +27415,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>740</v>
+        <v>852</v>
       </c>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -26850,7 +27448,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>741</v>
+        <v>853</v>
       </c>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -26883,7 +27481,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>742</v>
+        <v>854</v>
       </c>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -26916,7 +27514,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -26949,7 +27547,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>744</v>
+        <v>856</v>
       </c>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -26982,7 +27580,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>745</v>
+        <v>857</v>
       </c>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -27015,7 +27613,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>746</v>
+        <v>858</v>
       </c>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -27048,7 +27646,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>747</v>
+        <v>859</v>
       </c>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -27081,7 +27679,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>748</v>
+        <v>860</v>
       </c>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -27114,7 +27712,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>749</v>
+        <v>861</v>
       </c>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -27147,7 +27745,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>750</v>
+        <v>862</v>
       </c>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -27180,7 +27778,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>751</v>
+        <v>863</v>
       </c>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -27213,7 +27811,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>752</v>
+        <v>864</v>
       </c>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -27246,7 +27844,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>753</v>
+        <v>865</v>
       </c>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -27279,7 +27877,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>754</v>
+        <v>866</v>
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -27312,7 +27910,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>755</v>
+        <v>867</v>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -27345,7 +27943,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>756</v>
+        <v>868</v>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -27378,7 +27976,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>757</v>
+        <v>869</v>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -27411,7 +28009,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>758</v>
+        <v>870</v>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -27444,7 +28042,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>759</v>
+        <v>871</v>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -27477,7 +28075,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>760</v>
+        <v>872</v>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -27510,7 +28108,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>761</v>
+        <v>873</v>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -27543,7 +28141,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>762</v>
+        <v>874</v>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -27576,7 +28174,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>763</v>
+        <v>875</v>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -27609,7 +28207,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>764</v>
+        <v>876</v>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -27642,7 +28240,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>765</v>
+        <v>877</v>
       </c>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -27675,7 +28273,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>766</v>
+        <v>878</v>
       </c>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -27708,7 +28306,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>767</v>
+        <v>879</v>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -27741,7 +28339,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>768</v>
+        <v>880</v>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -27774,7 +28372,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>769</v>
+        <v>881</v>
       </c>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -27807,7 +28405,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>770</v>
+        <v>882</v>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -27840,7 +28438,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>771</v>
+        <v>883</v>
       </c>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -27873,7 +28471,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>772</v>
+        <v>884</v>
       </c>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -27906,7 +28504,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>773</v>
+        <v>885</v>
       </c>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -27939,7 +28537,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -27972,7 +28570,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>775</v>
+        <v>887</v>
       </c>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -28005,7 +28603,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>776</v>
+        <v>888</v>
       </c>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -28038,7 +28636,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>777</v>
+        <v>889</v>
       </c>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -28071,7 +28669,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>778</v>
+        <v>890</v>
       </c>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -28104,7 +28702,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>779</v>
+        <v>891</v>
       </c>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -28137,7 +28735,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>780</v>
+        <v>892</v>
       </c>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -28170,7 +28768,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>781</v>
+        <v>893</v>
       </c>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -28203,7 +28801,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>782</v>
+        <v>894</v>
       </c>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -28236,7 +28834,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -28269,7 +28867,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>784</v>
+        <v>896</v>
       </c>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -28302,7 +28900,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>785</v>
+        <v>897</v>
       </c>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -28335,7 +28933,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>786</v>
+        <v>898</v>
       </c>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -28368,7 +28966,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>787</v>
+        <v>899</v>
       </c>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -28401,7 +28999,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>788</v>
+        <v>900</v>
       </c>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -28434,7 +29032,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>789</v>
+        <v>901</v>
       </c>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -28467,7 +29065,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -28500,7 +29098,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>791</v>
+        <v>903</v>
       </c>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -28533,7 +29131,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>792</v>
+        <v>904</v>
       </c>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -28566,7 +29164,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>793</v>
+        <v>905</v>
       </c>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -28599,7 +29197,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>794</v>
+        <v>906</v>
       </c>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -28632,7 +29230,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>795</v>
+        <v>907</v>
       </c>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -28665,7 +29263,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -28698,7 +29296,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>797</v>
+        <v>909</v>
       </c>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -28731,7 +29329,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>798</v>
+        <v>910</v>
       </c>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -28764,7 +29362,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>799</v>
+        <v>911</v>
       </c>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -28797,7 +29395,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -28830,7 +29428,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -28863,7 +29461,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -28896,7 +29494,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -28929,7 +29527,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -28962,7 +29560,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -28995,7 +29593,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -29028,7 +29626,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -29061,7 +29659,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>808</v>
+        <v>920</v>
       </c>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -29094,7 +29692,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>809</v>
+        <v>921</v>
       </c>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -29127,7 +29725,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>810</v>
+        <v>922</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -29160,7 +29758,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>811</v>
+        <v>923</v>
       </c>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -29193,7 +29791,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>812</v>
+        <v>924</v>
       </c>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -29226,7 +29824,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>813</v>
+        <v>925</v>
       </c>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -29259,7 +29857,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>814</v>
+        <v>926</v>
       </c>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -29292,7 +29890,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>815</v>
+        <v>927</v>
       </c>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -29325,7 +29923,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -29358,7 +29956,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>817</v>
+        <v>929</v>
       </c>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -29391,7 +29989,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>818</v>
+        <v>930</v>
       </c>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -29424,7 +30022,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -29457,7 +30055,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -29490,7 +30088,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -29523,7 +30121,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -29556,7 +30154,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -29589,7 +30187,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>824</v>
+        <v>936</v>
       </c>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -29622,7 +30220,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -29655,7 +30253,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>826</v>
+        <v>938</v>
       </c>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -29688,7 +30286,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>827</v>
+        <v>939</v>
       </c>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -29721,7 +30319,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>828</v>
+        <v>940</v>
       </c>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -29754,7 +30352,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -29787,7 +30385,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -29820,7 +30418,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>831</v>
+        <v>943</v>
       </c>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -29853,7 +30451,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>832</v>
+        <v>944</v>
       </c>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -29886,7 +30484,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>833</v>
+        <v>945</v>
       </c>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -29919,7 +30517,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>834</v>
+        <v>946</v>
       </c>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -29952,7 +30550,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>835</v>
+        <v>947</v>
       </c>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -29985,7 +30583,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>836</v>
+        <v>948</v>
       </c>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -30018,7 +30616,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>837</v>
+        <v>949</v>
       </c>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -30051,7 +30649,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>838</v>
+        <v>950</v>
       </c>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -30084,7 +30682,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>839</v>
+        <v>951</v>
       </c>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -30117,7 +30715,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>840</v>
+        <v>952</v>
       </c>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -30150,7 +30748,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>841</v>
+        <v>953</v>
       </c>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -30183,7 +30781,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>842</v>
+        <v>954</v>
       </c>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -30216,7 +30814,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>843</v>
+        <v>955</v>
       </c>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -30249,7 +30847,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -30282,7 +30880,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -30315,7 +30913,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -30348,7 +30946,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -30381,7 +30979,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -30414,7 +31012,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>849</v>
+        <v>961</v>
       </c>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -30447,7 +31045,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>850</v>
+        <v>962</v>
       </c>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -30480,7 +31078,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>851</v>
+        <v>963</v>
       </c>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -30513,7 +31111,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>852</v>
+        <v>964</v>
       </c>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -30546,7 +31144,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>853</v>
+        <v>965</v>
       </c>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -30579,7 +31177,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>854</v>
+        <v>966</v>
       </c>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -30612,7 +31210,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>855</v>
+        <v>967</v>
       </c>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -30645,7 +31243,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>856</v>
+        <v>968</v>
       </c>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -30678,7 +31276,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>857</v>
+        <v>969</v>
       </c>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -30711,7 +31309,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -30744,7 +31342,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -30777,7 +31375,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>860</v>
+        <v>972</v>
       </c>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -30810,7 +31408,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -30843,7 +31441,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -30876,7 +31474,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>863</v>
+        <v>975</v>
       </c>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -30909,7 +31507,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -30942,7 +31540,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -30975,7 +31573,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>866</v>
+        <v>978</v>
       </c>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -31008,7 +31606,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>867</v>
+        <v>979</v>
       </c>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -31041,7 +31639,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -31074,7 +31672,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>869</v>
+        <v>981</v>
       </c>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -31107,7 +31705,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>870</v>
+        <v>982</v>
       </c>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -31140,7 +31738,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>871</v>
+        <v>983</v>
       </c>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -31173,7 +31771,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>872</v>
+        <v>984</v>
       </c>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -31206,7 +31804,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>873</v>
+        <v>985</v>
       </c>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -31239,7 +31837,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>874</v>
+        <v>986</v>
       </c>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -31272,7 +31870,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>875</v>
+        <v>987</v>
       </c>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -31305,7 +31903,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>876</v>
+        <v>988</v>
       </c>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -31338,7 +31936,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>877</v>
+        <v>989</v>
       </c>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -31371,7 +31969,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>878</v>
+        <v>990</v>
       </c>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -31404,7 +32002,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>879</v>
+        <v>991</v>
       </c>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -31437,7 +32035,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>880</v>
+        <v>992</v>
       </c>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -31470,7 +32068,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>881</v>
+        <v>993</v>
       </c>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -31503,7 +32101,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>882</v>
+        <v>994</v>
       </c>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -31536,7 +32134,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>883</v>
+        <v>995</v>
       </c>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -31569,7 +32167,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>884</v>
+        <v>996</v>
       </c>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -31602,7 +32200,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>885</v>
+        <v>997</v>
       </c>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -31635,7 +32233,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>886</v>
+        <v>998</v>
       </c>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -31668,7 +32266,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>887</v>
+        <v>999</v>
       </c>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -31701,7 +32299,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -31734,7 +32332,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>889</v>
+        <v>1001</v>
       </c>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -31767,7 +32365,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>890</v>
+        <v>1002</v>
       </c>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -31800,7 +32398,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>891</v>
+        <v>1003</v>
       </c>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -31833,7 +32431,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>892</v>
+        <v>1004</v>
       </c>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -31866,7 +32464,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>893</v>
+        <v>1005</v>
       </c>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -31899,7 +32497,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>894</v>
+        <v>1006</v>
       </c>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -31932,7 +32530,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>895</v>
+        <v>1007</v>
       </c>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -31965,7 +32563,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>896</v>
+        <v>1008</v>
       </c>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -31998,7 +32596,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>897</v>
+        <v>1009</v>
       </c>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -32031,7 +32629,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>898</v>
+        <v>1010</v>
       </c>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -32064,7 +32662,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>899</v>
+        <v>1011</v>
       </c>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -32097,7 +32695,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>900</v>
+        <v>1012</v>
       </c>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -32130,7 +32728,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>901</v>
+        <v>1013</v>
       </c>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -32163,7 +32761,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>902</v>
+        <v>1014</v>
       </c>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -32196,7 +32794,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>903</v>
+        <v>1015</v>
       </c>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -32229,7 +32827,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>904</v>
+        <v>1016</v>
       </c>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -32262,7 +32860,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>905</v>
+        <v>1017</v>
       </c>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -32295,7 +32893,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>906</v>
+        <v>1018</v>
       </c>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -32328,7 +32926,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>907</v>
+        <v>1019</v>
       </c>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -32361,7 +32959,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>908</v>
+        <v>1020</v>
       </c>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -32394,7 +32992,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>909</v>
+        <v>1021</v>
       </c>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -32427,7 +33025,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>910</v>
+        <v>1022</v>
       </c>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -32460,7 +33058,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>911</v>
+        <v>1023</v>
       </c>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -32493,7 +33091,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>912</v>
+        <v>1024</v>
       </c>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -32526,7 +33124,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>913</v>
+        <v>1025</v>
       </c>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -32559,7 +33157,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>914</v>
+        <v>1026</v>
       </c>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -32592,7 +33190,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>915</v>
+        <v>1027</v>
       </c>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -32625,7 +33223,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>916</v>
+        <v>1028</v>
       </c>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -32658,7 +33256,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>917</v>
+        <v>1029</v>
       </c>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -32691,7 +33289,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>918</v>
+        <v>1030</v>
       </c>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -32724,7 +33322,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>919</v>
+        <v>1031</v>
       </c>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -32757,7 +33355,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>920</v>
+        <v>1032</v>
       </c>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -32790,7 +33388,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>921</v>
+        <v>1033</v>
       </c>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -32823,7 +33421,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>922</v>
+        <v>1034</v>
       </c>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -32856,7 +33454,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>923</v>
+        <v>1035</v>
       </c>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -32889,7 +33487,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>924</v>
+        <v>1036</v>
       </c>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -32922,7 +33520,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>925</v>
+        <v>1037</v>
       </c>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -32955,7 +33553,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>926</v>
+        <v>1038</v>
       </c>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -32988,7 +33586,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>927</v>
+        <v>1039</v>
       </c>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -33021,7 +33619,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>928</v>
+        <v>1040</v>
       </c>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -33054,7 +33652,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -33087,7 +33685,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -33120,7 +33718,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>931</v>
+        <v>1043</v>
       </c>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -33153,7 +33751,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>932</v>
+        <v>1044</v>
       </c>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -33186,7 +33784,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>933</v>
+        <v>1045</v>
       </c>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -33219,7 +33817,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>934</v>
+        <v>1046</v>
       </c>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -33252,7 +33850,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>935</v>
+        <v>1047</v>
       </c>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -33285,7 +33883,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>936</v>
+        <v>1048</v>
       </c>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -33318,7 +33916,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>937</v>
+        <v>1049</v>
       </c>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -33351,7 +33949,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>938</v>
+        <v>1050</v>
       </c>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -33384,7 +33982,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>939</v>
+        <v>1051</v>
       </c>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -33417,7 +34015,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>940</v>
+        <v>1052</v>
       </c>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -33450,7 +34048,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>941</v>
+        <v>1053</v>
       </c>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -33483,7 +34081,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>942</v>
+        <v>1054</v>
       </c>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -33516,7 +34114,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>943</v>
+        <v>1055</v>
       </c>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
@@ -33549,7 +34147,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
@@ -33582,7 +34180,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>945</v>
+        <v>1057</v>
       </c>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -33615,7 +34213,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>946</v>
+        <v>1058</v>
       </c>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -33648,7 +34246,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>947</v>
+        <v>1059</v>
       </c>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -33681,7 +34279,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>948</v>
+        <v>1060</v>
       </c>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -33714,7 +34312,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>949</v>
+        <v>1061</v>
       </c>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -33747,7 +34345,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>950</v>
+        <v>1062</v>
       </c>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -33780,7 +34378,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>951</v>
+        <v>1063</v>
       </c>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -33813,7 +34411,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>952</v>
+        <v>1064</v>
       </c>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -33846,7 +34444,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>953</v>
+        <v>1065</v>
       </c>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -33879,7 +34477,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>954</v>
+        <v>1066</v>
       </c>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -33912,7 +34510,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>955</v>
+        <v>1067</v>
       </c>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -33945,7 +34543,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>956</v>
+        <v>1068</v>
       </c>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -33978,7 +34576,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>957</v>
+        <v>1069</v>
       </c>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -34011,7 +34609,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>958</v>
+        <v>1070</v>
       </c>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -34044,7 +34642,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>959</v>
+        <v>1071</v>
       </c>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -34077,7 +34675,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>960</v>
+        <v>1072</v>
       </c>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -34110,7 +34708,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>961</v>
+        <v>1073</v>
       </c>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -34143,7 +34741,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>962</v>
+        <v>1074</v>
       </c>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -34176,7 +34774,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>963</v>
+        <v>1075</v>
       </c>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -34209,7 +34807,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>964</v>
+        <v>1076</v>
       </c>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -34242,7 +34840,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>965</v>
+        <v>1077</v>
       </c>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -34275,7 +34873,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>966</v>
+        <v>1078</v>
       </c>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -34308,7 +34906,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>967</v>
+        <v>1079</v>
       </c>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -34341,7 +34939,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>968</v>
+        <v>1080</v>
       </c>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -34374,7 +34972,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>969</v>
+        <v>1081</v>
       </c>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -34407,7 +35005,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>970</v>
+        <v>1082</v>
       </c>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -34440,7 +35038,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>971</v>
+        <v>1083</v>
       </c>
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
@@ -34473,7 +35071,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>972</v>
+        <v>1084</v>
       </c>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -34506,7 +35104,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>973</v>
+        <v>1085</v>
       </c>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -34539,7 +35137,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>974</v>
+        <v>1086</v>
       </c>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -34572,7 +35170,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>975</v>
+        <v>1087</v>
       </c>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -34605,7 +35203,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>976</v>
+        <v>1088</v>
       </c>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -34638,7 +35236,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>977</v>
+        <v>1089</v>
       </c>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -34671,7 +35269,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>978</v>
+        <v>1090</v>
       </c>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -34704,7 +35302,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>979</v>
+        <v>1091</v>
       </c>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -34737,7 +35335,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>980</v>
+        <v>1092</v>
       </c>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -34770,7 +35368,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>981</v>
+        <v>1093</v>
       </c>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -34803,7 +35401,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>982</v>
+        <v>1094</v>
       </c>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -34836,7 +35434,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>983</v>
+        <v>1095</v>
       </c>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -34869,7 +35467,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>984</v>
+        <v>1096</v>
       </c>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -34902,7 +35500,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>985</v>
+        <v>1097</v>
       </c>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -34935,7 +35533,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>986</v>
+        <v>1098</v>
       </c>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -34968,7 +35566,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>987</v>
+        <v>1099</v>
       </c>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -35001,7 +35599,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>988</v>
+        <v>1100</v>
       </c>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -35034,7 +35632,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>989</v>
+        <v>1101</v>
       </c>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -35067,7 +35665,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>990</v>
+        <v>1102</v>
       </c>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -35100,7 +35698,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>991</v>
+        <v>1103</v>
       </c>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -35133,7 +35731,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>992</v>
+        <v>1104</v>
       </c>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -35166,7 +35764,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>993</v>
+        <v>1105</v>
       </c>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -35199,7 +35797,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>994</v>
+        <v>1106</v>
       </c>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -35232,7 +35830,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>995</v>
+        <v>1107</v>
       </c>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -35265,7 +35863,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>996</v>
+        <v>1108</v>
       </c>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -35298,7 +35896,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>997</v>
+        <v>1109</v>
       </c>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -35331,7 +35929,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>998</v>
+        <v>1110</v>
       </c>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -35364,7 +35962,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>999</v>
+        <v>1111</v>
       </c>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
@@ -35397,7 +35995,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>1000</v>
+        <v>1112</v>
       </c>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
@@ -35430,7 +36028,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>1001</v>
+        <v>1113</v>
       </c>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
@@ -35463,7 +36061,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>1002</v>
+        <v>1114</v>
       </c>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
@@ -35496,7 +36094,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>1003</v>
+        <v>1115</v>
       </c>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
@@ -35529,7 +36127,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>1004</v>
+        <v>1116</v>
       </c>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
@@ -35562,7 +36160,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>1005</v>
+        <v>1117</v>
       </c>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
@@ -35595,7 +36193,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>1006</v>
+        <v>1118</v>
       </c>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
@@ -35628,7 +36226,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>1007</v>
+        <v>1119</v>
       </c>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
@@ -35661,7 +36259,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>1008</v>
+        <v>1120</v>
       </c>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
@@ -35694,7 +36292,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>1009</v>
+        <v>1121</v>
       </c>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
@@ -35727,7 +36325,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>1010</v>
+        <v>1122</v>
       </c>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
@@ -35760,7 +36358,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>1011</v>
+        <v>1123</v>
       </c>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
@@ -35793,7 +36391,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>1012</v>
+        <v>1124</v>
       </c>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
@@ -35826,7 +36424,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>1013</v>
+        <v>1125</v>
       </c>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
@@ -35859,7 +36457,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>1014</v>
+        <v>1126</v>
       </c>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
@@ -35892,7 +36490,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>1015</v>
+        <v>1127</v>
       </c>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
@@ -35925,7 +36523,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1016</v>
+        <v>1128</v>
       </c>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4643,13 +4643,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5205,16 +5203,16 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -5241,31 +5239,31 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="1"/>
@@ -5292,31 +5290,31 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="1"/>
@@ -5343,31 +5341,31 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="1"/>
@@ -5394,31 +5392,31 @@
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="1"/>
@@ -5445,31 +5443,31 @@
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="1"/>
@@ -5539,31 +5537,31 @@
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L9" s="1"/>
@@ -5592,25 +5590,25 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="L10" s="1"/>
@@ -5637,31 +5635,31 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="L11" s="1"/>
@@ -5688,31 +5686,31 @@
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L12" s="1"/>
@@ -5739,31 +5737,31 @@
       <c r="B13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L13" s="1"/>
@@ -5790,31 +5788,31 @@
       <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="L14" s="1"/>
@@ -5843,25 +5841,25 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="L15" s="1"/>
@@ -5888,31 +5886,31 @@
       <c r="B16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I16" s="1">
         <v>120531</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>131</v>
       </c>
       <c r="L16" s="1"/>
@@ -5982,25 +5980,25 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>140</v>
       </c>
       <c r="L18" s="1"/>
@@ -6027,31 +6025,31 @@
       <c r="B19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>150</v>
       </c>
       <c r="L19" s="1"/>
@@ -6078,31 +6076,31 @@
       <c r="B20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>160</v>
       </c>
       <c r="M20" s="1"/>
@@ -6128,31 +6126,31 @@
       <c r="B21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>170</v>
       </c>
       <c r="L21" s="1"/>
@@ -6179,31 +6177,31 @@
       <c r="B22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>180</v>
       </c>
       <c r="L22" s="1"/>
@@ -6277,31 +6275,31 @@
       <c r="B24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>191</v>
       </c>
       <c r="L24" s="1"/>
@@ -6328,19 +6326,19 @@
       <c r="B25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D25" s="1">
         <v>17000000000</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F25" s="1">
         <v>22000000000</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H25" s="1">
@@ -6379,31 +6377,31 @@
       <c r="B26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>204</v>
       </c>
       <c r="L26" s="1"/>
@@ -6430,31 +6428,31 @@
       <c r="B27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>214</v>
       </c>
       <c r="L27" s="1"/>
@@ -6484,28 +6482,28 @@
       <c r="C28">
         <v>6000000000</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>222</v>
       </c>
       <c r="L28" s="1"/>
@@ -6532,31 +6530,31 @@
       <c r="B29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E29" s="1">
         <v>79000000000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>231</v>
       </c>
       <c r="L29" s="1"/>
@@ -6583,31 +6581,31 @@
       <c r="B30" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="1"/>
@@ -6634,28 +6632,28 @@
       <c r="B31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>241</v>
       </c>
       <c r="K31" s="1">
@@ -6685,31 +6683,31 @@
       <c r="B32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="2" t="s">
         <v>251</v>
       </c>
       <c r="L32" s="1"/>
@@ -6736,31 +6734,31 @@
       <c r="B33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>259</v>
       </c>
       <c r="L33" s="1"/>
@@ -6787,31 +6785,31 @@
       <c r="B34" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>268</v>
       </c>
       <c r="L34" s="1"/>
@@ -6847,16 +6845,16 @@
       <c r="G35" s="1">
         <v>90000000000</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>272</v>
       </c>
       <c r="L35" s="1"/>
@@ -6886,22 +6884,22 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>277</v>
       </c>
       <c r="L36" s="1"/>
@@ -6928,31 +6926,31 @@
       <c r="B37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>287</v>
       </c>
       <c r="L37" s="1"/>
@@ -6979,31 +6977,31 @@
       <c r="B38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L38" s="1"/>
@@ -7034,19 +7032,19 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>300</v>
       </c>
       <c r="L39" s="1"/>
@@ -7119,22 +7117,22 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>308</v>
       </c>
       <c r="L41" s="1"/>
@@ -7161,31 +7159,31 @@
       <c r="B42" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>318</v>
       </c>
       <c r="L42" s="1"/>
@@ -7213,28 +7211,28 @@
         <v>319</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>325</v>
       </c>
       <c r="L43" s="1"/>
@@ -7261,31 +7259,31 @@
       <c r="B44" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>334</v>
       </c>
       <c r="L44" s="1"/>
@@ -7312,31 +7310,31 @@
       <c r="B45" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="2" t="s">
         <v>344</v>
       </c>
       <c r="L45" s="1"/>
@@ -7363,31 +7361,31 @@
       <c r="B46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="2" t="s">
         <v>354</v>
       </c>
       <c r="L46" s="1"/>
@@ -7414,31 +7412,31 @@
       <c r="B47" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>363</v>
       </c>
       <c r="L47" s="1"/>
@@ -7465,31 +7463,31 @@
       <c r="B48" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>304</v>
       </c>
       <c r="L48" s="1"/>
@@ -7517,28 +7515,28 @@
         <v>372</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>379</v>
       </c>
       <c r="L49" s="1"/>
@@ -7565,31 +7563,31 @@
       <c r="B50" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>389</v>
       </c>
       <c r="L50" s="1"/>
@@ -7618,25 +7616,25 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>397</v>
       </c>
       <c r="L51" s="1"/>
@@ -7706,16 +7704,16 @@
       <c r="B53" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G53" s="1">
@@ -7727,10 +7725,10 @@
       <c r="I53" s="1">
         <v>75000000000</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="2" t="s">
         <v>403</v>
       </c>
       <c r="L53" s="1"/>
@@ -7757,31 +7755,31 @@
       <c r="B54" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>409</v>
       </c>
       <c r="L54" s="1"/>
@@ -7810,10 +7808,10 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G55" s="1">
@@ -7822,13 +7820,13 @@
       <c r="H55" s="1">
         <v>72000000000</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>414</v>
       </c>
       <c r="L55" s="1"/>
@@ -7859,19 +7857,19 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>52000000000</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="2" t="s">
         <v>418</v>
       </c>
       <c r="L56" s="1"/>
@@ -7898,16 +7896,16 @@
       <c r="B57" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>66000000000</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>89000000000</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="2" t="s">
         <v>421</v>
       </c>
       <c r="L57" s="1"/>
@@ -7934,31 +7932,31 @@
       <c r="B58" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="2" t="s">
         <v>431</v>
       </c>
       <c r="L58" s="1"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1804">
   <si>
     <t>No</t>
   </si>
@@ -2267,123 +2267,837 @@
     <t>BPII</t>
   </si>
   <si>
+    <t>245000000000</t>
+  </si>
+  <si>
+    <t>939000000000</t>
+  </si>
+  <si>
+    <t>892000000000</t>
+  </si>
+  <si>
+    <t>839000000000</t>
+  </si>
+  <si>
+    <t>971000000000</t>
+  </si>
+  <si>
+    <t>1146000000000</t>
+  </si>
+  <si>
     <t>BPTR</t>
   </si>
   <si>
+    <t>132000000000</t>
+  </si>
+  <si>
+    <t>163000000000</t>
+  </si>
+  <si>
+    <t>162000000000</t>
+  </si>
+  <si>
+    <t>212000000000</t>
+  </si>
+  <si>
+    <t>334000000000</t>
+  </si>
+  <si>
+    <t>441000000000</t>
+  </si>
+  <si>
+    <t>542000000000</t>
+  </si>
+  <si>
     <t>BRAM</t>
   </si>
   <si>
+    <t>2932000000000</t>
+  </si>
+  <si>
+    <t>3236000000000</t>
+  </si>
+  <si>
+    <t>3475000000000</t>
+  </si>
+  <si>
+    <t>2456000000000</t>
+  </si>
+  <si>
+    <t>3718000000000</t>
+  </si>
+  <si>
+    <t>4987000000000</t>
+  </si>
+  <si>
+    <t>3844000000000</t>
+  </si>
+  <si>
+    <t>3660000000000</t>
+  </si>
+  <si>
     <t>BREN</t>
   </si>
   <si>
+    <t>7589000000000</t>
+  </si>
+  <si>
+    <t>7691000000000</t>
+  </si>
+  <si>
+    <t>8746000000000</t>
+  </si>
+  <si>
+    <t>9075000000000</t>
+  </si>
+  <si>
+    <t>9460000000000</t>
+  </si>
+  <si>
     <t>BRIS</t>
   </si>
   <si>
+    <t>2817000000000</t>
+  </si>
+  <si>
+    <t>3120000000000</t>
+  </si>
+  <si>
+    <t>3375000000000</t>
+  </si>
+  <si>
+    <t>4347000000000</t>
+  </si>
+  <si>
+    <t>17808000000000</t>
+  </si>
+  <si>
+    <t>19623000000000</t>
+  </si>
+  <si>
+    <t>22252000000000</t>
+  </si>
+  <si>
+    <t>25298000000000</t>
+  </si>
+  <si>
     <t>BRMS</t>
   </si>
   <si>
+    <t>122000000000</t>
+  </si>
+  <si>
+    <t>151000000000</t>
+  </si>
+  <si>
+    <t>711000000000</t>
+  </si>
+  <si>
+    <t>2573000000000</t>
+  </si>
+  <si>
     <t>BRNA</t>
   </si>
   <si>
+    <t>1365000000000</t>
+  </si>
+  <si>
+    <t>1310000000000</t>
+  </si>
+  <si>
+    <t>1319000000000</t>
+  </si>
+  <si>
+    <t>1222000000000</t>
+  </si>
+  <si>
+    <t>1124000000000</t>
+  </si>
+  <si>
+    <t>1051000000000</t>
+  </si>
+  <si>
+    <t>1053000000000</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
     <t>BRPT</t>
   </si>
   <si>
+    <t>26100000000000</t>
+  </si>
+  <si>
+    <t>32829000000000</t>
+  </si>
+  <si>
+    <t>43826000000000</t>
+  </si>
+  <si>
+    <t>33986000000000</t>
+  </si>
+  <si>
+    <t>34025000000000</t>
+  </si>
+  <si>
+    <t>45163000000000</t>
+  </si>
+  <si>
+    <t>44056000000000</t>
+  </si>
+  <si>
+    <t>42108000000000</t>
+  </si>
+  <si>
+    <t>37834000000000</t>
+  </si>
+  <si>
     <t>BRRC</t>
   </si>
   <si>
+    <t>100000000000</t>
+  </si>
+  <si>
     <t>BSBK</t>
   </si>
   <si>
+    <t>242000000000</t>
+  </si>
+  <si>
+    <t>238000000000</t>
+  </si>
+  <si>
+    <t>347000000000</t>
+  </si>
+  <si>
+    <t>361000000000</t>
+  </si>
+  <si>
     <t>BSDE</t>
   </si>
   <si>
+    <t>6522000000000</t>
+  </si>
+  <si>
+    <t>10347000000000</t>
+  </si>
+  <si>
+    <t>6629000000000</t>
+  </si>
+  <si>
+    <t>7085000000000</t>
+  </si>
+  <si>
+    <t>6181000000000</t>
+  </si>
+  <si>
+    <t>7655000000000</t>
+  </si>
+  <si>
+    <t>10235000000000</t>
+  </si>
+  <si>
+    <t>11539000000000</t>
+  </si>
+  <si>
+    <t>13797000000000</t>
+  </si>
+  <si>
     <t>BSIM</t>
   </si>
   <si>
+    <t>2881000000000</t>
+  </si>
+  <si>
+    <t>3107000000000</t>
+  </si>
+  <si>
+    <t>3086000000000</t>
+  </si>
+  <si>
+    <t>3361000000000</t>
+  </si>
+  <si>
+    <t>3300000000000</t>
+  </si>
+  <si>
+    <t>3318000000000</t>
+  </si>
+  <si>
+    <t>3298000000000</t>
+  </si>
+  <si>
+    <t>3516000000000</t>
+  </si>
+  <si>
+    <t>3789000000000</t>
+  </si>
+  <si>
     <t>BSML</t>
   </si>
   <si>
+    <t>317000000000</t>
+  </si>
+  <si>
     <t>BSSR</t>
   </si>
   <si>
+    <t>3228000000000</t>
+  </si>
+  <si>
+    <t>5254000000000</t>
+  </si>
+  <si>
+    <t>6319000000000</t>
+  </si>
+  <si>
+    <t>4832000000000</t>
+  </si>
+  <si>
+    <t>9895000000000</t>
+  </si>
+  <si>
+    <t>17304000000000</t>
+  </si>
+  <si>
+    <t>15022000000000</t>
+  </si>
+  <si>
     <t>BSWD</t>
   </si>
   <si>
+    <t>408000000000</t>
+  </si>
+  <si>
+    <t>315000000000</t>
+  </si>
+  <si>
+    <t>288000000000</t>
+  </si>
+  <si>
+    <t>230000000000</t>
+  </si>
+  <si>
+    <t>355000000000</t>
+  </si>
+  <si>
+    <t>430000000000</t>
+  </si>
+  <si>
     <t>BTEK</t>
   </si>
   <si>
+    <t>887000000000</t>
+  </si>
+  <si>
+    <t>890000000000</t>
+  </si>
+  <si>
+    <t>698000000000</t>
+  </si>
+  <si>
+    <t>1013000000000</t>
+  </si>
+  <si>
+    <t>154000000000</t>
+  </si>
+  <si>
+    <t>636000000000</t>
+  </si>
+  <si>
     <t>BTEL</t>
   </si>
   <si>
     <t>BTON</t>
   </si>
   <si>
+    <t>117000000000</t>
+  </si>
+  <si>
+    <t>114000000000</t>
+  </si>
+  <si>
+    <t>113000000000</t>
+  </si>
+  <si>
+    <t>152000000000</t>
+  </si>
+  <si>
+    <t>140000000000</t>
+  </si>
+  <si>
+    <t>128000000000</t>
+  </si>
+  <si>
     <t>BTPN</t>
   </si>
   <si>
+    <t>13695000000000</t>
+  </si>
+  <si>
+    <t>14046000000000</t>
+  </si>
+  <si>
+    <t>14127000000000</t>
+  </si>
+  <si>
+    <t>16403000000000</t>
+  </si>
+  <si>
+    <t>14749000000000</t>
+  </si>
+  <si>
+    <t>15900000000000</t>
+  </si>
+  <si>
+    <t>18816000000000</t>
+  </si>
+  <si>
+    <t>23588000000000</t>
+  </si>
+  <si>
     <t>BTPS</t>
   </si>
   <si>
+    <t>2905000000000</t>
+  </si>
+  <si>
+    <t>3447000000000</t>
+  </si>
+  <si>
+    <t>4457000000000</t>
+  </si>
+  <si>
+    <t>4037000000000</t>
+  </si>
+  <si>
+    <t>4674000000000</t>
+  </si>
+  <si>
+    <t>5374000000000</t>
+  </si>
+  <si>
+    <t>5746000000000</t>
+  </si>
+  <si>
+    <t>5398000000000</t>
+  </si>
+  <si>
     <t>BUAH</t>
   </si>
   <si>
+    <t>1021000000000</t>
+  </si>
+  <si>
+    <t>1386000000000</t>
+  </si>
+  <si>
+    <t>1783000000000</t>
+  </si>
+  <si>
+    <t>2216000000000</t>
+  </si>
+  <si>
     <t>BUDI</t>
   </si>
   <si>
+    <t>2468000000000</t>
+  </si>
+  <si>
+    <t>2511000000000</t>
+  </si>
+  <si>
+    <t>2647000000000</t>
+  </si>
+  <si>
+    <t>3004000000000</t>
+  </si>
+  <si>
+    <t>2726000000000</t>
+  </si>
+  <si>
+    <t>3382000000000</t>
+  </si>
+  <si>
+    <t>3945000000000</t>
+  </si>
+  <si>
+    <t>4009000000000</t>
+  </si>
+  <si>
     <t>BUKA</t>
   </si>
   <si>
+    <t>292000000000</t>
+  </si>
+  <si>
+    <t>1077000000000</t>
+  </si>
+  <si>
+    <t>1352000000000</t>
+  </si>
+  <si>
+    <t>1869000000000</t>
+  </si>
+  <si>
+    <t>3618000000000</t>
+  </si>
+  <si>
+    <t>4438000000000</t>
+  </si>
+  <si>
     <t>BUKK</t>
   </si>
   <si>
+    <t>1605000000000</t>
+  </si>
+  <si>
+    <t>4681000000000</t>
+  </si>
+  <si>
+    <t>6040000000000</t>
+  </si>
+  <si>
+    <t>3982000000000</t>
+  </si>
+  <si>
+    <t>3859000000000</t>
+  </si>
+  <si>
+    <t>4147000000000</t>
+  </si>
+  <si>
+    <t>5128000000000</t>
+  </si>
+  <si>
+    <t>3646000000000</t>
+  </si>
+  <si>
     <t>BULL</t>
   </si>
   <si>
+    <t>682000000000</t>
+  </si>
+  <si>
+    <t>871000000000</t>
+  </si>
+  <si>
+    <t>1217000000000</t>
+  </si>
+  <si>
+    <t>1435000000000</t>
+  </si>
+  <si>
+    <t>2834000000000</t>
+  </si>
+  <si>
+    <t>2562000000000</t>
+  </si>
+  <si>
+    <t>1694000000000</t>
+  </si>
+  <si>
+    <t>2261000000000</t>
+  </si>
+  <si>
+    <t>2222000000000</t>
+  </si>
+  <si>
     <t>BUMI</t>
   </si>
   <si>
+    <t>311000000000</t>
+  </si>
+  <si>
+    <t>232000000000</t>
+  </si>
+  <si>
+    <t>15843000000000</t>
+  </si>
+  <si>
+    <t>15739000000000</t>
+  </si>
+  <si>
+    <t>11522000000000</t>
+  </si>
+  <si>
+    <t>14429000000000</t>
+  </si>
+  <si>
+    <t>27224000000000</t>
+  </si>
+  <si>
+    <t>25627000000000</t>
+  </si>
+  <si>
+    <t>21551000000000</t>
+  </si>
+  <si>
     <t>BUVA</t>
   </si>
   <si>
+    <t>237000000000</t>
+  </si>
+  <si>
+    <t>613000000000</t>
+  </si>
+  <si>
+    <t>371000000000</t>
+  </si>
+  <si>
     <t>BVIC</t>
   </si>
   <si>
+    <t>2161000000000</t>
+  </si>
+  <si>
+    <t>2293000000000</t>
+  </si>
+  <si>
+    <t>2280000000000</t>
+  </si>
+  <si>
+    <t>2223000000000</t>
+  </si>
+  <si>
+    <t>1791000000000</t>
+  </si>
+  <si>
+    <t>1612000000000</t>
+  </si>
+  <si>
+    <t>1705000000000</t>
+  </si>
+  <si>
+    <t>1836000000000</t>
+  </si>
+  <si>
+    <t>2076000000000</t>
+  </si>
+  <si>
     <t>BWPT</t>
   </si>
   <si>
+    <t>2542000000000</t>
+  </si>
+  <si>
+    <t>3046000000000</t>
+  </si>
+  <si>
+    <t>3083000000000</t>
+  </si>
+  <si>
+    <t>2513000000000</t>
+  </si>
+  <si>
+    <t>2199000000000</t>
+  </si>
+  <si>
+    <t>2938000000000</t>
+  </si>
+  <si>
+    <t>4574000000000</t>
+  </si>
+  <si>
+    <t>4205000000000</t>
+  </si>
+  <si>
+    <t>4303000000000</t>
+  </si>
+  <si>
     <t>BYAN</t>
   </si>
   <si>
+    <t>7392000000000</t>
+  </si>
+  <si>
+    <t>14286000000000</t>
+  </si>
+  <si>
+    <t>23893000000000</t>
+  </si>
+  <si>
+    <t>19686000000000</t>
+  </si>
+  <si>
+    <t>20336000000000</t>
+  </si>
+  <si>
+    <t>40820000000000</t>
+  </si>
+  <si>
+    <t>69971000000000</t>
+  </si>
+  <si>
+    <t>54632000000000</t>
+  </si>
+  <si>
+    <t>54662000000000</t>
+  </si>
+  <si>
     <t>CAKK</t>
   </si>
   <si>
+    <t>289000000000</t>
+  </si>
+  <si>
+    <t>270000000000</t>
+  </si>
+  <si>
     <t>CAMP</t>
   </si>
   <si>
+    <t>931000000000</t>
+  </si>
+  <si>
+    <t>945000000000</t>
+  </si>
+  <si>
+    <t>961000000000</t>
+  </si>
+  <si>
+    <t>1029000000000</t>
+  </si>
+  <si>
+    <t>957000000000</t>
+  </si>
+  <si>
+    <t>1019000000000</t>
+  </si>
+  <si>
+    <t>1129000000000</t>
+  </si>
+  <si>
+    <t>1136000000000</t>
+  </si>
+  <si>
+    <t>1158000000000</t>
+  </si>
+  <si>
     <t>CANI</t>
   </si>
   <si>
+    <t>127000000000</t>
+  </si>
+  <si>
     <t>CARE</t>
   </si>
   <si>
+    <t>216000000000</t>
+  </si>
+  <si>
+    <t>234000000000</t>
+  </si>
+  <si>
     <t>CARS</t>
   </si>
   <si>
+    <t>7202000000000</t>
+  </si>
+  <si>
+    <t>8268000000000</t>
+  </si>
+  <si>
+    <t>7459000000000</t>
+  </si>
+  <si>
+    <t>4153000000000</t>
+  </si>
+  <si>
+    <t>5295000000000</t>
+  </si>
+  <si>
+    <t>5501000000000</t>
+  </si>
+  <si>
+    <t>6485000000000</t>
+  </si>
+  <si>
+    <t>6185000000000</t>
+  </si>
+  <si>
     <t>CASA</t>
   </si>
   <si>
+    <t>6170000000000</t>
+  </si>
+  <si>
+    <t>8224000000000</t>
+  </si>
+  <si>
+    <t>12358000000000</t>
+  </si>
+  <si>
+    <t>11757000000000</t>
+  </si>
+  <si>
+    <t>15563000000000</t>
+  </si>
+  <si>
+    <t>11104000000000</t>
+  </si>
+  <si>
+    <t>7596000000000</t>
+  </si>
+  <si>
+    <t>6769000000000</t>
+  </si>
+  <si>
     <t>CASH</t>
   </si>
   <si>
+    <t>129000000000</t>
+  </si>
+  <si>
+    <t>195000000000</t>
+  </si>
+  <si>
     <t>CASS</t>
   </si>
   <si>
+    <t>1778000000000</t>
+  </si>
+  <si>
+    <t>2058000000000</t>
+  </si>
+  <si>
+    <t>2200000000000</t>
+  </si>
+  <si>
+    <t>2194000000000</t>
+  </si>
+  <si>
+    <t>1223000000000</t>
+  </si>
+  <si>
+    <t>1407000000000</t>
+  </si>
+  <si>
+    <t>2738000000000</t>
+  </si>
+  <si>
     <t>CBDK</t>
   </si>
   <si>
+    <t>125000000000</t>
+  </si>
+  <si>
+    <t>574000000000</t>
+  </si>
+  <si>
+    <t>1953000000000</t>
+  </si>
+  <si>
+    <t>2249000000000</t>
+  </si>
+  <si>
     <t>CBMF</t>
   </si>
   <si>
+    <t>153000000000</t>
+  </si>
+  <si>
     <t>CBPE</t>
   </si>
   <si>
@@ -2393,16 +3107,94 @@
     <t>CBUT</t>
   </si>
   <si>
+    <t>4355000000000</t>
+  </si>
+  <si>
+    <t>8662000000000</t>
+  </si>
+  <si>
+    <t>9619000000000</t>
+  </si>
+  <si>
+    <t>10319000000000</t>
+  </si>
+  <si>
+    <t>9766000000000</t>
+  </si>
+  <si>
     <t>CCSI</t>
   </si>
   <si>
+    <t>445000000000</t>
+  </si>
+  <si>
+    <t>282000000000</t>
+  </si>
+  <si>
+    <t>423000000000</t>
+  </si>
+  <si>
     <t>CDIA</t>
   </si>
   <si>
+    <t>1621000000000</t>
+  </si>
+  <si>
+    <t>1156000000000</t>
+  </si>
+  <si>
     <t>CEKA</t>
   </si>
   <si>
+    <t>4116000000000</t>
+  </si>
+  <si>
+    <t>4258000000000</t>
+  </si>
+  <si>
+    <t>3629000000000</t>
+  </si>
+  <si>
+    <t>3121000000000</t>
+  </si>
+  <si>
+    <t>3634000000000</t>
+  </si>
+  <si>
+    <t>5359000000000</t>
+  </si>
+  <si>
+    <t>6144000000000</t>
+  </si>
+  <si>
+    <t>6337000000000</t>
+  </si>
+  <si>
+    <t>8003000000000</t>
+  </si>
+  <si>
     <t>CENT</t>
+  </si>
+  <si>
+    <t>708000000000</t>
+  </si>
+  <si>
+    <t>801000000000</t>
+  </si>
+  <si>
+    <t>832000000000</t>
+  </si>
+  <si>
+    <t>1193000000000</t>
+  </si>
+  <si>
+    <t>2320000000000</t>
+  </si>
+  <si>
+    <t>2496000000000</t>
+  </si>
+  <si>
+    <t>2465000000000</t>
   </si>
   <si>
     <t>CFIN</t>
@@ -5680,8 +6472,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210:K210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -15787,31 +16579,31 @@
       <c r="B146" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F146" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="G146" s="12" t="s">
+      <c r="G146" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="H146" s="12" t="s">
+      <c r="H146" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="I146" s="12" t="s">
+      <c r="I146" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="J146" s="12" t="s">
+      <c r="J146" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="K146" s="12" t="s">
+      <c r="K146" s="9" t="s">
         <v>604</v>
       </c>
       <c r="L146" s="3"/>
@@ -16195,31 +16987,31 @@
       <c r="B152" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F152" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G152" s="12" t="s">
+      <c r="G152" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="H152" s="12" t="s">
+      <c r="H152" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="I152" s="12" t="s">
+      <c r="I152" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="J152" s="12" t="s">
+      <c r="J152" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="K152" s="12" t="s">
+      <c r="K152" s="9" t="s">
         <v>650</v>
       </c>
       <c r="L152" s="3"/>
@@ -17013,15 +17805,33 @@
       <c r="B164" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="C164" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
@@ -17063,17 +17873,33 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="D165" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>759</v>
+      </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
@@ -17115,17 +17941,35 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
+        <v>760</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>768</v>
+      </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
@@ -17167,17 +18011,27 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="G167" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>774</v>
+      </c>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
@@ -17219,17 +18073,33 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="D168" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>783</v>
+      </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
@@ -17271,17 +18141,35 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+        <v>784</v>
+      </c>
+      <c r="C169" s="3">
+        <v>29000000000</v>
+      </c>
+      <c r="D169" s="3">
+        <v>67000000000</v>
+      </c>
+      <c r="E169" s="3">
+        <v>17000000000</v>
+      </c>
+      <c r="F169" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>788</v>
+      </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
@@ -17323,17 +18211,35 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+        <v>789</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
@@ -17375,17 +18281,35 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+        <v>798</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>807</v>
+      </c>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
@@ -17427,17 +18351,25 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="H172" s="3">
+        <v>37000000000</v>
+      </c>
+      <c r="I172" s="3">
+        <v>43000000000</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="K172" s="3">
+        <v>96000000000</v>
+      </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
@@ -17479,17 +18411,29 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>754</v>
+        <v>810</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="F173" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>814</v>
+      </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
@@ -17531,17 +18475,35 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
+        <v>815</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>824</v>
+      </c>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
@@ -17583,17 +18545,35 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
+        <v>825</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>834</v>
+      </c>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
@@ -17635,17 +18615,31 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="E176" s="3">
+        <v>22000000000</v>
+      </c>
+      <c r="F176" s="3">
+        <v>42000000000</v>
+      </c>
+      <c r="G176" s="3">
+        <v>27000000000</v>
+      </c>
+      <c r="H176" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>746</v>
+      </c>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
@@ -17687,17 +18681,35 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
+        <v>837</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>844</v>
+      </c>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
@@ -17739,17 +18751,35 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+        <v>845</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>851</v>
+      </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
@@ -17791,17 +18821,35 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+        <v>852</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>858</v>
+      </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
@@ -17843,17 +18891,35 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+        <v>859</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D180" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="E180" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="F180" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="G180" s="3">
+        <v>11000000000</v>
+      </c>
+      <c r="H180" s="3">
+        <v>52000000000</v>
+      </c>
+      <c r="I180" s="3">
+        <v>48000000000</v>
+      </c>
+      <c r="J180" s="3">
+        <v>81000000000</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
@@ -17895,17 +18961,35 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
+        <v>860</v>
+      </c>
+      <c r="C181" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="D181" s="3">
+        <v>88000000000</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>866</v>
+      </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
@@ -17947,17 +19031,35 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="K182" s="9" t="s">
+        <v>875</v>
+      </c>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
@@ -17999,17 +19101,33 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>764</v>
+        <v>876</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="D183" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>884</v>
+      </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
@@ -18051,17 +19169,27 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>765</v>
+        <v>885</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
+      <c r="G184" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>889</v>
+      </c>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
@@ -18103,17 +19231,35 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
+        <v>890</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>898</v>
+      </c>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
@@ -18155,17 +19301,31 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>767</v>
+        <v>899</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="E186" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="K186" s="9" t="s">
+        <v>703</v>
+      </c>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
@@ -18207,17 +19367,35 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
+        <v>906</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="K187" s="9" t="s">
+        <v>914</v>
+      </c>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
@@ -18259,17 +19437,35 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
+        <v>915</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="K188" s="9" t="s">
+        <v>924</v>
+      </c>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
@@ -18311,17 +19507,35 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
+        <v>925</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>934</v>
+      </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
@@ -18363,17 +19577,35 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
+        <v>935</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="G190" s="3">
+        <v>68000000000</v>
+      </c>
+      <c r="H190" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="I190" s="3">
+        <v>65000000000</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>850</v>
+      </c>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
@@ -18415,17 +19647,35 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
+        <v>939</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>948</v>
+      </c>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
@@ -18467,17 +19717,35 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
+        <v>949</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="K192" s="9" t="s">
+        <v>958</v>
+      </c>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
@@ -18519,17 +19787,35 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
+        <v>959</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="K193" s="9" t="s">
+        <v>968</v>
+      </c>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
@@ -18571,17 +19857,33 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>775</v>
+        <v>969</v>
       </c>
       <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
+      <c r="D194" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
@@ -18623,17 +19925,35 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
+        <v>972</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>981</v>
+      </c>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
@@ -18675,17 +19995,35 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+        <v>982</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="D196" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="E196" s="3">
+        <v>58000000000</v>
+      </c>
+      <c r="F196" s="3">
+        <v>31000000000</v>
+      </c>
+      <c r="G196" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="H196" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="I196" s="3">
+        <v>39000000000</v>
+      </c>
+      <c r="J196" s="3">
+        <v>44000000000</v>
+      </c>
+      <c r="K196" s="3">
+        <v>54000000000</v>
+      </c>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
@@ -18727,17 +20065,31 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>778</v>
+        <v>984</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
+      <c r="E197" s="3">
+        <v>87000000000</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
@@ -18779,17 +20131,35 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
+        <v>987</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="K198" s="9" t="s">
+        <v>995</v>
+      </c>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
@@ -18831,17 +20201,35 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
+        <v>996</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>1004</v>
+      </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
@@ -18883,17 +20271,31 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>781</v>
+        <v>1005</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="E200" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="F200" s="3">
+        <v>17000000000</v>
+      </c>
+      <c r="G200" s="3">
+        <v>84000000000</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
       <c r="N200" s="3"/>
@@ -18935,17 +20337,35 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
@@ -18987,17 +20407,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>783</v>
+        <v>1016</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="H202" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>1020</v>
+      </c>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
@@ -19039,17 +20467,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>784</v>
+        <v>1021</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="H203" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I203" s="3">
+        <v>79000000000</v>
+      </c>
+      <c r="J203" s="3">
+        <v>27000000000</v>
+      </c>
+      <c r="K203" s="3">
+        <v>24000000000</v>
+      </c>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
@@ -19091,17 +20527,29 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>785</v>
+        <v>1023</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="F204" s="3">
+        <v>22000000000</v>
+      </c>
+      <c r="G204" s="3">
+        <v>41000000000</v>
+      </c>
+      <c r="H204" s="3">
+        <v>67000000000</v>
+      </c>
+      <c r="I204" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="J204" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="K204" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
@@ -19143,17 +20591,29 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>786</v>
+        <v>1024</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="F205" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="G205" s="3">
+        <v>11000000000</v>
+      </c>
+      <c r="H205" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="I205" s="3">
+        <v>33000000000</v>
+      </c>
+      <c r="J205" s="3">
+        <v>43000000000</v>
+      </c>
+      <c r="K205" s="3">
+        <v>62000000000</v>
+      </c>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
@@ -19195,17 +20655,29 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>787</v>
+        <v>1025</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="F206" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J206" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K206" s="9" t="s">
+        <v>1030</v>
+      </c>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
@@ -19247,17 +20719,31 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>788</v>
+        <v>1031</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="E207" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
@@ -19299,7 +20785,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>789</v>
+        <v>1035</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -19308,8 +20794,12 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
+      <c r="J208" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K208" s="12" t="s">
+        <v>1037</v>
+      </c>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
@@ -19351,17 +20841,35 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
+        <v>1038</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>1047</v>
+      </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
@@ -19403,17 +20911,35 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
+        <v>1048</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H210" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I210" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K210" s="12" t="s">
+        <v>1055</v>
+      </c>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
@@ -19455,7 +20981,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>792</v>
+        <v>1056</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -19507,7 +21033,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>793</v>
+        <v>1057</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -19559,7 +21085,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>794</v>
+        <v>1058</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -19611,7 +21137,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>795</v>
+        <v>1059</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -19663,7 +21189,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>796</v>
+        <v>1060</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -19715,7 +21241,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>797</v>
+        <v>1061</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -19767,7 +21293,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>798</v>
+        <v>1062</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -19819,7 +21345,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>799</v>
+        <v>1063</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -19871,7 +21397,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>800</v>
+        <v>1064</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -19923,7 +21449,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>801</v>
+        <v>1065</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -19975,7 +21501,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>802</v>
+        <v>1066</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -20027,7 +21553,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>803</v>
+        <v>1067</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -20079,7 +21605,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>804</v>
+        <v>1068</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -20131,7 +21657,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>805</v>
+        <v>1069</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -20183,7 +21709,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>806</v>
+        <v>1070</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -20235,7 +21761,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>807</v>
+        <v>1071</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -20287,7 +21813,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>808</v>
+        <v>1072</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -20339,7 +21865,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>809</v>
+        <v>1073</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -20391,7 +21917,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>810</v>
+        <v>1074</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -20443,7 +21969,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>811</v>
+        <v>1075</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -20495,7 +22021,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>812</v>
+        <v>1076</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -20547,7 +22073,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>813</v>
+        <v>1077</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -20599,7 +22125,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>814</v>
+        <v>1078</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -20651,7 +22177,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>815</v>
+        <v>1079</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -20703,7 +22229,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>816</v>
+        <v>1080</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -20755,7 +22281,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>817</v>
+        <v>1081</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -20807,7 +22333,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>818</v>
+        <v>1082</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -20859,7 +22385,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>819</v>
+        <v>1083</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -20911,7 +22437,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>820</v>
+        <v>1084</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -20963,7 +22489,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>821</v>
+        <v>1085</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -21015,7 +22541,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>822</v>
+        <v>1086</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -21067,7 +22593,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>823</v>
+        <v>1087</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -21119,7 +22645,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>824</v>
+        <v>1088</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -21171,7 +22697,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>825</v>
+        <v>1089</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -21223,7 +22749,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>826</v>
+        <v>1090</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -21275,7 +22801,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>827</v>
+        <v>1091</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -21327,7 +22853,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>828</v>
+        <v>1092</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -21379,7 +22905,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>829</v>
+        <v>1093</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -21431,7 +22957,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>830</v>
+        <v>1094</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -21483,7 +23009,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>831</v>
+        <v>1095</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -21535,7 +23061,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>832</v>
+        <v>1096</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -21587,7 +23113,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>833</v>
+        <v>1097</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -21639,7 +23165,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>834</v>
+        <v>1098</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -21691,7 +23217,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>835</v>
+        <v>1099</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -21743,7 +23269,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>836</v>
+        <v>1100</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -21795,7 +23321,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>837</v>
+        <v>1101</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -21847,7 +23373,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>838</v>
+        <v>1102</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -21899,7 +23425,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>839</v>
+        <v>1103</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -21951,7 +23477,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>840</v>
+        <v>1104</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -22003,7 +23529,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>841</v>
+        <v>1105</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -22055,7 +23581,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>842</v>
+        <v>1106</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -22107,7 +23633,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>843</v>
+        <v>1107</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -22159,7 +23685,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>844</v>
+        <v>1108</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -22211,7 +23737,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>845</v>
+        <v>1109</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -22263,7 +23789,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>846</v>
+        <v>1110</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -22315,7 +23841,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>847</v>
+        <v>1111</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -22367,7 +23893,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>848</v>
+        <v>1112</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -22419,7 +23945,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>849</v>
+        <v>1113</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -22471,7 +23997,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>850</v>
+        <v>1114</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -22523,7 +24049,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>851</v>
+        <v>1115</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -22575,7 +24101,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>852</v>
+        <v>1116</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -22627,7 +24153,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>853</v>
+        <v>1117</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -22679,7 +24205,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>854</v>
+        <v>1118</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -22731,7 +24257,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>855</v>
+        <v>1119</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -22783,7 +24309,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>856</v>
+        <v>1120</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -22835,7 +24361,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -22887,7 +24413,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>858</v>
+        <v>1122</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -22939,7 +24465,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>859</v>
+        <v>1123</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -22991,7 +24517,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>860</v>
+        <v>1124</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -23043,7 +24569,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>861</v>
+        <v>1125</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -23095,7 +24621,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>862</v>
+        <v>1126</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -23147,7 +24673,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>863</v>
+        <v>1127</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -23199,7 +24725,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>864</v>
+        <v>1128</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -23251,7 +24777,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>865</v>
+        <v>1129</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -23303,7 +24829,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>866</v>
+        <v>1130</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -23355,7 +24881,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>867</v>
+        <v>1131</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -23407,7 +24933,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>868</v>
+        <v>1132</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -23459,7 +24985,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>869</v>
+        <v>1133</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -23511,7 +25037,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>870</v>
+        <v>1134</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -23563,7 +25089,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>871</v>
+        <v>1135</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -23615,7 +25141,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>872</v>
+        <v>1136</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -23667,7 +25193,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>873</v>
+        <v>1137</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -23719,7 +25245,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>874</v>
+        <v>1138</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -23771,7 +25297,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>875</v>
+        <v>1139</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -23823,7 +25349,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>876</v>
+        <v>1140</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -23875,7 +25401,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>877</v>
+        <v>1141</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -23927,7 +25453,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>878</v>
+        <v>1142</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -23979,7 +25505,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>879</v>
+        <v>1143</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -24031,7 +25557,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>880</v>
+        <v>1144</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -24083,7 +25609,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>881</v>
+        <v>1145</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -24135,7 +25661,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>882</v>
+        <v>1146</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -24187,7 +25713,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>883</v>
+        <v>1147</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -24239,7 +25765,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>884</v>
+        <v>1148</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -24291,7 +25817,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>885</v>
+        <v>1149</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -24343,7 +25869,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>886</v>
+        <v>1150</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -24395,7 +25921,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>887</v>
+        <v>1151</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -24447,7 +25973,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>888</v>
+        <v>1152</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -24499,7 +26025,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>889</v>
+        <v>1153</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -24551,7 +26077,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>890</v>
+        <v>1154</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -24603,7 +26129,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>891</v>
+        <v>1155</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -24655,7 +26181,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>892</v>
+        <v>1156</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -24707,7 +26233,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>893</v>
+        <v>1157</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -24759,7 +26285,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>894</v>
+        <v>1158</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -24811,7 +26337,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>895</v>
+        <v>1159</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -24863,7 +26389,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>896</v>
+        <v>1160</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -24915,7 +26441,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>897</v>
+        <v>1161</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -24967,7 +26493,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>898</v>
+        <v>1162</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -25019,7 +26545,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>899</v>
+        <v>1163</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -25071,7 +26597,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>900</v>
+        <v>1164</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -25123,7 +26649,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>901</v>
+        <v>1165</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -25175,7 +26701,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>902</v>
+        <v>1166</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -25227,7 +26753,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>903</v>
+        <v>1167</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -25279,7 +26805,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>904</v>
+        <v>1168</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -25331,7 +26857,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>905</v>
+        <v>1169</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -25383,7 +26909,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>906</v>
+        <v>1170</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -25435,7 +26961,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>907</v>
+        <v>1171</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -25487,7 +27013,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>908</v>
+        <v>1172</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -25539,7 +27065,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>909</v>
+        <v>1173</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -25591,7 +27117,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>910</v>
+        <v>1174</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -25643,7 +27169,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>911</v>
+        <v>1175</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -25695,7 +27221,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>912</v>
+        <v>1176</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -25747,7 +27273,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>913</v>
+        <v>1177</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -25799,7 +27325,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>914</v>
+        <v>1178</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -25851,7 +27377,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>915</v>
+        <v>1179</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -25903,7 +27429,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>916</v>
+        <v>1180</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -25955,7 +27481,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>917</v>
+        <v>1181</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -26007,7 +27533,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -26059,7 +27585,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>919</v>
+        <v>1183</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -26111,7 +27637,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>920</v>
+        <v>1184</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -26163,7 +27689,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>921</v>
+        <v>1185</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -26215,7 +27741,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>922</v>
+        <v>1186</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -26267,7 +27793,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>923</v>
+        <v>1187</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -26319,7 +27845,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>924</v>
+        <v>1188</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -26371,7 +27897,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>925</v>
+        <v>1189</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -26423,7 +27949,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>926</v>
+        <v>1190</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -26475,7 +28001,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>927</v>
+        <v>1191</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -26527,7 +28053,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>928</v>
+        <v>1192</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -26579,7 +28105,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>929</v>
+        <v>1193</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -26631,7 +28157,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>930</v>
+        <v>1194</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -26683,7 +28209,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>931</v>
+        <v>1195</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -26735,7 +28261,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>932</v>
+        <v>1196</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -26787,7 +28313,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>933</v>
+        <v>1197</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -26839,7 +28365,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>934</v>
+        <v>1198</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -26891,7 +28417,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>935</v>
+        <v>1199</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -26943,7 +28469,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>936</v>
+        <v>1200</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -26995,7 +28521,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>937</v>
+        <v>1201</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -27047,7 +28573,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>938</v>
+        <v>1202</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -27099,7 +28625,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>939</v>
+        <v>1203</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -27151,7 +28677,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>940</v>
+        <v>1204</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -27203,7 +28729,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>941</v>
+        <v>1205</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -27255,7 +28781,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>942</v>
+        <v>1206</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -27307,7 +28833,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>943</v>
+        <v>1207</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -27359,7 +28885,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>944</v>
+        <v>1208</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -27411,7 +28937,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>945</v>
+        <v>1209</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -27463,7 +28989,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>946</v>
+        <v>1210</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -27515,7 +29041,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>947</v>
+        <v>1211</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -27567,7 +29093,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>948</v>
+        <v>1212</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -27619,7 +29145,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>949</v>
+        <v>1213</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -27671,7 +29197,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>950</v>
+        <v>1214</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -27723,7 +29249,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>951</v>
+        <v>1215</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -27775,7 +29301,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>952</v>
+        <v>1216</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -27827,7 +29353,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>953</v>
+        <v>1217</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -27879,7 +29405,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>954</v>
+        <v>1218</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -27931,7 +29457,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>955</v>
+        <v>1219</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -27983,7 +29509,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>956</v>
+        <v>1220</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -28035,7 +29561,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>957</v>
+        <v>1221</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -28087,7 +29613,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>958</v>
+        <v>1222</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -28139,7 +29665,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>959</v>
+        <v>1223</v>
       </c>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -28191,7 +29717,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>960</v>
+        <v>1224</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -28243,7 +29769,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>961</v>
+        <v>1225</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -28295,7 +29821,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>962</v>
+        <v>1226</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -28347,7 +29873,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>963</v>
+        <v>1227</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -28399,7 +29925,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>964</v>
+        <v>1228</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -28451,7 +29977,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>965</v>
+        <v>1229</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -28503,7 +30029,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>966</v>
+        <v>1230</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -28555,7 +30081,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>967</v>
+        <v>1231</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -28607,7 +30133,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>968</v>
+        <v>1232</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -28659,7 +30185,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>969</v>
+        <v>1233</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -28711,7 +30237,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>970</v>
+        <v>1234</v>
       </c>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -28763,7 +30289,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>971</v>
+        <v>1235</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -28815,7 +30341,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>972</v>
+        <v>1236</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -28867,7 +30393,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>973</v>
+        <v>1237</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -28919,7 +30445,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>974</v>
+        <v>1238</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -28971,7 +30497,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>975</v>
+        <v>1239</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -29023,7 +30549,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>976</v>
+        <v>1240</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -29075,7 +30601,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>977</v>
+        <v>1241</v>
       </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -29127,7 +30653,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>978</v>
+        <v>1242</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -29179,7 +30705,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>979</v>
+        <v>1243</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -29231,7 +30757,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>980</v>
+        <v>1244</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -29283,7 +30809,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>981</v>
+        <v>1245</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -29335,7 +30861,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>982</v>
+        <v>1246</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -29387,7 +30913,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>983</v>
+        <v>1247</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -29439,7 +30965,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>984</v>
+        <v>1248</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -29491,7 +31017,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>985</v>
+        <v>1249</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -29543,7 +31069,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>986</v>
+        <v>1250</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -29595,7 +31121,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>987</v>
+        <v>1251</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -29647,7 +31173,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>988</v>
+        <v>1252</v>
       </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -29699,7 +31225,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>989</v>
+        <v>1253</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -29751,7 +31277,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>990</v>
+        <v>1254</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -29803,7 +31329,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>991</v>
+        <v>1255</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -29855,7 +31381,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>992</v>
+        <v>1256</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -29907,7 +31433,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>993</v>
+        <v>1257</v>
       </c>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -29959,7 +31485,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>994</v>
+        <v>1258</v>
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -30011,7 +31537,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>995</v>
+        <v>1259</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -30063,7 +31589,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>996</v>
+        <v>1260</v>
       </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -30115,7 +31641,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>997</v>
+        <v>1261</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -30167,7 +31693,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>998</v>
+        <v>1262</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -30219,7 +31745,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>999</v>
+        <v>1263</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -30271,7 +31797,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1000</v>
+        <v>1264</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -30323,7 +31849,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1001</v>
+        <v>1265</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -30375,7 +31901,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1002</v>
+        <v>1266</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -30427,7 +31953,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1003</v>
+        <v>1267</v>
       </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -30479,7 +32005,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1004</v>
+        <v>1268</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -30531,7 +32057,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1005</v>
+        <v>1269</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -30583,7 +32109,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1006</v>
+        <v>1270</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -30635,7 +32161,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1007</v>
+        <v>1271</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -30687,7 +32213,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1008</v>
+        <v>1272</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -30739,7 +32265,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1009</v>
+        <v>1273</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -30791,7 +32317,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1010</v>
+        <v>1274</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -30843,7 +32369,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1011</v>
+        <v>1275</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -30895,7 +32421,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1012</v>
+        <v>1276</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -30947,7 +32473,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1013</v>
+        <v>1277</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -30999,7 +32525,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1014</v>
+        <v>1278</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -31051,7 +32577,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1015</v>
+        <v>1279</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -31103,7 +32629,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1016</v>
+        <v>1280</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -31155,7 +32681,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1017</v>
+        <v>1281</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -31207,7 +32733,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1018</v>
+        <v>1282</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -31259,7 +32785,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1019</v>
+        <v>1283</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -31311,7 +32837,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1020</v>
+        <v>1284</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -31363,7 +32889,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1021</v>
+        <v>1285</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -31415,7 +32941,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1022</v>
+        <v>1286</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -31467,7 +32993,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1023</v>
+        <v>1287</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -31519,7 +33045,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1024</v>
+        <v>1288</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -31571,7 +33097,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1025</v>
+        <v>1289</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -31623,7 +33149,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1026</v>
+        <v>1290</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -31675,7 +33201,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1027</v>
+        <v>1291</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -31727,7 +33253,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1028</v>
+        <v>1292</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -31779,7 +33305,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1029</v>
+        <v>1293</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -31831,7 +33357,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1030</v>
+        <v>1294</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -31883,7 +33409,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1031</v>
+        <v>1295</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -31935,7 +33461,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1032</v>
+        <v>1296</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -31987,7 +33513,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1033</v>
+        <v>1297</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -32039,7 +33565,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1034</v>
+        <v>1298</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -32091,7 +33617,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1035</v>
+        <v>1299</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -32143,7 +33669,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1036</v>
+        <v>1300</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -32195,7 +33721,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1037</v>
+        <v>1301</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -32247,7 +33773,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1038</v>
+        <v>1302</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -32299,7 +33825,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1039</v>
+        <v>1303</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -32351,7 +33877,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1040</v>
+        <v>1304</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -32403,7 +33929,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1041</v>
+        <v>1305</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -32455,7 +33981,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1042</v>
+        <v>1306</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -32507,7 +34033,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1043</v>
+        <v>1307</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -32559,7 +34085,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1044</v>
+        <v>1308</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -32611,7 +34137,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1045</v>
+        <v>1309</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -32663,7 +34189,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1046</v>
+        <v>1310</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -32715,7 +34241,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1047</v>
+        <v>1311</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -32767,7 +34293,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1048</v>
+        <v>1312</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -32819,7 +34345,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1049</v>
+        <v>1313</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -32871,7 +34397,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1050</v>
+        <v>1314</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -32923,7 +34449,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1051</v>
+        <v>1315</v>
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -32975,7 +34501,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1052</v>
+        <v>1316</v>
       </c>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -33027,7 +34553,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1053</v>
+        <v>1317</v>
       </c>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -33079,7 +34605,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1054</v>
+        <v>1318</v>
       </c>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -33131,7 +34657,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1055</v>
+        <v>1319</v>
       </c>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -33183,7 +34709,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1056</v>
+        <v>1320</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -33235,7 +34761,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1057</v>
+        <v>1321</v>
       </c>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -33287,7 +34813,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -33339,7 +34865,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1059</v>
+        <v>1323</v>
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -33391,7 +34917,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1060</v>
+        <v>1324</v>
       </c>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -33443,7 +34969,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1061</v>
+        <v>1325</v>
       </c>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -33495,7 +35021,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1062</v>
+        <v>1326</v>
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -33547,7 +35073,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1063</v>
+        <v>1327</v>
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -33599,7 +35125,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1064</v>
+        <v>1328</v>
       </c>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -33651,7 +35177,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1065</v>
+        <v>1329</v>
       </c>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -33703,7 +35229,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1066</v>
+        <v>1330</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -33755,7 +35281,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1067</v>
+        <v>1331</v>
       </c>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -33807,7 +35333,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1068</v>
+        <v>1332</v>
       </c>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -33859,7 +35385,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1069</v>
+        <v>1333</v>
       </c>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -33911,7 +35437,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1070</v>
+        <v>1334</v>
       </c>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -33963,7 +35489,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1071</v>
+        <v>1335</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -34015,7 +35541,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1072</v>
+        <v>1336</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -34067,7 +35593,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1073</v>
+        <v>1337</v>
       </c>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -34119,7 +35645,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1074</v>
+        <v>1338</v>
       </c>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -34171,7 +35697,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1075</v>
+        <v>1339</v>
       </c>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -34223,7 +35749,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1076</v>
+        <v>1340</v>
       </c>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -34275,7 +35801,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1077</v>
+        <v>1341</v>
       </c>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -34327,7 +35853,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1078</v>
+        <v>1342</v>
       </c>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -34379,7 +35905,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1079</v>
+        <v>1343</v>
       </c>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -34431,7 +35957,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1080</v>
+        <v>1344</v>
       </c>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -34483,7 +36009,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1081</v>
+        <v>1345</v>
       </c>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -34535,7 +36061,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1082</v>
+        <v>1346</v>
       </c>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -34587,7 +36113,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1083</v>
+        <v>1347</v>
       </c>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -34639,7 +36165,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1084</v>
+        <v>1348</v>
       </c>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -34691,7 +36217,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1085</v>
+        <v>1349</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -34743,7 +36269,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1086</v>
+        <v>1350</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -34795,7 +36321,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1087</v>
+        <v>1351</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -34847,7 +36373,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1088</v>
+        <v>1352</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -34899,7 +36425,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1089</v>
+        <v>1353</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -34951,7 +36477,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1090</v>
+        <v>1354</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -35003,7 +36529,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1091</v>
+        <v>1355</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -35055,7 +36581,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1092</v>
+        <v>1356</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -35107,7 +36633,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1093</v>
+        <v>1357</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -35159,7 +36685,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1094</v>
+        <v>1358</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -35211,7 +36737,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1095</v>
+        <v>1359</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -35263,7 +36789,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1096</v>
+        <v>1360</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -35315,7 +36841,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1097</v>
+        <v>1361</v>
       </c>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -35367,7 +36893,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1098</v>
+        <v>1362</v>
       </c>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -35419,7 +36945,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1099</v>
+        <v>1363</v>
       </c>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -35471,7 +36997,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1100</v>
+        <v>1364</v>
       </c>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -35523,7 +37049,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1101</v>
+        <v>1365</v>
       </c>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -35575,7 +37101,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1102</v>
+        <v>1366</v>
       </c>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -35627,7 +37153,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1103</v>
+        <v>1367</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -35679,7 +37205,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1104</v>
+        <v>1368</v>
       </c>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -35731,7 +37257,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1105</v>
+        <v>1369</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -35783,7 +37309,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1106</v>
+        <v>1370</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -35835,7 +37361,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1107</v>
+        <v>1371</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -35887,7 +37413,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1108</v>
+        <v>1372</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -35939,7 +37465,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1109</v>
+        <v>1373</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -35991,7 +37517,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1110</v>
+        <v>1374</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -36043,7 +37569,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1111</v>
+        <v>1375</v>
       </c>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -36095,7 +37621,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1112</v>
+        <v>1376</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -36147,7 +37673,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1113</v>
+        <v>1377</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -36199,7 +37725,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1114</v>
+        <v>1378</v>
       </c>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -36251,7 +37777,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1115</v>
+        <v>1379</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -36303,7 +37829,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1116</v>
+        <v>1380</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -36355,7 +37881,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1117</v>
+        <v>1381</v>
       </c>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -36407,7 +37933,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1118</v>
+        <v>1382</v>
       </c>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -36459,7 +37985,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1119</v>
+        <v>1383</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -36511,7 +38037,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1120</v>
+        <v>1384</v>
       </c>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -36563,7 +38089,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1121</v>
+        <v>1385</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -36615,7 +38141,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1122</v>
+        <v>1386</v>
       </c>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -36667,7 +38193,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1123</v>
+        <v>1387</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -36719,7 +38245,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1124</v>
+        <v>1388</v>
       </c>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -36771,7 +38297,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -36823,7 +38349,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1126</v>
+        <v>1390</v>
       </c>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -36875,7 +38401,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1127</v>
+        <v>1391</v>
       </c>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -36927,7 +38453,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1128</v>
+        <v>1392</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -36979,7 +38505,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1129</v>
+        <v>1393</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -37031,7 +38557,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1130</v>
+        <v>1394</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -37083,7 +38609,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1131</v>
+        <v>1395</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -37135,7 +38661,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1132</v>
+        <v>1396</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -37187,7 +38713,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1133</v>
+        <v>1397</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -37239,7 +38765,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1134</v>
+        <v>1398</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -37291,7 +38817,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1135</v>
+        <v>1399</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -37343,7 +38869,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1136</v>
+        <v>1400</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -37395,7 +38921,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1137</v>
+        <v>1401</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -37447,7 +38973,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1138</v>
+        <v>1402</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -37499,7 +39025,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1139</v>
+        <v>1403</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -37551,7 +39077,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1140</v>
+        <v>1404</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -37603,7 +39129,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1141</v>
+        <v>1405</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -37655,7 +39181,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1142</v>
+        <v>1406</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -37707,7 +39233,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1143</v>
+        <v>1407</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -37759,7 +39285,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1144</v>
+        <v>1408</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -37811,7 +39337,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1145</v>
+        <v>1409</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -37863,7 +39389,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1146</v>
+        <v>1410</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -37915,7 +39441,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1147</v>
+        <v>1411</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -37967,7 +39493,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1148</v>
+        <v>1412</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -38019,7 +39545,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1149</v>
+        <v>1413</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -38071,7 +39597,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1150</v>
+        <v>1414</v>
       </c>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -38123,7 +39649,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1151</v>
+        <v>1415</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -38175,7 +39701,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1152</v>
+        <v>1416</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -38227,7 +39753,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1153</v>
+        <v>1417</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -38279,7 +39805,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1154</v>
+        <v>1418</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -38331,7 +39857,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1155</v>
+        <v>1419</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -38383,7 +39909,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1156</v>
+        <v>1420</v>
       </c>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -38435,7 +39961,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1157</v>
+        <v>1421</v>
       </c>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -38487,7 +40013,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1158</v>
+        <v>1422</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -38539,7 +40065,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1159</v>
+        <v>1423</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -38591,7 +40117,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1160</v>
+        <v>1424</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -38643,7 +40169,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1161</v>
+        <v>1425</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -38695,7 +40221,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1162</v>
+        <v>1426</v>
       </c>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -38747,7 +40273,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1163</v>
+        <v>1427</v>
       </c>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -38799,7 +40325,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1164</v>
+        <v>1428</v>
       </c>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -38851,7 +40377,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1165</v>
+        <v>1429</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -38903,7 +40429,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1166</v>
+        <v>1430</v>
       </c>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -38955,7 +40481,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1167</v>
+        <v>1431</v>
       </c>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -39007,7 +40533,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1168</v>
+        <v>1432</v>
       </c>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -39059,7 +40585,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1169</v>
+        <v>1433</v>
       </c>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -39111,7 +40637,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1170</v>
+        <v>1434</v>
       </c>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -39163,7 +40689,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1171</v>
+        <v>1435</v>
       </c>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -39215,7 +40741,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1172</v>
+        <v>1436</v>
       </c>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -39267,7 +40793,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1173</v>
+        <v>1437</v>
       </c>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -39319,7 +40845,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1174</v>
+        <v>1438</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -39371,7 +40897,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1175</v>
+        <v>1439</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -39423,7 +40949,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1176</v>
+        <v>1440</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -39475,7 +41001,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1177</v>
+        <v>1441</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -39527,7 +41053,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1178</v>
+        <v>1442</v>
       </c>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -39579,7 +41105,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1179</v>
+        <v>1443</v>
       </c>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -39631,7 +41157,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1180</v>
+        <v>1444</v>
       </c>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -39683,7 +41209,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1181</v>
+        <v>1445</v>
       </c>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -39735,7 +41261,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1182</v>
+        <v>1446</v>
       </c>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -39787,7 +41313,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1183</v>
+        <v>1447</v>
       </c>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -39839,7 +41365,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1184</v>
+        <v>1448</v>
       </c>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -39891,7 +41417,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1185</v>
+        <v>1449</v>
       </c>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -39943,7 +41469,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1186</v>
+        <v>1450</v>
       </c>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -39995,7 +41521,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1187</v>
+        <v>1451</v>
       </c>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -40047,7 +41573,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1188</v>
+        <v>1452</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -40099,7 +41625,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1189</v>
+        <v>1453</v>
       </c>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -40151,7 +41677,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1190</v>
+        <v>1454</v>
       </c>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -40203,7 +41729,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1191</v>
+        <v>1455</v>
       </c>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -40255,7 +41781,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1192</v>
+        <v>1456</v>
       </c>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -40307,7 +41833,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1193</v>
+        <v>1457</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -40359,7 +41885,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1194</v>
+        <v>1458</v>
       </c>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -40411,7 +41937,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1195</v>
+        <v>1459</v>
       </c>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -40463,7 +41989,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1196</v>
+        <v>1460</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -40515,7 +42041,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1197</v>
+        <v>1461</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -40567,7 +42093,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1198</v>
+        <v>1462</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -40619,7 +42145,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1199</v>
+        <v>1463</v>
       </c>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -40671,7 +42197,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1200</v>
+        <v>1464</v>
       </c>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -40723,7 +42249,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1201</v>
+        <v>1465</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -40775,7 +42301,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1202</v>
+        <v>1466</v>
       </c>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -40827,7 +42353,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1203</v>
+        <v>1467</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -40879,7 +42405,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1204</v>
+        <v>1468</v>
       </c>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -40931,7 +42457,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1205</v>
+        <v>1469</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -40983,7 +42509,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1206</v>
+        <v>1470</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -41035,7 +42561,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1207</v>
+        <v>1471</v>
       </c>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -41087,7 +42613,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1208</v>
+        <v>1472</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -41139,7 +42665,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1209</v>
+        <v>1473</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -41191,7 +42717,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1210</v>
+        <v>1474</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -41243,7 +42769,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1211</v>
+        <v>1475</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -41295,7 +42821,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1212</v>
+        <v>1476</v>
       </c>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -41347,7 +42873,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1213</v>
+        <v>1477</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -41399,7 +42925,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1214</v>
+        <v>1478</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -41451,7 +42977,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1215</v>
+        <v>1479</v>
       </c>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -41503,7 +43029,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1216</v>
+        <v>1480</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -41555,7 +43081,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1217</v>
+        <v>1481</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -41607,7 +43133,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1218</v>
+        <v>1482</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -41659,7 +43185,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1219</v>
+        <v>1483</v>
       </c>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -41711,7 +43237,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1220</v>
+        <v>1484</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -41763,7 +43289,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1221</v>
+        <v>1485</v>
       </c>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -41815,7 +43341,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1222</v>
+        <v>1486</v>
       </c>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -41867,7 +43393,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1223</v>
+        <v>1487</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -41919,7 +43445,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1224</v>
+        <v>1488</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -41971,7 +43497,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1225</v>
+        <v>1489</v>
       </c>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -42023,7 +43549,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1226</v>
+        <v>1490</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -42075,7 +43601,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1227</v>
+        <v>1491</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -42127,7 +43653,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1228</v>
+        <v>1492</v>
       </c>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -42179,7 +43705,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1229</v>
+        <v>1493</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -42231,7 +43757,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1230</v>
+        <v>1494</v>
       </c>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -42283,7 +43809,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1231</v>
+        <v>1495</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -42335,7 +43861,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1232</v>
+        <v>1496</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -42387,7 +43913,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1233</v>
+        <v>1497</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -42439,7 +43965,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1234</v>
+        <v>1498</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -42491,7 +44017,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1235</v>
+        <v>1499</v>
       </c>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -42543,7 +44069,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1236</v>
+        <v>1500</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -42595,7 +44121,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1237</v>
+        <v>1501</v>
       </c>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -42647,7 +44173,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1238</v>
+        <v>1502</v>
       </c>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -42699,7 +44225,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1239</v>
+        <v>1503</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -42751,7 +44277,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1240</v>
+        <v>1504</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -42803,7 +44329,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1241</v>
+        <v>1505</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -42855,7 +44381,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1242</v>
+        <v>1506</v>
       </c>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -42907,7 +44433,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1243</v>
+        <v>1507</v>
       </c>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -42959,7 +44485,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1244</v>
+        <v>1508</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -43011,7 +44537,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1245</v>
+        <v>1509</v>
       </c>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -43063,7 +44589,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1246</v>
+        <v>1510</v>
       </c>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -43115,7 +44641,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1247</v>
+        <v>1511</v>
       </c>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -43167,7 +44693,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1248</v>
+        <v>1512</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -43219,7 +44745,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1249</v>
+        <v>1513</v>
       </c>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -43271,7 +44797,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1250</v>
+        <v>1514</v>
       </c>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -43323,7 +44849,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1251</v>
+        <v>1515</v>
       </c>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -43375,7 +44901,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1252</v>
+        <v>1516</v>
       </c>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -43427,7 +44953,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1253</v>
+        <v>1517</v>
       </c>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -43479,7 +45005,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1254</v>
+        <v>1518</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -43531,7 +45057,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1255</v>
+        <v>1519</v>
       </c>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -43583,7 +45109,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1256</v>
+        <v>1520</v>
       </c>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -43635,7 +45161,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1257</v>
+        <v>1521</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -43687,7 +45213,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1258</v>
+        <v>1522</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -43739,7 +45265,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1259</v>
+        <v>1523</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -43791,7 +45317,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1260</v>
+        <v>1524</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -43843,7 +45369,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1261</v>
+        <v>1525</v>
       </c>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -43895,7 +45421,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1262</v>
+        <v>1526</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -43947,7 +45473,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1263</v>
+        <v>1527</v>
       </c>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -43999,7 +45525,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1264</v>
+        <v>1528</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -44051,7 +45577,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1265</v>
+        <v>1529</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -44103,7 +45629,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1266</v>
+        <v>1530</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -44155,7 +45681,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1267</v>
+        <v>1531</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -44207,7 +45733,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1268</v>
+        <v>1532</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -44259,7 +45785,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1269</v>
+        <v>1533</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -44311,7 +45837,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1270</v>
+        <v>1534</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -44363,7 +45889,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1271</v>
+        <v>1535</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -44415,7 +45941,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1272</v>
+        <v>1536</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -44467,7 +45993,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>1273</v>
+        <v>1537</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -44519,7 +46045,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>1274</v>
+        <v>1538</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -44571,7 +46097,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1275</v>
+        <v>1539</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -44623,7 +46149,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1276</v>
+        <v>1540</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -44675,7 +46201,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>1277</v>
+        <v>1541</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -44727,7 +46253,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>1278</v>
+        <v>1542</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -44779,7 +46305,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1279</v>
+        <v>1543</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -44831,7 +46357,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>1280</v>
+        <v>1544</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -44883,7 +46409,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1281</v>
+        <v>1545</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -44935,7 +46461,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1282</v>
+        <v>1546</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -44987,7 +46513,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1283</v>
+        <v>1547</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -45039,7 +46565,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1284</v>
+        <v>1548</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -45091,7 +46617,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1285</v>
+        <v>1549</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -45143,7 +46669,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1286</v>
+        <v>1550</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -45195,7 +46721,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1287</v>
+        <v>1551</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -45247,7 +46773,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1288</v>
+        <v>1552</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -45299,7 +46825,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>1289</v>
+        <v>1553</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -45351,7 +46877,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1290</v>
+        <v>1554</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -45403,7 +46929,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>1291</v>
+        <v>1555</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -45455,7 +46981,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>1292</v>
+        <v>1556</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -45507,7 +47033,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>1293</v>
+        <v>1557</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -45559,7 +47085,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>1294</v>
+        <v>1558</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -45611,7 +47137,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>1295</v>
+        <v>1559</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -45663,7 +47189,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1296</v>
+        <v>1560</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -45715,7 +47241,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1297</v>
+        <v>1561</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -45767,7 +47293,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1298</v>
+        <v>1562</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -45819,7 +47345,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1299</v>
+        <v>1563</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -45871,7 +47397,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1300</v>
+        <v>1564</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -45923,7 +47449,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1301</v>
+        <v>1565</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -45975,7 +47501,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1302</v>
+        <v>1566</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -46027,7 +47553,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1303</v>
+        <v>1567</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -46079,7 +47605,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1304</v>
+        <v>1568</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -46131,7 +47657,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1305</v>
+        <v>1569</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -46183,7 +47709,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1306</v>
+        <v>1570</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -46235,7 +47761,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1307</v>
+        <v>1571</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -46287,7 +47813,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1308</v>
+        <v>1572</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -46339,7 +47865,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1309</v>
+        <v>1573</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -46391,7 +47917,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1310</v>
+        <v>1574</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -46443,7 +47969,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1311</v>
+        <v>1575</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -46495,7 +48021,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1312</v>
+        <v>1576</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -46547,7 +48073,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1313</v>
+        <v>1577</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -46599,7 +48125,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1314</v>
+        <v>1578</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -46651,7 +48177,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1315</v>
+        <v>1579</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -46703,7 +48229,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1316</v>
+        <v>1580</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -46755,7 +48281,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1317</v>
+        <v>1581</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -46807,7 +48333,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1318</v>
+        <v>1582</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -46859,7 +48385,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1319</v>
+        <v>1583</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -46911,7 +48437,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1320</v>
+        <v>1584</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -46963,7 +48489,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1321</v>
+        <v>1585</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -47015,7 +48541,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1322</v>
+        <v>1586</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -47067,7 +48593,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1323</v>
+        <v>1587</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -47119,7 +48645,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1324</v>
+        <v>1588</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -47171,7 +48697,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1325</v>
+        <v>1589</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -47223,7 +48749,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1326</v>
+        <v>1590</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -47275,7 +48801,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1327</v>
+        <v>1591</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -47327,7 +48853,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1328</v>
+        <v>1592</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -47379,7 +48905,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1329</v>
+        <v>1593</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -47431,7 +48957,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1330</v>
+        <v>1594</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -47483,7 +49009,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1331</v>
+        <v>1595</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -47535,7 +49061,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1332</v>
+        <v>1596</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -47587,7 +49113,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1333</v>
+        <v>1597</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -47639,7 +49165,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1334</v>
+        <v>1598</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -47691,7 +49217,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>1335</v>
+        <v>1599</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -47743,7 +49269,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1336</v>
+        <v>1600</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -47795,7 +49321,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>1337</v>
+        <v>1601</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -47847,7 +49373,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1338</v>
+        <v>1602</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -47899,7 +49425,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1339</v>
+        <v>1603</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -47951,7 +49477,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1340</v>
+        <v>1604</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -48003,7 +49529,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1341</v>
+        <v>1605</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -48055,7 +49581,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1342</v>
+        <v>1606</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -48107,7 +49633,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1343</v>
+        <v>1607</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -48159,7 +49685,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1344</v>
+        <v>1608</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -48211,7 +49737,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1345</v>
+        <v>1609</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -48263,7 +49789,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1346</v>
+        <v>1610</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -48315,7 +49841,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1347</v>
+        <v>1611</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -48367,7 +49893,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1348</v>
+        <v>1612</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -48419,7 +49945,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1349</v>
+        <v>1613</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -48471,7 +49997,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1350</v>
+        <v>1614</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -48523,7 +50049,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>1351</v>
+        <v>1615</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -48575,7 +50101,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1352</v>
+        <v>1616</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -48627,7 +50153,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1353</v>
+        <v>1617</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -48679,7 +50205,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1354</v>
+        <v>1618</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -48731,7 +50257,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1355</v>
+        <v>1619</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -48783,7 +50309,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1356</v>
+        <v>1620</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -48835,7 +50361,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1357</v>
+        <v>1621</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -48887,7 +50413,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1358</v>
+        <v>1622</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -48939,7 +50465,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1359</v>
+        <v>1623</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -48991,7 +50517,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1360</v>
+        <v>1624</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -49043,7 +50569,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1361</v>
+        <v>1625</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -49095,7 +50621,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1362</v>
+        <v>1626</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -49147,7 +50673,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1363</v>
+        <v>1627</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -49199,7 +50725,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1364</v>
+        <v>1628</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -49251,7 +50777,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1365</v>
+        <v>1629</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -49303,7 +50829,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1366</v>
+        <v>1630</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -49355,7 +50881,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1367</v>
+        <v>1631</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -49407,7 +50933,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1368</v>
+        <v>1632</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -49459,7 +50985,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1369</v>
+        <v>1633</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -49511,7 +51037,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1370</v>
+        <v>1634</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -49563,7 +51089,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1371</v>
+        <v>1635</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -49615,7 +51141,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1372</v>
+        <v>1636</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -49667,7 +51193,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>1373</v>
+        <v>1637</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -49719,7 +51245,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>1374</v>
+        <v>1638</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -49771,7 +51297,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>1375</v>
+        <v>1639</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -49823,7 +51349,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1376</v>
+        <v>1640</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -49875,7 +51401,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>1377</v>
+        <v>1641</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -49927,7 +51453,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>1378</v>
+        <v>1642</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -49979,7 +51505,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1379</v>
+        <v>1643</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -50031,7 +51557,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>1380</v>
+        <v>1644</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -50083,7 +51609,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>1381</v>
+        <v>1645</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -50135,7 +51661,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>1382</v>
+        <v>1646</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -50187,7 +51713,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>1383</v>
+        <v>1647</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -50239,7 +51765,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1384</v>
+        <v>1648</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -50291,7 +51817,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>1385</v>
+        <v>1649</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -50343,7 +51869,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1386</v>
+        <v>1650</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -50395,7 +51921,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>1387</v>
+        <v>1651</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -50447,7 +51973,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1388</v>
+        <v>1652</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -50499,7 +52025,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>1389</v>
+        <v>1653</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -50551,7 +52077,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1390</v>
+        <v>1654</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -50603,7 +52129,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>1391</v>
+        <v>1655</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -50655,7 +52181,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1392</v>
+        <v>1656</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -50707,7 +52233,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>1393</v>
+        <v>1657</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -50759,7 +52285,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1394</v>
+        <v>1658</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -50811,7 +52337,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>1395</v>
+        <v>1659</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -50863,7 +52389,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1396</v>
+        <v>1660</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -50915,7 +52441,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>1397</v>
+        <v>1661</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -50967,7 +52493,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1398</v>
+        <v>1662</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -51019,7 +52545,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1399</v>
+        <v>1663</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -51071,7 +52597,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1400</v>
+        <v>1664</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -51123,7 +52649,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1401</v>
+        <v>1665</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -51175,7 +52701,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1402</v>
+        <v>1666</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -51227,7 +52753,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1403</v>
+        <v>1667</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -51279,7 +52805,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>1404</v>
+        <v>1668</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -51331,7 +52857,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>1405</v>
+        <v>1669</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -51383,7 +52909,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>1406</v>
+        <v>1670</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -51435,7 +52961,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>1407</v>
+        <v>1671</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -51487,7 +53013,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>1408</v>
+        <v>1672</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -51539,7 +53065,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>1409</v>
+        <v>1673</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -51591,7 +53117,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>1410</v>
+        <v>1674</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -51643,7 +53169,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>1411</v>
+        <v>1675</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -51695,7 +53221,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>1412</v>
+        <v>1676</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -51747,7 +53273,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>1413</v>
+        <v>1677</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -51799,7 +53325,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>1414</v>
+        <v>1678</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -51851,7 +53377,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>1415</v>
+        <v>1679</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -51903,7 +53429,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>1416</v>
+        <v>1680</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -51955,7 +53481,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>1417</v>
+        <v>1681</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -52007,7 +53533,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>1418</v>
+        <v>1682</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -52059,7 +53585,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>1419</v>
+        <v>1683</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -52111,7 +53637,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>1420</v>
+        <v>1684</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -52163,7 +53689,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>1421</v>
+        <v>1685</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -52215,7 +53741,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>1422</v>
+        <v>1686</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -52267,7 +53793,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>1423</v>
+        <v>1687</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -52319,7 +53845,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>1424</v>
+        <v>1688</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -52371,7 +53897,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>1425</v>
+        <v>1689</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -52423,7 +53949,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1426</v>
+        <v>1690</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -52475,7 +54001,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>1427</v>
+        <v>1691</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -52527,7 +54053,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>1428</v>
+        <v>1692</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -52579,7 +54105,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>1429</v>
+        <v>1693</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -52631,7 +54157,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>1430</v>
+        <v>1694</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -52683,7 +54209,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>1431</v>
+        <v>1695</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -52735,7 +54261,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>1432</v>
+        <v>1696</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -52787,7 +54313,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>1433</v>
+        <v>1697</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -52839,7 +54365,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>1434</v>
+        <v>1698</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -52891,7 +54417,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>1435</v>
+        <v>1699</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -52943,7 +54469,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>1436</v>
+        <v>1700</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -52995,7 +54521,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>1437</v>
+        <v>1701</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -53047,7 +54573,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>1438</v>
+        <v>1702</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -53099,7 +54625,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>1439</v>
+        <v>1703</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -53151,7 +54677,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>1440</v>
+        <v>1704</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -53203,7 +54729,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>1441</v>
+        <v>1705</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -53255,7 +54781,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>1442</v>
+        <v>1706</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -53307,7 +54833,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>1443</v>
+        <v>1707</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -53359,7 +54885,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>1444</v>
+        <v>1708</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -53411,7 +54937,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>1445</v>
+        <v>1709</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -53463,7 +54989,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>1446</v>
+        <v>1710</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -53515,7 +55041,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>1447</v>
+        <v>1711</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -53567,7 +55093,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>1448</v>
+        <v>1712</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -53619,7 +55145,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>1449</v>
+        <v>1713</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -53671,7 +55197,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>1450</v>
+        <v>1714</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -53723,7 +55249,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>1451</v>
+        <v>1715</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -53775,7 +55301,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>1452</v>
+        <v>1716</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -53827,7 +55353,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>1453</v>
+        <v>1717</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -53879,7 +55405,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>1454</v>
+        <v>1718</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -53931,7 +55457,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>1455</v>
+        <v>1719</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -53983,7 +55509,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>1456</v>
+        <v>1720</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -54035,7 +55561,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>1457</v>
+        <v>1721</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -54087,7 +55613,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>1458</v>
+        <v>1722</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -54139,7 +55665,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>1459</v>
+        <v>1723</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -54191,7 +55717,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>1460</v>
+        <v>1724</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -54243,7 +55769,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>1461</v>
+        <v>1725</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -54295,7 +55821,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>1462</v>
+        <v>1726</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -54347,7 +55873,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>1463</v>
+        <v>1727</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -54399,7 +55925,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>1464</v>
+        <v>1728</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -54451,7 +55977,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>1465</v>
+        <v>1729</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -54503,7 +56029,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>1466</v>
+        <v>1730</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -54555,7 +56081,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>1467</v>
+        <v>1731</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -54607,7 +56133,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>1468</v>
+        <v>1732</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -54659,7 +56185,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>1469</v>
+        <v>1733</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -54711,7 +56237,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>1470</v>
+        <v>1734</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -54763,7 +56289,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>1471</v>
+        <v>1735</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -54815,7 +56341,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>1472</v>
+        <v>1736</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -54867,7 +56393,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1473</v>
+        <v>1737</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -54919,7 +56445,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>1474</v>
+        <v>1738</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -54971,7 +56497,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>1475</v>
+        <v>1739</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -55023,7 +56549,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>1476</v>
+        <v>1740</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -55075,7 +56601,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>1477</v>
+        <v>1741</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -55127,7 +56653,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>1478</v>
+        <v>1742</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -55179,7 +56705,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>1479</v>
+        <v>1743</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -55231,7 +56757,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>1480</v>
+        <v>1744</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -55283,7 +56809,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>1481</v>
+        <v>1745</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -55335,7 +56861,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>1482</v>
+        <v>1746</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -55387,7 +56913,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>1483</v>
+        <v>1747</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -55439,7 +56965,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>1484</v>
+        <v>1748</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -55491,7 +57017,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>1485</v>
+        <v>1749</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -55543,7 +57069,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>1486</v>
+        <v>1750</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -55595,7 +57121,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>1487</v>
+        <v>1751</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -55647,7 +57173,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>1488</v>
+        <v>1752</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -55699,7 +57225,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>1489</v>
+        <v>1753</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -55751,7 +57277,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>1490</v>
+        <v>1754</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -55803,7 +57329,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>1491</v>
+        <v>1755</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -55855,7 +57381,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>1492</v>
+        <v>1756</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -55907,7 +57433,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>1493</v>
+        <v>1757</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -55959,7 +57485,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>1494</v>
+        <v>1758</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -56011,7 +57537,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>1495</v>
+        <v>1759</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -56063,7 +57589,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>1496</v>
+        <v>1760</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -56115,7 +57641,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>1497</v>
+        <v>1761</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -56167,7 +57693,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>1498</v>
+        <v>1762</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -56219,7 +57745,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>1499</v>
+        <v>1763</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -56271,7 +57797,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>1500</v>
+        <v>1764</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -56323,7 +57849,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>1501</v>
+        <v>1765</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -56375,7 +57901,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>1502</v>
+        <v>1766</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -56427,7 +57953,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>1503</v>
+        <v>1767</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -56479,7 +58005,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>1504</v>
+        <v>1768</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -56531,7 +58057,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>1505</v>
+        <v>1769</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -56583,7 +58109,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>1506</v>
+        <v>1770</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -56635,7 +58161,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>1507</v>
+        <v>1771</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -56687,7 +58213,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>1508</v>
+        <v>1772</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -56739,7 +58265,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>1509</v>
+        <v>1773</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -56791,7 +58317,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>1510</v>
+        <v>1774</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -56843,7 +58369,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>1511</v>
+        <v>1775</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -56895,7 +58421,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>1512</v>
+        <v>1776</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -56947,7 +58473,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>1513</v>
+        <v>1777</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -56999,7 +58525,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>1514</v>
+        <v>1778</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -57051,7 +58577,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>1515</v>
+        <v>1779</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -57103,7 +58629,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>1516</v>
+        <v>1780</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -57155,7 +58681,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>1517</v>
+        <v>1781</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -57207,7 +58733,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>1518</v>
+        <v>1782</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -57259,7 +58785,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>1519</v>
+        <v>1783</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -57311,7 +58837,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>1520</v>
+        <v>1784</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -57363,7 +58889,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>1521</v>
+        <v>1785</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -57415,7 +58941,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>1522</v>
+        <v>1786</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -57467,7 +58993,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>1523</v>
+        <v>1787</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -57519,7 +59045,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>1524</v>
+        <v>1788</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -57571,7 +59097,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>1525</v>
+        <v>1789</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -57623,7 +59149,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>1526</v>
+        <v>1790</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -57675,7 +59201,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>1527</v>
+        <v>1791</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -57727,7 +59253,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>1528</v>
+        <v>1792</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -57779,7 +59305,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>1529</v>
+        <v>1793</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -57831,7 +59357,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>1530</v>
+        <v>1794</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -57883,7 +59409,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>1531</v>
+        <v>1795</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -57935,7 +59461,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>1532</v>
+        <v>1796</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -57987,7 +59513,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>1533</v>
+        <v>1797</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -58039,7 +59565,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>1534</v>
+        <v>1798</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -58091,7 +59617,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -58143,7 +59669,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>1536</v>
+        <v>1800</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -58195,7 +59721,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>1537</v>
+        <v>1801</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -58247,7 +59773,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>1538</v>
+        <v>1802</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -58299,7 +59825,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>1539</v>
+        <v>1803</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="2780">
   <si>
     <t>No</t>
   </si>
@@ -6146,30 +6146,114 @@
     <t>HOMI</t>
   </si>
   <si>
+    <t>74000000000</t>
+  </si>
+  <si>
+    <t>63000000000</t>
+  </si>
+  <si>
+    <t>34000000000</t>
+  </si>
+  <si>
     <t>HOPE</t>
   </si>
   <si>
     <t>HOTL</t>
   </si>
   <si>
+    <t>124000000000</t>
+  </si>
+  <si>
     <t>HRME</t>
   </si>
   <si>
     <t>HRTA</t>
   </si>
   <si>
+    <t>2197000000000</t>
+  </si>
+  <si>
+    <t>2483000000000</t>
+  </si>
+  <si>
+    <t>2746000000000</t>
+  </si>
+  <si>
+    <t>4139000000000</t>
+  </si>
+  <si>
+    <t>5238000000000</t>
+  </si>
+  <si>
+    <t>6918000000000</t>
+  </si>
+  <si>
+    <t>12857000000000</t>
+  </si>
+  <si>
+    <t>18229000000000</t>
+  </si>
+  <si>
     <t>HRUM</t>
   </si>
   <si>
+    <t>2889000000000</t>
+  </si>
+  <si>
+    <t>4358000000000</t>
+  </si>
+  <si>
+    <t>4798000000000</t>
+  </si>
+  <si>
+    <t>3715000000000</t>
+  </si>
+  <si>
+    <t>2300000000000</t>
+  </si>
+  <si>
+    <t>4811000000000</t>
+  </si>
+  <si>
+    <t>13454000000000</t>
+  </si>
+  <si>
+    <t>14118000000000</t>
+  </si>
+  <si>
+    <t>20553000000000</t>
+  </si>
+  <si>
     <t>HUMI</t>
   </si>
   <si>
+    <t>1007000000000</t>
+  </si>
+  <si>
+    <t>953000000000</t>
+  </si>
+  <si>
+    <t>1362000000000</t>
+  </si>
+  <si>
+    <t>1623000000000</t>
+  </si>
+  <si>
+    <t>2024000000000</t>
+  </si>
+  <si>
     <t>HYGN</t>
   </si>
   <si>
     <t>IATA</t>
   </si>
   <si>
+    <t>2857000000000</t>
+  </si>
+  <si>
+    <t>2594000000000</t>
+  </si>
+  <si>
     <t>IBFN</t>
   </si>
   <si>
@@ -6179,9 +6263,57 @@
     <t>IBST</t>
   </si>
   <si>
+    <t>703000000000</t>
+  </si>
+  <si>
+    <t>762000000000</t>
+  </si>
+  <si>
+    <t>898000000000</t>
+  </si>
+  <si>
+    <t>1088000000000</t>
+  </si>
+  <si>
+    <t>1122000000000</t>
+  </si>
+  <si>
+    <t>975000000000</t>
+  </si>
+  <si>
+    <t>862000000000</t>
+  </si>
+  <si>
     <t>ICBP</t>
   </si>
   <si>
+    <t>34466000000000</t>
+  </si>
+  <si>
+    <t>35607000000000</t>
+  </si>
+  <si>
+    <t>38413000000000</t>
+  </si>
+  <si>
+    <t>42297000000000</t>
+  </si>
+  <si>
+    <t>46641000000000</t>
+  </si>
+  <si>
+    <t>56804000000000</t>
+  </si>
+  <si>
+    <t>64798000000000</t>
+  </si>
+  <si>
+    <t>67910000000000</t>
+  </si>
+  <si>
+    <t>72597000000000</t>
+  </si>
+  <si>
     <t>ICON</t>
   </si>
   <si>
@@ -6191,15 +6323,75 @@
     <t>IDPR</t>
   </si>
   <si>
+    <t>1006000000000</t>
+  </si>
+  <si>
+    <t>958000000000</t>
+  </si>
+  <si>
+    <t>873000000000</t>
+  </si>
+  <si>
+    <t>1060000000000</t>
+  </si>
+  <si>
+    <t>1290000000000</t>
+  </si>
+  <si>
     <t>IFII</t>
   </si>
   <si>
+    <t>609000000000</t>
+  </si>
+  <si>
+    <t>670000000000</t>
+  </si>
+  <si>
+    <t>715000000000</t>
+  </si>
+  <si>
+    <t>867000000000</t>
+  </si>
+  <si>
+    <t>1244000000000</t>
+  </si>
+  <si>
     <t>IFSH</t>
   </si>
   <si>
+    <t>506000000000</t>
+  </si>
+  <si>
+    <t>1085000000000</t>
+  </si>
+  <si>
+    <t>906000000000</t>
+  </si>
+  <si>
+    <t>1433000000000</t>
+  </si>
+  <si>
     <t>IGAR</t>
   </si>
   <si>
+    <t>793000000000</t>
+  </si>
+  <si>
+    <t>739000000000</t>
+  </si>
+  <si>
+    <t>970000000000</t>
+  </si>
+  <si>
+    <t>1084000000000</t>
+  </si>
+  <si>
+    <t>858000000000</t>
+  </si>
+  <si>
+    <t>869000000000</t>
+  </si>
+  <si>
     <t>IIKP</t>
   </si>
   <si>
@@ -6212,55 +6404,367 @@
     <t>IKBI</t>
   </si>
   <si>
+    <t>1716000000000</t>
+  </si>
+  <si>
+    <t>2826000000000</t>
+  </si>
+  <si>
+    <t>2838000000000</t>
+  </si>
+  <si>
+    <t>2190000000000</t>
+  </si>
+  <si>
+    <t>3307000000000</t>
+  </si>
+  <si>
+    <t>3366000000000</t>
+  </si>
+  <si>
+    <t>3780000000000</t>
+  </si>
+  <si>
+    <t>4158000000000</t>
+  </si>
+  <si>
     <t>IKPM</t>
   </si>
   <si>
+    <t>716000000000</t>
+  </si>
+  <si>
+    <t>399000000000</t>
+  </si>
+  <si>
     <t>IMAS</t>
   </si>
   <si>
+    <t>15050000000000</t>
+  </si>
+  <si>
+    <t>15418000000000</t>
+  </si>
+  <si>
+    <t>17545000000000</t>
+  </si>
+  <si>
+    <t>18615000000000</t>
+  </si>
+  <si>
+    <t>15230000000000</t>
+  </si>
+  <si>
+    <t>19175000000000</t>
+  </si>
+  <si>
+    <t>25582000000000</t>
+  </si>
+  <si>
+    <t>28892000000000</t>
+  </si>
+  <si>
+    <t>29138000000000</t>
+  </si>
+  <si>
     <t>IMJS</t>
   </si>
   <si>
+    <t>2712000000000</t>
+  </si>
+  <si>
+    <t>3384000000000</t>
+  </si>
+  <si>
+    <t>3966000000000</t>
+  </si>
+  <si>
+    <t>4143000000000</t>
+  </si>
+  <si>
+    <t>4039000000000</t>
+  </si>
+  <si>
+    <t>4825000000000</t>
+  </si>
+  <si>
+    <t>5154000000000</t>
+  </si>
+  <si>
+    <t>5405000000000</t>
+  </si>
+  <si>
     <t>IMPC</t>
   </si>
   <si>
+    <t>1135000000000</t>
+  </si>
+  <si>
+    <t>1496000000000</t>
+  </si>
+  <si>
+    <t>1798000000000</t>
+  </si>
+  <si>
+    <t>2227000000000</t>
+  </si>
+  <si>
+    <t>2809000000000</t>
+  </si>
+  <si>
+    <t>3631000000000</t>
+  </si>
+  <si>
+    <t>3878000000000</t>
+  </si>
+  <si>
     <t>INAF</t>
   </si>
   <si>
+    <t>1675000000000</t>
+  </si>
+  <si>
+    <t>1631000000000</t>
+  </si>
+  <si>
+    <t>1593000000000</t>
+  </si>
+  <si>
+    <t>1359000000000</t>
+  </si>
+  <si>
+    <t>2902000000000</t>
+  </si>
+  <si>
+    <t>1144000000000</t>
+  </si>
+  <si>
     <t>INAI</t>
   </si>
   <si>
+    <t>1285000000000</t>
+  </si>
+  <si>
+    <t>1216000000000</t>
+  </si>
+  <si>
+    <t>1437000000000</t>
+  </si>
+  <si>
+    <t>1439000000000</t>
+  </si>
+  <si>
+    <t>1263000000000</t>
+  </si>
+  <si>
+    <t>1059000000000</t>
+  </si>
+  <si>
     <t>INCF</t>
   </si>
   <si>
+    <t>447000000000</t>
+  </si>
+  <si>
+    <t>735000000000</t>
+  </si>
+  <si>
+    <t>536000000000</t>
+  </si>
+  <si>
+    <t>184000000000</t>
+  </si>
+  <si>
     <t>INCI</t>
   </si>
   <si>
+    <t>176000000000</t>
+  </si>
+  <si>
+    <t>368000000000</t>
+  </si>
+  <si>
+    <t>521000000000</t>
+  </si>
+  <si>
+    <t>391000000000</t>
+  </si>
+  <si>
     <t>INCO</t>
   </si>
   <si>
+    <t>8423000000000</t>
+  </si>
+  <si>
+    <t>11071000000000</t>
+  </si>
+  <si>
+    <t>11063000000000</t>
+  </si>
+  <si>
+    <t>11148000000000</t>
+  </si>
+  <si>
+    <t>13641000000000</t>
+  </si>
+  <si>
+    <t>18797000000000</t>
+  </si>
+  <si>
+    <t>15064000000000</t>
+  </si>
+  <si>
     <t>INDF</t>
   </si>
   <si>
+    <t>66750000000000</t>
+  </si>
+  <si>
+    <t>70187000000000</t>
+  </si>
+  <si>
+    <t>73395000000000</t>
+  </si>
+  <si>
+    <t>76593000000000</t>
+  </si>
+  <si>
+    <t>81731000000000</t>
+  </si>
+  <si>
+    <t>99346000000000</t>
+  </si>
+  <si>
+    <t>110830000000000</t>
+  </si>
+  <si>
+    <t>111704000000000</t>
+  </si>
+  <si>
+    <t>115787000000000</t>
+  </si>
+  <si>
     <t>INDO</t>
   </si>
   <si>
     <t>INDR</t>
   </si>
   <si>
+    <t>10412000000000</t>
+  </si>
+  <si>
+    <t>11962000000000</t>
+  </si>
+  <si>
+    <t>10861000000000</t>
+  </si>
+  <si>
+    <t>8586000000000</t>
+  </si>
+  <si>
+    <t>12653000000000</t>
+  </si>
+  <si>
+    <t>13926000000000</t>
+  </si>
+  <si>
+    <t>11984000000000</t>
+  </si>
+  <si>
+    <t>13572000000000</t>
+  </si>
+  <si>
     <t>INDS</t>
   </si>
   <si>
+    <t>1637000000000</t>
+  </si>
+  <si>
+    <t>1968000000000</t>
+  </si>
+  <si>
+    <t>2091000000000</t>
+  </si>
+  <si>
+    <t>1626000000000</t>
+  </si>
+  <si>
+    <t>2644000000000</t>
+  </si>
+  <si>
+    <t>3642000000000</t>
+  </si>
+  <si>
+    <t>3803000000000</t>
+  </si>
+  <si>
+    <t>3165000000000</t>
+  </si>
+  <si>
     <t>INDX</t>
   </si>
   <si>
     <t>INDY</t>
   </si>
   <si>
+    <t>10316000000000</t>
+  </si>
+  <si>
+    <t>14706000000000</t>
+  </si>
+  <si>
+    <t>42220000000000</t>
+  </si>
+  <si>
+    <t>39365000000000</t>
+  </si>
+  <si>
+    <t>30279000000000</t>
+  </si>
+  <si>
+    <t>43925000000000</t>
+  </si>
+  <si>
+    <t>64486000000000</t>
+  </si>
+  <si>
+    <t>46173000000000</t>
+  </si>
+  <si>
+    <t>38780000000000</t>
+  </si>
+  <si>
     <t>INET</t>
   </si>
   <si>
     <t>INKP</t>
+  </si>
+  <si>
+    <t>36202000000000</t>
+  </si>
+  <si>
+    <t>41864000000000</t>
+  </si>
+  <si>
+    <t>47529000000000</t>
+  </si>
+  <si>
+    <t>45596000000000</t>
+  </si>
+  <si>
+    <t>43527000000000</t>
+  </si>
+  <si>
+    <t>50328000000000</t>
+  </si>
+  <si>
+    <t>59543000000000</t>
+  </si>
+  <si>
+    <t>53070000000000</t>
+  </si>
+  <si>
+    <t>50652000000000</t>
   </si>
   <si>
     <t>INOV</t>
@@ -8898,8 +9402,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -31080,16 +31584,16 @@
       <c r="G326" s="3">
         <v>95000000000</v>
       </c>
-      <c r="H326" s="9">
+      <c r="H326" s="3">
         <v>92000000000</v>
       </c>
-      <c r="I326" s="9">
+      <c r="I326" s="3">
         <v>87000000000</v>
       </c>
-      <c r="J326" s="9">
+      <c r="J326" s="3">
         <v>78000000000</v>
       </c>
-      <c r="K326" s="9">
+      <c r="K326" s="3">
         <v>82000000000</v>
       </c>
       <c r="L326" s="3"/>
@@ -32287,25 +32791,25 @@
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
-      <c r="E344" s="14" t="s">
+      <c r="E344" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F344" s="14" t="s">
+      <c r="F344" s="10" t="s">
         <v>1798</v>
       </c>
-      <c r="G344" s="14" t="s">
+      <c r="G344" s="10" t="s">
         <v>1799</v>
       </c>
-      <c r="H344" s="14" t="s">
+      <c r="H344" s="10" t="s">
         <v>1800</v>
       </c>
-      <c r="I344" s="14" t="s">
+      <c r="I344" s="10" t="s">
         <v>1801</v>
       </c>
-      <c r="J344" s="14" t="s">
+      <c r="J344" s="10" t="s">
         <v>1802</v>
       </c>
-      <c r="K344" s="14" t="s">
+      <c r="K344" s="10" t="s">
         <v>1803</v>
       </c>
       <c r="L344" s="3"/>
@@ -32928,25 +33432,25 @@
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
-      <c r="E354" s="14" t="s">
+      <c r="E354" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="F354" s="14" t="s">
+      <c r="F354" s="10" t="s">
         <v>1859</v>
       </c>
-      <c r="G354" s="14" t="s">
+      <c r="G354" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="H354" s="14" t="s">
+      <c r="H354" s="10" t="s">
         <v>1860</v>
       </c>
-      <c r="I354" s="14" t="s">
+      <c r="I354" s="10" t="s">
         <v>1861</v>
       </c>
-      <c r="J354" s="14" t="s">
+      <c r="J354" s="10" t="s">
         <v>1862</v>
       </c>
-      <c r="K354" s="14" t="s">
+      <c r="K354" s="10" t="s">
         <v>809</v>
       </c>
       <c r="L354" s="3"/>
@@ -34888,10 +35392,18 @@
       <c r="B384" s="3" t="s">
         <v>2037</v>
       </c>
-      <c r="C384" s="3"/>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
+      <c r="C384" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D384" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E384" s="10" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F384" s="10" t="s">
+        <v>437</v>
+      </c>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
@@ -34943,12 +35455,24 @@
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-      <c r="J385" s="3"/>
-      <c r="K385" s="3"/>
+      <c r="F385" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="G385" s="3">
+        <v>29000000000</v>
+      </c>
+      <c r="H385" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="I385" s="10" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J385" s="10" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K385" s="10" t="s">
+        <v>2041</v>
+      </c>
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
@@ -34990,17 +35514,33 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
-      <c r="K386" s="3"/>
+      <c r="D386" s="3">
+        <v>89000000000</v>
+      </c>
+      <c r="E386" s="3">
+        <v>99000000000</v>
+      </c>
+      <c r="F386" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="G386" s="3">
+        <v>30000000000</v>
+      </c>
+      <c r="H386" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="I386" s="3">
+        <v>87000000000</v>
+      </c>
+      <c r="J386" s="3">
+        <v>39000000000</v>
+      </c>
+      <c r="K386" s="3">
+        <v>20000000000</v>
+      </c>
       <c r="L386" s="3"/>
       <c r="M386" s="3"/>
       <c r="N386" s="3"/>
@@ -35042,17 +35582,35 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
-      <c r="K387" s="3"/>
+        <v>2043</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G387" s="10" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H387" s="3">
+        <v>58000000000</v>
+      </c>
+      <c r="I387" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="J387" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="K387" s="3">
+        <v>3000000000</v>
+      </c>
       <c r="L387" s="3"/>
       <c r="M387" s="3"/>
       <c r="N387" s="3"/>
@@ -35094,17 +35652,33 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-      <c r="J388" s="3"/>
-      <c r="K388" s="3"/>
+      <c r="D388" s="3">
+        <v>46000000000</v>
+      </c>
+      <c r="E388" s="3">
+        <v>61000000000</v>
+      </c>
+      <c r="F388" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G388" s="3">
+        <v>47000000000</v>
+      </c>
+      <c r="H388" s="3">
+        <v>66000000000</v>
+      </c>
+      <c r="I388" s="3">
+        <v>86000000000</v>
+      </c>
+      <c r="J388" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K388" s="10" t="s">
+        <v>861</v>
+      </c>
       <c r="L388" s="3"/>
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
@@ -35146,17 +35720,35 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
-      <c r="K389" s="3"/>
+        <v>2046</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D389" s="10" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E389" s="10" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="G389" s="10" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H389" s="10" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I389" s="10" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J389" s="10" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K389" s="10" t="s">
+        <v>2054</v>
+      </c>
       <c r="L389" s="3"/>
       <c r="M389" s="3"/>
       <c r="N389" s="3"/>
@@ -35198,17 +35790,35 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-      <c r="J390" s="3"/>
-      <c r="K390" s="3"/>
+        <v>2055</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D390" s="10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E390" s="10" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F390" s="10" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G390" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H390" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I390" s="10" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J390" s="10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="K390" s="10" t="s">
+        <v>2064</v>
+      </c>
       <c r="L390" s="3"/>
       <c r="M390" s="3"/>
       <c r="N390" s="3"/>
@@ -35250,17 +35860,27 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>2044</v>
+        <v>2065</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-      <c r="J391" s="3"/>
-      <c r="K391" s="3"/>
+      <c r="G391" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H391" s="10" t="s">
+        <v>2067</v>
+      </c>
+      <c r="I391" s="10" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J391" s="10" t="s">
+        <v>2069</v>
+      </c>
+      <c r="K391" s="10" t="s">
+        <v>2070</v>
+      </c>
       <c r="L391" s="3"/>
       <c r="M391" s="3"/>
       <c r="N391" s="3"/>
@@ -35302,17 +35922,27 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>2045</v>
+        <v>2071</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
-      <c r="K392" s="3"/>
+      <c r="G392" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H392" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I392" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J392" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K392" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="L392" s="3"/>
       <c r="M392" s="3"/>
       <c r="N392" s="3"/>
@@ -35354,17 +35984,35 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C393" s="3"/>
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
-      <c r="K393" s="3"/>
+        <v>2072</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D393" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="F393" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G393" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="H393" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I393" s="10" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J393" s="10" t="s">
+        <v>2074</v>
+      </c>
+      <c r="K393" s="10" t="s">
+        <v>903</v>
+      </c>
       <c r="L393" s="3"/>
       <c r="M393" s="3"/>
       <c r="N393" s="3"/>
@@ -35406,17 +36054,35 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
+        <v>2075</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D394" s="3">
+        <v>-53000000000</v>
+      </c>
+      <c r="E394" s="3">
+        <v>-80000000000</v>
+      </c>
+      <c r="F394" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G394" s="3">
+        <v>-37000000000</v>
+      </c>
+      <c r="H394" s="3">
+        <v>12000000000</v>
+      </c>
+      <c r="I394" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="J394" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="K394" s="3">
+        <v>27000000000</v>
+      </c>
       <c r="L394" s="3"/>
       <c r="M394" s="3"/>
       <c r="N394" s="3"/>
@@ -35458,17 +36124,25 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>2048</v>
+        <v>2076</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-      <c r="J395" s="3"/>
-      <c r="K395" s="3"/>
+      <c r="H395" s="3">
+        <v>62000000000</v>
+      </c>
+      <c r="I395" s="3">
+        <v>78000000000</v>
+      </c>
+      <c r="J395" s="3">
+        <v>78000000000</v>
+      </c>
+      <c r="K395" s="3">
+        <v>45000000000</v>
+      </c>
       <c r="L395" s="3"/>
       <c r="M395" s="3"/>
       <c r="N395" s="3"/>
@@ -35510,17 +36184,35 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C396" s="3"/>
-      <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
-      <c r="K396" s="3"/>
+        <v>2077</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D396" s="10" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E396" s="10" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F396" s="10" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G396" s="10" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H396" s="10" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I396" s="10" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J396" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K396" s="10" t="s">
+        <v>2084</v>
+      </c>
       <c r="L396" s="3"/>
       <c r="M396" s="3"/>
       <c r="N396" s="3"/>
@@ -35562,17 +36254,35 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
-      <c r="K397" s="3"/>
+        <v>2085</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D397" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G397" s="10" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H397" s="10" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I397" s="10" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J397" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K397" s="10" t="s">
+        <v>2094</v>
+      </c>
       <c r="L397" s="3"/>
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
@@ -35614,17 +36324,35 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C398" s="3"/>
-      <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-      <c r="J398" s="3"/>
-      <c r="K398" s="3"/>
+        <v>2095</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D398" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E398" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F398" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G398" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H398" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I398" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="J398" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K398" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="L398" s="3"/>
       <c r="M398" s="3"/>
       <c r="N398" s="3"/>
@@ -35666,17 +36394,29 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>2052</v>
+        <v>2096</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-      <c r="J399" s="3"/>
-      <c r="K399" s="3"/>
+      <c r="F399" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="G399" s="3">
+        <v>15000000000</v>
+      </c>
+      <c r="H399" s="3">
+        <v>15000000000</v>
+      </c>
+      <c r="I399" s="3">
+        <v>18000000000</v>
+      </c>
+      <c r="J399" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="K399" s="3">
+        <v>22000000000</v>
+      </c>
       <c r="L399" s="3"/>
       <c r="M399" s="3"/>
       <c r="N399" s="3"/>
@@ -35718,17 +36458,35 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C400" s="3"/>
-      <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-      <c r="J400" s="3"/>
-      <c r="K400" s="3"/>
+        <v>2097</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D400" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E400" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F400" s="10" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G400" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H400" s="10" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I400" s="10" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J400" s="10" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K400" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="L400" s="3"/>
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
@@ -35770,17 +36528,31 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>2054</v>
+        <v>2103</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-      <c r="J401" s="3"/>
-      <c r="K401" s="3"/>
+      <c r="E401" s="10" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F401" s="10" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G401" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H401" s="10" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I401" s="10" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J401" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="K401" s="10" t="s">
+        <v>2108</v>
+      </c>
       <c r="L401" s="3"/>
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
@@ -35822,17 +36594,31 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2055</v>
+        <v>2109</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
-      <c r="J402" s="3"/>
-      <c r="K402" s="3"/>
+      <c r="E402" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F402" s="10" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G402" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H402" s="10" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I402" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="J402" s="10" t="s">
+        <v>2113</v>
+      </c>
+      <c r="K402" s="10" t="s">
+        <v>1106</v>
+      </c>
       <c r="L402" s="3"/>
       <c r="M402" s="3"/>
       <c r="N402" s="3"/>
@@ -35874,17 +36660,35 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
-      <c r="J403" s="3"/>
-      <c r="K403" s="3"/>
+        <v>2114</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D403" s="10" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G403" s="10" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H403" s="10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I403" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J403" s="10" t="s">
+        <v>2119</v>
+      </c>
+      <c r="K403" s="10" t="s">
+        <v>2120</v>
+      </c>
       <c r="L403" s="3"/>
       <c r="M403" s="3"/>
       <c r="N403" s="3"/>
@@ -35926,17 +36730,35 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C404" s="3"/>
-      <c r="D404" s="3"/>
-      <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
-      <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
-      <c r="J404" s="3"/>
-      <c r="K404" s="3"/>
+        <v>2121</v>
+      </c>
+      <c r="C404" s="3">
+        <v>21000000000</v>
+      </c>
+      <c r="D404" s="3">
+        <v>21000000000</v>
+      </c>
+      <c r="E404" s="3">
+        <v>18000000000</v>
+      </c>
+      <c r="F404" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="G404" s="3">
+        <v>16000000000</v>
+      </c>
+      <c r="H404" s="3">
+        <v>18000000000</v>
+      </c>
+      <c r="I404" s="3">
+        <v>7000000000</v>
+      </c>
+      <c r="J404" s="3">
+        <v>11000000000</v>
+      </c>
+      <c r="K404" s="3">
+        <v>5000000000</v>
+      </c>
       <c r="L404" s="3"/>
       <c r="M404" s="3"/>
       <c r="N404" s="3"/>
@@ -35978,17 +36800,35 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C405" s="3"/>
-      <c r="D405" s="3"/>
-      <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
-      <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
-      <c r="J405" s="3"/>
-      <c r="K405" s="3"/>
+        <v>2122</v>
+      </c>
+      <c r="C405" s="3">
+        <v>84000000000</v>
+      </c>
+      <c r="D405" s="3">
+        <v>13000000000</v>
+      </c>
+      <c r="E405" s="3">
+        <v>11000000000</v>
+      </c>
+      <c r="F405" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="G405" s="3">
+        <v>93000000000</v>
+      </c>
+      <c r="H405" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I405" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J405" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K405" s="10" t="s">
+        <v>1680</v>
+      </c>
       <c r="L405" s="3"/>
       <c r="M405" s="3"/>
       <c r="N405" s="3"/>
@@ -36030,17 +36870,29 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>2059</v>
+        <v>2123</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
-      <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
-      <c r="J406" s="3"/>
-      <c r="K406" s="3"/>
+      <c r="F406" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G406" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="H406" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I406" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="J406" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K406" s="10" t="s">
+        <v>861</v>
+      </c>
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
       <c r="N406" s="3"/>
@@ -36082,17 +36934,35 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C407" s="3"/>
-      <c r="D407" s="3"/>
-      <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-      <c r="J407" s="3"/>
-      <c r="K407" s="3"/>
+        <v>2124</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H407" s="10" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I407" s="10" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J407" s="10" t="s">
+        <v>2131</v>
+      </c>
+      <c r="K407" s="10" t="s">
+        <v>2132</v>
+      </c>
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
       <c r="N407" s="3"/>
@@ -36134,17 +37004,27 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>2061</v>
+        <v>2133</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
-      <c r="J408" s="3"/>
-      <c r="K408" s="3"/>
+      <c r="G408" s="10" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H408" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I408" s="10" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J408" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="K408" s="10" t="s">
+        <v>1080</v>
+      </c>
       <c r="L408" s="3"/>
       <c r="M408" s="3"/>
       <c r="N408" s="3"/>
@@ -36186,17 +37066,35 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C409" s="3"/>
-      <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
-      <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
-      <c r="J409" s="3"/>
-      <c r="K409" s="3"/>
+        <v>2136</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D409" s="10" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F409" s="10" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G409" s="10" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H409" s="10" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I409" s="10" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J409" s="10" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K409" s="10" t="s">
+        <v>2145</v>
+      </c>
       <c r="L409" s="3"/>
       <c r="M409" s="3"/>
       <c r="N409" s="3"/>
@@ -36238,17 +37136,35 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C410" s="3"/>
-      <c r="D410" s="3"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
-      <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
-      <c r="J410" s="3"/>
-      <c r="K410" s="3"/>
+        <v>2146</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D410" s="10" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E410" s="10" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F410" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G410" s="10" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H410" s="10" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I410" s="10" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J410" s="10" t="s">
+        <v>2153</v>
+      </c>
+      <c r="K410" s="10" t="s">
+        <v>2154</v>
+      </c>
       <c r="L410" s="3"/>
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
@@ -36290,17 +37206,35 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C411" s="3"/>
-      <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-      <c r="J411" s="3"/>
-      <c r="K411" s="3"/>
+        <v>2155</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="D411" s="14" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H411" s="14" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I411" s="14" t="s">
+        <v>2160</v>
+      </c>
+      <c r="J411" s="14" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K411" s="14" t="s">
+        <v>2162</v>
+      </c>
       <c r="L411" s="3"/>
       <c r="M411" s="3"/>
       <c r="N411" s="3"/>
@@ -36342,17 +37276,35 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C412" s="3"/>
-      <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
-      <c r="J412" s="3"/>
-      <c r="K412" s="3"/>
+        <v>2163</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D412" s="10" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E412" s="10" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F412" s="10" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G412" s="10" t="s">
+        <v>2125</v>
+      </c>
+      <c r="H412" s="10" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I412" s="10" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J412" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K412" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="L412" s="3"/>
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
@@ -36394,17 +37346,35 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C413" s="3"/>
-      <c r="D413" s="3"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
-      <c r="J413" s="3"/>
-      <c r="K413" s="3"/>
+        <v>2170</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D413" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G413" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="H413" s="10" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I413" s="10" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J413" s="10" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K413" s="10" t="s">
+        <v>2176</v>
+      </c>
       <c r="L413" s="3"/>
       <c r="M413" s="3"/>
       <c r="N413" s="3"/>
@@ -36446,17 +37416,35 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C414" s="3"/>
-      <c r="D414" s="3"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
-      <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
-      <c r="J414" s="3"/>
-      <c r="K414" s="3"/>
+        <v>2177</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D414" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G414" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="H414" s="10" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I414" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="J414" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K414" s="10" t="s">
+        <v>2181</v>
+      </c>
       <c r="L414" s="3"/>
       <c r="M414" s="3"/>
       <c r="N414" s="3"/>
@@ -36498,17 +37486,35 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C415" s="3"/>
-      <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
-      <c r="J415" s="3"/>
-      <c r="K415" s="3"/>
+        <v>2182</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H415" s="10" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I415" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J415" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K415" s="10" t="s">
+        <v>2186</v>
+      </c>
       <c r="L415" s="3"/>
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
@@ -36550,17 +37556,35 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C416" s="3"/>
-      <c r="D416" s="3"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
-      <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
-      <c r="J416" s="3"/>
-      <c r="K416" s="3"/>
+        <v>2187</v>
+      </c>
+      <c r="C416" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D416" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G416" s="14" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H416" s="14" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I416" s="14" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J416" s="14" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K416" s="14" t="s">
+        <v>2194</v>
+      </c>
       <c r="L416" s="3"/>
       <c r="M416" s="3"/>
       <c r="N416" s="3"/>
@@ -36602,17 +37626,35 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
-      <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
-      <c r="J417" s="3"/>
-      <c r="K417" s="3"/>
+        <v>2195</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D417" s="10" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G417" s="10" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H417" s="10" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I417" s="10" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J417" s="10" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K417" s="10" t="s">
+        <v>2204</v>
+      </c>
       <c r="L417" s="3"/>
       <c r="M417" s="3"/>
       <c r="N417" s="3"/>
@@ -36654,17 +37696,29 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>2071</v>
+        <v>2205</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
-      <c r="J418" s="3"/>
-      <c r="K418" s="3"/>
+      <c r="F418" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="G418" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="H418" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="I418" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="J418" s="3">
+        <v>18000000000</v>
+      </c>
+      <c r="K418" s="3">
+        <v>27000000000</v>
+      </c>
       <c r="L418" s="3"/>
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
@@ -36706,17 +37760,35 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-      <c r="J419" s="3"/>
-      <c r="K419" s="3"/>
+        <v>2206</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D419" s="10" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G419" s="10" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H419" s="10" t="s">
+        <v>2211</v>
+      </c>
+      <c r="I419" s="10" t="s">
+        <v>2212</v>
+      </c>
+      <c r="J419" s="10" t="s">
+        <v>2213</v>
+      </c>
+      <c r="K419" s="10" t="s">
+        <v>2214</v>
+      </c>
       <c r="L419" s="3"/>
       <c r="M419" s="3"/>
       <c r="N419" s="3"/>
@@ -36758,17 +37830,35 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>2073</v>
-      </c>
-      <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-      <c r="J420" s="3"/>
-      <c r="K420" s="3"/>
+        <v>2215</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D420" s="10" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E420" s="10" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G420" s="10" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H420" s="10" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I420" s="10" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J420" s="10" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K420" s="10" t="s">
+        <v>2223</v>
+      </c>
       <c r="L420" s="3"/>
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
@@ -36810,17 +37900,35 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C421" s="3"/>
-      <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
-      <c r="J421" s="3"/>
-      <c r="K421" s="3"/>
+        <v>2224</v>
+      </c>
+      <c r="C421" s="9">
+        <v>0</v>
+      </c>
+      <c r="D421" s="9">
+        <v>0</v>
+      </c>
+      <c r="E421" s="9">
+        <v>3000000000</v>
+      </c>
+      <c r="F421" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="G421" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="H421" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="I421" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="J421" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="K421" s="9">
+        <v>0</v>
+      </c>
       <c r="L421" s="3"/>
       <c r="M421" s="3"/>
       <c r="N421" s="3"/>
@@ -36862,17 +37970,35 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C422" s="3"/>
-      <c r="D422" s="3"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
-      <c r="J422" s="3"/>
-      <c r="K422" s="3"/>
+        <v>2225</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D422" s="10" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E422" s="10" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F422" s="10" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G422" s="10" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H422" s="10" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I422" s="10" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J422" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K422" s="10" t="s">
+        <v>2234</v>
+      </c>
       <c r="L422" s="3"/>
       <c r="M422" s="3"/>
       <c r="N422" s="3"/>
@@ -36914,17 +38040,23 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>2076</v>
-      </c>
-      <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-      <c r="J423" s="3"/>
-      <c r="K423" s="3"/>
+        <v>2235</v>
+      </c>
+      <c r="G423">
+        <v>13000000000</v>
+      </c>
+      <c r="H423">
+        <v>20000000000</v>
+      </c>
+      <c r="I423">
+        <v>20000000000</v>
+      </c>
+      <c r="J423">
+        <v>29000000000</v>
+      </c>
+      <c r="K423">
+        <v>30000000000</v>
+      </c>
       <c r="L423" s="3"/>
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
@@ -36966,17 +38098,35 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C424" s="3"/>
-      <c r="D424" s="3"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-      <c r="J424" s="3"/>
-      <c r="K424" s="3"/>
+        <v>2236</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E424" s="10" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F424" s="10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G424" s="10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H424" s="10" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I424" s="10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="J424" s="10" t="s">
+        <v>2244</v>
+      </c>
+      <c r="K424" s="10" t="s">
+        <v>2245</v>
+      </c>
       <c r="L424" s="3"/>
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
@@ -37018,7 +38168,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>2078</v>
+        <v>2246</v>
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -37070,7 +38220,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>2079</v>
+        <v>2247</v>
       </c>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -37122,7 +38272,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>2080</v>
+        <v>2248</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -37174,7 +38324,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>2081</v>
+        <v>2249</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -37226,7 +38376,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>2082</v>
+        <v>2250</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -37278,7 +38428,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>2083</v>
+        <v>2251</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -37330,7 +38480,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>2084</v>
+        <v>2252</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -37382,7 +38532,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>2085</v>
+        <v>2253</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -37434,7 +38584,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>2086</v>
+        <v>2254</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -37486,7 +38636,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>2087</v>
+        <v>2255</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -37538,7 +38688,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>2088</v>
+        <v>2256</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -37590,7 +38740,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>2089</v>
+        <v>2257</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -37642,7 +38792,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2090</v>
+        <v>2258</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -37694,7 +38844,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>2091</v>
+        <v>2259</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -37746,7 +38896,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2092</v>
+        <v>2260</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -37798,7 +38948,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2093</v>
+        <v>2261</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -37850,7 +39000,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2094</v>
+        <v>2262</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -37902,7 +39052,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>2095</v>
+        <v>2263</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -37954,7 +39104,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>2096</v>
+        <v>2264</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -38006,7 +39156,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>2097</v>
+        <v>2265</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -38058,7 +39208,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>2098</v>
+        <v>2266</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -38110,7 +39260,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>2099</v>
+        <v>2267</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -38162,7 +39312,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>2100</v>
+        <v>2268</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -38214,7 +39364,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>2101</v>
+        <v>2269</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -38266,7 +39416,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2102</v>
+        <v>2270</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -38318,7 +39468,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2103</v>
+        <v>2271</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -38370,7 +39520,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2104</v>
+        <v>2272</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -38422,7 +39572,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2105</v>
+        <v>2273</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -38474,7 +39624,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2106</v>
+        <v>2274</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -38526,7 +39676,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>2107</v>
+        <v>2275</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -38578,7 +39728,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>2108</v>
+        <v>2276</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -38630,7 +39780,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>2109</v>
+        <v>2277</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -38682,7 +39832,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>2110</v>
+        <v>2278</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -38734,7 +39884,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>2111</v>
+        <v>2279</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -38786,7 +39936,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>2112</v>
+        <v>2280</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -38838,7 +39988,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2113</v>
+        <v>2281</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -38890,7 +40040,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>2114</v>
+        <v>2282</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -38942,7 +40092,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>2115</v>
+        <v>2283</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -38994,7 +40144,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>2116</v>
+        <v>2284</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -39046,7 +40196,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>2117</v>
+        <v>2285</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -39098,7 +40248,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2118</v>
+        <v>2286</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -39150,7 +40300,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>2119</v>
+        <v>2287</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -39202,7 +40352,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2120</v>
+        <v>2288</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -39254,7 +40404,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>2121</v>
+        <v>2289</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -39306,7 +40456,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>2122</v>
+        <v>2290</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -39358,7 +40508,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>2123</v>
+        <v>2291</v>
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -39410,7 +40560,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2124</v>
+        <v>2292</v>
       </c>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -39462,7 +40612,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>2125</v>
+        <v>2293</v>
       </c>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -39514,7 +40664,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2126</v>
+        <v>2294</v>
       </c>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -39566,7 +40716,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>2127</v>
+        <v>2295</v>
       </c>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -39618,7 +40768,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2128</v>
+        <v>2296</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -39670,7 +40820,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>2129</v>
+        <v>2297</v>
       </c>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -39722,7 +40872,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>2130</v>
+        <v>2298</v>
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -39774,7 +40924,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>2131</v>
+        <v>2299</v>
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -39826,7 +40976,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2132</v>
+        <v>2300</v>
       </c>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -39878,7 +41028,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>2133</v>
+        <v>2301</v>
       </c>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -39930,7 +41080,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>2134</v>
+        <v>2302</v>
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -39982,7 +41132,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>2135</v>
+        <v>2303</v>
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -40034,7 +41184,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>2136</v>
+        <v>2304</v>
       </c>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -40086,7 +41236,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>2137</v>
+        <v>2305</v>
       </c>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -40138,7 +41288,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>2138</v>
+        <v>2306</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -40190,7 +41340,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>2139</v>
+        <v>2307</v>
       </c>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -40242,7 +41392,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>2140</v>
+        <v>2308</v>
       </c>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -40294,7 +41444,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>2141</v>
+        <v>2309</v>
       </c>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -40346,7 +41496,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>2142</v>
+        <v>2310</v>
       </c>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -40398,7 +41548,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>2143</v>
+        <v>2311</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -40450,7 +41600,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>2144</v>
+        <v>2312</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -40502,7 +41652,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2145</v>
+        <v>2313</v>
       </c>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -40554,7 +41704,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2146</v>
+        <v>2314</v>
       </c>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -40606,7 +41756,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>2147</v>
+        <v>2315</v>
       </c>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -40658,7 +41808,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>2148</v>
+        <v>2316</v>
       </c>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -40710,7 +41860,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>2149</v>
+        <v>2317</v>
       </c>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -40762,7 +41912,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>2150</v>
+        <v>2318</v>
       </c>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -40814,7 +41964,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>2151</v>
+        <v>2319</v>
       </c>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -40866,7 +42016,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>2152</v>
+        <v>2320</v>
       </c>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -40918,7 +42068,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2153</v>
+        <v>2321</v>
       </c>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -40970,7 +42120,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2154</v>
+        <v>2322</v>
       </c>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -41022,7 +42172,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>2155</v>
+        <v>2323</v>
       </c>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -41074,7 +42224,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>2156</v>
+        <v>2324</v>
       </c>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -41126,7 +42276,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>2157</v>
+        <v>2325</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -41178,7 +42328,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>2158</v>
+        <v>2326</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -41230,7 +42380,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>2159</v>
+        <v>2327</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -41282,7 +42432,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>2160</v>
+        <v>2328</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -41334,7 +42484,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>2161</v>
+        <v>2329</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -41386,7 +42536,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>2162</v>
+        <v>2330</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -41438,7 +42588,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>2163</v>
+        <v>2331</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -41490,7 +42640,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>2164</v>
+        <v>2332</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -41542,7 +42692,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>2165</v>
+        <v>2333</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -41594,7 +42744,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>2166</v>
+        <v>2334</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -41646,7 +42796,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>2167</v>
+        <v>2335</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -41698,7 +42848,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>2168</v>
+        <v>2336</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -41750,7 +42900,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>2169</v>
+        <v>2337</v>
       </c>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -41802,7 +42952,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>2170</v>
+        <v>2338</v>
       </c>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -41854,7 +43004,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>2171</v>
+        <v>2339</v>
       </c>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -41906,7 +43056,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>2172</v>
+        <v>2340</v>
       </c>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -41958,7 +43108,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>2173</v>
+        <v>2341</v>
       </c>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -42010,7 +43160,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>2174</v>
+        <v>2342</v>
       </c>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -42062,7 +43212,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>2175</v>
+        <v>2343</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -42114,7 +43264,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>2176</v>
+        <v>2344</v>
       </c>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -42166,7 +43316,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>2177</v>
+        <v>2345</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -42218,7 +43368,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>2178</v>
+        <v>2346</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -42270,7 +43420,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>2179</v>
+        <v>2347</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -42322,7 +43472,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>2180</v>
+        <v>2348</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -42374,7 +43524,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>2181</v>
+        <v>2349</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -42426,7 +43576,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2182</v>
+        <v>2350</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -42478,7 +43628,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>2183</v>
+        <v>2351</v>
       </c>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -42530,7 +43680,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>2184</v>
+        <v>2352</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -42582,7 +43732,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>2185</v>
+        <v>2353</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -42634,7 +43784,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>2186</v>
+        <v>2354</v>
       </c>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -42686,7 +43836,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>2187</v>
+        <v>2355</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -42738,7 +43888,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>2188</v>
+        <v>2356</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -42790,7 +43940,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>2189</v>
+        <v>2357</v>
       </c>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -42842,7 +43992,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>2190</v>
+        <v>2358</v>
       </c>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -42894,7 +44044,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>2191</v>
+        <v>2359</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -42946,7 +44096,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>2192</v>
+        <v>2360</v>
       </c>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -42998,7 +44148,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2193</v>
+        <v>2361</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -43050,7 +44200,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>2194</v>
+        <v>2362</v>
       </c>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -43102,7 +44252,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2195</v>
+        <v>2363</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -43154,7 +44304,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>2196</v>
+        <v>2364</v>
       </c>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -43206,7 +44356,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>2197</v>
+        <v>2365</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -43258,7 +44408,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>2198</v>
+        <v>2366</v>
       </c>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -43310,7 +44460,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2199</v>
+        <v>2367</v>
       </c>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -43362,7 +44512,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>2200</v>
+        <v>2368</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -43414,7 +44564,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>2201</v>
+        <v>2369</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -43466,7 +44616,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>2202</v>
+        <v>2370</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -43518,7 +44668,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2203</v>
+        <v>2371</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -43570,7 +44720,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>2204</v>
+        <v>2372</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -43622,7 +44772,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2205</v>
+        <v>2373</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -43674,7 +44824,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2206</v>
+        <v>2374</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -43726,7 +44876,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2207</v>
+        <v>2375</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -43778,7 +44928,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2208</v>
+        <v>2376</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -43830,7 +44980,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2209</v>
+        <v>2377</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -43882,7 +45032,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2210</v>
+        <v>2378</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -43934,7 +45084,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2211</v>
+        <v>2379</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -43986,7 +45136,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2212</v>
+        <v>2380</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -44038,7 +45188,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2213</v>
+        <v>2381</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -44090,7 +45240,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2214</v>
+        <v>2382</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -44142,7 +45292,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2215</v>
+        <v>2383</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -44194,7 +45344,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2216</v>
+        <v>2384</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -44246,7 +45396,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2217</v>
+        <v>2385</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -44298,7 +45448,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2218</v>
+        <v>2386</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -44350,7 +45500,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2219</v>
+        <v>2387</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -44402,7 +45552,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2220</v>
+        <v>2388</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -44454,7 +45604,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2221</v>
+        <v>2389</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -44506,7 +45656,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2222</v>
+        <v>2390</v>
       </c>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -44558,7 +45708,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2223</v>
+        <v>2391</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -44610,7 +45760,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2224</v>
+        <v>2392</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -44662,7 +45812,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2225</v>
+        <v>2393</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -44714,7 +45864,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2226</v>
+        <v>2394</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -44766,7 +45916,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2227</v>
+        <v>2395</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -44818,7 +45968,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2228</v>
+        <v>2396</v>
       </c>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -44870,7 +46020,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2229</v>
+        <v>2397</v>
       </c>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -44922,7 +46072,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2230</v>
+        <v>2398</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -44974,7 +46124,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2231</v>
+        <v>2399</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -45026,7 +46176,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2232</v>
+        <v>2400</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -45078,7 +46228,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2233</v>
+        <v>2401</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -45130,7 +46280,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2234</v>
+        <v>2402</v>
       </c>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -45182,7 +46332,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2235</v>
+        <v>2403</v>
       </c>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -45234,7 +46384,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2236</v>
+        <v>2404</v>
       </c>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -45286,7 +46436,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2237</v>
+        <v>2405</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -45338,7 +46488,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2238</v>
+        <v>2406</v>
       </c>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -45390,7 +46540,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2239</v>
+        <v>2407</v>
       </c>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -45442,7 +46592,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2240</v>
+        <v>2408</v>
       </c>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -45494,7 +46644,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2241</v>
+        <v>2409</v>
       </c>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -45546,7 +46696,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2242</v>
+        <v>2410</v>
       </c>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -45598,7 +46748,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2243</v>
+        <v>2411</v>
       </c>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -45650,7 +46800,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2244</v>
+        <v>2412</v>
       </c>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -45702,7 +46852,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2245</v>
+        <v>2413</v>
       </c>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -45754,7 +46904,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2246</v>
+        <v>2414</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -45806,7 +46956,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>2247</v>
+        <v>2415</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -45858,7 +47008,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2248</v>
+        <v>2416</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -45910,7 +47060,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>2249</v>
+        <v>2417</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -45962,7 +47112,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>2250</v>
+        <v>2418</v>
       </c>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -46014,7 +47164,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2251</v>
+        <v>2419</v>
       </c>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -46066,7 +47216,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2252</v>
+        <v>2420</v>
       </c>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -46118,7 +47268,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2253</v>
+        <v>2421</v>
       </c>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -46170,7 +47320,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2254</v>
+        <v>2422</v>
       </c>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -46222,7 +47372,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>2255</v>
+        <v>2423</v>
       </c>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -46274,7 +47424,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>2256</v>
+        <v>2424</v>
       </c>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -46326,7 +47476,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2257</v>
+        <v>2425</v>
       </c>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -46378,7 +47528,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2258</v>
+        <v>2426</v>
       </c>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -46430,7 +47580,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2259</v>
+        <v>2427</v>
       </c>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -46482,7 +47632,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2260</v>
+        <v>2428</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -46534,7 +47684,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>2261</v>
+        <v>2429</v>
       </c>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -46586,7 +47736,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2262</v>
+        <v>2430</v>
       </c>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -46638,7 +47788,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>2263</v>
+        <v>2431</v>
       </c>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -46690,7 +47840,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2264</v>
+        <v>2432</v>
       </c>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -46742,7 +47892,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2265</v>
+        <v>2433</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -46794,7 +47944,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2266</v>
+        <v>2434</v>
       </c>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -46846,7 +47996,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>2267</v>
+        <v>2435</v>
       </c>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -46898,7 +48048,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2268</v>
+        <v>2436</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -46950,7 +48100,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2269</v>
+        <v>2437</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -47002,7 +48152,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>2270</v>
+        <v>2438</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -47054,7 +48204,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>2271</v>
+        <v>2439</v>
       </c>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -47106,7 +48256,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2272</v>
+        <v>2440</v>
       </c>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -47158,7 +48308,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2273</v>
+        <v>2441</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -47210,7 +48360,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2274</v>
+        <v>2442</v>
       </c>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -47262,7 +48412,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2275</v>
+        <v>2443</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -47314,7 +48464,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2276</v>
+        <v>2444</v>
       </c>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -47366,7 +48516,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2277</v>
+        <v>2445</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -47418,7 +48568,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2278</v>
+        <v>2446</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -47470,7 +48620,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2279</v>
+        <v>2447</v>
       </c>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -47522,7 +48672,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2280</v>
+        <v>2448</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -47574,7 +48724,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2281</v>
+        <v>2449</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -47626,7 +48776,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2282</v>
+        <v>2450</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -47678,7 +48828,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2283</v>
+        <v>2451</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -47730,7 +48880,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>2284</v>
+        <v>2452</v>
       </c>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -47782,7 +48932,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>2285</v>
+        <v>2453</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -47834,7 +48984,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2286</v>
+        <v>2454</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -47886,7 +49036,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2287</v>
+        <v>2455</v>
       </c>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -47938,7 +49088,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2288</v>
+        <v>2456</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -47990,7 +49140,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2289</v>
+        <v>2457</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -48042,7 +49192,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2290</v>
+        <v>2458</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -48094,7 +49244,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2291</v>
+        <v>2459</v>
       </c>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -48146,7 +49296,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2292</v>
+        <v>2460</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -48198,7 +49348,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2293</v>
+        <v>2461</v>
       </c>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -48250,7 +49400,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2294</v>
+        <v>2462</v>
       </c>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -48302,7 +49452,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2295</v>
+        <v>2463</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -48354,7 +49504,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2296</v>
+        <v>2464</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -48406,7 +49556,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2297</v>
+        <v>2465</v>
       </c>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -48458,7 +49608,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>2298</v>
+        <v>2466</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -48510,7 +49660,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2299</v>
+        <v>2467</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -48562,7 +49712,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2300</v>
+        <v>2468</v>
       </c>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -48614,7 +49764,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2301</v>
+        <v>2469</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -48666,7 +49816,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2302</v>
+        <v>2470</v>
       </c>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -48718,7 +49868,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2303</v>
+        <v>2471</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -48770,7 +49920,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2304</v>
+        <v>2472</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -48822,7 +49972,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2305</v>
+        <v>2473</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -48874,7 +50024,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2306</v>
+        <v>2474</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -48926,7 +50076,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2307</v>
+        <v>2475</v>
       </c>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -48978,7 +50128,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2308</v>
+        <v>2476</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -49030,7 +50180,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2309</v>
+        <v>2477</v>
       </c>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -49082,7 +50232,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2310</v>
+        <v>2478</v>
       </c>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -49134,7 +50284,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2311</v>
+        <v>2479</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -49186,7 +50336,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2312</v>
+        <v>2480</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -49238,7 +50388,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2313</v>
+        <v>2481</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -49290,7 +50440,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2314</v>
+        <v>2482</v>
       </c>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -49342,7 +50492,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2315</v>
+        <v>2483</v>
       </c>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -49394,7 +50544,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2316</v>
+        <v>2484</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -49446,7 +50596,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2317</v>
+        <v>2485</v>
       </c>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -49498,7 +50648,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2318</v>
+        <v>2486</v>
       </c>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -49550,7 +50700,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2319</v>
+        <v>2487</v>
       </c>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -49602,7 +50752,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2320</v>
+        <v>2488</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -49654,7 +50804,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2321</v>
+        <v>2489</v>
       </c>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -49706,7 +50856,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2322</v>
+        <v>2490</v>
       </c>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -49758,7 +50908,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2323</v>
+        <v>2491</v>
       </c>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -49810,7 +50960,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2324</v>
+        <v>2492</v>
       </c>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -49862,7 +51012,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2325</v>
+        <v>2493</v>
       </c>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -49914,7 +51064,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2326</v>
+        <v>2494</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -49966,7 +51116,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2327</v>
+        <v>2495</v>
       </c>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -50018,7 +51168,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2328</v>
+        <v>2496</v>
       </c>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -50070,7 +51220,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2329</v>
+        <v>2497</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -50122,7 +51272,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2330</v>
+        <v>2498</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -50174,7 +51324,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2331</v>
+        <v>2499</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -50226,7 +51376,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2332</v>
+        <v>2500</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -50278,7 +51428,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2333</v>
+        <v>2501</v>
       </c>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -50330,7 +51480,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2334</v>
+        <v>2502</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -50382,7 +51532,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2335</v>
+        <v>2503</v>
       </c>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -50434,7 +51584,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2336</v>
+        <v>2504</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -50486,7 +51636,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2337</v>
+        <v>2505</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -50538,7 +51688,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2338</v>
+        <v>2506</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -50590,7 +51740,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2339</v>
+        <v>2507</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -50642,7 +51792,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2340</v>
+        <v>2508</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -50694,7 +51844,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2341</v>
+        <v>2509</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -50746,7 +51896,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2342</v>
+        <v>2510</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -50798,7 +51948,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2343</v>
+        <v>2511</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -50850,7 +52000,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2344</v>
+        <v>2512</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -50902,7 +52052,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2345</v>
+        <v>2513</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -50954,7 +52104,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>2346</v>
+        <v>2514</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -51006,7 +52156,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>2347</v>
+        <v>2515</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -51058,7 +52208,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>2348</v>
+        <v>2516</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -51110,7 +52260,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2349</v>
+        <v>2517</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -51162,7 +52312,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2350</v>
+        <v>2518</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -51214,7 +52364,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>2351</v>
+        <v>2519</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -51266,7 +52416,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>2352</v>
+        <v>2520</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -51318,7 +52468,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2353</v>
+        <v>2521</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -51370,7 +52520,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2354</v>
+        <v>2522</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -51422,7 +52572,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2355</v>
+        <v>2523</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -51474,7 +52624,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2356</v>
+        <v>2524</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -51526,7 +52676,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2357</v>
+        <v>2525</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -51578,7 +52728,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>2358</v>
+        <v>2526</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -51630,7 +52780,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>2359</v>
+        <v>2527</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -51682,7 +52832,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>2360</v>
+        <v>2528</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -51734,7 +52884,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>2361</v>
+        <v>2529</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -51786,7 +52936,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>2362</v>
+        <v>2530</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -51838,7 +52988,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2363</v>
+        <v>2531</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -51890,7 +53040,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2364</v>
+        <v>2532</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -51942,7 +53092,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2365</v>
+        <v>2533</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -51994,7 +53144,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2366</v>
+        <v>2534</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -52046,7 +53196,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2367</v>
+        <v>2535</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -52098,7 +53248,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2368</v>
+        <v>2536</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -52150,7 +53300,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2369</v>
+        <v>2537</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -52202,7 +53352,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2370</v>
+        <v>2538</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -52254,7 +53404,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2371</v>
+        <v>2539</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -52306,7 +53456,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2372</v>
+        <v>2540</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -52358,7 +53508,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2373</v>
+        <v>2541</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -52410,7 +53560,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>2374</v>
+        <v>2542</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -52462,7 +53612,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>2375</v>
+        <v>2543</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -52514,7 +53664,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>2376</v>
+        <v>2544</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -52566,7 +53716,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2377</v>
+        <v>2545</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -52618,7 +53768,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2378</v>
+        <v>2546</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -52670,7 +53820,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>2379</v>
+        <v>2547</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -52722,7 +53872,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>2380</v>
+        <v>2548</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -52774,7 +53924,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>2381</v>
+        <v>2549</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -52826,7 +53976,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2382</v>
+        <v>2550</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -52878,7 +54028,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2383</v>
+        <v>2551</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -52930,7 +54080,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2384</v>
+        <v>2552</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -52982,7 +54132,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2385</v>
+        <v>2553</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -53034,7 +54184,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2386</v>
+        <v>2554</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -53086,7 +54236,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2387</v>
+        <v>2555</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -53138,7 +54288,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>2388</v>
+        <v>2556</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -53190,7 +54340,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>2389</v>
+        <v>2557</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -53242,7 +54392,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>2390</v>
+        <v>2558</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -53294,7 +54444,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2391</v>
+        <v>2559</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -53346,7 +54496,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2392</v>
+        <v>2560</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -53398,7 +54548,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2393</v>
+        <v>2561</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -53450,7 +54600,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>2394</v>
+        <v>2562</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -53502,7 +54652,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2395</v>
+        <v>2563</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -53554,7 +54704,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2396</v>
+        <v>2564</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -53606,7 +54756,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>2397</v>
+        <v>2565</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -53658,7 +54808,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2398</v>
+        <v>2566</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -53710,7 +54860,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2399</v>
+        <v>2567</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -53762,7 +54912,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>2400</v>
+        <v>2568</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -53814,7 +54964,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>2401</v>
+        <v>2569</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -53866,7 +55016,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>2402</v>
+        <v>2570</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -53918,7 +55068,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>2403</v>
+        <v>2571</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -53970,7 +55120,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>2404</v>
+        <v>2572</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -54022,7 +55172,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2405</v>
+        <v>2573</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -54074,7 +55224,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2406</v>
+        <v>2574</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -54126,7 +55276,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2407</v>
+        <v>2575</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -54178,7 +55328,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>2408</v>
+        <v>2576</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -54230,7 +55380,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2409</v>
+        <v>2577</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -54282,7 +55432,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2410</v>
+        <v>2578</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -54334,7 +55484,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2411</v>
+        <v>2579</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -54386,7 +55536,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2412</v>
+        <v>2580</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -54438,7 +55588,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2413</v>
+        <v>2581</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -54490,7 +55640,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2414</v>
+        <v>2582</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -54542,7 +55692,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2415</v>
+        <v>2583</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -54594,7 +55744,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2416</v>
+        <v>2584</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -54646,7 +55796,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2417</v>
+        <v>2585</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -54698,7 +55848,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>2418</v>
+        <v>2586</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -54750,7 +55900,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2419</v>
+        <v>2587</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -54802,7 +55952,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2420</v>
+        <v>2588</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -54854,7 +56004,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2421</v>
+        <v>2589</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -54906,7 +56056,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2422</v>
+        <v>2590</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -54958,7 +56108,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2423</v>
+        <v>2591</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -55010,7 +56160,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2424</v>
+        <v>2592</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -55062,7 +56212,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2425</v>
+        <v>2593</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -55114,7 +56264,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2426</v>
+        <v>2594</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -55166,7 +56316,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2427</v>
+        <v>2595</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -55218,7 +56368,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2428</v>
+        <v>2596</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -55270,7 +56420,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2429</v>
+        <v>2597</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -55322,7 +56472,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2430</v>
+        <v>2598</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -55374,7 +56524,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -55426,7 +56576,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2432</v>
+        <v>2600</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -55478,7 +56628,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2433</v>
+        <v>2601</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -55530,7 +56680,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2434</v>
+        <v>2602</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -55582,7 +56732,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2435</v>
+        <v>2603</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -55634,7 +56784,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2436</v>
+        <v>2604</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -55686,7 +56836,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2437</v>
+        <v>2605</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -55738,7 +56888,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2438</v>
+        <v>2606</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -55790,7 +56940,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2439</v>
+        <v>2607</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -55842,7 +56992,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2440</v>
+        <v>2608</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -55894,7 +57044,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2441</v>
+        <v>2609</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -55946,7 +57096,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2442</v>
+        <v>2610</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -55998,7 +57148,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2443</v>
+        <v>2611</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -56050,7 +57200,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2444</v>
+        <v>2612</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -56102,7 +57252,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2445</v>
+        <v>2613</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -56154,7 +57304,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2446</v>
+        <v>2614</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -56206,7 +57356,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2447</v>
+        <v>2615</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -56258,7 +57408,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2448</v>
+        <v>2616</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -56310,7 +57460,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2449</v>
+        <v>2617</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -56362,7 +57512,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2450</v>
+        <v>2618</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -56414,7 +57564,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2451</v>
+        <v>2619</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -56466,7 +57616,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2452</v>
+        <v>2620</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -56518,7 +57668,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2453</v>
+        <v>2621</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -56570,7 +57720,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2454</v>
+        <v>2622</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -56622,7 +57772,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2455</v>
+        <v>2623</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -56674,7 +57824,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2456</v>
+        <v>2624</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -56726,7 +57876,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2457</v>
+        <v>2625</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -56778,7 +57928,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2458</v>
+        <v>2626</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -56830,7 +57980,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2459</v>
+        <v>2627</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -56882,7 +58032,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2460</v>
+        <v>2628</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -56934,7 +58084,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2461</v>
+        <v>2629</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -56986,7 +58136,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2462</v>
+        <v>2630</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -57038,7 +58188,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2463</v>
+        <v>2631</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -57090,7 +58240,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2464</v>
+        <v>2632</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -57142,7 +58292,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2465</v>
+        <v>2633</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -57194,7 +58344,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2466</v>
+        <v>2634</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -57246,7 +58396,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2467</v>
+        <v>2635</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -57298,7 +58448,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2468</v>
+        <v>2636</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -57350,7 +58500,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2469</v>
+        <v>2637</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -57402,7 +58552,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2470</v>
+        <v>2638</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -57454,7 +58604,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2471</v>
+        <v>2639</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -57506,7 +58656,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2472</v>
+        <v>2640</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -57558,7 +58708,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2473</v>
+        <v>2641</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -57610,7 +58760,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2474</v>
+        <v>2642</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -57662,7 +58812,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2475</v>
+        <v>2643</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -57714,7 +58864,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2476</v>
+        <v>2644</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -57766,7 +58916,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2477</v>
+        <v>2645</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -57818,7 +58968,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2478</v>
+        <v>2646</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -57870,7 +59020,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2479</v>
+        <v>2647</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -57922,7 +59072,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2480</v>
+        <v>2648</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -57974,7 +59124,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2481</v>
+        <v>2649</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -58026,7 +59176,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2482</v>
+        <v>2650</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -58078,7 +59228,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2483</v>
+        <v>2651</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -58130,7 +59280,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2484</v>
+        <v>2652</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -58182,7 +59332,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2485</v>
+        <v>2653</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -58234,7 +59384,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2486</v>
+        <v>2654</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -58286,7 +59436,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2487</v>
+        <v>2655</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -58338,7 +59488,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2488</v>
+        <v>2656</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -58390,7 +59540,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2489</v>
+        <v>2657</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -58442,7 +59592,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2490</v>
+        <v>2658</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -58494,7 +59644,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2491</v>
+        <v>2659</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -58546,7 +59696,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2492</v>
+        <v>2660</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -58598,7 +59748,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2493</v>
+        <v>2661</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -58650,7 +59800,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2494</v>
+        <v>2662</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -58702,7 +59852,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2495</v>
+        <v>2663</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -58754,7 +59904,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2496</v>
+        <v>2664</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -58806,7 +59956,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2497</v>
+        <v>2665</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -58858,7 +60008,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2498</v>
+        <v>2666</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -58910,7 +60060,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2499</v>
+        <v>2667</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -58962,7 +60112,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2500</v>
+        <v>2668</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -59014,7 +60164,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2501</v>
+        <v>2669</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -59066,7 +60216,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2502</v>
+        <v>2670</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -59118,7 +60268,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2503</v>
+        <v>2671</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -59170,7 +60320,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2504</v>
+        <v>2672</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -59222,7 +60372,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2505</v>
+        <v>2673</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -59274,7 +60424,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2506</v>
+        <v>2674</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -59326,7 +60476,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2507</v>
+        <v>2675</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -59378,7 +60528,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2508</v>
+        <v>2676</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -59430,7 +60580,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2509</v>
+        <v>2677</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -59482,7 +60632,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2510</v>
+        <v>2678</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -59534,7 +60684,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2511</v>
+        <v>2679</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -59586,7 +60736,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2512</v>
+        <v>2680</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -59638,7 +60788,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2513</v>
+        <v>2681</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -59690,7 +60840,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2514</v>
+        <v>2682</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -59742,7 +60892,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2515</v>
+        <v>2683</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -59794,7 +60944,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2516</v>
+        <v>2684</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -59846,7 +60996,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2517</v>
+        <v>2685</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -59898,7 +61048,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2518</v>
+        <v>2686</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -59950,7 +61100,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>2519</v>
+        <v>2687</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -60002,7 +61152,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2520</v>
+        <v>2688</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -60054,7 +61204,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2521</v>
+        <v>2689</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -60106,7 +61256,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>2522</v>
+        <v>2690</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -60158,7 +61308,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>2523</v>
+        <v>2691</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -60210,7 +61360,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2524</v>
+        <v>2692</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -60262,7 +61412,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2525</v>
+        <v>2693</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -60314,7 +61464,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2526</v>
+        <v>2694</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -60366,7 +61516,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2527</v>
+        <v>2695</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -60418,7 +61568,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2528</v>
+        <v>2696</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -60470,7 +61620,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2529</v>
+        <v>2697</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -60522,7 +61672,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>2530</v>
+        <v>2698</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -60574,7 +61724,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2531</v>
+        <v>2699</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -60626,7 +61776,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2532</v>
+        <v>2700</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -60678,7 +61828,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2533</v>
+        <v>2701</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -60730,7 +61880,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2534</v>
+        <v>2702</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -60782,7 +61932,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>2535</v>
+        <v>2703</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -60834,7 +61984,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2536</v>
+        <v>2704</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -60886,7 +62036,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>2537</v>
+        <v>2705</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -60938,7 +62088,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2538</v>
+        <v>2706</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -60990,7 +62140,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2539</v>
+        <v>2707</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -61042,7 +62192,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2540</v>
+        <v>2708</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -61094,7 +62244,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2541</v>
+        <v>2709</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -61146,7 +62296,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>2542</v>
+        <v>2710</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -61198,7 +62348,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2543</v>
+        <v>2711</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -61250,7 +62400,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2544</v>
+        <v>2712</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -61302,7 +62452,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2545</v>
+        <v>2713</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -61354,7 +62504,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2546</v>
+        <v>2714</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -61406,7 +62556,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2547</v>
+        <v>2715</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -61458,7 +62608,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2548</v>
+        <v>2716</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -61510,7 +62660,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>2549</v>
+        <v>2717</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -61562,7 +62712,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>2550</v>
+        <v>2718</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -61614,7 +62764,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2551</v>
+        <v>2719</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -61666,7 +62816,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2552</v>
+        <v>2720</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -61718,7 +62868,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2553</v>
+        <v>2721</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -61770,7 +62920,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2554</v>
+        <v>2722</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -61822,7 +62972,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2555</v>
+        <v>2723</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -61874,7 +63024,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>2556</v>
+        <v>2724</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -61926,7 +63076,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2557</v>
+        <v>2725</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -61978,7 +63128,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2558</v>
+        <v>2726</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -62030,7 +63180,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2559</v>
+        <v>2727</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -62082,7 +63232,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2560</v>
+        <v>2728</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -62134,7 +63284,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2561</v>
+        <v>2729</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -62186,7 +63336,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2562</v>
+        <v>2730</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -62238,7 +63388,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>2563</v>
+        <v>2731</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -62290,7 +63440,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>2564</v>
+        <v>2732</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -62342,7 +63492,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2565</v>
+        <v>2733</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -62394,7 +63544,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2566</v>
+        <v>2734</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -62446,7 +63596,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>2567</v>
+        <v>2735</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -62498,7 +63648,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>2568</v>
+        <v>2736</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -62550,7 +63700,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>2569</v>
+        <v>2737</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -62602,7 +63752,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>2570</v>
+        <v>2738</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -62654,7 +63804,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>2571</v>
+        <v>2739</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -62706,7 +63856,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>2572</v>
+        <v>2740</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -62758,7 +63908,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2573</v>
+        <v>2741</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -62810,7 +63960,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2574</v>
+        <v>2742</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -62862,7 +64012,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2575</v>
+        <v>2743</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -62914,7 +64064,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2576</v>
+        <v>2744</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -62966,7 +64116,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2577</v>
+        <v>2745</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -63018,7 +64168,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2578</v>
+        <v>2746</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -63070,7 +64220,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2579</v>
+        <v>2747</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -63122,7 +64272,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2580</v>
+        <v>2748</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -63174,7 +64324,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2581</v>
+        <v>2749</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -63226,7 +64376,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>2582</v>
+        <v>2750</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -63278,7 +64428,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>2583</v>
+        <v>2751</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -63330,7 +64480,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2584</v>
+        <v>2752</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -63382,7 +64532,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2585</v>
+        <v>2753</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -63434,7 +64584,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2586</v>
+        <v>2754</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -63486,7 +64636,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2587</v>
+        <v>2755</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -63538,7 +64688,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2588</v>
+        <v>2756</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -63590,7 +64740,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>2589</v>
+        <v>2757</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -63642,7 +64792,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2590</v>
+        <v>2758</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -63694,7 +64844,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2591</v>
+        <v>2759</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -63746,7 +64896,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2592</v>
+        <v>2760</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -63798,7 +64948,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2593</v>
+        <v>2761</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -63850,7 +65000,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2594</v>
+        <v>2762</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -63902,7 +65052,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2595</v>
+        <v>2763</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -63954,7 +65104,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2596</v>
+        <v>2764</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -64006,7 +65156,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2597</v>
+        <v>2765</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -64058,7 +65208,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2598</v>
+        <v>2766</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -64110,7 +65260,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2599</v>
+        <v>2767</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -64162,7 +65312,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>2600</v>
+        <v>2768</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -64214,7 +65364,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2601</v>
+        <v>2769</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -64266,7 +65416,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2602</v>
+        <v>2770</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -64318,7 +65468,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>2603</v>
+        <v>2771</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -64370,7 +65520,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2604</v>
+        <v>2772</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -64422,7 +65572,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>2605</v>
+        <v>2773</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -64474,7 +65624,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>2606</v>
+        <v>2774</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -64526,7 +65676,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>2607</v>
+        <v>2775</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -64578,7 +65728,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2608</v>
+        <v>2776</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -64630,7 +65780,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2609</v>
+        <v>2777</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -64682,7 +65832,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2610</v>
+        <v>2778</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -64734,7 +65884,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2611</v>
+        <v>2779</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="2780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2800">
   <si>
     <t>No</t>
   </si>
@@ -6770,13 +6770,73 @@
     <t>INOV</t>
   </si>
   <si>
+    <t>495000000000</t>
+  </si>
+  <si>
+    <t>692000000000</t>
+  </si>
+  <si>
+    <t>600000000000</t>
+  </si>
+  <si>
+    <t>629000000000</t>
+  </si>
+  <si>
     <t>INPC</t>
   </si>
   <si>
+    <t>2268000000000</t>
+  </si>
+  <si>
+    <t>2399000000000</t>
+  </si>
+  <si>
+    <t>2264000000000</t>
+  </si>
+  <si>
+    <t>1977000000000</t>
+  </si>
+  <si>
+    <t>1534000000000</t>
+  </si>
+  <si>
+    <t>1442000000000</t>
+  </si>
+  <si>
+    <t>1485000000000</t>
+  </si>
+  <si>
+    <t>1646000000000</t>
+  </si>
+  <si>
     <t>INPP</t>
   </si>
   <si>
+    <t>596000000000</t>
+  </si>
+  <si>
+    <t>770000000000</t>
+  </si>
+  <si>
+    <t>900000000000</t>
+  </si>
+  <si>
+    <t>956000000000</t>
+  </si>
+  <si>
+    <t>1105000000000</t>
+  </si>
+  <si>
     <t>INPS</t>
+  </si>
+  <si>
+    <t>405000000000</t>
+  </si>
+  <si>
+    <t>256000000000</t>
+  </si>
+  <si>
+    <t>277000000000</t>
   </si>
   <si>
     <t>INRU</t>
@@ -9403,7 +9463,7 @@
   <dimension ref="A1:AY958"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -37208,31 +37268,31 @@
       <c r="B411" s="3" t="s">
         <v>2155</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C411" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="D411" s="14" t="s">
+      <c r="D411" s="10" t="s">
         <v>2156</v>
       </c>
-      <c r="E411" s="14" t="s">
+      <c r="E411" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="F411" s="14" t="s">
+      <c r="F411" s="10" t="s">
         <v>2157</v>
       </c>
-      <c r="G411" s="14" t="s">
+      <c r="G411" s="10" t="s">
         <v>2158</v>
       </c>
-      <c r="H411" s="14" t="s">
+      <c r="H411" s="10" t="s">
         <v>2159</v>
       </c>
-      <c r="I411" s="14" t="s">
+      <c r="I411" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="J411" s="14" t="s">
+      <c r="J411" s="10" t="s">
         <v>2161</v>
       </c>
-      <c r="K411" s="14" t="s">
+      <c r="K411" s="10" t="s">
         <v>2162</v>
       </c>
       <c r="L411" s="3"/>
@@ -37558,31 +37618,31 @@
       <c r="B416" s="3" t="s">
         <v>2187</v>
       </c>
-      <c r="C416" s="14" t="s">
+      <c r="C416" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="D416" s="14" t="s">
+      <c r="D416" s="10" t="s">
         <v>2188</v>
       </c>
-      <c r="E416" s="14" t="s">
+      <c r="E416" s="10" t="s">
         <v>2189</v>
       </c>
-      <c r="F416" s="14" t="s">
+      <c r="F416" s="10" t="s">
         <v>2190</v>
       </c>
-      <c r="G416" s="14" t="s">
+      <c r="G416" s="10" t="s">
         <v>2191</v>
       </c>
-      <c r="H416" s="14" t="s">
+      <c r="H416" s="10" t="s">
         <v>2192</v>
       </c>
-      <c r="I416" s="14" t="s">
+      <c r="I416" s="10" t="s">
         <v>2139</v>
       </c>
-      <c r="J416" s="14" t="s">
+      <c r="J416" s="10" t="s">
         <v>2193</v>
       </c>
-      <c r="K416" s="14" t="s">
+      <c r="K416" s="10" t="s">
         <v>2194</v>
       </c>
       <c r="L416" s="3"/>
@@ -37902,31 +37962,31 @@
       <c r="B421" s="3" t="s">
         <v>2224</v>
       </c>
-      <c r="C421" s="9">
+      <c r="C421" s="3">
         <v>0</v>
       </c>
-      <c r="D421" s="9">
+      <c r="D421" s="3">
         <v>0</v>
       </c>
-      <c r="E421" s="9">
+      <c r="E421" s="3">
         <v>3000000000</v>
       </c>
-      <c r="F421" s="9">
+      <c r="F421" s="3">
         <v>5000000000</v>
       </c>
-      <c r="G421" s="9">
+      <c r="G421" s="3">
         <v>5000000000</v>
       </c>
-      <c r="H421" s="9">
+      <c r="H421" s="3">
         <v>5000000000</v>
       </c>
-      <c r="I421" s="9">
+      <c r="I421" s="3">
         <v>5000000000</v>
       </c>
-      <c r="J421" s="9">
+      <c r="J421" s="3">
         <v>1000000000</v>
       </c>
-      <c r="K421" s="9">
+      <c r="K421" s="3">
         <v>0</v>
       </c>
       <c r="L421" s="3"/>
@@ -38172,13 +38232,27 @@
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
-      <c r="J425" s="3"/>
-      <c r="K425" s="3"/>
+      <c r="E425" s="14" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F425" s="14" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="H425" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I425" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J425" s="14" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K425" s="14" t="s">
+        <v>2250</v>
+      </c>
       <c r="L425" s="3"/>
       <c r="M425" s="3"/>
       <c r="N425" s="3"/>
@@ -38220,17 +38294,35 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C426" s="3"/>
-      <c r="D426" s="3"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
-      <c r="J426" s="3"/>
-      <c r="K426" s="3"/>
+        <v>2251</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D426" s="10" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E426" s="10" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F426" s="10" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G426" s="10" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H426" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="I426" s="10" t="s">
+        <v>2257</v>
+      </c>
+      <c r="J426" s="10" t="s">
+        <v>2258</v>
+      </c>
+      <c r="K426" s="10" t="s">
+        <v>2259</v>
+      </c>
       <c r="L426" s="3"/>
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
@@ -38272,17 +38364,35 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C427" s="3"/>
-      <c r="D427" s="3"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
-      <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
-      <c r="J427" s="3"/>
-      <c r="K427" s="3"/>
+        <v>2260</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D427" s="10" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E427" s="10" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G427" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H427" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I427" s="10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J427" s="10" t="s">
+        <v>2265</v>
+      </c>
+      <c r="K427" s="10" t="s">
+        <v>791</v>
+      </c>
       <c r="L427" s="3"/>
       <c r="M427" s="3"/>
       <c r="N427" s="3"/>
@@ -38324,17 +38434,33 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>2249</v>
+        <v>2266</v>
       </c>
       <c r="C428" s="3"/>
-      <c r="D428" s="3"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
-      <c r="J428" s="3"/>
-      <c r="K428" s="3"/>
+      <c r="D428" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E428" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F428" s="10" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G428" s="10" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H428" s="10" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I428" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J428" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="K428" s="10" t="s">
+        <v>1491</v>
+      </c>
       <c r="L428" s="3"/>
       <c r="M428" s="3"/>
       <c r="N428" s="3"/>
@@ -38376,7 +38502,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>2250</v>
+        <v>2270</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -38428,7 +38554,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>2251</v>
+        <v>2271</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -38480,7 +38606,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>2252</v>
+        <v>2272</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -38532,7 +38658,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>2253</v>
+        <v>2273</v>
       </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -38584,7 +38710,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>2254</v>
+        <v>2274</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -38636,7 +38762,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>2255</v>
+        <v>2275</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -38688,7 +38814,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>2256</v>
+        <v>2276</v>
       </c>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -38740,7 +38866,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>2257</v>
+        <v>2277</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -38792,7 +38918,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2258</v>
+        <v>2278</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -38844,7 +38970,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>2259</v>
+        <v>2279</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -38896,7 +39022,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2260</v>
+        <v>2280</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -38948,7 +39074,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2261</v>
+        <v>2281</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -39000,7 +39126,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2262</v>
+        <v>2282</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -39052,7 +39178,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>2263</v>
+        <v>2283</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -39104,7 +39230,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>2264</v>
+        <v>2284</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -39156,7 +39282,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>2265</v>
+        <v>2285</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -39208,7 +39334,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>2266</v>
+        <v>2286</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -39260,7 +39386,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>2267</v>
+        <v>2287</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -39312,7 +39438,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>2268</v>
+        <v>2288</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -39364,7 +39490,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>2269</v>
+        <v>2289</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -39416,7 +39542,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2270</v>
+        <v>2290</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -39468,7 +39594,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2271</v>
+        <v>2291</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -39520,7 +39646,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2272</v>
+        <v>2292</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -39572,7 +39698,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2273</v>
+        <v>2293</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -39624,7 +39750,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2274</v>
+        <v>2294</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -39676,7 +39802,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>2275</v>
+        <v>2295</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -39728,7 +39854,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>2276</v>
+        <v>2296</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -39780,7 +39906,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>2277</v>
+        <v>2297</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -39832,7 +39958,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>2278</v>
+        <v>2298</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -39884,7 +40010,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>2279</v>
+        <v>2299</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -39936,7 +40062,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>2280</v>
+        <v>2300</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -39988,7 +40114,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2281</v>
+        <v>2301</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -40040,7 +40166,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>2282</v>
+        <v>2302</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -40092,7 +40218,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>2283</v>
+        <v>2303</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -40144,7 +40270,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>2284</v>
+        <v>2304</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -40196,7 +40322,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>2285</v>
+        <v>2305</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -40248,7 +40374,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2286</v>
+        <v>2306</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -40300,7 +40426,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>2287</v>
+        <v>2307</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -40352,7 +40478,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2288</v>
+        <v>2308</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -40404,7 +40530,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>2289</v>
+        <v>2309</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -40456,7 +40582,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>2290</v>
+        <v>2310</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -40508,7 +40634,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>2291</v>
+        <v>2311</v>
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -40560,7 +40686,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2292</v>
+        <v>2312</v>
       </c>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -40612,7 +40738,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>2293</v>
+        <v>2313</v>
       </c>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -40664,7 +40790,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2294</v>
+        <v>2314</v>
       </c>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -40716,7 +40842,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>2295</v>
+        <v>2315</v>
       </c>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -40768,7 +40894,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2296</v>
+        <v>2316</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -40820,7 +40946,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>2297</v>
+        <v>2317</v>
       </c>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -40872,7 +40998,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>2298</v>
+        <v>2318</v>
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -40924,7 +41050,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>2299</v>
+        <v>2319</v>
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -40976,7 +41102,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -41028,7 +41154,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>2301</v>
+        <v>2321</v>
       </c>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -41080,7 +41206,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>2302</v>
+        <v>2322</v>
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -41132,7 +41258,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>2303</v>
+        <v>2323</v>
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -41184,7 +41310,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>2304</v>
+        <v>2324</v>
       </c>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -41236,7 +41362,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>2305</v>
+        <v>2325</v>
       </c>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -41288,7 +41414,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>2306</v>
+        <v>2326</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -41340,7 +41466,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>2307</v>
+        <v>2327</v>
       </c>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -41392,7 +41518,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>2308</v>
+        <v>2328</v>
       </c>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -41444,7 +41570,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>2309</v>
+        <v>2329</v>
       </c>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -41496,7 +41622,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>2310</v>
+        <v>2330</v>
       </c>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -41548,7 +41674,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>2311</v>
+        <v>2331</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -41600,7 +41726,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>2312</v>
+        <v>2332</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -41652,7 +41778,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2313</v>
+        <v>2333</v>
       </c>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -41704,7 +41830,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2314</v>
+        <v>2334</v>
       </c>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -41756,7 +41882,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>2315</v>
+        <v>2335</v>
       </c>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -41808,7 +41934,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>2316</v>
+        <v>2336</v>
       </c>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -41860,7 +41986,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>2317</v>
+        <v>2337</v>
       </c>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -41912,7 +42038,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>2318</v>
+        <v>2338</v>
       </c>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -41964,7 +42090,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>2319</v>
+        <v>2339</v>
       </c>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -42016,7 +42142,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>2320</v>
+        <v>2340</v>
       </c>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -42068,7 +42194,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2321</v>
+        <v>2341</v>
       </c>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -42120,7 +42246,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2322</v>
+        <v>2342</v>
       </c>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -42172,7 +42298,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>2323</v>
+        <v>2343</v>
       </c>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -42224,7 +42350,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>2324</v>
+        <v>2344</v>
       </c>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -42276,7 +42402,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>2325</v>
+        <v>2345</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -42328,7 +42454,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>2326</v>
+        <v>2346</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -42380,7 +42506,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>2327</v>
+        <v>2347</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -42432,7 +42558,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>2328</v>
+        <v>2348</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -42484,7 +42610,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>2329</v>
+        <v>2349</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -42536,7 +42662,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>2330</v>
+        <v>2350</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -42588,7 +42714,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>2331</v>
+        <v>2351</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -42640,7 +42766,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>2332</v>
+        <v>2352</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -42692,7 +42818,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>2333</v>
+        <v>2353</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -42744,7 +42870,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>2334</v>
+        <v>2354</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -42796,7 +42922,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>2335</v>
+        <v>2355</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -42848,7 +42974,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>2336</v>
+        <v>2356</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -42900,7 +43026,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>2337</v>
+        <v>2357</v>
       </c>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -42952,7 +43078,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>2338</v>
+        <v>2358</v>
       </c>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -43004,7 +43130,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>2339</v>
+        <v>2359</v>
       </c>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -43056,7 +43182,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -43108,7 +43234,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>2341</v>
+        <v>2361</v>
       </c>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -43160,7 +43286,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>2342</v>
+        <v>2362</v>
       </c>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -43212,7 +43338,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>2343</v>
+        <v>2363</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -43264,7 +43390,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>2344</v>
+        <v>2364</v>
       </c>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -43316,7 +43442,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>2345</v>
+        <v>2365</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -43368,7 +43494,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>2346</v>
+        <v>2366</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -43420,7 +43546,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>2347</v>
+        <v>2367</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -43472,7 +43598,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>2348</v>
+        <v>2368</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -43524,7 +43650,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>2349</v>
+        <v>2369</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -43576,7 +43702,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2350</v>
+        <v>2370</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -43628,7 +43754,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>2351</v>
+        <v>2371</v>
       </c>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -43680,7 +43806,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>2352</v>
+        <v>2372</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -43732,7 +43858,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>2353</v>
+        <v>2373</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -43784,7 +43910,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>2354</v>
+        <v>2374</v>
       </c>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -43836,7 +43962,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>2355</v>
+        <v>2375</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -43888,7 +44014,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>2356</v>
+        <v>2376</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -43940,7 +44066,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>2357</v>
+        <v>2377</v>
       </c>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -43992,7 +44118,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>2358</v>
+        <v>2378</v>
       </c>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -44044,7 +44170,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>2359</v>
+        <v>2379</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -44096,7 +44222,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>2360</v>
+        <v>2380</v>
       </c>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -44148,7 +44274,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2361</v>
+        <v>2381</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -44200,7 +44326,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>2362</v>
+        <v>2382</v>
       </c>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -44252,7 +44378,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2363</v>
+        <v>2383</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -44304,7 +44430,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>2364</v>
+        <v>2384</v>
       </c>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -44356,7 +44482,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>2365</v>
+        <v>2385</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -44408,7 +44534,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>2366</v>
+        <v>2386</v>
       </c>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -44460,7 +44586,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2367</v>
+        <v>2387</v>
       </c>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -44512,7 +44638,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>2368</v>
+        <v>2388</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -44564,7 +44690,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>2369</v>
+        <v>2389</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -44616,7 +44742,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -44668,7 +44794,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2371</v>
+        <v>2391</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -44720,7 +44846,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>2372</v>
+        <v>2392</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -44772,7 +44898,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2373</v>
+        <v>2393</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -44824,7 +44950,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2374</v>
+        <v>2394</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -44876,7 +45002,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2375</v>
+        <v>2395</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -44928,7 +45054,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2376</v>
+        <v>2396</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -44980,7 +45106,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2377</v>
+        <v>2397</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -45032,7 +45158,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2378</v>
+        <v>2398</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -45084,7 +45210,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2379</v>
+        <v>2399</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -45136,7 +45262,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2380</v>
+        <v>2400</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -45188,7 +45314,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2381</v>
+        <v>2401</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -45240,7 +45366,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2382</v>
+        <v>2402</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -45292,7 +45418,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2383</v>
+        <v>2403</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -45344,7 +45470,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2384</v>
+        <v>2404</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -45396,7 +45522,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2385</v>
+        <v>2405</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -45448,7 +45574,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2386</v>
+        <v>2406</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -45500,7 +45626,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2387</v>
+        <v>2407</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -45552,7 +45678,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2388</v>
+        <v>2408</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -45604,7 +45730,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2389</v>
+        <v>2409</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -45656,7 +45782,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2390</v>
+        <v>2410</v>
       </c>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -45708,7 +45834,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2391</v>
+        <v>2411</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -45760,7 +45886,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2392</v>
+        <v>2412</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -45812,7 +45938,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2393</v>
+        <v>2413</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -45864,7 +45990,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2394</v>
+        <v>2414</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -45916,7 +46042,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2395</v>
+        <v>2415</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -45968,7 +46094,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2396</v>
+        <v>2416</v>
       </c>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -46020,7 +46146,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2397</v>
+        <v>2417</v>
       </c>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -46072,7 +46198,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2398</v>
+        <v>2418</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -46124,7 +46250,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2399</v>
+        <v>2419</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -46176,7 +46302,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2400</v>
+        <v>2420</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -46228,7 +46354,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2401</v>
+        <v>2421</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -46280,7 +46406,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2402</v>
+        <v>2422</v>
       </c>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -46332,7 +46458,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2403</v>
+        <v>2423</v>
       </c>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -46384,7 +46510,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2404</v>
+        <v>2424</v>
       </c>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -46436,7 +46562,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2405</v>
+        <v>2425</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -46488,7 +46614,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2406</v>
+        <v>2426</v>
       </c>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -46540,7 +46666,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2407</v>
+        <v>2427</v>
       </c>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -46592,7 +46718,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2408</v>
+        <v>2428</v>
       </c>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -46644,7 +46770,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2409</v>
+        <v>2429</v>
       </c>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -46696,7 +46822,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2410</v>
+        <v>2430</v>
       </c>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -46748,7 +46874,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2411</v>
+        <v>2431</v>
       </c>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -46800,7 +46926,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2412</v>
+        <v>2432</v>
       </c>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -46852,7 +46978,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2413</v>
+        <v>2433</v>
       </c>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -46904,7 +47030,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2414</v>
+        <v>2434</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -46956,7 +47082,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>2415</v>
+        <v>2435</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -47008,7 +47134,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2416</v>
+        <v>2436</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -47060,7 +47186,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>2417</v>
+        <v>2437</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -47112,7 +47238,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>2418</v>
+        <v>2438</v>
       </c>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -47164,7 +47290,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2419</v>
+        <v>2439</v>
       </c>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -47216,7 +47342,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2420</v>
+        <v>2440</v>
       </c>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -47268,7 +47394,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2421</v>
+        <v>2441</v>
       </c>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -47320,7 +47446,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2422</v>
+        <v>2442</v>
       </c>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -47372,7 +47498,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>2423</v>
+        <v>2443</v>
       </c>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -47424,7 +47550,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>2424</v>
+        <v>2444</v>
       </c>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -47476,7 +47602,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2425</v>
+        <v>2445</v>
       </c>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -47528,7 +47654,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2426</v>
+        <v>2446</v>
       </c>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -47580,7 +47706,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2427</v>
+        <v>2447</v>
       </c>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -47632,7 +47758,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2428</v>
+        <v>2448</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -47684,7 +47810,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>2429</v>
+        <v>2449</v>
       </c>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -47736,7 +47862,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2430</v>
+        <v>2450</v>
       </c>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -47788,7 +47914,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>2431</v>
+        <v>2451</v>
       </c>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -47840,7 +47966,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2432</v>
+        <v>2452</v>
       </c>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -47892,7 +48018,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2433</v>
+        <v>2453</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -47944,7 +48070,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2434</v>
+        <v>2454</v>
       </c>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -47996,7 +48122,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>2435</v>
+        <v>2455</v>
       </c>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -48048,7 +48174,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2436</v>
+        <v>2456</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -48100,7 +48226,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2437</v>
+        <v>2457</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -48152,7 +48278,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>2438</v>
+        <v>2458</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -48204,7 +48330,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>2439</v>
+        <v>2459</v>
       </c>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -48256,7 +48382,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2440</v>
+        <v>2460</v>
       </c>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -48308,7 +48434,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2441</v>
+        <v>2461</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -48360,7 +48486,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2442</v>
+        <v>2462</v>
       </c>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -48412,7 +48538,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -48464,7 +48590,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2444</v>
+        <v>2464</v>
       </c>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -48516,7 +48642,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2445</v>
+        <v>2465</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -48568,7 +48694,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2446</v>
+        <v>2466</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -48620,7 +48746,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2447</v>
+        <v>2467</v>
       </c>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -48672,7 +48798,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2448</v>
+        <v>2468</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -48724,7 +48850,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2449</v>
+        <v>2469</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -48776,7 +48902,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2450</v>
+        <v>2470</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -48828,7 +48954,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2451</v>
+        <v>2471</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -48880,7 +49006,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>2452</v>
+        <v>2472</v>
       </c>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -48932,7 +49058,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>2453</v>
+        <v>2473</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -48984,7 +49110,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2454</v>
+        <v>2474</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -49036,7 +49162,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2455</v>
+        <v>2475</v>
       </c>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -49088,7 +49214,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2456</v>
+        <v>2476</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -49140,7 +49266,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2457</v>
+        <v>2477</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -49192,7 +49318,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2458</v>
+        <v>2478</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -49244,7 +49370,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2459</v>
+        <v>2479</v>
       </c>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -49296,7 +49422,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -49348,7 +49474,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2461</v>
+        <v>2481</v>
       </c>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -49400,7 +49526,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2462</v>
+        <v>2482</v>
       </c>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -49452,7 +49578,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2463</v>
+        <v>2483</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -49504,7 +49630,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2464</v>
+        <v>2484</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -49556,7 +49682,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2465</v>
+        <v>2485</v>
       </c>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -49608,7 +49734,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>2466</v>
+        <v>2486</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -49660,7 +49786,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2467</v>
+        <v>2487</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -49712,7 +49838,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2468</v>
+        <v>2488</v>
       </c>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -49764,7 +49890,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2469</v>
+        <v>2489</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -49816,7 +49942,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2470</v>
+        <v>2490</v>
       </c>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -49868,7 +49994,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2471</v>
+        <v>2491</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -49920,7 +50046,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2472</v>
+        <v>2492</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -49972,7 +50098,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2473</v>
+        <v>2493</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -50024,7 +50150,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2474</v>
+        <v>2494</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -50076,7 +50202,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2475</v>
+        <v>2495</v>
       </c>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -50128,7 +50254,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2476</v>
+        <v>2496</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -50180,7 +50306,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2477</v>
+        <v>2497</v>
       </c>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -50232,7 +50358,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2478</v>
+        <v>2498</v>
       </c>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -50284,7 +50410,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2479</v>
+        <v>2499</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -50336,7 +50462,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2480</v>
+        <v>2500</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -50388,7 +50514,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2481</v>
+        <v>2501</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -50440,7 +50566,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2482</v>
+        <v>2502</v>
       </c>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -50492,7 +50618,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2483</v>
+        <v>2503</v>
       </c>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -50544,7 +50670,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2484</v>
+        <v>2504</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -50596,7 +50722,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2485</v>
+        <v>2505</v>
       </c>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -50648,7 +50774,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2486</v>
+        <v>2506</v>
       </c>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -50700,7 +50826,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2487</v>
+        <v>2507</v>
       </c>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -50752,7 +50878,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2488</v>
+        <v>2508</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -50804,7 +50930,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2489</v>
+        <v>2509</v>
       </c>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -50856,7 +50982,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2490</v>
+        <v>2510</v>
       </c>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -50908,7 +51034,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2491</v>
+        <v>2511</v>
       </c>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -50960,7 +51086,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2492</v>
+        <v>2512</v>
       </c>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -51012,7 +51138,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2493</v>
+        <v>2513</v>
       </c>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -51064,7 +51190,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2494</v>
+        <v>2514</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -51116,7 +51242,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2495</v>
+        <v>2515</v>
       </c>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -51168,7 +51294,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2496</v>
+        <v>2516</v>
       </c>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -51220,7 +51346,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2497</v>
+        <v>2517</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -51272,7 +51398,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2498</v>
+        <v>2518</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -51324,7 +51450,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2499</v>
+        <v>2519</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -51376,7 +51502,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2500</v>
+        <v>2520</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -51428,7 +51554,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2501</v>
+        <v>2521</v>
       </c>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -51480,7 +51606,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2502</v>
+        <v>2522</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -51532,7 +51658,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2503</v>
+        <v>2523</v>
       </c>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -51584,7 +51710,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2504</v>
+        <v>2524</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -51636,7 +51762,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2505</v>
+        <v>2525</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -51688,7 +51814,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2506</v>
+        <v>2526</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -51740,7 +51866,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2507</v>
+        <v>2527</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -51792,7 +51918,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2508</v>
+        <v>2528</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -51844,7 +51970,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2509</v>
+        <v>2529</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -51896,7 +52022,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2510</v>
+        <v>2530</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -51948,7 +52074,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2511</v>
+        <v>2531</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -52000,7 +52126,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2512</v>
+        <v>2532</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -52052,7 +52178,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2513</v>
+        <v>2533</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -52104,7 +52230,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>2514</v>
+        <v>2534</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -52156,7 +52282,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>2515</v>
+        <v>2535</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -52208,7 +52334,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>2516</v>
+        <v>2536</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -52260,7 +52386,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2517</v>
+        <v>2537</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -52312,7 +52438,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2518</v>
+        <v>2538</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -52364,7 +52490,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>2519</v>
+        <v>2539</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -52416,7 +52542,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>2520</v>
+        <v>2540</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -52468,7 +52594,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2521</v>
+        <v>2541</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -52520,7 +52646,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2522</v>
+        <v>2542</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -52572,7 +52698,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2523</v>
+        <v>2543</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -52624,7 +52750,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2524</v>
+        <v>2544</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -52676,7 +52802,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2525</v>
+        <v>2545</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -52728,7 +52854,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>2526</v>
+        <v>2546</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -52780,7 +52906,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>2527</v>
+        <v>2547</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -52832,7 +52958,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>2528</v>
+        <v>2548</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -52884,7 +53010,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>2529</v>
+        <v>2549</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -52936,7 +53062,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>2530</v>
+        <v>2550</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -52988,7 +53114,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2531</v>
+        <v>2551</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -53040,7 +53166,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2532</v>
+        <v>2552</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -53092,7 +53218,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2533</v>
+        <v>2553</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -53144,7 +53270,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2534</v>
+        <v>2554</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -53196,7 +53322,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2535</v>
+        <v>2555</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -53248,7 +53374,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2536</v>
+        <v>2556</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -53300,7 +53426,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2537</v>
+        <v>2557</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -53352,7 +53478,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2538</v>
+        <v>2558</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -53404,7 +53530,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2539</v>
+        <v>2559</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -53456,7 +53582,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -53508,7 +53634,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2541</v>
+        <v>2561</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -53560,7 +53686,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>2542</v>
+        <v>2562</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -53612,7 +53738,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>2543</v>
+        <v>2563</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -53664,7 +53790,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>2544</v>
+        <v>2564</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -53716,7 +53842,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2545</v>
+        <v>2565</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -53768,7 +53894,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2546</v>
+        <v>2566</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -53820,7 +53946,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>2547</v>
+        <v>2567</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -53872,7 +53998,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>2548</v>
+        <v>2568</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -53924,7 +54050,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>2549</v>
+        <v>2569</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -53976,7 +54102,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2550</v>
+        <v>2570</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -54028,7 +54154,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2551</v>
+        <v>2571</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -54080,7 +54206,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2552</v>
+        <v>2572</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -54132,7 +54258,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2553</v>
+        <v>2573</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -54184,7 +54310,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2554</v>
+        <v>2574</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -54236,7 +54362,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2555</v>
+        <v>2575</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -54288,7 +54414,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>2556</v>
+        <v>2576</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -54340,7 +54466,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>2557</v>
+        <v>2577</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -54392,7 +54518,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>2558</v>
+        <v>2578</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -54444,7 +54570,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2559</v>
+        <v>2579</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -54496,7 +54622,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2560</v>
+        <v>2580</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -54548,7 +54674,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2561</v>
+        <v>2581</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -54600,7 +54726,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>2562</v>
+        <v>2582</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -54652,7 +54778,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2563</v>
+        <v>2583</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -54704,7 +54830,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2564</v>
+        <v>2584</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -54756,7 +54882,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>2565</v>
+        <v>2585</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -54808,7 +54934,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2566</v>
+        <v>2586</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -54860,7 +54986,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2567</v>
+        <v>2587</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -54912,7 +55038,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>2568</v>
+        <v>2588</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -54964,7 +55090,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>2569</v>
+        <v>2589</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -55016,7 +55142,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>2570</v>
+        <v>2590</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -55068,7 +55194,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>2571</v>
+        <v>2591</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -55120,7 +55246,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>2572</v>
+        <v>2592</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -55172,7 +55298,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2573</v>
+        <v>2593</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -55224,7 +55350,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2574</v>
+        <v>2594</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -55276,7 +55402,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2575</v>
+        <v>2595</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -55328,7 +55454,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>2576</v>
+        <v>2596</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -55380,7 +55506,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2577</v>
+        <v>2597</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -55432,7 +55558,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2578</v>
+        <v>2598</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -55484,7 +55610,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2579</v>
+        <v>2599</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -55536,7 +55662,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2580</v>
+        <v>2600</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -55588,7 +55714,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2581</v>
+        <v>2601</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -55640,7 +55766,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2582</v>
+        <v>2602</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -55692,7 +55818,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2583</v>
+        <v>2603</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -55744,7 +55870,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2584</v>
+        <v>2604</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -55796,7 +55922,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2585</v>
+        <v>2605</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -55848,7 +55974,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>2586</v>
+        <v>2606</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -55900,7 +56026,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2587</v>
+        <v>2607</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -55952,7 +56078,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2588</v>
+        <v>2608</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -56004,7 +56130,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2589</v>
+        <v>2609</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -56056,7 +56182,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2590</v>
+        <v>2610</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -56108,7 +56234,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2591</v>
+        <v>2611</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -56160,7 +56286,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2592</v>
+        <v>2612</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -56212,7 +56338,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2593</v>
+        <v>2613</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -56264,7 +56390,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2594</v>
+        <v>2614</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -56316,7 +56442,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2595</v>
+        <v>2615</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -56368,7 +56494,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2596</v>
+        <v>2616</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -56420,7 +56546,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2597</v>
+        <v>2617</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -56472,7 +56598,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2598</v>
+        <v>2618</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -56524,7 +56650,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2599</v>
+        <v>2619</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -56576,7 +56702,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2600</v>
+        <v>2620</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -56628,7 +56754,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2601</v>
+        <v>2621</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -56680,7 +56806,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2602</v>
+        <v>2622</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -56732,7 +56858,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2603</v>
+        <v>2623</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -56784,7 +56910,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2604</v>
+        <v>2624</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -56836,7 +56962,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2605</v>
+        <v>2625</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -56888,7 +57014,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2606</v>
+        <v>2626</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -56940,7 +57066,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2607</v>
+        <v>2627</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -56992,7 +57118,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2608</v>
+        <v>2628</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -57044,7 +57170,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2609</v>
+        <v>2629</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -57096,7 +57222,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2610</v>
+        <v>2630</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -57148,7 +57274,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2611</v>
+        <v>2631</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -57200,7 +57326,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2612</v>
+        <v>2632</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -57252,7 +57378,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2613</v>
+        <v>2633</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -57304,7 +57430,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2614</v>
+        <v>2634</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -57356,7 +57482,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2615</v>
+        <v>2635</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -57408,7 +57534,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2616</v>
+        <v>2636</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -57460,7 +57586,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2617</v>
+        <v>2637</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -57512,7 +57638,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2618</v>
+        <v>2638</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -57564,7 +57690,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2619</v>
+        <v>2639</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -57616,7 +57742,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2620</v>
+        <v>2640</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -57668,7 +57794,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2621</v>
+        <v>2641</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -57720,7 +57846,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2622</v>
+        <v>2642</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -57772,7 +57898,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2623</v>
+        <v>2643</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -57824,7 +57950,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2624</v>
+        <v>2644</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -57876,7 +58002,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2625</v>
+        <v>2645</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -57928,7 +58054,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2626</v>
+        <v>2646</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -57980,7 +58106,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2627</v>
+        <v>2647</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -58032,7 +58158,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2628</v>
+        <v>2648</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -58084,7 +58210,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2629</v>
+        <v>2649</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -58136,7 +58262,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2630</v>
+        <v>2650</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -58188,7 +58314,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2631</v>
+        <v>2651</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -58240,7 +58366,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2632</v>
+        <v>2652</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -58292,7 +58418,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2633</v>
+        <v>2653</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -58344,7 +58470,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2634</v>
+        <v>2654</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -58396,7 +58522,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2635</v>
+        <v>2655</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -58448,7 +58574,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2636</v>
+        <v>2656</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -58500,7 +58626,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2637</v>
+        <v>2657</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -58552,7 +58678,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2638</v>
+        <v>2658</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -58604,7 +58730,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2639</v>
+        <v>2659</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -58656,7 +58782,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2640</v>
+        <v>2660</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -58708,7 +58834,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2641</v>
+        <v>2661</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -58760,7 +58886,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2642</v>
+        <v>2662</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -58812,7 +58938,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2643</v>
+        <v>2663</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -58864,7 +58990,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2644</v>
+        <v>2664</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -58916,7 +59042,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2645</v>
+        <v>2665</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -58968,7 +59094,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2646</v>
+        <v>2666</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -59020,7 +59146,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2647</v>
+        <v>2667</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -59072,7 +59198,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2648</v>
+        <v>2668</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -59124,7 +59250,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2649</v>
+        <v>2669</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -59176,7 +59302,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2650</v>
+        <v>2670</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -59228,7 +59354,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2651</v>
+        <v>2671</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -59280,7 +59406,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2652</v>
+        <v>2672</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -59332,7 +59458,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2653</v>
+        <v>2673</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -59384,7 +59510,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2654</v>
+        <v>2674</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -59436,7 +59562,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2655</v>
+        <v>2675</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -59488,7 +59614,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2656</v>
+        <v>2676</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -59540,7 +59666,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2657</v>
+        <v>2677</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -59592,7 +59718,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2658</v>
+        <v>2678</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -59644,7 +59770,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2659</v>
+        <v>2679</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -59696,7 +59822,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2660</v>
+        <v>2680</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -59748,7 +59874,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2661</v>
+        <v>2681</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -59800,7 +59926,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2662</v>
+        <v>2682</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -59852,7 +59978,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2663</v>
+        <v>2683</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -59904,7 +60030,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2664</v>
+        <v>2684</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -59956,7 +60082,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2665</v>
+        <v>2685</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -60008,7 +60134,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2666</v>
+        <v>2686</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -60060,7 +60186,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2667</v>
+        <v>2687</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -60112,7 +60238,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2668</v>
+        <v>2688</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -60164,7 +60290,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -60216,7 +60342,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2670</v>
+        <v>2690</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -60268,7 +60394,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2671</v>
+        <v>2691</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -60320,7 +60446,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2672</v>
+        <v>2692</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -60372,7 +60498,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2673</v>
+        <v>2693</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -60424,7 +60550,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2674</v>
+        <v>2694</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -60476,7 +60602,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2675</v>
+        <v>2695</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -60528,7 +60654,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2676</v>
+        <v>2696</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -60580,7 +60706,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2677</v>
+        <v>2697</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -60632,7 +60758,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2678</v>
+        <v>2698</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -60684,7 +60810,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2679</v>
+        <v>2699</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -60736,7 +60862,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2680</v>
+        <v>2700</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -60788,7 +60914,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2681</v>
+        <v>2701</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -60840,7 +60966,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2682</v>
+        <v>2702</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -60892,7 +61018,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2683</v>
+        <v>2703</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -60944,7 +61070,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2684</v>
+        <v>2704</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -60996,7 +61122,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2685</v>
+        <v>2705</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -61048,7 +61174,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2686</v>
+        <v>2706</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -61100,7 +61226,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>2687</v>
+        <v>2707</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -61152,7 +61278,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2688</v>
+        <v>2708</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -61204,7 +61330,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2689</v>
+        <v>2709</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -61256,7 +61382,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>2690</v>
+        <v>2710</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -61308,7 +61434,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>2691</v>
+        <v>2711</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -61360,7 +61486,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2692</v>
+        <v>2712</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -61412,7 +61538,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2693</v>
+        <v>2713</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -61464,7 +61590,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2694</v>
+        <v>2714</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -61516,7 +61642,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2695</v>
+        <v>2715</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -61568,7 +61694,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2696</v>
+        <v>2716</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -61620,7 +61746,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2697</v>
+        <v>2717</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -61672,7 +61798,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>2698</v>
+        <v>2718</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -61724,7 +61850,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2699</v>
+        <v>2719</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -61776,7 +61902,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2700</v>
+        <v>2720</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -61828,7 +61954,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2701</v>
+        <v>2721</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -61880,7 +62006,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2702</v>
+        <v>2722</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -61932,7 +62058,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>2703</v>
+        <v>2723</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -61984,7 +62110,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2704</v>
+        <v>2724</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -62036,7 +62162,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>2705</v>
+        <v>2725</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -62088,7 +62214,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2706</v>
+        <v>2726</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -62140,7 +62266,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2707</v>
+        <v>2727</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -62192,7 +62318,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2708</v>
+        <v>2728</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -62244,7 +62370,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2709</v>
+        <v>2729</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -62296,7 +62422,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>2710</v>
+        <v>2730</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -62348,7 +62474,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2711</v>
+        <v>2731</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -62400,7 +62526,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2712</v>
+        <v>2732</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -62452,7 +62578,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2713</v>
+        <v>2733</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -62504,7 +62630,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2714</v>
+        <v>2734</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -62556,7 +62682,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2715</v>
+        <v>2735</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -62608,7 +62734,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2716</v>
+        <v>2736</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -62660,7 +62786,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>2717</v>
+        <v>2737</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -62712,7 +62838,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>2718</v>
+        <v>2738</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -62764,7 +62890,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2719</v>
+        <v>2739</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -62816,7 +62942,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2720</v>
+        <v>2740</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -62868,7 +62994,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2721</v>
+        <v>2741</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -62920,7 +63046,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2722</v>
+        <v>2742</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -62972,7 +63098,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2723</v>
+        <v>2743</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -63024,7 +63150,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>2724</v>
+        <v>2744</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -63076,7 +63202,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2725</v>
+        <v>2745</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -63128,7 +63254,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2726</v>
+        <v>2746</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -63180,7 +63306,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2727</v>
+        <v>2747</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -63232,7 +63358,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2728</v>
+        <v>2748</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -63284,7 +63410,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2729</v>
+        <v>2749</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -63336,7 +63462,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2730</v>
+        <v>2750</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -63388,7 +63514,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>2731</v>
+        <v>2751</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -63440,7 +63566,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>2732</v>
+        <v>2752</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -63492,7 +63618,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2733</v>
+        <v>2753</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -63544,7 +63670,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2734</v>
+        <v>2754</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -63596,7 +63722,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>2735</v>
+        <v>2755</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -63648,7 +63774,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>2736</v>
+        <v>2756</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -63700,7 +63826,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>2737</v>
+        <v>2757</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -63752,7 +63878,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>2738</v>
+        <v>2758</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -63804,7 +63930,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>2739</v>
+        <v>2759</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -63856,7 +63982,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>2740</v>
+        <v>2760</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -63908,7 +64034,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2741</v>
+        <v>2761</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -63960,7 +64086,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2742</v>
+        <v>2762</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -64012,7 +64138,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2743</v>
+        <v>2763</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -64064,7 +64190,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2744</v>
+        <v>2764</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -64116,7 +64242,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2745</v>
+        <v>2765</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -64168,7 +64294,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2746</v>
+        <v>2766</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -64220,7 +64346,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2747</v>
+        <v>2767</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -64272,7 +64398,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2748</v>
+        <v>2768</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -64324,7 +64450,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2749</v>
+        <v>2769</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -64376,7 +64502,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>2750</v>
+        <v>2770</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -64428,7 +64554,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>2751</v>
+        <v>2771</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -64480,7 +64606,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2752</v>
+        <v>2772</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -64532,7 +64658,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2753</v>
+        <v>2773</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -64584,7 +64710,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2754</v>
+        <v>2774</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -64636,7 +64762,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2755</v>
+        <v>2775</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -64688,7 +64814,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2756</v>
+        <v>2776</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -64740,7 +64866,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>2757</v>
+        <v>2777</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -64792,7 +64918,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2758</v>
+        <v>2778</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -64844,7 +64970,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2759</v>
+        <v>2779</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -64896,7 +65022,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2760</v>
+        <v>2780</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -64948,7 +65074,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2761</v>
+        <v>2781</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -65000,7 +65126,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2762</v>
+        <v>2782</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -65052,7 +65178,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2763</v>
+        <v>2783</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -65104,7 +65230,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2764</v>
+        <v>2784</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -65156,7 +65282,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2765</v>
+        <v>2785</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -65208,7 +65334,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2766</v>
+        <v>2786</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -65260,7 +65386,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2767</v>
+        <v>2787</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -65312,7 +65438,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>2768</v>
+        <v>2788</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -65364,7 +65490,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2769</v>
+        <v>2789</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -65416,7 +65542,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2770</v>
+        <v>2790</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -65468,7 +65594,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>2771</v>
+        <v>2791</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -65520,7 +65646,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2772</v>
+        <v>2792</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -65572,7 +65698,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>2773</v>
+        <v>2793</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -65624,7 +65750,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>2774</v>
+        <v>2794</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -65676,7 +65802,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>2775</v>
+        <v>2795</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -65728,7 +65854,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2776</v>
+        <v>2796</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -65780,7 +65906,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2777</v>
+        <v>2797</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -65832,7 +65958,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2778</v>
+        <v>2798</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -65884,7 +66010,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2779</v>
+        <v>2799</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="2833">
   <si>
     <t>No</t>
   </si>
@@ -6842,15 +6842,84 @@
     <t>INRU</t>
   </si>
   <si>
+    <t>1119000000000</t>
+  </si>
+  <si>
+    <t>1658000000000</t>
+  </si>
+  <si>
+    <t>1727000000000</t>
+  </si>
+  <si>
+    <t>1837000000000</t>
+  </si>
+  <si>
+    <t>2102000000000</t>
+  </si>
+  <si>
+    <t>2607000000000</t>
+  </si>
+  <si>
+    <t>1459000000000</t>
+  </si>
+  <si>
+    <t>1849000000000</t>
+  </si>
+  <si>
     <t>INTA</t>
   </si>
   <si>
+    <t>1507000000000</t>
+  </si>
+  <si>
+    <t>2069000000000</t>
+  </si>
+  <si>
+    <t>2780000000000</t>
+  </si>
+  <si>
+    <t>1963000000000</t>
+  </si>
+  <si>
+    <t>611000000000</t>
+  </si>
+  <si>
+    <t>661000000000</t>
+  </si>
+  <si>
+    <t>1082000000000</t>
+  </si>
+  <si>
+    <t>955000000000</t>
+  </si>
+  <si>
     <t>INTD</t>
   </si>
   <si>
     <t>INTP</t>
   </si>
   <si>
+    <t>15362000000000</t>
+  </si>
+  <si>
+    <t>14431000000000</t>
+  </si>
+  <si>
+    <t>15190000000000</t>
+  </si>
+  <si>
+    <t>14184000000000</t>
+  </si>
+  <si>
+    <t>14772000000000</t>
+  </si>
+  <si>
+    <t>17950000000000</t>
+  </si>
+  <si>
+    <t>18549000000000</t>
+  </si>
+  <si>
     <t>IOTF</t>
   </si>
   <si>
@@ -6860,7 +6929,37 @@
     <t>IPCC</t>
   </si>
   <si>
+    <t>422000000000</t>
+  </si>
+  <si>
+    <t>357000000000</t>
+  </si>
+  <si>
+    <t>727000000000</t>
+  </si>
+  <si>
+    <t>825000000000</t>
+  </si>
+  <si>
     <t>IPCM</t>
+  </si>
+  <si>
+    <t>828000000000</t>
+  </si>
+  <si>
+    <t>747000000000</t>
+  </si>
+  <si>
+    <t>697000000000</t>
+  </si>
+  <si>
+    <t>820000000000</t>
+  </si>
+  <si>
+    <t>1139000000000</t>
+  </si>
+  <si>
+    <t>1345000000000</t>
   </si>
   <si>
     <t>IPOL</t>
@@ -9462,8 +9561,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -38232,25 +38331,25 @@
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
-      <c r="E425" s="14" t="s">
+      <c r="E425" s="10" t="s">
         <v>1636</v>
       </c>
-      <c r="F425" s="14" t="s">
+      <c r="F425" s="10" t="s">
         <v>2247</v>
       </c>
-      <c r="G425" s="14" t="s">
+      <c r="G425" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="H425" s="14" t="s">
+      <c r="H425" s="10" t="s">
         <v>1524</v>
       </c>
-      <c r="I425" s="14" t="s">
+      <c r="I425" s="10" t="s">
         <v>2248</v>
       </c>
-      <c r="J425" s="14" t="s">
+      <c r="J425" s="10" t="s">
         <v>2249</v>
       </c>
-      <c r="K425" s="14" t="s">
+      <c r="K425" s="10" t="s">
         <v>2250</v>
       </c>
       <c r="L425" s="3"/>
@@ -38504,15 +38603,33 @@
       <c r="B429" s="3" t="s">
         <v>2270</v>
       </c>
-      <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-      <c r="J429" s="3"/>
-      <c r="K429" s="3"/>
+      <c r="C429" s="10" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G429" s="10" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H429" s="10" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I429" s="10" t="s">
+        <v>2276</v>
+      </c>
+      <c r="J429" s="10" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K429" s="10" t="s">
+        <v>2278</v>
+      </c>
       <c r="L429" s="3"/>
       <c r="M429" s="3"/>
       <c r="N429" s="3"/>
@@ -38554,17 +38671,35 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
-      <c r="J430" s="3"/>
-      <c r="K430" s="3"/>
+        <v>2279</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D430" s="10" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E430" s="10" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F430" s="10" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G430" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H430" s="10" t="s">
+        <v>2284</v>
+      </c>
+      <c r="I430" s="10" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J430" s="10" t="s">
+        <v>2286</v>
+      </c>
+      <c r="K430" s="10" t="s">
+        <v>2287</v>
+      </c>
       <c r="L430" s="3"/>
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
@@ -38606,17 +38741,35 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C431" s="3"/>
-      <c r="D431" s="3"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
-      <c r="J431" s="3"/>
-      <c r="K431" s="3"/>
+        <v>2288</v>
+      </c>
+      <c r="C431" s="3">
+        <v>74000000000</v>
+      </c>
+      <c r="D431" s="3">
+        <v>53000000000</v>
+      </c>
+      <c r="E431" s="3">
+        <v>82000000000</v>
+      </c>
+      <c r="F431" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="G431" s="3">
+        <v>51000000000</v>
+      </c>
+      <c r="H431" s="3">
+        <v>59000000000</v>
+      </c>
+      <c r="I431" s="3">
+        <v>43000000000</v>
+      </c>
+      <c r="J431" s="3">
+        <v>44000000000</v>
+      </c>
+      <c r="K431" s="3">
+        <v>31000000000</v>
+      </c>
       <c r="L431" s="3"/>
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
@@ -38658,17 +38811,35 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C432" s="3"/>
-      <c r="D432" s="3"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
-      <c r="J432" s="3"/>
-      <c r="K432" s="3"/>
+        <v>2289</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D432" s="10" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E432" s="10" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F432" s="10" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G432" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="H432" s="10" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I432" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J432" s="10" t="s">
+        <v>2295</v>
+      </c>
+      <c r="K432" s="10" t="s">
+        <v>2296</v>
+      </c>
       <c r="L432" s="3"/>
       <c r="M432" s="3"/>
       <c r="N432" s="3"/>
@@ -38710,17 +38881,27 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>2274</v>
+        <v>2297</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-      <c r="J433" s="3"/>
-      <c r="K433" s="3"/>
+      <c r="G433" s="9">
+        <v>17000000000</v>
+      </c>
+      <c r="H433" s="9">
+        <v>32000000000</v>
+      </c>
+      <c r="I433" s="9">
+        <v>51000000000</v>
+      </c>
+      <c r="J433" s="9">
+        <v>71000000000</v>
+      </c>
+      <c r="K433" s="9">
+        <v>63000000000</v>
+      </c>
       <c r="L433" s="3"/>
       <c r="M433" s="3"/>
       <c r="N433" s="3"/>
@@ -38762,17 +38943,27 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>2275</v>
+        <v>2298</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-      <c r="J434" s="3"/>
-      <c r="K434" s="3"/>
+      <c r="G434" s="3">
+        <v>16000000000</v>
+      </c>
+      <c r="H434" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="I434" s="3">
+        <v>26000000000</v>
+      </c>
+      <c r="J434" s="3">
+        <v>29000000000</v>
+      </c>
+      <c r="K434" s="3">
+        <v>45000000000</v>
+      </c>
       <c r="L434" s="3"/>
       <c r="M434" s="3"/>
       <c r="N434" s="3"/>
@@ -38814,17 +39005,33 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>2276</v>
+        <v>2299</v>
       </c>
       <c r="C435" s="3"/>
-      <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
-      <c r="J435" s="3"/>
-      <c r="K435" s="3"/>
+      <c r="D435" s="12" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G435" s="14" t="s">
+        <v>2301</v>
+      </c>
+      <c r="H435" s="14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I435" s="14" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J435" s="14" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K435" s="14" t="s">
+        <v>2303</v>
+      </c>
       <c r="L435" s="3"/>
       <c r="M435" s="3"/>
       <c r="N435" s="3"/>
@@ -38866,17 +39073,35 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C436" s="3"/>
-      <c r="D436" s="3"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-      <c r="J436" s="3"/>
-      <c r="K436" s="3"/>
+        <v>2304</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E436" s="12" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>2307</v>
+      </c>
+      <c r="H436" s="12" t="s">
+        <v>2308</v>
+      </c>
+      <c r="I436" s="12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J436" s="12" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K436" s="10" t="s">
+        <v>2310</v>
+      </c>
       <c r="L436" s="3"/>
       <c r="M436" s="3"/>
       <c r="N436" s="3"/>
@@ -38918,7 +39143,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2278</v>
+        <v>2311</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -38970,7 +39195,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>2279</v>
+        <v>2312</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -39022,7 +39247,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2280</v>
+        <v>2313</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -39074,7 +39299,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2281</v>
+        <v>2314</v>
       </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -39126,7 +39351,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2282</v>
+        <v>2315</v>
       </c>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -39178,7 +39403,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>2283</v>
+        <v>2316</v>
       </c>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -39230,7 +39455,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>2284</v>
+        <v>2317</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -39282,7 +39507,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>2285</v>
+        <v>2318</v>
       </c>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -39334,7 +39559,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>2286</v>
+        <v>2319</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -39386,7 +39611,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>2287</v>
+        <v>2320</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -39438,7 +39663,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>2288</v>
+        <v>2321</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -39490,7 +39715,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>2289</v>
+        <v>2322</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -39542,7 +39767,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2290</v>
+        <v>2323</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -39594,7 +39819,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2291</v>
+        <v>2324</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -39646,7 +39871,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2292</v>
+        <v>2325</v>
       </c>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -39698,7 +39923,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2293</v>
+        <v>2326</v>
       </c>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -39750,7 +39975,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2294</v>
+        <v>2327</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -39802,7 +40027,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>2295</v>
+        <v>2328</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -39854,7 +40079,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>2296</v>
+        <v>2329</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -39906,7 +40131,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>2297</v>
+        <v>2330</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -39958,7 +40183,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>2298</v>
+        <v>2331</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -40010,7 +40235,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>2299</v>
+        <v>2332</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -40062,7 +40287,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>2300</v>
+        <v>2333</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -40114,7 +40339,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2301</v>
+        <v>2334</v>
       </c>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -40166,7 +40391,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>2302</v>
+        <v>2335</v>
       </c>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -40218,7 +40443,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>2303</v>
+        <v>2336</v>
       </c>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -40270,7 +40495,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>2304</v>
+        <v>2337</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -40322,7 +40547,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>2305</v>
+        <v>2338</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -40374,7 +40599,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2306</v>
+        <v>2339</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -40426,7 +40651,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>2307</v>
+        <v>2340</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -40478,7 +40703,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2308</v>
+        <v>2341</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -40530,7 +40755,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>2309</v>
+        <v>2342</v>
       </c>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -40582,7 +40807,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>2310</v>
+        <v>2343</v>
       </c>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -40634,7 +40859,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>2311</v>
+        <v>2344</v>
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -40686,7 +40911,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2312</v>
+        <v>2345</v>
       </c>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -40738,7 +40963,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>2313</v>
+        <v>2346</v>
       </c>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -40790,7 +41015,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2314</v>
+        <v>2347</v>
       </c>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -40842,7 +41067,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>2315</v>
+        <v>2348</v>
       </c>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -40894,7 +41119,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2316</v>
+        <v>2349</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -40946,7 +41171,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>2317</v>
+        <v>2350</v>
       </c>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -40998,7 +41223,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>2318</v>
+        <v>2351</v>
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -41050,7 +41275,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>2319</v>
+        <v>2352</v>
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -41102,7 +41327,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2320</v>
+        <v>2353</v>
       </c>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -41154,7 +41379,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>2321</v>
+        <v>2354</v>
       </c>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -41206,7 +41431,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>2322</v>
+        <v>2355</v>
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -41258,7 +41483,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>2323</v>
+        <v>2356</v>
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -41310,7 +41535,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>2324</v>
+        <v>2357</v>
       </c>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -41362,7 +41587,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>2325</v>
+        <v>2358</v>
       </c>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -41414,7 +41639,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>2326</v>
+        <v>2359</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -41466,7 +41691,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>2327</v>
+        <v>2360</v>
       </c>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -41518,7 +41743,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>2328</v>
+        <v>2361</v>
       </c>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -41570,7 +41795,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>2329</v>
+        <v>2362</v>
       </c>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -41622,7 +41847,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>2330</v>
+        <v>2363</v>
       </c>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -41674,7 +41899,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>2331</v>
+        <v>2364</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -41726,7 +41951,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>2332</v>
+        <v>2365</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -41778,7 +42003,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2333</v>
+        <v>2366</v>
       </c>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -41830,7 +42055,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2334</v>
+        <v>2367</v>
       </c>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -41882,7 +42107,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>2335</v>
+        <v>2368</v>
       </c>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -41934,7 +42159,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>2336</v>
+        <v>2369</v>
       </c>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -41986,7 +42211,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>2337</v>
+        <v>2370</v>
       </c>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -42038,7 +42263,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>2338</v>
+        <v>2371</v>
       </c>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -42090,7 +42315,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>2339</v>
+        <v>2372</v>
       </c>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -42142,7 +42367,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>2340</v>
+        <v>2373</v>
       </c>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -42194,7 +42419,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2341</v>
+        <v>2374</v>
       </c>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -42246,7 +42471,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2342</v>
+        <v>2375</v>
       </c>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -42298,7 +42523,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>2343</v>
+        <v>2376</v>
       </c>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -42350,7 +42575,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>2344</v>
+        <v>2377</v>
       </c>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -42402,7 +42627,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>2345</v>
+        <v>2378</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -42454,7 +42679,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>2346</v>
+        <v>2379</v>
       </c>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -42506,7 +42731,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>2347</v>
+        <v>2380</v>
       </c>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -42558,7 +42783,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>2348</v>
+        <v>2381</v>
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -42610,7 +42835,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>2349</v>
+        <v>2382</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -42662,7 +42887,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>2350</v>
+        <v>2383</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -42714,7 +42939,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>2351</v>
+        <v>2384</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -42766,7 +42991,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>2352</v>
+        <v>2385</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -42818,7 +43043,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>2353</v>
+        <v>2386</v>
       </c>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -42870,7 +43095,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>2354</v>
+        <v>2387</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -42922,7 +43147,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>2355</v>
+        <v>2388</v>
       </c>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -42974,7 +43199,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>2356</v>
+        <v>2389</v>
       </c>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -43026,7 +43251,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>2357</v>
+        <v>2390</v>
       </c>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -43078,7 +43303,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>2358</v>
+        <v>2391</v>
       </c>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -43130,7 +43355,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>2359</v>
+        <v>2392</v>
       </c>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -43182,7 +43407,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>2360</v>
+        <v>2393</v>
       </c>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -43234,7 +43459,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>2361</v>
+        <v>2394</v>
       </c>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -43286,7 +43511,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>2362</v>
+        <v>2395</v>
       </c>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -43338,7 +43563,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>2363</v>
+        <v>2396</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -43390,7 +43615,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>2364</v>
+        <v>2397</v>
       </c>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -43442,7 +43667,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>2365</v>
+        <v>2398</v>
       </c>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -43494,7 +43719,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>2366</v>
+        <v>2399</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -43546,7 +43771,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>2367</v>
+        <v>2400</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -43598,7 +43823,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>2368</v>
+        <v>2401</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -43650,7 +43875,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>2369</v>
+        <v>2402</v>
       </c>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -43702,7 +43927,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2370</v>
+        <v>2403</v>
       </c>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -43754,7 +43979,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>2371</v>
+        <v>2404</v>
       </c>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -43806,7 +44031,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>2372</v>
+        <v>2405</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -43858,7 +44083,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>2373</v>
+        <v>2406</v>
       </c>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -43910,7 +44135,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>2374</v>
+        <v>2407</v>
       </c>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -43962,7 +44187,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>2375</v>
+        <v>2408</v>
       </c>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -44014,7 +44239,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>2376</v>
+        <v>2409</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -44066,7 +44291,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>2377</v>
+        <v>2410</v>
       </c>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -44118,7 +44343,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>2378</v>
+        <v>2411</v>
       </c>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -44170,7 +44395,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>2379</v>
+        <v>2412</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -44222,7 +44447,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>2380</v>
+        <v>2413</v>
       </c>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -44274,7 +44499,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2381</v>
+        <v>2414</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -44326,7 +44551,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>2382</v>
+        <v>2415</v>
       </c>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -44378,7 +44603,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2383</v>
+        <v>2416</v>
       </c>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -44430,7 +44655,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>2384</v>
+        <v>2417</v>
       </c>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -44482,7 +44707,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>2385</v>
+        <v>2418</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -44534,7 +44759,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>2386</v>
+        <v>2419</v>
       </c>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -44586,7 +44811,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2387</v>
+        <v>2420</v>
       </c>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -44638,7 +44863,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>2388</v>
+        <v>2421</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -44690,7 +44915,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>2389</v>
+        <v>2422</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -44742,7 +44967,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>2390</v>
+        <v>2423</v>
       </c>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -44794,7 +45019,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2391</v>
+        <v>2424</v>
       </c>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -44846,7 +45071,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>2392</v>
+        <v>2425</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -44898,7 +45123,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2393</v>
+        <v>2426</v>
       </c>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -44950,7 +45175,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2394</v>
+        <v>2427</v>
       </c>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -45002,7 +45227,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2395</v>
+        <v>2428</v>
       </c>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -45054,7 +45279,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2396</v>
+        <v>2429</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -45106,7 +45331,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2397</v>
+        <v>2430</v>
       </c>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -45158,7 +45383,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2398</v>
+        <v>2431</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -45210,7 +45435,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2399</v>
+        <v>2432</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -45262,7 +45487,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2400</v>
+        <v>2433</v>
       </c>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -45314,7 +45539,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2401</v>
+        <v>2434</v>
       </c>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -45366,7 +45591,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2402</v>
+        <v>2435</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -45418,7 +45643,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2403</v>
+        <v>2436</v>
       </c>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -45470,7 +45695,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2404</v>
+        <v>2437</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -45522,7 +45747,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2405</v>
+        <v>2438</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -45574,7 +45799,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2406</v>
+        <v>2439</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -45626,7 +45851,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2407</v>
+        <v>2440</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -45678,7 +45903,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2408</v>
+        <v>2441</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -45730,7 +45955,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2409</v>
+        <v>2442</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -45782,7 +46007,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2410</v>
+        <v>2443</v>
       </c>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -45834,7 +46059,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2411</v>
+        <v>2444</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -45886,7 +46111,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2412</v>
+        <v>2445</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -45938,7 +46163,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2413</v>
+        <v>2446</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -45990,7 +46215,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2414</v>
+        <v>2447</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -46042,7 +46267,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2415</v>
+        <v>2448</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -46094,7 +46319,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2416</v>
+        <v>2449</v>
       </c>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -46146,7 +46371,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2417</v>
+        <v>2450</v>
       </c>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -46198,7 +46423,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2418</v>
+        <v>2451</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -46250,7 +46475,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2419</v>
+        <v>2452</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -46302,7 +46527,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2420</v>
+        <v>2453</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -46354,7 +46579,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2421</v>
+        <v>2454</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -46406,7 +46631,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2422</v>
+        <v>2455</v>
       </c>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -46458,7 +46683,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2423</v>
+        <v>2456</v>
       </c>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -46510,7 +46735,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2424</v>
+        <v>2457</v>
       </c>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -46562,7 +46787,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2425</v>
+        <v>2458</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -46614,7 +46839,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2426</v>
+        <v>2459</v>
       </c>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -46666,7 +46891,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2427</v>
+        <v>2460</v>
       </c>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -46718,7 +46943,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2428</v>
+        <v>2461</v>
       </c>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -46770,7 +46995,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2429</v>
+        <v>2462</v>
       </c>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -46822,7 +47047,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2430</v>
+        <v>2463</v>
       </c>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -46874,7 +47099,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2431</v>
+        <v>2464</v>
       </c>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -46926,7 +47151,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2432</v>
+        <v>2465</v>
       </c>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -46978,7 +47203,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2433</v>
+        <v>2466</v>
       </c>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -47030,7 +47255,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2434</v>
+        <v>2467</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -47082,7 +47307,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>2435</v>
+        <v>2468</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -47134,7 +47359,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2436</v>
+        <v>2469</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -47186,7 +47411,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>2437</v>
+        <v>2470</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -47238,7 +47463,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>2438</v>
+        <v>2471</v>
       </c>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -47290,7 +47515,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2439</v>
+        <v>2472</v>
       </c>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -47342,7 +47567,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2440</v>
+        <v>2473</v>
       </c>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -47394,7 +47619,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2441</v>
+        <v>2474</v>
       </c>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -47446,7 +47671,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2442</v>
+        <v>2475</v>
       </c>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -47498,7 +47723,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>2443</v>
+        <v>2476</v>
       </c>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -47550,7 +47775,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>2444</v>
+        <v>2477</v>
       </c>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -47602,7 +47827,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2445</v>
+        <v>2478</v>
       </c>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -47654,7 +47879,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2446</v>
+        <v>2479</v>
       </c>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -47706,7 +47931,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2447</v>
+        <v>2480</v>
       </c>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -47758,7 +47983,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2448</v>
+        <v>2481</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -47810,7 +48035,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>2449</v>
+        <v>2482</v>
       </c>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -47862,7 +48087,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2450</v>
+        <v>2483</v>
       </c>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -47914,7 +48139,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>2451</v>
+        <v>2484</v>
       </c>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -47966,7 +48191,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2452</v>
+        <v>2485</v>
       </c>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -48018,7 +48243,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2453</v>
+        <v>2486</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -48070,7 +48295,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2454</v>
+        <v>2487</v>
       </c>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -48122,7 +48347,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>2455</v>
+        <v>2488</v>
       </c>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -48174,7 +48399,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2456</v>
+        <v>2489</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -48226,7 +48451,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2457</v>
+        <v>2490</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -48278,7 +48503,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>2458</v>
+        <v>2491</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -48330,7 +48555,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>2459</v>
+        <v>2492</v>
       </c>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -48382,7 +48607,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2460</v>
+        <v>2493</v>
       </c>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -48434,7 +48659,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2461</v>
+        <v>2494</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -48486,7 +48711,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2462</v>
+        <v>2495</v>
       </c>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -48538,7 +48763,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2463</v>
+        <v>2496</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -48590,7 +48815,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2464</v>
+        <v>2497</v>
       </c>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -48642,7 +48867,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2465</v>
+        <v>2498</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -48694,7 +48919,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2466</v>
+        <v>2499</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -48746,7 +48971,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2467</v>
+        <v>2500</v>
       </c>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -48798,7 +49023,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2468</v>
+        <v>2501</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -48850,7 +49075,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2469</v>
+        <v>2502</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -48902,7 +49127,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2470</v>
+        <v>2503</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -48954,7 +49179,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2471</v>
+        <v>2504</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -49006,7 +49231,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>2472</v>
+        <v>2505</v>
       </c>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -49058,7 +49283,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>2473</v>
+        <v>2506</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -49110,7 +49335,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2474</v>
+        <v>2507</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -49162,7 +49387,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2475</v>
+        <v>2508</v>
       </c>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -49214,7 +49439,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2476</v>
+        <v>2509</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -49266,7 +49491,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2477</v>
+        <v>2510</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -49318,7 +49543,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2478</v>
+        <v>2511</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -49370,7 +49595,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2479</v>
+        <v>2512</v>
       </c>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -49422,7 +49647,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2480</v>
+        <v>2513</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -49474,7 +49699,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2481</v>
+        <v>2514</v>
       </c>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -49526,7 +49751,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2482</v>
+        <v>2515</v>
       </c>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -49578,7 +49803,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2483</v>
+        <v>2516</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -49630,7 +49855,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2484</v>
+        <v>2517</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -49682,7 +49907,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2485</v>
+        <v>2518</v>
       </c>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -49734,7 +49959,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>2486</v>
+        <v>2519</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -49786,7 +50011,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2487</v>
+        <v>2520</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -49838,7 +50063,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2488</v>
+        <v>2521</v>
       </c>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -49890,7 +50115,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2489</v>
+        <v>2522</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -49942,7 +50167,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2490</v>
+        <v>2523</v>
       </c>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -49994,7 +50219,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2491</v>
+        <v>2524</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -50046,7 +50271,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2492</v>
+        <v>2525</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -50098,7 +50323,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2493</v>
+        <v>2526</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -50150,7 +50375,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2494</v>
+        <v>2527</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -50202,7 +50427,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2495</v>
+        <v>2528</v>
       </c>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -50254,7 +50479,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2496</v>
+        <v>2529</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -50306,7 +50531,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2497</v>
+        <v>2530</v>
       </c>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -50358,7 +50583,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2498</v>
+        <v>2531</v>
       </c>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -50410,7 +50635,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2499</v>
+        <v>2532</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -50462,7 +50687,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2500</v>
+        <v>2533</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -50514,7 +50739,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2501</v>
+        <v>2534</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -50566,7 +50791,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2502</v>
+        <v>2535</v>
       </c>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -50618,7 +50843,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2503</v>
+        <v>2536</v>
       </c>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -50670,7 +50895,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2504</v>
+        <v>2537</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -50722,7 +50947,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2505</v>
+        <v>2538</v>
       </c>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -50774,7 +50999,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2506</v>
+        <v>2539</v>
       </c>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -50826,7 +51051,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2507</v>
+        <v>2540</v>
       </c>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -50878,7 +51103,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2508</v>
+        <v>2541</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -50930,7 +51155,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2509</v>
+        <v>2542</v>
       </c>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -50982,7 +51207,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2510</v>
+        <v>2543</v>
       </c>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -51034,7 +51259,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2511</v>
+        <v>2544</v>
       </c>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -51086,7 +51311,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2512</v>
+        <v>2545</v>
       </c>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -51138,7 +51363,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2513</v>
+        <v>2546</v>
       </c>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -51190,7 +51415,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2514</v>
+        <v>2547</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -51242,7 +51467,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2515</v>
+        <v>2548</v>
       </c>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -51294,7 +51519,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2516</v>
+        <v>2549</v>
       </c>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -51346,7 +51571,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2517</v>
+        <v>2550</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -51398,7 +51623,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2518</v>
+        <v>2551</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -51450,7 +51675,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2519</v>
+        <v>2552</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -51502,7 +51727,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2520</v>
+        <v>2553</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -51554,7 +51779,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2521</v>
+        <v>2554</v>
       </c>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -51606,7 +51831,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2522</v>
+        <v>2555</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -51658,7 +51883,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2523</v>
+        <v>2556</v>
       </c>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -51710,7 +51935,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2524</v>
+        <v>2557</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -51762,7 +51987,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2525</v>
+        <v>2558</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -51814,7 +52039,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2526</v>
+        <v>2559</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -51866,7 +52091,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2527</v>
+        <v>2560</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -51918,7 +52143,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2528</v>
+        <v>2561</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -51970,7 +52195,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2529</v>
+        <v>2562</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -52022,7 +52247,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2530</v>
+        <v>2563</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -52074,7 +52299,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2531</v>
+        <v>2564</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -52126,7 +52351,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2532</v>
+        <v>2565</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -52178,7 +52403,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2533</v>
+        <v>2566</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -52230,7 +52455,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>2534</v>
+        <v>2567</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -52282,7 +52507,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>2535</v>
+        <v>2568</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -52334,7 +52559,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -52386,7 +52611,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -52438,7 +52663,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2538</v>
+        <v>2571</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -52490,7 +52715,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>2539</v>
+        <v>2572</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -52542,7 +52767,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>2540</v>
+        <v>2573</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -52594,7 +52819,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2541</v>
+        <v>2574</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -52646,7 +52871,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2542</v>
+        <v>2575</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -52698,7 +52923,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2543</v>
+        <v>2576</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -52750,7 +52975,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2544</v>
+        <v>2577</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -52802,7 +53027,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2545</v>
+        <v>2578</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -52854,7 +53079,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>2546</v>
+        <v>2579</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -52906,7 +53131,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>2547</v>
+        <v>2580</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -52958,7 +53183,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>2548</v>
+        <v>2581</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -53010,7 +53235,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>2549</v>
+        <v>2582</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -53062,7 +53287,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>2550</v>
+        <v>2583</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -53114,7 +53339,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2551</v>
+        <v>2584</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -53166,7 +53391,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2552</v>
+        <v>2585</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -53218,7 +53443,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2553</v>
+        <v>2586</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -53270,7 +53495,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2554</v>
+        <v>2587</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -53322,7 +53547,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2555</v>
+        <v>2588</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -53374,7 +53599,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2556</v>
+        <v>2589</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -53426,7 +53651,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2557</v>
+        <v>2590</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -53478,7 +53703,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2558</v>
+        <v>2591</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -53530,7 +53755,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2559</v>
+        <v>2592</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -53582,7 +53807,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2560</v>
+        <v>2593</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -53634,7 +53859,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2561</v>
+        <v>2594</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -53686,7 +53911,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>2562</v>
+        <v>2595</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -53738,7 +53963,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>2563</v>
+        <v>2596</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -53790,7 +54015,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>2564</v>
+        <v>2597</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -53842,7 +54067,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2565</v>
+        <v>2598</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -53894,7 +54119,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2566</v>
+        <v>2599</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -53946,7 +54171,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>2567</v>
+        <v>2600</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -53998,7 +54223,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>2568</v>
+        <v>2601</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -54050,7 +54275,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>2569</v>
+        <v>2602</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -54102,7 +54327,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2570</v>
+        <v>2603</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -54154,7 +54379,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2571</v>
+        <v>2604</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -54206,7 +54431,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2572</v>
+        <v>2605</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -54258,7 +54483,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2573</v>
+        <v>2606</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -54310,7 +54535,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2574</v>
+        <v>2607</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -54362,7 +54587,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2575</v>
+        <v>2608</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -54414,7 +54639,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>2576</v>
+        <v>2609</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -54466,7 +54691,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>2577</v>
+        <v>2610</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -54518,7 +54743,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>2578</v>
+        <v>2611</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -54570,7 +54795,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2579</v>
+        <v>2612</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -54622,7 +54847,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2580</v>
+        <v>2613</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -54674,7 +54899,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2581</v>
+        <v>2614</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -54726,7 +54951,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>2582</v>
+        <v>2615</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -54778,7 +55003,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2583</v>
+        <v>2616</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -54830,7 +55055,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2584</v>
+        <v>2617</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -54882,7 +55107,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>2585</v>
+        <v>2618</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -54934,7 +55159,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2586</v>
+        <v>2619</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -54986,7 +55211,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2587</v>
+        <v>2620</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -55038,7 +55263,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>2588</v>
+        <v>2621</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -55090,7 +55315,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>2589</v>
+        <v>2622</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -55142,7 +55367,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>2590</v>
+        <v>2623</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -55194,7 +55419,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>2591</v>
+        <v>2624</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -55246,7 +55471,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>2592</v>
+        <v>2625</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -55298,7 +55523,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2593</v>
+        <v>2626</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -55350,7 +55575,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2594</v>
+        <v>2627</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -55402,7 +55627,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2595</v>
+        <v>2628</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -55454,7 +55679,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>2596</v>
+        <v>2629</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -55506,7 +55731,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2597</v>
+        <v>2630</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -55558,7 +55783,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2598</v>
+        <v>2631</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -55610,7 +55835,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2599</v>
+        <v>2632</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -55662,7 +55887,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2600</v>
+        <v>2633</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -55714,7 +55939,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2601</v>
+        <v>2634</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -55766,7 +55991,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2602</v>
+        <v>2635</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -55818,7 +56043,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2603</v>
+        <v>2636</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -55870,7 +56095,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2604</v>
+        <v>2637</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -55922,7 +56147,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2605</v>
+        <v>2638</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -55974,7 +56199,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>2606</v>
+        <v>2639</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -56026,7 +56251,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2607</v>
+        <v>2640</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -56078,7 +56303,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2608</v>
+        <v>2641</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -56130,7 +56355,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2609</v>
+        <v>2642</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -56182,7 +56407,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2610</v>
+        <v>2643</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -56234,7 +56459,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2611</v>
+        <v>2644</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -56286,7 +56511,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2612</v>
+        <v>2645</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -56338,7 +56563,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2613</v>
+        <v>2646</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -56390,7 +56615,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2614</v>
+        <v>2647</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -56442,7 +56667,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2615</v>
+        <v>2648</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -56494,7 +56719,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2616</v>
+        <v>2649</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -56546,7 +56771,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2617</v>
+        <v>2650</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -56598,7 +56823,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2618</v>
+        <v>2651</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -56650,7 +56875,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2619</v>
+        <v>2652</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -56702,7 +56927,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2620</v>
+        <v>2653</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -56754,7 +56979,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2621</v>
+        <v>2654</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -56806,7 +57031,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2622</v>
+        <v>2655</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -56858,7 +57083,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2623</v>
+        <v>2656</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -56910,7 +57135,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2624</v>
+        <v>2657</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -56962,7 +57187,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2625</v>
+        <v>2658</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -57014,7 +57239,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2626</v>
+        <v>2659</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -57066,7 +57291,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2627</v>
+        <v>2660</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -57118,7 +57343,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2628</v>
+        <v>2661</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -57170,7 +57395,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2629</v>
+        <v>2662</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -57222,7 +57447,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2630</v>
+        <v>2663</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -57274,7 +57499,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2631</v>
+        <v>2664</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -57326,7 +57551,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2632</v>
+        <v>2665</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -57378,7 +57603,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2633</v>
+        <v>2666</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -57430,7 +57655,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2634</v>
+        <v>2667</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -57482,7 +57707,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2635</v>
+        <v>2668</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -57534,7 +57759,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2636</v>
+        <v>2669</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -57586,7 +57811,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2637</v>
+        <v>2670</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -57638,7 +57863,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2638</v>
+        <v>2671</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -57690,7 +57915,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2639</v>
+        <v>2672</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -57742,7 +57967,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2640</v>
+        <v>2673</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -57794,7 +58019,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2641</v>
+        <v>2674</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -57846,7 +58071,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2642</v>
+        <v>2675</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -57898,7 +58123,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2643</v>
+        <v>2676</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -57950,7 +58175,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2644</v>
+        <v>2677</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -58002,7 +58227,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2645</v>
+        <v>2678</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -58054,7 +58279,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2646</v>
+        <v>2679</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -58106,7 +58331,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2647</v>
+        <v>2680</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -58158,7 +58383,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2648</v>
+        <v>2681</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -58210,7 +58435,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2649</v>
+        <v>2682</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -58262,7 +58487,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2650</v>
+        <v>2683</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -58314,7 +58539,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2651</v>
+        <v>2684</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -58366,7 +58591,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2652</v>
+        <v>2685</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -58418,7 +58643,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2653</v>
+        <v>2686</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -58470,7 +58695,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2654</v>
+        <v>2687</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -58522,7 +58747,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2655</v>
+        <v>2688</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -58574,7 +58799,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2656</v>
+        <v>2689</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -58626,7 +58851,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2657</v>
+        <v>2690</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -58678,7 +58903,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2658</v>
+        <v>2691</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -58730,7 +58955,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2659</v>
+        <v>2692</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -58782,7 +59007,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2660</v>
+        <v>2693</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -58834,7 +59059,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2661</v>
+        <v>2694</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -58886,7 +59111,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2662</v>
+        <v>2695</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -58938,7 +59163,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2663</v>
+        <v>2696</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -58990,7 +59215,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2664</v>
+        <v>2697</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -59042,7 +59267,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2665</v>
+        <v>2698</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -59094,7 +59319,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2666</v>
+        <v>2699</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -59146,7 +59371,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2667</v>
+        <v>2700</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -59198,7 +59423,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2668</v>
+        <v>2701</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -59250,7 +59475,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2669</v>
+        <v>2702</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -59302,7 +59527,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2670</v>
+        <v>2703</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -59354,7 +59579,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2671</v>
+        <v>2704</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -59406,7 +59631,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2672</v>
+        <v>2705</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -59458,7 +59683,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2673</v>
+        <v>2706</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -59510,7 +59735,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2674</v>
+        <v>2707</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -59562,7 +59787,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2675</v>
+        <v>2708</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -59614,7 +59839,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2676</v>
+        <v>2709</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -59666,7 +59891,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2677</v>
+        <v>2710</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -59718,7 +59943,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2678</v>
+        <v>2711</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -59770,7 +59995,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2679</v>
+        <v>2712</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -59822,7 +60047,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2680</v>
+        <v>2713</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -59874,7 +60099,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2681</v>
+        <v>2714</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -59926,7 +60151,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2682</v>
+        <v>2715</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -59978,7 +60203,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2683</v>
+        <v>2716</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -60030,7 +60255,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2684</v>
+        <v>2717</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -60082,7 +60307,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2685</v>
+        <v>2718</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -60134,7 +60359,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2686</v>
+        <v>2719</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -60186,7 +60411,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2687</v>
+        <v>2720</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -60238,7 +60463,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2688</v>
+        <v>2721</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -60290,7 +60515,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2689</v>
+        <v>2722</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -60342,7 +60567,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2690</v>
+        <v>2723</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -60394,7 +60619,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2691</v>
+        <v>2724</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -60446,7 +60671,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2692</v>
+        <v>2725</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -60498,7 +60723,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2693</v>
+        <v>2726</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -60550,7 +60775,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2694</v>
+        <v>2727</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -60602,7 +60827,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2695</v>
+        <v>2728</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -60654,7 +60879,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2696</v>
+        <v>2729</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -60706,7 +60931,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2697</v>
+        <v>2730</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -60758,7 +60983,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2698</v>
+        <v>2731</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -60810,7 +61035,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2699</v>
+        <v>2732</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -60862,7 +61087,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2700</v>
+        <v>2733</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -60914,7 +61139,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2701</v>
+        <v>2734</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -60966,7 +61191,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2702</v>
+        <v>2735</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -61018,7 +61243,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2703</v>
+        <v>2736</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -61070,7 +61295,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2704</v>
+        <v>2737</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -61122,7 +61347,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2705</v>
+        <v>2738</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -61174,7 +61399,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2706</v>
+        <v>2739</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -61226,7 +61451,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>2707</v>
+        <v>2740</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -61278,7 +61503,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2708</v>
+        <v>2741</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -61330,7 +61555,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2709</v>
+        <v>2742</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -61382,7 +61607,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>2710</v>
+        <v>2743</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -61434,7 +61659,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>2711</v>
+        <v>2744</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -61486,7 +61711,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2712</v>
+        <v>2745</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -61538,7 +61763,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2713</v>
+        <v>2746</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -61590,7 +61815,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2714</v>
+        <v>2747</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -61642,7 +61867,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2715</v>
+        <v>2748</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -61694,7 +61919,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2716</v>
+        <v>2749</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -61746,7 +61971,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2717</v>
+        <v>2750</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -61798,7 +62023,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>2718</v>
+        <v>2751</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -61850,7 +62075,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2719</v>
+        <v>2752</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -61902,7 +62127,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2720</v>
+        <v>2753</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -61954,7 +62179,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2721</v>
+        <v>2754</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -62006,7 +62231,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2722</v>
+        <v>2755</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -62058,7 +62283,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>2723</v>
+        <v>2756</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -62110,7 +62335,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2724</v>
+        <v>2757</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -62162,7 +62387,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>2725</v>
+        <v>2758</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -62214,7 +62439,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2726</v>
+        <v>2759</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -62266,7 +62491,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2727</v>
+        <v>2760</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -62318,7 +62543,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2728</v>
+        <v>2761</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -62370,7 +62595,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2729</v>
+        <v>2762</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -62422,7 +62647,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>2730</v>
+        <v>2763</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -62474,7 +62699,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2731</v>
+        <v>2764</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -62526,7 +62751,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2732</v>
+        <v>2765</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -62578,7 +62803,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2733</v>
+        <v>2766</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -62630,7 +62855,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2734</v>
+        <v>2767</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -62682,7 +62907,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2735</v>
+        <v>2768</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -62734,7 +62959,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2736</v>
+        <v>2769</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -62786,7 +63011,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>2737</v>
+        <v>2770</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -62838,7 +63063,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>2738</v>
+        <v>2771</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -62890,7 +63115,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2739</v>
+        <v>2772</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -62942,7 +63167,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2740</v>
+        <v>2773</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -62994,7 +63219,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2741</v>
+        <v>2774</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -63046,7 +63271,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2742</v>
+        <v>2775</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -63098,7 +63323,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2743</v>
+        <v>2776</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -63150,7 +63375,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>2744</v>
+        <v>2777</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -63202,7 +63427,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2745</v>
+        <v>2778</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -63254,7 +63479,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2746</v>
+        <v>2779</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -63306,7 +63531,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2747</v>
+        <v>2780</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -63358,7 +63583,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2748</v>
+        <v>2781</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -63410,7 +63635,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2749</v>
+        <v>2782</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -63462,7 +63687,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2750</v>
+        <v>2783</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -63514,7 +63739,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>2751</v>
+        <v>2784</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -63566,7 +63791,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>2752</v>
+        <v>2785</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -63618,7 +63843,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2753</v>
+        <v>2786</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -63670,7 +63895,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2754</v>
+        <v>2787</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -63722,7 +63947,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>2755</v>
+        <v>2788</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -63774,7 +63999,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>2756</v>
+        <v>2789</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -63826,7 +64051,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>2757</v>
+        <v>2790</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -63878,7 +64103,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>2758</v>
+        <v>2791</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -63930,7 +64155,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>2759</v>
+        <v>2792</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -63982,7 +64207,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>2760</v>
+        <v>2793</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -64034,7 +64259,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2761</v>
+        <v>2794</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -64086,7 +64311,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2762</v>
+        <v>2795</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -64138,7 +64363,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2763</v>
+        <v>2796</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -64190,7 +64415,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2764</v>
+        <v>2797</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -64242,7 +64467,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2765</v>
+        <v>2798</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -64294,7 +64519,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2766</v>
+        <v>2799</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -64346,7 +64571,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2767</v>
+        <v>2800</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -64398,7 +64623,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2768</v>
+        <v>2801</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -64450,7 +64675,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2769</v>
+        <v>2802</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -64502,7 +64727,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>2770</v>
+        <v>2803</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -64554,7 +64779,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>2771</v>
+        <v>2804</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -64606,7 +64831,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2772</v>
+        <v>2805</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -64658,7 +64883,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2773</v>
+        <v>2806</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -64710,7 +64935,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2774</v>
+        <v>2807</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -64762,7 +64987,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2775</v>
+        <v>2808</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -64814,7 +65039,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2776</v>
+        <v>2809</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -64866,7 +65091,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>2777</v>
+        <v>2810</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -64918,7 +65143,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2778</v>
+        <v>2811</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -64970,7 +65195,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2779</v>
+        <v>2812</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -65022,7 +65247,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2780</v>
+        <v>2813</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -65074,7 +65299,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2781</v>
+        <v>2814</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -65126,7 +65351,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2782</v>
+        <v>2815</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -65178,7 +65403,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2783</v>
+        <v>2816</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -65230,7 +65455,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2784</v>
+        <v>2817</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -65282,7 +65507,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2785</v>
+        <v>2818</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -65334,7 +65559,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2786</v>
+        <v>2819</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -65386,7 +65611,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2787</v>
+        <v>2820</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -65438,7 +65663,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>2788</v>
+        <v>2821</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -65490,7 +65715,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2789</v>
+        <v>2822</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -65542,7 +65767,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2790</v>
+        <v>2823</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -65594,7 +65819,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>2791</v>
+        <v>2824</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -65646,7 +65871,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2792</v>
+        <v>2825</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -65698,7 +65923,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>2793</v>
+        <v>2826</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -65750,7 +65975,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>2794</v>
+        <v>2827</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -65802,7 +66027,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>2795</v>
+        <v>2828</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -65854,7 +66079,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2796</v>
+        <v>2829</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -65906,7 +66131,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2797</v>
+        <v>2830</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -65958,7 +66183,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2798</v>
+        <v>2831</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -66010,7 +66235,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2799</v>
+        <v>2832</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="3139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="3301">
   <si>
     <t>No</t>
   </si>
@@ -8153,12 +8153,63 @@
     <t>LPKR</t>
   </si>
   <si>
+    <t>10538000000000</t>
+  </si>
+  <si>
+    <t>10903000000000</t>
+  </si>
+  <si>
+    <t>12282000000000</t>
+  </si>
+  <si>
+    <t>12177000000000</t>
+  </si>
+  <si>
+    <t>11811000000000</t>
+  </si>
+  <si>
+    <t>16139000000000</t>
+  </si>
+  <si>
+    <t>14674000000000</t>
+  </si>
+  <si>
+    <t>16847000000000</t>
+  </si>
+  <si>
+    <t>11348000000000</t>
+  </si>
+  <si>
     <t>LPLI</t>
   </si>
   <si>
     <t>LPPF</t>
   </si>
   <si>
+    <t>9897000000000</t>
+  </si>
+  <si>
+    <t>10024000000000</t>
+  </si>
+  <si>
+    <t>10245000000000</t>
+  </si>
+  <si>
+    <t>10276000000000</t>
+  </si>
+  <si>
+    <t>4839000000000</t>
+  </si>
+  <si>
+    <t>5586000000000</t>
+  </si>
+  <si>
+    <t>6539000000000</t>
+  </si>
+  <si>
+    <t>6399000000000</t>
+  </si>
+  <si>
     <t>LPPS</t>
   </si>
   <si>
@@ -8168,12 +8219,66 @@
     <t>LSIP</t>
   </si>
   <si>
+    <t>3848000000000</t>
+  </si>
+  <si>
+    <t>4738000000000</t>
+  </si>
+  <si>
+    <t>4020000000000</t>
+  </si>
+  <si>
+    <t>3699000000000</t>
+  </si>
+  <si>
+    <t>3537000000000</t>
+  </si>
+  <si>
+    <t>4525000000000</t>
+  </si>
+  <si>
+    <t>4585000000000</t>
+  </si>
+  <si>
+    <t>4190000000000</t>
+  </si>
+  <si>
+    <t>4563000000000</t>
+  </si>
+  <si>
     <t>LTLS</t>
   </si>
   <si>
+    <t>6438000000000</t>
+  </si>
+  <si>
+    <t>6597000000000</t>
+  </si>
+  <si>
+    <t>6535000000000</t>
+  </si>
+  <si>
+    <t>5592000000000</t>
+  </si>
+  <si>
+    <t>6636000000000</t>
+  </si>
+  <si>
+    <t>7879000000000</t>
+  </si>
+  <si>
+    <t>7317000000000</t>
+  </si>
+  <si>
+    <t>7722000000000</t>
+  </si>
+  <si>
     <t>LUCK</t>
   </si>
   <si>
+    <t>136000000000</t>
+  </si>
+  <si>
     <t>LUCY</t>
   </si>
   <si>
@@ -8183,79 +8288,460 @@
     <t>MAGP</t>
   </si>
   <si>
+    <t>164000000000</t>
+  </si>
+  <si>
     <t>MAHA</t>
   </si>
   <si>
+    <t>998000000000</t>
+  </si>
+  <si>
+    <t>1642000000000</t>
+  </si>
+  <si>
+    <t>1978000000000</t>
+  </si>
+  <si>
+    <t>2544000000000</t>
+  </si>
+  <si>
     <t>MAIN</t>
   </si>
   <si>
+    <t>5246000000000</t>
+  </si>
+  <si>
+    <t>7455000000000</t>
+  </si>
+  <si>
+    <t>7001000000000</t>
+  </si>
+  <si>
+    <t>9131000000000</t>
+  </si>
+  <si>
+    <t>11102000000000</t>
+  </si>
+  <si>
+    <t>12058000000000</t>
+  </si>
+  <si>
+    <t>12503000000000</t>
+  </si>
+  <si>
     <t>MANG</t>
   </si>
   <si>
     <t>MAPA</t>
   </si>
   <si>
+    <t>5076000000000</t>
+  </si>
+  <si>
+    <t>6246000000000</t>
+  </si>
+  <si>
+    <t>7447000000000</t>
+  </si>
+  <si>
+    <t>4781000000000</t>
+  </si>
+  <si>
+    <t>6042000000000</t>
+  </si>
+  <si>
+    <t>9801000000000</t>
+  </si>
+  <si>
+    <t>13559000000000</t>
+  </si>
+  <si>
+    <t>17184000000000</t>
+  </si>
+  <si>
     <t>MAPB</t>
   </si>
   <si>
+    <t>1892000000000</t>
+  </si>
+  <si>
+    <t>2517000000000</t>
+  </si>
+  <si>
+    <t>3095000000000</t>
+  </si>
+  <si>
+    <t>2431000000000</t>
+  </si>
+  <si>
+    <t>3437000000000</t>
+  </si>
+  <si>
+    <t>3999000000000</t>
+  </si>
+  <si>
     <t>MAPI</t>
   </si>
   <si>
+    <t>16306000000000</t>
+  </si>
+  <si>
+    <t>18921000000000</t>
+  </si>
+  <si>
+    <t>21579000000000</t>
+  </si>
+  <si>
+    <t>14847000000000</t>
+  </si>
+  <si>
+    <t>18424000000000</t>
+  </si>
+  <si>
+    <t>26937000000000</t>
+  </si>
+  <si>
+    <t>33319000000000</t>
+  </si>
+  <si>
+    <t>37836000000000</t>
+  </si>
+  <si>
     <t>MARI</t>
   </si>
   <si>
     <t>MARK</t>
   </si>
   <si>
+    <t>207000000000</t>
+  </si>
+  <si>
+    <t>565000000000</t>
+  </si>
+  <si>
+    <t>824000000000</t>
+  </si>
+  <si>
+    <t>559000000000</t>
+  </si>
+  <si>
+    <t>910000000000</t>
+  </si>
+  <si>
     <t>MASA</t>
   </si>
   <si>
+    <t>3058000000000</t>
+  </si>
+  <si>
+    <t>3761000000000</t>
+  </si>
+  <si>
+    <t>4301000000000</t>
+  </si>
+  <si>
+    <t>4502000000000</t>
+  </si>
+  <si>
+    <t>4655000000000</t>
+  </si>
+  <si>
+    <t>6912000000000</t>
+  </si>
+  <si>
+    <t>7458000000000</t>
+  </si>
+  <si>
+    <t>6680000000000</t>
+  </si>
+  <si>
     <t>MASB</t>
   </si>
   <si>
+    <t>1212000000000</t>
+  </si>
+  <si>
+    <t>1288000000000</t>
+  </si>
+  <si>
+    <t>1478000000000</t>
+  </si>
+  <si>
     <t>MAXI</t>
   </si>
   <si>
     <t>MAYA</t>
   </si>
   <si>
+    <t>6029000000000</t>
+  </si>
+  <si>
+    <t>6984000000000</t>
+  </si>
+  <si>
+    <t>7995000000000</t>
+  </si>
+  <si>
+    <t>8938000000000</t>
+  </si>
+  <si>
+    <t>5195000000000</t>
+  </si>
+  <si>
+    <t>6335000000000</t>
+  </si>
+  <si>
+    <t>7715000000000</t>
+  </si>
+  <si>
+    <t>8764000000000</t>
+  </si>
+  <si>
     <t>MBAP</t>
   </si>
   <si>
+    <t>2491000000000</t>
+  </si>
+  <si>
+    <t>3461000000000</t>
+  </si>
+  <si>
+    <t>3678000000000</t>
+  </si>
+  <si>
+    <t>3690000000000</t>
+  </si>
+  <si>
+    <t>2933000000000</t>
+  </si>
+  <si>
+    <t>4434000000000</t>
+  </si>
+  <si>
+    <t>6687000000000</t>
+  </si>
+  <si>
+    <t>3418000000000</t>
+  </si>
+  <si>
+    <t>3454000000000</t>
+  </si>
+  <si>
     <t>MBMA</t>
   </si>
   <si>
+    <t>6780000000000</t>
+  </si>
+  <si>
+    <t>20263000000000</t>
+  </si>
+  <si>
+    <t>29238000000000</t>
+  </si>
+  <si>
     <t>MBSS</t>
   </si>
   <si>
+    <t>875000000000</t>
+  </si>
+  <si>
+    <t>916000000000</t>
+  </si>
+  <si>
+    <t>1074000000000</t>
+  </si>
+  <si>
+    <t>1101000000000</t>
+  </si>
+  <si>
+    <t>800000000000</t>
+  </si>
+  <si>
+    <t>1315000000000</t>
+  </si>
+  <si>
+    <t>964000000000</t>
+  </si>
+  <si>
     <t>MBTO</t>
   </si>
   <si>
+    <t>685000000000</t>
+  </si>
+  <si>
+    <t>732000000000</t>
+  </si>
+  <si>
+    <t>503000000000</t>
+  </si>
+  <si>
+    <t>297000000000</t>
+  </si>
+  <si>
+    <t>419000000000</t>
+  </si>
+  <si>
     <t>MCAS</t>
   </si>
   <si>
+    <t>386000000000</t>
+  </si>
+  <si>
+    <t>1371000000000</t>
+  </si>
+  <si>
+    <t>6356000000000</t>
+  </si>
+  <si>
+    <t>11334000000000</t>
+  </si>
+  <si>
+    <t>12675000000000</t>
+  </si>
+  <si>
+    <t>12315000000000</t>
+  </si>
+  <si>
+    <t>11697000000000</t>
+  </si>
+  <si>
+    <t>7144000000000</t>
+  </si>
+  <si>
     <t>MCOL</t>
   </si>
   <si>
+    <t>3128000000000</t>
+  </si>
+  <si>
+    <t>9922000000000</t>
+  </si>
+  <si>
+    <t>15839000000000</t>
+  </si>
+  <si>
+    <t>13989000000000</t>
+  </si>
+  <si>
+    <t>12153000000000</t>
+  </si>
+  <si>
     <t>MCOR</t>
   </si>
   <si>
+    <t>1147000000000</t>
+  </si>
+  <si>
+    <t>1241000000000</t>
+  </si>
+  <si>
+    <t>1299000000000</t>
+  </si>
+  <si>
+    <t>1248000000000</t>
+  </si>
+  <si>
+    <t>1323000000000</t>
+  </si>
+  <si>
+    <t>1690000000000</t>
+  </si>
+  <si>
+    <t>2142000000000</t>
+  </si>
+  <si>
     <t>MDIA</t>
   </si>
   <si>
+    <t>1757000000000</t>
+  </si>
+  <si>
+    <t>1497000000000</t>
+  </si>
+  <si>
+    <t>1282000000000</t>
+  </si>
+  <si>
+    <t>1266000000000</t>
+  </si>
+  <si>
+    <t>778000000000</t>
+  </si>
+  <si>
+    <t>669000000000</t>
+  </si>
+  <si>
     <t>MDIY</t>
   </si>
   <si>
+    <t>894000000000</t>
+  </si>
+  <si>
     <t>MDKA</t>
   </si>
   <si>
+    <t>1732000000000</t>
+  </si>
+  <si>
+    <t>4188000000000</t>
+  </si>
+  <si>
+    <t>5687000000000</t>
+  </si>
+  <si>
+    <t>4692000000000</t>
+  </si>
+  <si>
+    <t>5452000000000</t>
+  </si>
+  <si>
+    <t>12940000000000</t>
+  </si>
+  <si>
+    <t>26036000000000</t>
+  </si>
+  <si>
+    <t>35488000000000</t>
+  </si>
+  <si>
     <t>MDKI</t>
   </si>
   <si>
+    <t>487000000000</t>
+  </si>
+  <si>
+    <t>471000000000</t>
+  </si>
+  <si>
     <t>MDLA</t>
   </si>
   <si>
+    <t>11602000000000</t>
+  </si>
+  <si>
+    <t>11694000000000</t>
+  </si>
+  <si>
+    <t>13092000000000</t>
+  </si>
+  <si>
     <t>MDLN</t>
+  </si>
+  <si>
+    <t>3196000000000</t>
+  </si>
+  <si>
+    <t>2373000000000</t>
+  </si>
+  <si>
+    <t>2009000000000</t>
+  </si>
+  <si>
+    <t>1099000000000</t>
+  </si>
+  <si>
+    <t>1018000000000</t>
   </si>
   <si>
     <t>MDRN</t>
@@ -10479,8 +10965,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="C563" sqref="C563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -43399,31 +43885,31 @@
       <c r="B487" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C487" s="10" t="s">
         <v>2462</v>
       </c>
-      <c r="D487" s="14" t="s">
+      <c r="D487" s="10" t="s">
         <v>2556</v>
       </c>
-      <c r="E487" s="14" t="s">
+      <c r="E487" s="10" t="s">
         <v>2557</v>
       </c>
-      <c r="F487" s="14" t="s">
+      <c r="F487" s="10" t="s">
         <v>2558</v>
       </c>
-      <c r="G487" s="14" t="s">
+      <c r="G487" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="H487" s="14" t="s">
+      <c r="H487" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I487" s="14" t="s">
+      <c r="I487" s="10" t="s">
         <v>2559</v>
       </c>
-      <c r="J487" s="14" t="s">
+      <c r="J487" s="10" t="s">
         <v>2560</v>
       </c>
-      <c r="K487" s="14" t="s">
+      <c r="K487" s="10" t="s">
         <v>2561</v>
       </c>
       <c r="L487" s="3"/>
@@ -43799,31 +44285,31 @@
       <c r="B493" s="3" t="s">
         <v>2589</v>
       </c>
-      <c r="C493" s="14" t="s">
+      <c r="C493" s="10" t="s">
         <v>2590</v>
       </c>
-      <c r="D493" s="14" t="s">
+      <c r="D493" s="10" t="s">
         <v>2591</v>
       </c>
-      <c r="E493" s="14" t="s">
+      <c r="E493" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="F493" s="14" t="s">
+      <c r="F493" s="10" t="s">
         <v>2592</v>
       </c>
-      <c r="G493" s="14" t="s">
+      <c r="G493" s="10" t="s">
         <v>2593</v>
       </c>
-      <c r="H493" s="14" t="s">
+      <c r="H493" s="10" t="s">
         <v>2594</v>
       </c>
-      <c r="I493" s="14" t="s">
+      <c r="I493" s="10" t="s">
         <v>2595</v>
       </c>
-      <c r="J493" s="14" t="s">
+      <c r="J493" s="10" t="s">
         <v>2596</v>
       </c>
-      <c r="K493" s="14" t="s">
+      <c r="K493" s="10" t="s">
         <v>2597</v>
       </c>
       <c r="L493" s="3"/>
@@ -44742,16 +45228,16 @@
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
-      <c r="H507" s="14" t="s">
+      <c r="H507" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I507" s="9">
+      <c r="I507" s="3">
         <v>93000000000</v>
       </c>
-      <c r="J507" s="14" t="s">
+      <c r="J507" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="K507" s="14" t="s">
+      <c r="K507" s="10" t="s">
         <v>1095</v>
       </c>
       <c r="L507" s="3"/>
@@ -45527,22 +46013,22 @@
       <c r="B519" s="3" t="s">
         <v>2686</v>
       </c>
-      <c r="C519" s="14" t="s">
+      <c r="C519" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D519" s="14" t="s">
+      <c r="D519" s="10" t="s">
         <v>1575</v>
       </c>
-      <c r="E519" s="14" t="s">
+      <c r="E519" s="10" t="s">
         <v>2361</v>
       </c>
-      <c r="F519" s="14" t="s">
+      <c r="F519" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="G519" s="14" t="s">
+      <c r="G519" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="H519" s="9">
+      <c r="H519" s="3">
         <v>39000000000</v>
       </c>
       <c r="I519" s="3"/>
@@ -45991,15 +46477,33 @@
       <c r="B526" s="3" t="s">
         <v>2706</v>
       </c>
-      <c r="C526" s="3"/>
-      <c r="D526" s="3"/>
-      <c r="E526" s="3"/>
-      <c r="F526" s="3"/>
-      <c r="G526" s="3"/>
-      <c r="H526" s="3"/>
-      <c r="I526" s="3"/>
-      <c r="J526" s="3"/>
-      <c r="K526" s="3"/>
+      <c r="C526" s="10" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D526" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E526" s="3">
+        <v>95000000000</v>
+      </c>
+      <c r="F526" s="3">
+        <v>88000000000</v>
+      </c>
+      <c r="G526" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H526" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I526" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J526" s="10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K526" s="10" t="s">
+        <v>857</v>
+      </c>
       <c r="L526" s="3"/>
       <c r="M526" s="3"/>
       <c r="N526" s="3"/>
@@ -46043,15 +46547,33 @@
       <c r="B527" s="3" t="s">
         <v>2707</v>
       </c>
-      <c r="C527" s="3"/>
-      <c r="D527" s="3"/>
-      <c r="E527" s="3"/>
-      <c r="F527" s="3"/>
-      <c r="G527" s="3"/>
-      <c r="H527" s="3"/>
-      <c r="I527" s="3"/>
-      <c r="J527" s="3"/>
-      <c r="K527" s="3"/>
+      <c r="C527" s="10" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D527" s="10" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E527" s="10" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F527" s="10" t="s">
+        <v>2711</v>
+      </c>
+      <c r="G527" s="10" t="s">
+        <v>2712</v>
+      </c>
+      <c r="H527" s="10" t="s">
+        <v>2713</v>
+      </c>
+      <c r="I527" s="10" t="s">
+        <v>2714</v>
+      </c>
+      <c r="J527" s="10" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K527" s="10" t="s">
+        <v>2716</v>
+      </c>
       <c r="L527" s="3"/>
       <c r="M527" s="3"/>
       <c r="N527" s="3"/>
@@ -46093,17 +46615,35 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>2708</v>
-      </c>
-      <c r="C528" s="3"/>
-      <c r="D528" s="3"/>
-      <c r="E528" s="3"/>
-      <c r="F528" s="3"/>
-      <c r="G528" s="3"/>
-      <c r="H528" s="3"/>
-      <c r="I528" s="3"/>
-      <c r="J528" s="3"/>
-      <c r="K528" s="3"/>
+        <v>2717</v>
+      </c>
+      <c r="C528" s="3">
+        <v>86000000000</v>
+      </c>
+      <c r="D528" s="3">
+        <v>91000000000</v>
+      </c>
+      <c r="E528" s="3">
+        <v>83000000000</v>
+      </c>
+      <c r="F528" s="3">
+        <v>64000000000</v>
+      </c>
+      <c r="G528" s="3">
+        <v>15000000000</v>
+      </c>
+      <c r="H528" s="3">
+        <v>6000000000</v>
+      </c>
+      <c r="I528" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="J528" s="3">
+        <v>21000000000</v>
+      </c>
+      <c r="K528" s="3">
+        <v>21000000000</v>
+      </c>
       <c r="L528" s="3"/>
       <c r="M528" s="3"/>
       <c r="N528" s="3"/>
@@ -46145,17 +46685,35 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C529" s="3"/>
-      <c r="D529" s="3"/>
-      <c r="E529" s="3"/>
-      <c r="F529" s="3"/>
-      <c r="G529" s="3"/>
-      <c r="H529" s="3"/>
-      <c r="I529" s="3"/>
-      <c r="J529" s="3"/>
-      <c r="K529" s="3"/>
+        <v>2718</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D529" s="10" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F529" s="10" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G529" s="10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="H529" s="10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="I529" s="10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="J529" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="K529" s="10" t="s">
+        <v>2726</v>
+      </c>
       <c r="L529" s="3"/>
       <c r="M529" s="3"/>
       <c r="N529" s="3"/>
@@ -46197,17 +46755,35 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>2710</v>
-      </c>
-      <c r="C530" s="3"/>
-      <c r="D530" s="3"/>
-      <c r="E530" s="3"/>
-      <c r="F530" s="3"/>
-      <c r="G530" s="3"/>
-      <c r="H530" s="3"/>
-      <c r="I530" s="3"/>
-      <c r="J530" s="3"/>
-      <c r="K530" s="3"/>
+        <v>2727</v>
+      </c>
+      <c r="C530" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="D530" s="3">
+        <v>11000000000</v>
+      </c>
+      <c r="E530" s="3">
+        <v>-1000000000</v>
+      </c>
+      <c r="F530" s="3">
+        <v>-3000000000</v>
+      </c>
+      <c r="G530" s="3">
+        <v>0</v>
+      </c>
+      <c r="H530" s="3">
+        <v>0</v>
+      </c>
+      <c r="I530" s="3">
+        <v>0</v>
+      </c>
+      <c r="J530" s="3">
+        <v>0</v>
+      </c>
+      <c r="K530" s="3">
+        <v>0</v>
+      </c>
       <c r="L530" s="3"/>
       <c r="M530" s="3"/>
       <c r="N530" s="3"/>
@@ -46249,17 +46825,35 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>2711</v>
-      </c>
-      <c r="C531" s="3"/>
-      <c r="D531" s="3"/>
-      <c r="E531" s="3"/>
-      <c r="F531" s="3"/>
-      <c r="G531" s="3"/>
-      <c r="H531" s="3"/>
-      <c r="I531" s="3"/>
-      <c r="J531" s="3"/>
-      <c r="K531" s="3"/>
+        <v>2728</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="D531" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E531" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F531" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G531" s="3">
+        <v>65000000000</v>
+      </c>
+      <c r="H531" s="3">
+        <v>70000000000</v>
+      </c>
+      <c r="I531" s="3">
+        <v>93000000000</v>
+      </c>
+      <c r="J531" s="3">
+        <v>93000000000</v>
+      </c>
+      <c r="K531" s="3">
+        <v>81000000000</v>
+      </c>
       <c r="L531" s="3"/>
       <c r="M531" s="3"/>
       <c r="N531" s="3"/>
@@ -46301,17 +46895,35 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C532" s="3"/>
-      <c r="D532" s="3"/>
-      <c r="E532" s="3"/>
-      <c r="F532" s="3"/>
-      <c r="G532" s="3"/>
-      <c r="H532" s="3"/>
-      <c r="I532" s="3"/>
-      <c r="J532" s="3"/>
-      <c r="K532" s="3"/>
+        <v>2729</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D532" s="10" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E532" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F532" s="10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G532" s="10" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H532" s="10" t="s">
+        <v>2735</v>
+      </c>
+      <c r="I532" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="J532" s="10" t="s">
+        <v>2737</v>
+      </c>
+      <c r="K532" s="10" t="s">
+        <v>2738</v>
+      </c>
       <c r="L532" s="3"/>
       <c r="M532" s="3"/>
       <c r="N532" s="3"/>
@@ -46353,17 +46965,35 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>2713</v>
-      </c>
-      <c r="C533" s="3"/>
-      <c r="D533" s="3"/>
-      <c r="E533" s="3"/>
-      <c r="F533" s="3"/>
-      <c r="G533" s="3"/>
-      <c r="H533" s="3"/>
-      <c r="I533" s="3"/>
-      <c r="J533" s="3"/>
-      <c r="K533" s="3"/>
+        <v>2739</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D533" s="10" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F533" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="G533" s="10" t="s">
+        <v>2743</v>
+      </c>
+      <c r="H533" s="10" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I533" s="10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J533" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="K533" s="10" t="s">
+        <v>2747</v>
+      </c>
       <c r="L533" s="3"/>
       <c r="M533" s="3"/>
       <c r="N533" s="3"/>
@@ -46405,17 +47035,33 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>2714</v>
+        <v>2748</v>
       </c>
       <c r="C534" s="3"/>
-      <c r="D534" s="3"/>
-      <c r="E534" s="3"/>
-      <c r="F534" s="3"/>
-      <c r="G534" s="3"/>
-      <c r="H534" s="3"/>
-      <c r="I534" s="3"/>
-      <c r="J534" s="3"/>
-      <c r="K534" s="3"/>
+      <c r="D534" s="9">
+        <v>98000000000</v>
+      </c>
+      <c r="E534" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F534" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G534" s="9">
+        <v>99000000000</v>
+      </c>
+      <c r="H534" s="14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I534" s="14" t="s">
+        <v>2749</v>
+      </c>
+      <c r="J534" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K534" s="9">
+        <v>94000000000</v>
+      </c>
       <c r="L534" s="3"/>
       <c r="M534" s="3"/>
       <c r="N534" s="3"/>
@@ -46457,17 +47103,29 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>2715</v>
+        <v>2750</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
-      <c r="F535" s="3"/>
-      <c r="G535" s="3"/>
-      <c r="H535" s="3"/>
-      <c r="I535" s="3"/>
-      <c r="J535" s="3"/>
-      <c r="K535" s="3"/>
+      <c r="F535" s="3">
+        <v>21000000000</v>
+      </c>
+      <c r="G535" s="3">
+        <v>12000000000</v>
+      </c>
+      <c r="H535" s="3">
+        <v>14000000000</v>
+      </c>
+      <c r="I535" s="3">
+        <v>66000000000</v>
+      </c>
+      <c r="J535" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K535" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="L535" s="3"/>
       <c r="M535" s="3"/>
       <c r="N535" s="3"/>
@@ -46509,17 +47167,21 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>2716</v>
-      </c>
-      <c r="C536" s="3"/>
-      <c r="D536" s="3"/>
-      <c r="E536" s="3"/>
-      <c r="F536" s="3"/>
+        <v>2751</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D536" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E536" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F536" s="3">
+        <v>45000000000</v>
+      </c>
       <c r="G536" s="3"/>
-      <c r="H536" s="3"/>
-      <c r="I536" s="3"/>
-      <c r="J536" s="3"/>
-      <c r="K536" s="3"/>
       <c r="L536" s="3"/>
       <c r="M536" s="3"/>
       <c r="N536" s="3"/>
@@ -46561,17 +47223,26 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C537" s="3"/>
-      <c r="D537" s="3"/>
-      <c r="E537" s="3"/>
-      <c r="F537" s="3"/>
-      <c r="G537" s="3"/>
-      <c r="H537" s="3"/>
-      <c r="I537" s="3"/>
-      <c r="J537" s="3"/>
-      <c r="K537" s="3"/>
+        <v>2752</v>
+      </c>
+      <c r="C537" s="3">
+        <v>31000000000</v>
+      </c>
+      <c r="D537" s="3">
+        <v>69000000000</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F537" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G537" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="H537" s="10" t="s">
+        <v>754</v>
+      </c>
       <c r="L537" s="3"/>
       <c r="M537" s="3"/>
       <c r="N537" s="3"/>
@@ -46613,17 +47284,27 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>2718</v>
+        <v>2754</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
-      <c r="G538" s="3"/>
-      <c r="H538" s="3"/>
-      <c r="I538" s="3"/>
-      <c r="J538" s="3"/>
-      <c r="K538" s="3"/>
+      <c r="G538" s="10" t="s">
+        <v>2755</v>
+      </c>
+      <c r="H538" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="I538" s="10" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J538" s="10" t="s">
+        <v>2757</v>
+      </c>
+      <c r="K538" s="10" t="s">
+        <v>2758</v>
+      </c>
       <c r="L538" s="3"/>
       <c r="M538" s="3"/>
       <c r="N538" s="3"/>
@@ -46665,17 +47346,35 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>2719</v>
-      </c>
-      <c r="C539" s="3"/>
-      <c r="D539" s="3"/>
-      <c r="E539" s="3"/>
-      <c r="F539" s="3"/>
-      <c r="G539" s="3"/>
-      <c r="H539" s="3"/>
-      <c r="I539" s="3"/>
-      <c r="J539" s="3"/>
-      <c r="K539" s="3"/>
+        <v>2759</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D539" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F539" s="10" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G539" s="10" t="s">
+        <v>2762</v>
+      </c>
+      <c r="H539" s="10" t="s">
+        <v>2763</v>
+      </c>
+      <c r="I539" s="10" t="s">
+        <v>2764</v>
+      </c>
+      <c r="J539" s="10" t="s">
+        <v>2765</v>
+      </c>
+      <c r="K539" s="10" t="s">
+        <v>2766</v>
+      </c>
       <c r="L539" s="3"/>
       <c r="M539" s="3"/>
       <c r="N539" s="3"/>
@@ -46717,17 +47416,25 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2720</v>
+        <v>2767</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
-      <c r="H540" s="3"/>
-      <c r="I540" s="3"/>
-      <c r="J540" s="3"/>
-      <c r="K540" s="3"/>
+      <c r="H540" s="3">
+        <v>33000000000</v>
+      </c>
+      <c r="I540" s="3">
+        <v>14000000000</v>
+      </c>
+      <c r="J540" s="3">
+        <v>60000000000</v>
+      </c>
+      <c r="K540" s="3">
+        <v>72000000000</v>
+      </c>
       <c r="L540" s="3"/>
       <c r="M540" s="3"/>
       <c r="N540" s="3"/>
@@ -46769,17 +47476,33 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>2721</v>
+        <v>2768</v>
       </c>
       <c r="C541" s="3"/>
-      <c r="D541" s="3"/>
-      <c r="E541" s="3"/>
-      <c r="F541" s="3"/>
-      <c r="G541" s="3"/>
-      <c r="H541" s="3"/>
-      <c r="I541" s="3"/>
-      <c r="J541" s="3"/>
-      <c r="K541" s="3"/>
+      <c r="D541" s="10" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F541" s="10" t="s">
+        <v>2771</v>
+      </c>
+      <c r="G541" s="10" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H541" s="10" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I541" s="10" t="s">
+        <v>2774</v>
+      </c>
+      <c r="J541" s="10" t="s">
+        <v>2775</v>
+      </c>
+      <c r="K541" s="10" t="s">
+        <v>2776</v>
+      </c>
       <c r="L541" s="3"/>
       <c r="M541" s="3"/>
       <c r="N541" s="3"/>
@@ -46821,17 +47544,35 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C542" s="3"/>
-      <c r="D542" s="3"/>
-      <c r="E542" s="3"/>
-      <c r="F542" s="3"/>
-      <c r="G542" s="3"/>
-      <c r="H542" s="3"/>
-      <c r="I542" s="3"/>
-      <c r="J542" s="3"/>
-      <c r="K542" s="3"/>
+        <v>2777</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D542" s="10" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E542" s="10" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F542" s="10" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G542" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H542" s="10" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I542" s="10" t="s">
+        <v>2782</v>
+      </c>
+      <c r="J542" s="10" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K542" s="10" t="s">
+        <v>838</v>
+      </c>
       <c r="L542" s="3"/>
       <c r="M542" s="3"/>
       <c r="N542" s="3"/>
@@ -46873,17 +47614,35 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C543" s="3"/>
-      <c r="D543" s="3"/>
-      <c r="E543" s="3"/>
-      <c r="F543" s="3"/>
-      <c r="G543" s="3"/>
-      <c r="H543" s="3"/>
-      <c r="I543" s="3"/>
-      <c r="J543" s="3"/>
-      <c r="K543" s="3"/>
+        <v>2784</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="D543" s="10" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F543" s="10" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G543" s="10" t="s">
+        <v>2788</v>
+      </c>
+      <c r="H543" s="10" t="s">
+        <v>2789</v>
+      </c>
+      <c r="I543" s="10" t="s">
+        <v>2790</v>
+      </c>
+      <c r="J543" s="10" t="s">
+        <v>2791</v>
+      </c>
+      <c r="K543" s="10" t="s">
+        <v>2792</v>
+      </c>
       <c r="L543" s="3"/>
       <c r="M543" s="3"/>
       <c r="N543" s="3"/>
@@ -46925,17 +47684,35 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C544" s="3"/>
-      <c r="D544" s="3"/>
-      <c r="E544" s="3"/>
-      <c r="F544" s="3"/>
-      <c r="G544" s="3"/>
-      <c r="H544" s="3"/>
-      <c r="I544" s="3"/>
-      <c r="J544" s="3"/>
-      <c r="K544" s="3"/>
+        <v>2793</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D544" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E544" s="3">
+        <v>30000000000</v>
+      </c>
+      <c r="F544" s="10" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G544" s="3">
+        <v>73000000000</v>
+      </c>
+      <c r="H544" s="3">
+        <v>70000000000</v>
+      </c>
+      <c r="I544" s="3">
+        <v>69000000000</v>
+      </c>
+      <c r="J544" s="3">
+        <v>86000000000</v>
+      </c>
+      <c r="K544" s="3">
+        <v>98000000000</v>
+      </c>
       <c r="L544" s="3"/>
       <c r="M544" s="3"/>
       <c r="N544" s="3"/>
@@ -46977,17 +47754,35 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C545" s="3"/>
-      <c r="D545" s="3"/>
-      <c r="E545" s="3"/>
-      <c r="F545" s="3"/>
-      <c r="G545" s="3"/>
-      <c r="H545" s="3"/>
-      <c r="I545" s="3"/>
-      <c r="J545" s="3"/>
-      <c r="K545" s="3"/>
+        <v>2794</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D545" s="10" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F545" s="10" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>2796</v>
+      </c>
+      <c r="H545" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="I545" s="10" t="s">
+        <v>2797</v>
+      </c>
+      <c r="J545" s="10" t="s">
+        <v>2798</v>
+      </c>
+      <c r="K545" s="10" t="s">
+        <v>2799</v>
+      </c>
       <c r="L545" s="3"/>
       <c r="M545" s="3"/>
       <c r="N545" s="3"/>
@@ -47029,17 +47824,35 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2726</v>
-      </c>
-      <c r="C546" s="3"/>
-      <c r="D546" s="3"/>
-      <c r="E546" s="3"/>
-      <c r="F546" s="3"/>
-      <c r="G546" s="3"/>
-      <c r="H546" s="3"/>
-      <c r="I546" s="3"/>
-      <c r="J546" s="3"/>
-      <c r="K546" s="3"/>
+        <v>2800</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D546" s="10" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E546" s="10" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F546" s="10" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H546" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="I546" s="10" t="s">
+        <v>2806</v>
+      </c>
+      <c r="J546" s="10" t="s">
+        <v>2807</v>
+      </c>
+      <c r="K546" s="10" t="s">
+        <v>2808</v>
+      </c>
       <c r="L546" s="3"/>
       <c r="M546" s="3"/>
       <c r="N546" s="3"/>
@@ -47081,17 +47894,27 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>2727</v>
+        <v>2809</v>
       </c>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
-      <c r="G547" s="3"/>
-      <c r="H547" s="3"/>
-      <c r="I547" s="3"/>
-      <c r="J547" s="3"/>
-      <c r="K547" s="3"/>
+      <c r="G547" s="10" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H547" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="I547" s="10" t="s">
+        <v>2811</v>
+      </c>
+      <c r="J547" s="10" t="s">
+        <v>2812</v>
+      </c>
+      <c r="K547" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="L547" s="3"/>
       <c r="M547" s="3"/>
       <c r="N547" s="3"/>
@@ -47133,17 +47956,29 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>2728</v>
+        <v>2813</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
-      <c r="F548" s="3"/>
-      <c r="G548" s="3"/>
-      <c r="H548" s="3"/>
-      <c r="I548" s="3"/>
-      <c r="J548" s="3"/>
-      <c r="K548" s="3"/>
+      <c r="F548" s="10" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H548" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I548" s="3">
+        <v>92000000000</v>
+      </c>
+      <c r="J548" s="3">
+        <v>83000000000</v>
+      </c>
+      <c r="K548" s="10" t="s">
+        <v>412</v>
+      </c>
       <c r="L548" s="3"/>
       <c r="M548" s="3"/>
       <c r="N548" s="3"/>
@@ -47185,17 +48020,35 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C549" s="3"/>
-      <c r="D549" s="3"/>
-      <c r="E549" s="3"/>
-      <c r="F549" s="3"/>
-      <c r="G549" s="3"/>
-      <c r="H549" s="3"/>
-      <c r="I549" s="3"/>
-      <c r="J549" s="3"/>
-      <c r="K549" s="3"/>
+        <v>2814</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D549" s="10" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>2819</v>
+      </c>
+      <c r="H549" s="10" t="s">
+        <v>2820</v>
+      </c>
+      <c r="I549" s="10" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J549" s="10" t="s">
+        <v>2822</v>
+      </c>
+      <c r="K549" s="10" t="s">
+        <v>2639</v>
+      </c>
       <c r="L549" s="3"/>
       <c r="M549" s="3"/>
       <c r="N549" s="3"/>
@@ -47237,17 +48090,35 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C550" s="3"/>
-      <c r="D550" s="3"/>
-      <c r="E550" s="3"/>
-      <c r="F550" s="3"/>
-      <c r="G550" s="3"/>
-      <c r="H550" s="3"/>
-      <c r="I550" s="3"/>
-      <c r="J550" s="3"/>
-      <c r="K550" s="3"/>
+        <v>2823</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D550" s="10" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E550" s="10" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F550" s="10" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H550" s="10" t="s">
+        <v>2829</v>
+      </c>
+      <c r="I550" s="10" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J550" s="10" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K550" s="10" t="s">
+        <v>2832</v>
+      </c>
       <c r="L550" s="3"/>
       <c r="M550" s="3"/>
       <c r="N550" s="3"/>
@@ -47289,7 +48160,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>2731</v>
+        <v>2833</v>
       </c>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -47297,9 +48168,15 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
-      <c r="I551" s="3"/>
-      <c r="J551" s="3"/>
-      <c r="K551" s="3"/>
+      <c r="I551" s="10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="J551" s="10" t="s">
+        <v>2835</v>
+      </c>
+      <c r="K551" s="10" t="s">
+        <v>2836</v>
+      </c>
       <c r="L551" s="3"/>
       <c r="M551" s="3"/>
       <c r="N551" s="3"/>
@@ -47341,17 +48218,35 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C552" s="3"/>
-      <c r="D552" s="3"/>
-      <c r="E552" s="3"/>
-      <c r="F552" s="3"/>
-      <c r="G552" s="3"/>
-      <c r="H552" s="3"/>
-      <c r="I552" s="3"/>
-      <c r="J552" s="3"/>
-      <c r="K552" s="3"/>
+        <v>2837</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D552" s="10" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E552" s="10" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F552" s="10" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G552" s="10" t="s">
+        <v>2842</v>
+      </c>
+      <c r="H552" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="I552" s="10" t="s">
+        <v>2843</v>
+      </c>
+      <c r="J552" s="10" t="s">
+        <v>2844</v>
+      </c>
+      <c r="K552" s="10" t="s">
+        <v>1104</v>
+      </c>
       <c r="L552" s="3"/>
       <c r="M552" s="3"/>
       <c r="N552" s="3"/>
@@ -47393,17 +48288,35 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C553" s="3"/>
-      <c r="D553" s="3"/>
-      <c r="E553" s="3"/>
-      <c r="F553" s="3"/>
-      <c r="G553" s="3"/>
-      <c r="H553" s="3"/>
-      <c r="I553" s="3"/>
-      <c r="J553" s="3"/>
-      <c r="K553" s="3"/>
+        <v>2845</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D553" s="10" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E553" s="10" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F553" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>2849</v>
+      </c>
+      <c r="H553" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I553" s="10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J553" s="10" t="s">
+        <v>2850</v>
+      </c>
+      <c r="K553" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="L553" s="3"/>
       <c r="M553" s="3"/>
       <c r="N553" s="3"/>
@@ -47445,17 +48358,35 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C554" s="3"/>
-      <c r="D554" s="3"/>
-      <c r="E554" s="3"/>
-      <c r="F554" s="3"/>
-      <c r="G554" s="3"/>
-      <c r="H554" s="3"/>
-      <c r="I554" s="3"/>
-      <c r="J554" s="3"/>
-      <c r="K554" s="3"/>
+        <v>2851</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D554" s="10" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E554" s="10" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F554" s="10" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G554" s="10" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H554" s="10" t="s">
+        <v>2856</v>
+      </c>
+      <c r="I554" s="10" t="s">
+        <v>2857</v>
+      </c>
+      <c r="J554" s="10" t="s">
+        <v>2858</v>
+      </c>
+      <c r="K554" s="10" t="s">
+        <v>2859</v>
+      </c>
       <c r="L554" s="3"/>
       <c r="M554" s="3"/>
       <c r="N554" s="3"/>
@@ -47497,17 +48428,31 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2735</v>
+        <v>2860</v>
       </c>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
-      <c r="E555" s="3"/>
-      <c r="F555" s="3"/>
-      <c r="G555" s="3"/>
-      <c r="H555" s="3"/>
-      <c r="I555" s="3"/>
-      <c r="J555" s="3"/>
-      <c r="K555" s="3"/>
+      <c r="E555" s="10" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F555" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H555" s="10" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I555" s="10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J555" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K555" s="10" t="s">
+        <v>2865</v>
+      </c>
       <c r="L555" s="3"/>
       <c r="M555" s="3"/>
       <c r="N555" s="3"/>
@@ -47549,17 +48494,35 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C556" s="3"/>
-      <c r="D556" s="3"/>
-      <c r="E556" s="3"/>
-      <c r="F556" s="3"/>
-      <c r="G556" s="3"/>
-      <c r="H556" s="3"/>
-      <c r="I556" s="3"/>
-      <c r="J556" s="3"/>
-      <c r="K556" s="3"/>
+        <v>2866</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D556" s="10" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E556" s="10" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F556" s="10" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G556" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H556" s="10" t="s">
+        <v>2870</v>
+      </c>
+      <c r="I556" s="10" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J556" s="10" t="s">
+        <v>2872</v>
+      </c>
+      <c r="K556" s="10" t="s">
+        <v>2873</v>
+      </c>
       <c r="L556" s="3"/>
       <c r="M556" s="3"/>
       <c r="N556" s="3"/>
@@ -47601,17 +48564,35 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2737</v>
-      </c>
-      <c r="C557" s="3"/>
-      <c r="D557" s="3"/>
-      <c r="E557" s="3"/>
-      <c r="F557" s="3"/>
-      <c r="G557" s="3"/>
-      <c r="H557" s="3"/>
-      <c r="I557" s="3"/>
-      <c r="J557" s="3"/>
-      <c r="K557" s="3"/>
+        <v>2874</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D557" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F557" s="10" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H557" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I557" s="10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="J557" s="10" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K557" s="10" t="s">
+        <v>2880</v>
+      </c>
       <c r="L557" s="3"/>
       <c r="M557" s="3"/>
       <c r="N557" s="3"/>
@@ -47653,17 +48634,25 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2738</v>
+        <v>2881</v>
       </c>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
-      <c r="H558" s="3"/>
-      <c r="I558" s="3"/>
-      <c r="J558" s="3"/>
-      <c r="K558" s="3"/>
+      <c r="H558" s="10" t="s">
+        <v>2882</v>
+      </c>
+      <c r="I558" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="J558" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K558" s="10" t="s">
+        <v>711</v>
+      </c>
       <c r="L558" s="3"/>
       <c r="M558" s="3"/>
       <c r="N558" s="3"/>
@@ -47705,17 +48694,33 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2739</v>
+        <v>2883</v>
       </c>
       <c r="C559" s="3"/>
-      <c r="D559" s="3"/>
-      <c r="E559" s="3"/>
-      <c r="F559" s="3"/>
-      <c r="G559" s="3"/>
-      <c r="H559" s="3"/>
-      <c r="I559" s="3"/>
-      <c r="J559" s="3"/>
-      <c r="K559" s="3"/>
+      <c r="D559" s="10" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F559" s="10" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G559" s="10" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H559" s="10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I559" s="10" t="s">
+        <v>2889</v>
+      </c>
+      <c r="J559" s="10" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K559" s="10" t="s">
+        <v>2891</v>
+      </c>
       <c r="L559" s="3"/>
       <c r="M559" s="3"/>
       <c r="N559" s="3"/>
@@ -47757,17 +48762,35 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2740</v>
-      </c>
-      <c r="C560" s="3"/>
-      <c r="D560" s="3"/>
-      <c r="E560" s="3"/>
-      <c r="F560" s="3"/>
-      <c r="G560" s="3"/>
-      <c r="H560" s="3"/>
-      <c r="I560" s="3"/>
-      <c r="J560" s="3"/>
-      <c r="K560" s="3"/>
+        <v>2892</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D560" s="10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E560" s="10" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F560" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G560" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H560" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I560" s="10" t="s">
+        <v>2893</v>
+      </c>
+      <c r="J560" s="10" t="s">
+        <v>2894</v>
+      </c>
+      <c r="K560" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="L560" s="3"/>
       <c r="M560" s="3"/>
       <c r="N560" s="3"/>
@@ -47809,7 +48832,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2741</v>
+        <v>2895</v>
       </c>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -47817,9 +48840,15 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
-      <c r="I561" s="3"/>
-      <c r="J561" s="3"/>
-      <c r="K561" s="3"/>
+      <c r="I561" s="10" t="s">
+        <v>2896</v>
+      </c>
+      <c r="J561" s="10" t="s">
+        <v>2897</v>
+      </c>
+      <c r="K561" s="10" t="s">
+        <v>2898</v>
+      </c>
       <c r="L561" s="3"/>
       <c r="M561" s="3"/>
       <c r="N561" s="3"/>
@@ -47861,17 +48890,35 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C562" s="3"/>
-      <c r="D562" s="3"/>
-      <c r="E562" s="3"/>
-      <c r="F562" s="3"/>
-      <c r="G562" s="3"/>
-      <c r="H562" s="3"/>
-      <c r="I562" s="3"/>
-      <c r="J562" s="3"/>
-      <c r="K562" s="3"/>
+        <v>2899</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D562" s="10" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E562" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F562" s="10" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G562" s="10" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H562" s="10" t="s">
+        <v>2902</v>
+      </c>
+      <c r="I562" s="10" t="s">
+        <v>2903</v>
+      </c>
+      <c r="J562" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K562" s="10" t="s">
+        <v>2904</v>
+      </c>
       <c r="L562" s="3"/>
       <c r="M562" s="3"/>
       <c r="N562" s="3"/>
@@ -47913,7 +48960,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2743</v>
+        <v>2905</v>
       </c>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -47965,7 +49012,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2744</v>
+        <v>2906</v>
       </c>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -48017,7 +49064,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2745</v>
+        <v>2907</v>
       </c>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -48069,7 +49116,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2746</v>
+        <v>2908</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -48121,7 +49168,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2747</v>
+        <v>2909</v>
       </c>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -48173,7 +49220,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2748</v>
+        <v>2910</v>
       </c>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -48225,7 +49272,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2749</v>
+        <v>2911</v>
       </c>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -48277,7 +49324,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2750</v>
+        <v>2912</v>
       </c>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -48329,7 +49376,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2751</v>
+        <v>2913</v>
       </c>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -48381,7 +49428,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2752</v>
+        <v>2914</v>
       </c>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -48433,7 +49480,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2753</v>
+        <v>2915</v>
       </c>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -48485,7 +49532,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2754</v>
+        <v>2916</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -48537,7 +49584,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2755</v>
+        <v>2917</v>
       </c>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -48589,7 +49636,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2756</v>
+        <v>2918</v>
       </c>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -48641,7 +49688,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2757</v>
+        <v>2919</v>
       </c>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -48693,7 +49740,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2758</v>
+        <v>2920</v>
       </c>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -48745,7 +49792,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2759</v>
+        <v>2921</v>
       </c>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -48797,7 +49844,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2760</v>
+        <v>2922</v>
       </c>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -48849,7 +49896,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2761</v>
+        <v>2923</v>
       </c>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -48901,7 +49948,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2762</v>
+        <v>2924</v>
       </c>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -48953,7 +50000,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2763</v>
+        <v>2925</v>
       </c>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -49005,7 +50052,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2764</v>
+        <v>2926</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -49057,7 +50104,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2765</v>
+        <v>2927</v>
       </c>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -49109,7 +50156,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2766</v>
+        <v>2928</v>
       </c>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -49161,7 +50208,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2767</v>
+        <v>2929</v>
       </c>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -49213,7 +50260,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2768</v>
+        <v>2930</v>
       </c>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -49265,7 +50312,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2769</v>
+        <v>2931</v>
       </c>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -49317,7 +50364,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2770</v>
+        <v>2932</v>
       </c>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -49369,7 +50416,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2771</v>
+        <v>2933</v>
       </c>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -49421,7 +50468,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2772</v>
+        <v>2934</v>
       </c>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -49473,7 +50520,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2773</v>
+        <v>2935</v>
       </c>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -49525,7 +50572,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>2774</v>
+        <v>2936</v>
       </c>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -49577,7 +50624,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2775</v>
+        <v>2937</v>
       </c>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -49629,7 +50676,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>2776</v>
+        <v>2938</v>
       </c>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -49681,7 +50728,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>2777</v>
+        <v>2939</v>
       </c>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -49733,7 +50780,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2778</v>
+        <v>2940</v>
       </c>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -49785,7 +50832,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2779</v>
+        <v>2941</v>
       </c>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -49837,7 +50884,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2780</v>
+        <v>2942</v>
       </c>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -49889,7 +50936,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2781</v>
+        <v>2943</v>
       </c>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -49941,7 +50988,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>2782</v>
+        <v>2944</v>
       </c>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -49993,7 +51040,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>2783</v>
+        <v>2945</v>
       </c>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -50045,7 +51092,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2784</v>
+        <v>2946</v>
       </c>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -50097,7 +51144,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2785</v>
+        <v>2947</v>
       </c>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -50149,7 +51196,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2786</v>
+        <v>2948</v>
       </c>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -50201,7 +51248,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2787</v>
+        <v>2949</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -50253,7 +51300,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>2788</v>
+        <v>2950</v>
       </c>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -50305,7 +51352,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2789</v>
+        <v>2951</v>
       </c>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -50357,7 +51404,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>2790</v>
+        <v>2952</v>
       </c>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -50409,7 +51456,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2791</v>
+        <v>2953</v>
       </c>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -50461,7 +51508,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2792</v>
+        <v>2954</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -50513,7 +51560,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2793</v>
+        <v>2955</v>
       </c>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -50565,7 +51612,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>2794</v>
+        <v>2956</v>
       </c>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -50617,7 +51664,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2795</v>
+        <v>2957</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -50669,7 +51716,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2796</v>
+        <v>2958</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -50721,7 +51768,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>2797</v>
+        <v>2959</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -50773,7 +51820,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>2798</v>
+        <v>2960</v>
       </c>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -50825,7 +51872,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2799</v>
+        <v>2961</v>
       </c>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -50877,7 +51924,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2800</v>
+        <v>2962</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -50929,7 +51976,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2801</v>
+        <v>2963</v>
       </c>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -50981,7 +52028,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2802</v>
+        <v>2964</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -51033,7 +52080,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2803</v>
+        <v>2965</v>
       </c>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -51085,7 +52132,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2804</v>
+        <v>2966</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -51137,7 +52184,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2805</v>
+        <v>2967</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -51189,7 +52236,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2806</v>
+        <v>2968</v>
       </c>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -51241,7 +52288,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2807</v>
+        <v>2969</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -51293,7 +52340,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2808</v>
+        <v>2970</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -51345,7 +52392,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2809</v>
+        <v>2971</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -51397,7 +52444,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2810</v>
+        <v>2972</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -51449,7 +52496,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>2811</v>
+        <v>2973</v>
       </c>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -51501,7 +52548,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>2812</v>
+        <v>2974</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -51553,7 +52600,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2813</v>
+        <v>2975</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -51605,7 +52652,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2814</v>
+        <v>2976</v>
       </c>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -51657,7 +52704,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2815</v>
+        <v>2977</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -51709,7 +52756,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2816</v>
+        <v>2978</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -51761,7 +52808,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2817</v>
+        <v>2979</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -51813,7 +52860,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2818</v>
+        <v>2980</v>
       </c>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -51865,7 +52912,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2819</v>
+        <v>2981</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -51917,7 +52964,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2820</v>
+        <v>2982</v>
       </c>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -51969,7 +53016,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2821</v>
+        <v>2983</v>
       </c>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -52021,7 +53068,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2822</v>
+        <v>2984</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -52073,7 +53120,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2823</v>
+        <v>2985</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -52125,7 +53172,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2824</v>
+        <v>2986</v>
       </c>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -52177,7 +53224,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>2825</v>
+        <v>2987</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -52229,7 +53276,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2826</v>
+        <v>2988</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -52281,7 +53328,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2827</v>
+        <v>2989</v>
       </c>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -52333,7 +53380,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2828</v>
+        <v>2990</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -52385,7 +53432,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2829</v>
+        <v>2991</v>
       </c>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -52437,7 +53484,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2830</v>
+        <v>2992</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -52489,7 +53536,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2831</v>
+        <v>2993</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -52541,7 +53588,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2832</v>
+        <v>2994</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -52593,7 +53640,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2833</v>
+        <v>2995</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -52645,7 +53692,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2834</v>
+        <v>2996</v>
       </c>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -52697,7 +53744,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2835</v>
+        <v>2997</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -52749,7 +53796,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2836</v>
+        <v>2998</v>
       </c>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -52801,7 +53848,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2837</v>
+        <v>2999</v>
       </c>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -52853,7 +53900,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2838</v>
+        <v>3000</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -52905,7 +53952,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2839</v>
+        <v>3001</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -52957,7 +54004,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2840</v>
+        <v>3002</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -53009,7 +54056,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2841</v>
+        <v>3003</v>
       </c>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -53061,7 +54108,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2842</v>
+        <v>3004</v>
       </c>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -53113,7 +54160,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2843</v>
+        <v>3005</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -53165,7 +54212,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2844</v>
+        <v>3006</v>
       </c>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -53217,7 +54264,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2845</v>
+        <v>3007</v>
       </c>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -53269,7 +54316,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2846</v>
+        <v>3008</v>
       </c>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -53321,7 +54368,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2847</v>
+        <v>3009</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -53373,7 +54420,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2848</v>
+        <v>3010</v>
       </c>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -53425,7 +54472,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2849</v>
+        <v>3011</v>
       </c>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -53477,7 +54524,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2850</v>
+        <v>3012</v>
       </c>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -53529,7 +54576,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2851</v>
+        <v>3013</v>
       </c>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -53581,7 +54628,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2852</v>
+        <v>3014</v>
       </c>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -53633,7 +54680,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2853</v>
+        <v>3015</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -53685,7 +54732,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2854</v>
+        <v>3016</v>
       </c>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -53737,7 +54784,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2855</v>
+        <v>3017</v>
       </c>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -53789,7 +54836,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2856</v>
+        <v>3018</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -53841,7 +54888,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2857</v>
+        <v>3019</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -53893,7 +54940,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2858</v>
+        <v>3020</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -53945,7 +54992,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2859</v>
+        <v>3021</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -53997,7 +55044,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2860</v>
+        <v>3022</v>
       </c>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -54049,7 +55096,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2861</v>
+        <v>3023</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -54101,7 +55148,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2862</v>
+        <v>3024</v>
       </c>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -54153,7 +55200,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2863</v>
+        <v>3025</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -54205,7 +55252,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2864</v>
+        <v>3026</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -54257,7 +55304,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2865</v>
+        <v>3027</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -54309,7 +55356,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2866</v>
+        <v>3028</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -54361,7 +55408,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2867</v>
+        <v>3029</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -54413,7 +55460,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2868</v>
+        <v>3030</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -54465,7 +55512,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2869</v>
+        <v>3031</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -54517,7 +55564,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2870</v>
+        <v>3032</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -54569,7 +55616,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2871</v>
+        <v>3033</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -54621,7 +55668,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2872</v>
+        <v>3034</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -54673,7 +55720,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>2873</v>
+        <v>3035</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -54725,7 +55772,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>2874</v>
+        <v>3036</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -54777,7 +55824,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>2875</v>
+        <v>3037</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -54829,7 +55876,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2876</v>
+        <v>3038</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -54881,7 +55928,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2877</v>
+        <v>3039</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -54933,7 +55980,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>2878</v>
+        <v>3040</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -54985,7 +56032,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>2879</v>
+        <v>3041</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -55037,7 +56084,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2880</v>
+        <v>3042</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -55089,7 +56136,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2881</v>
+        <v>3043</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -55141,7 +56188,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2882</v>
+        <v>3044</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -55193,7 +56240,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2883</v>
+        <v>3045</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -55245,7 +56292,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2884</v>
+        <v>3046</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -55297,7 +56344,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>2885</v>
+        <v>3047</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -55349,7 +56396,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>2886</v>
+        <v>3048</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -55401,7 +56448,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>2887</v>
+        <v>3049</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -55453,7 +56500,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>2888</v>
+        <v>3050</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -55505,7 +56552,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>2889</v>
+        <v>3051</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -55557,7 +56604,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2890</v>
+        <v>3052</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -55609,7 +56656,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2891</v>
+        <v>3053</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -55661,7 +56708,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2892</v>
+        <v>3054</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -55713,7 +56760,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2893</v>
+        <v>3055</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -55765,7 +56812,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2894</v>
+        <v>3056</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -55817,7 +56864,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2895</v>
+        <v>3057</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -55869,7 +56916,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2896</v>
+        <v>3058</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -55921,7 +56968,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2897</v>
+        <v>3059</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -55973,7 +57020,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2898</v>
+        <v>3060</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -56025,7 +57072,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2899</v>
+        <v>3061</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -56077,7 +57124,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2900</v>
+        <v>3062</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -56129,7 +57176,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>2901</v>
+        <v>3063</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -56181,7 +57228,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>2902</v>
+        <v>3064</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -56233,7 +57280,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>2903</v>
+        <v>3065</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -56285,7 +57332,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2904</v>
+        <v>3066</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -56337,7 +57384,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2905</v>
+        <v>3067</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -56389,7 +57436,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>2906</v>
+        <v>3068</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -56441,7 +57488,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>2907</v>
+        <v>3069</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -56493,7 +57540,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>2908</v>
+        <v>3070</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -56545,7 +57592,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2909</v>
+        <v>3071</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -56597,7 +57644,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2910</v>
+        <v>3072</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -56649,7 +57696,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2911</v>
+        <v>3073</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -56701,7 +57748,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2912</v>
+        <v>3074</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -56753,7 +57800,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2913</v>
+        <v>3075</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -56805,7 +57852,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2914</v>
+        <v>3076</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -56857,7 +57904,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>2915</v>
+        <v>3077</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -56909,7 +57956,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>2916</v>
+        <v>3078</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -56961,7 +58008,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>2917</v>
+        <v>3079</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -57013,7 +58060,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2918</v>
+        <v>3080</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -57065,7 +58112,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2919</v>
+        <v>3081</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -57117,7 +58164,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2920</v>
+        <v>3082</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -57169,7 +58216,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>2921</v>
+        <v>3083</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -57221,7 +58268,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2922</v>
+        <v>3084</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -57273,7 +58320,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2923</v>
+        <v>3085</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -57325,7 +58372,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>2924</v>
+        <v>3086</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -57377,7 +58424,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2925</v>
+        <v>3087</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -57429,7 +58476,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2926</v>
+        <v>3088</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -57481,7 +58528,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>2927</v>
+        <v>3089</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -57533,7 +58580,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>2928</v>
+        <v>3090</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -57585,7 +58632,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>2929</v>
+        <v>3091</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -57637,7 +58684,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>2930</v>
+        <v>3092</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -57689,7 +58736,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>2931</v>
+        <v>3093</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -57741,7 +58788,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2932</v>
+        <v>3094</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -57793,7 +58840,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2933</v>
+        <v>3095</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -57845,7 +58892,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2934</v>
+        <v>3096</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -57897,7 +58944,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>2935</v>
+        <v>3097</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -57949,7 +58996,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2936</v>
+        <v>3098</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -58001,7 +59048,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2937</v>
+        <v>3099</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -58053,7 +59100,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2938</v>
+        <v>3100</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -58105,7 +59152,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2939</v>
+        <v>3101</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -58157,7 +59204,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2940</v>
+        <v>3102</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -58209,7 +59256,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2941</v>
+        <v>3103</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -58261,7 +59308,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2942</v>
+        <v>3104</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -58313,7 +59360,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2943</v>
+        <v>3105</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -58365,7 +59412,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2944</v>
+        <v>3106</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -58417,7 +59464,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>2945</v>
+        <v>3107</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -58469,7 +59516,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2946</v>
+        <v>3108</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -58521,7 +59568,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2947</v>
+        <v>3109</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -58573,7 +59620,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2948</v>
+        <v>3110</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -58625,7 +59672,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2949</v>
+        <v>3111</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -58677,7 +59724,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2950</v>
+        <v>3112</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -58729,7 +59776,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2951</v>
+        <v>3113</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -58781,7 +59828,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2952</v>
+        <v>3114</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -58833,7 +59880,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2953</v>
+        <v>3115</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -58885,7 +59932,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2954</v>
+        <v>3116</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -58937,7 +59984,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2955</v>
+        <v>3117</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -58989,7 +60036,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2956</v>
+        <v>3118</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -59041,7 +60088,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2957</v>
+        <v>3119</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -59093,7 +60140,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2958</v>
+        <v>3120</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -59145,7 +60192,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2959</v>
+        <v>3121</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -59197,7 +60244,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2960</v>
+        <v>3122</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -59249,7 +60296,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2961</v>
+        <v>3123</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -59301,7 +60348,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2962</v>
+        <v>3124</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -59353,7 +60400,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2963</v>
+        <v>3125</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -59405,7 +60452,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2964</v>
+        <v>3126</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -59457,7 +60504,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2965</v>
+        <v>3127</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -59509,7 +60556,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2966</v>
+        <v>3128</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -59561,7 +60608,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2967</v>
+        <v>3129</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -59613,7 +60660,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2968</v>
+        <v>3130</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -59665,7 +60712,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2969</v>
+        <v>3131</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -59717,7 +60764,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2970</v>
+        <v>3132</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -59769,7 +60816,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2971</v>
+        <v>3133</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -59821,7 +60868,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2972</v>
+        <v>3134</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -59873,7 +60920,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2973</v>
+        <v>3135</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -59925,7 +60972,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2974</v>
+        <v>3136</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -59977,7 +61024,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2975</v>
+        <v>3137</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -60029,7 +61076,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2976</v>
+        <v>3138</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -60081,7 +61128,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2977</v>
+        <v>3139</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -60133,7 +61180,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2978</v>
+        <v>3140</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -60185,7 +61232,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2979</v>
+        <v>3141</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -60237,7 +61284,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2980</v>
+        <v>3142</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -60289,7 +61336,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2981</v>
+        <v>3143</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -60341,7 +61388,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2982</v>
+        <v>3144</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -60393,7 +61440,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2983</v>
+        <v>3145</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -60445,7 +61492,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2984</v>
+        <v>3146</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -60497,7 +61544,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2985</v>
+        <v>3147</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -60549,7 +61596,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2986</v>
+        <v>3148</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -60601,7 +61648,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2987</v>
+        <v>3149</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -60653,7 +61700,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2988</v>
+        <v>3150</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -60705,7 +61752,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2989</v>
+        <v>3151</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -60757,7 +61804,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2990</v>
+        <v>3152</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -60809,7 +61856,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2991</v>
+        <v>3153</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -60861,7 +61908,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2992</v>
+        <v>3154</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -60913,7 +61960,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2993</v>
+        <v>3155</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -60965,7 +62012,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2994</v>
+        <v>3156</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -61017,7 +62064,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2995</v>
+        <v>3157</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -61069,7 +62116,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2996</v>
+        <v>3158</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -61121,7 +62168,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2997</v>
+        <v>3159</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -61173,7 +62220,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2998</v>
+        <v>3160</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -61225,7 +62272,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2999</v>
+        <v>3161</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -61277,7 +62324,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>3000</v>
+        <v>3162</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -61329,7 +62376,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>3001</v>
+        <v>3163</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -61381,7 +62428,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>3002</v>
+        <v>3164</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -61433,7 +62480,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>3003</v>
+        <v>3165</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -61485,7 +62532,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>3004</v>
+        <v>3166</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -61537,7 +62584,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>3005</v>
+        <v>3167</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -61589,7 +62636,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>3006</v>
+        <v>3168</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -61641,7 +62688,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>3007</v>
+        <v>3169</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -61693,7 +62740,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>3008</v>
+        <v>3170</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -61745,7 +62792,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>3009</v>
+        <v>3171</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -61797,7 +62844,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>3010</v>
+        <v>3172</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -61849,7 +62896,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>3011</v>
+        <v>3173</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -61901,7 +62948,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>3012</v>
+        <v>3174</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -61953,7 +63000,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>3013</v>
+        <v>3175</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -62005,7 +63052,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>3014</v>
+        <v>3176</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -62057,7 +63104,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>3015</v>
+        <v>3177</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -62109,7 +63156,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>3016</v>
+        <v>3178</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -62161,7 +63208,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>3017</v>
+        <v>3179</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -62213,7 +63260,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>3018</v>
+        <v>3180</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -62265,7 +63312,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>3019</v>
+        <v>3181</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -62317,7 +63364,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>3020</v>
+        <v>3182</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -62369,7 +63416,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>3021</v>
+        <v>3183</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -62421,7 +63468,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>3022</v>
+        <v>3184</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -62473,7 +63520,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>3023</v>
+        <v>3185</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -62525,7 +63572,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>3024</v>
+        <v>3186</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -62577,7 +63624,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>3025</v>
+        <v>3187</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -62629,7 +63676,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>3026</v>
+        <v>3188</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -62681,7 +63728,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>3027</v>
+        <v>3189</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -62733,7 +63780,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>3028</v>
+        <v>3190</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -62785,7 +63832,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>3029</v>
+        <v>3191</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -62837,7 +63884,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>3030</v>
+        <v>3192</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -62889,7 +63936,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>3031</v>
+        <v>3193</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -62941,7 +63988,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>3032</v>
+        <v>3194</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -62993,7 +64040,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>3033</v>
+        <v>3195</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -63045,7 +64092,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>3034</v>
+        <v>3196</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -63097,7 +64144,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>3035</v>
+        <v>3197</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -63149,7 +64196,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>3036</v>
+        <v>3198</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -63201,7 +64248,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>3037</v>
+        <v>3199</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -63253,7 +64300,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>3038</v>
+        <v>3200</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -63305,7 +64352,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>3039</v>
+        <v>3201</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -63357,7 +64404,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>3040</v>
+        <v>3202</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -63409,7 +64456,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>3041</v>
+        <v>3203</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -63461,7 +64508,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>3042</v>
+        <v>3204</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -63513,7 +64560,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>3043</v>
+        <v>3205</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -63565,7 +64612,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>3044</v>
+        <v>3206</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -63617,7 +64664,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>3045</v>
+        <v>3207</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -63669,7 +64716,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>3046</v>
+        <v>3208</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -63721,7 +64768,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>3047</v>
+        <v>3209</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -63773,7 +64820,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>3048</v>
+        <v>3210</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -63825,7 +64872,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>3049</v>
+        <v>3211</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -63877,7 +64924,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>3050</v>
+        <v>3212</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -63929,7 +64976,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>3051</v>
+        <v>3213</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -63981,7 +65028,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>3052</v>
+        <v>3214</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -64033,7 +65080,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>3053</v>
+        <v>3215</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -64085,7 +65132,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>3054</v>
+        <v>3216</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -64137,7 +65184,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>3055</v>
+        <v>3217</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -64189,7 +65236,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>3056</v>
+        <v>3218</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -64241,7 +65288,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>3057</v>
+        <v>3219</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -64293,7 +65340,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>3058</v>
+        <v>3220</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -64345,7 +65392,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>3059</v>
+        <v>3221</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -64397,7 +65444,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>3060</v>
+        <v>3222</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -64449,7 +65496,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>3061</v>
+        <v>3223</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -64501,7 +65548,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>3062</v>
+        <v>3224</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -64553,7 +65600,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>3063</v>
+        <v>3225</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -64605,7 +65652,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>3064</v>
+        <v>3226</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -64657,7 +65704,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>3065</v>
+        <v>3227</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -64709,7 +65756,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>3066</v>
+        <v>3228</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -64761,7 +65808,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>3067</v>
+        <v>3229</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -64813,7 +65860,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>3068</v>
+        <v>3230</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -64865,7 +65912,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>3069</v>
+        <v>3231</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -64917,7 +65964,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>3070</v>
+        <v>3232</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -64969,7 +66016,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>3071</v>
+        <v>3233</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -65021,7 +66068,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>3072</v>
+        <v>3234</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -65073,7 +66120,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>3073</v>
+        <v>3235</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -65125,7 +66172,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>3074</v>
+        <v>3236</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -65177,7 +66224,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>3075</v>
+        <v>3237</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -65229,7 +66276,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>3076</v>
+        <v>3238</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -65281,7 +66328,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>3077</v>
+        <v>3239</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -65333,7 +66380,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>3078</v>
+        <v>3240</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -65385,7 +66432,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>3079</v>
+        <v>3241</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -65437,7 +66484,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>3080</v>
+        <v>3242</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -65489,7 +66536,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>3081</v>
+        <v>3243</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -65541,7 +66588,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>3082</v>
+        <v>3244</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -65593,7 +66640,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>3083</v>
+        <v>3245</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -65645,7 +66692,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>3084</v>
+        <v>3246</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -65697,7 +66744,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>3085</v>
+        <v>3247</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -65749,7 +66796,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>3086</v>
+        <v>3248</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -65801,7 +66848,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>3087</v>
+        <v>3249</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -65853,7 +66900,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>3088</v>
+        <v>3250</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -65905,7 +66952,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>3089</v>
+        <v>3251</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -65957,7 +67004,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>3090</v>
+        <v>3252</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -66009,7 +67056,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>3091</v>
+        <v>3253</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -66061,7 +67108,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>3092</v>
+        <v>3254</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -66113,7 +67160,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>3093</v>
+        <v>3255</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -66165,7 +67212,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>3094</v>
+        <v>3256</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -66217,7 +67264,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>3095</v>
+        <v>3257</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -66269,7 +67316,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>3096</v>
+        <v>3258</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -66321,7 +67368,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>3097</v>
+        <v>3259</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -66373,7 +67420,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>3098</v>
+        <v>3260</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -66425,7 +67472,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>3099</v>
+        <v>3261</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -66477,7 +67524,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>3100</v>
+        <v>3262</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -66529,7 +67576,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>3101</v>
+        <v>3263</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -66581,7 +67628,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>3102</v>
+        <v>3264</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -66633,7 +67680,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>3103</v>
+        <v>3265</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -66685,7 +67732,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>3104</v>
+        <v>3266</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -66737,7 +67784,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>3105</v>
+        <v>3267</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -66789,7 +67836,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>3106</v>
+        <v>3268</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -66841,7 +67888,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>3107</v>
+        <v>3269</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -66893,7 +67940,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>3108</v>
+        <v>3270</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -66945,7 +67992,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>3109</v>
+        <v>3271</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -66997,7 +68044,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>3110</v>
+        <v>3272</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -67049,7 +68096,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>3111</v>
+        <v>3273</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -67101,7 +68148,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>3112</v>
+        <v>3274</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -67153,7 +68200,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>3113</v>
+        <v>3275</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -67205,7 +68252,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>3114</v>
+        <v>3276</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -67257,7 +68304,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>3115</v>
+        <v>3277</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -67309,7 +68356,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>3116</v>
+        <v>3278</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -67361,7 +68408,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>3117</v>
+        <v>3279</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -67413,7 +68460,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>3118</v>
+        <v>3280</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -67465,7 +68512,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>3119</v>
+        <v>3281</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -67517,7 +68564,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>3120</v>
+        <v>3282</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -67569,7 +68616,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>3121</v>
+        <v>3283</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -67621,7 +68668,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>3122</v>
+        <v>3284</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -67673,7 +68720,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>3123</v>
+        <v>3285</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -67725,7 +68772,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>3124</v>
+        <v>3286</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -67777,7 +68824,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>3125</v>
+        <v>3287</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -67829,7 +68876,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>3126</v>
+        <v>3288</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -67881,7 +68928,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>3127</v>
+        <v>3289</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -67933,7 +68980,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>3128</v>
+        <v>3290</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -67985,7 +69032,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>3129</v>
+        <v>3291</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -68037,7 +69084,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>3130</v>
+        <v>3292</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -68089,7 +69136,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>3131</v>
+        <v>3293</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -68141,7 +69188,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>3132</v>
+        <v>3294</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -68193,7 +69240,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>3133</v>
+        <v>3295</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -68245,7 +69292,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>3134</v>
+        <v>3296</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -68297,7 +69344,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>3135</v>
+        <v>3297</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -68349,7 +69396,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>3136</v>
+        <v>3298</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -68401,7 +69448,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>3137</v>
+        <v>3299</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -68453,7 +69500,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>3138</v>
+        <v>3300</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>

--- a/public/data/revenue-saham.xlsx
+++ b/public/data/revenue-saham.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="3464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="3637">
   <si>
     <t>No</t>
   </si>
@@ -9377,21 +9377,120 @@
     <t>MSTI</t>
   </si>
   <si>
+    <t>2897000000000</t>
+  </si>
+  <si>
+    <t>3114000000000</t>
+  </si>
+  <si>
+    <t>3510000000000</t>
+  </si>
+  <si>
+    <t>4201000000000</t>
+  </si>
+  <si>
+    <t>5362000000000</t>
+  </si>
+  <si>
     <t>MTDL</t>
   </si>
   <si>
+    <t>10048000000000</t>
+  </si>
+  <si>
+    <t>10817000000000</t>
+  </si>
+  <si>
+    <t>12713000000000</t>
+  </si>
+  <si>
+    <t>15070000000000</t>
+  </si>
+  <si>
+    <t>14022000000000</t>
+  </si>
+  <si>
+    <t>18501000000000</t>
+  </si>
+  <si>
+    <t>20988000000000</t>
+  </si>
+  <si>
+    <t>22086000000000</t>
+  </si>
+  <si>
+    <t>25149000000000</t>
+  </si>
+  <si>
     <t>MTEL</t>
   </si>
   <si>
+    <t>4522000000000</t>
+  </si>
+  <si>
+    <t>5326000000000</t>
+  </si>
+  <si>
+    <t>6187000000000</t>
+  </si>
+  <si>
+    <t>6870000000000</t>
+  </si>
+  <si>
+    <t>7729000000000</t>
+  </si>
+  <si>
+    <t>8684000000000</t>
+  </si>
+  <si>
+    <t>9308000000000</t>
+  </si>
+  <si>
     <t>MTFN</t>
   </si>
   <si>
+    <t>459000000000</t>
+  </si>
+  <si>
+    <t>856000000000</t>
+  </si>
+  <si>
+    <t>531000000000</t>
+  </si>
+  <si>
     <t>MTLA</t>
   </si>
   <si>
+    <t>1143000000000</t>
+  </si>
+  <si>
+    <t>1379000000000</t>
+  </si>
+  <si>
+    <t>1404000000000</t>
+  </si>
+  <si>
+    <t>1111000000000</t>
+  </si>
+  <si>
+    <t>1199000000000</t>
+  </si>
+  <si>
+    <t>1385000000000</t>
+  </si>
+  <si>
+    <t>2021000000000</t>
+  </si>
+  <si>
     <t>MTMH</t>
   </si>
   <si>
+    <t>983000000000</t>
+  </si>
+  <si>
+    <t>1068000000000</t>
+  </si>
+  <si>
     <t>MTPS</t>
   </si>
   <si>
@@ -9410,12 +9509,72 @@
     <t>MYOH</t>
   </si>
   <si>
+    <t>3436000000000</t>
+  </si>
+  <si>
+    <t>3600000000000</t>
+  </si>
+  <si>
+    <t>2529000000000</t>
+  </si>
+  <si>
+    <t>2299000000000</t>
+  </si>
+  <si>
+    <t>2105000000000</t>
+  </si>
+  <si>
+    <t>2846000000000</t>
+  </si>
+  <si>
     <t>MYOR</t>
   </si>
   <si>
+    <t>18350000000000</t>
+  </si>
+  <si>
+    <t>20817000000000</t>
+  </si>
+  <si>
+    <t>24061000000000</t>
+  </si>
+  <si>
+    <t>25027000000000</t>
+  </si>
+  <si>
+    <t>24477000000000</t>
+  </si>
+  <si>
+    <t>27905000000000</t>
+  </si>
+  <si>
+    <t>30669000000000</t>
+  </si>
+  <si>
+    <t>31485000000000</t>
+  </si>
+  <si>
+    <t>36073000000000</t>
+  </si>
+  <si>
     <t>MYTX</t>
   </si>
   <si>
+    <t>1297000000000</t>
+  </si>
+  <si>
+    <t>1640000000000</t>
+  </si>
+  <si>
+    <t>1847000000000</t>
+  </si>
+  <si>
+    <t>1388000000000</t>
+  </si>
+  <si>
+    <t>1207000000000</t>
+  </si>
+  <si>
     <t>NAIK</t>
   </si>
   <si>
@@ -9437,51 +9596,195 @@
     <t>NCKL</t>
   </si>
   <si>
+    <t>9568000000000</t>
+  </si>
+  <si>
+    <t>23858000000000</t>
+  </si>
+  <si>
+    <t>26965000000000</t>
+  </si>
+  <si>
     <t>NELY</t>
   </si>
   <si>
     <t>NEST</t>
   </si>
   <si>
+    <t>453000000000</t>
+  </si>
+  <si>
     <t>NETV</t>
   </si>
   <si>
     <t>NFCX</t>
   </si>
   <si>
+    <t>1314000000000</t>
+  </si>
+  <si>
+    <t>6154000000000</t>
+  </si>
+  <si>
+    <t>7597000000000</t>
+  </si>
+  <si>
+    <t>8886000000000</t>
+  </si>
+  <si>
+    <t>9837000000000</t>
+  </si>
+  <si>
+    <t>9526000000000</t>
+  </si>
+  <si>
+    <t>6074000000000</t>
+  </si>
+  <si>
     <t>NICE</t>
   </si>
   <si>
+    <t>868000000000</t>
+  </si>
+  <si>
+    <t>928000000000</t>
+  </si>
+  <si>
     <t>NICK</t>
   </si>
   <si>
     <t>NICL</t>
   </si>
   <si>
+    <t>1141000000000</t>
+  </si>
+  <si>
     <t>NIKL</t>
   </si>
   <si>
+    <t>1752000000000</t>
+  </si>
+  <si>
+    <t>2032000000000</t>
+  </si>
+  <si>
+    <t>2325000000000</t>
+  </si>
+  <si>
+    <t>3016000000000</t>
+  </si>
+  <si>
+    <t>3799000000000</t>
+  </si>
+  <si>
+    <t>2610000000000</t>
+  </si>
+  <si>
     <t>NINE</t>
   </si>
   <si>
     <t>NIRO</t>
   </si>
   <si>
+    <t>529000000000</t>
+  </si>
+  <si>
+    <t>908000000000</t>
+  </si>
+  <si>
+    <t>1145000000000</t>
+  </si>
+  <si>
     <t>NISP</t>
   </si>
   <si>
+    <t>10204000000000</t>
+  </si>
+  <si>
+    <t>11037000000000</t>
+  </si>
+  <si>
+    <t>12221000000000</t>
+  </si>
+  <si>
+    <t>13496000000000</t>
+  </si>
+  <si>
+    <t>12485000000000</t>
+  </si>
+  <si>
+    <t>11570000000000</t>
+  </si>
+  <si>
+    <t>12715000000000</t>
+  </si>
+  <si>
+    <t>16426000000000</t>
+  </si>
+  <si>
+    <t>18776000000000</t>
+  </si>
+  <si>
     <t>NOBU</t>
   </si>
   <si>
+    <t>621000000000</t>
+  </si>
+  <si>
+    <t>792000000000</t>
+  </si>
+  <si>
+    <t>1499000000000</t>
+  </si>
+  <si>
+    <t>2121000000000</t>
+  </si>
+  <si>
     <t>NPGF</t>
   </si>
   <si>
+    <t>241000000000</t>
+  </si>
+  <si>
+    <t>352000000000</t>
+  </si>
+  <si>
     <t>NRCA</t>
   </si>
   <si>
+    <t>2476000000000</t>
+  </si>
+  <si>
+    <t>2164000000000</t>
+  </si>
+  <si>
+    <t>2457000000000</t>
+  </si>
+  <si>
+    <t>2618000000000</t>
+  </si>
+  <si>
+    <t>2086000000000</t>
+  </si>
+  <si>
+    <t>1670000000000</t>
+  </si>
+  <si>
+    <t>2896000000000</t>
+  </si>
+  <si>
+    <t>3732000000000</t>
+  </si>
+  <si>
     <t>NSSS</t>
   </si>
   <si>
+    <t>1134000000000</t>
+  </si>
+  <si>
+    <t>1185000000000</t>
+  </si>
+  <si>
     <t>NTBK</t>
   </si>
   <si>
@@ -9509,12 +9812,48 @@
     <t>OKAS</t>
   </si>
   <si>
+    <t>1348000000000</t>
+  </si>
+  <si>
+    <t>2289000000000</t>
+  </si>
+  <si>
+    <t>1579000000000</t>
+  </si>
+  <si>
+    <t>1558000000000</t>
+  </si>
+  <si>
+    <t>2355000000000</t>
+  </si>
+  <si>
+    <t>2888000000000</t>
+  </si>
+  <si>
     <t>OLIV</t>
   </si>
   <si>
     <t>OMED</t>
   </si>
   <si>
+    <t>261000000000</t>
+  </si>
+  <si>
+    <t>1228000000000</t>
+  </si>
+  <si>
+    <t>1995000000000</t>
+  </si>
+  <si>
+    <t>1739000000000</t>
+  </si>
+  <si>
+    <t>1737000000000</t>
+  </si>
+  <si>
+    <t>1886000000000</t>
+  </si>
+  <si>
     <t>OMRE</t>
   </si>
   <si>
@@ -9527,6 +9866,15 @@
     <t>PADA</t>
   </si>
   <si>
+    <t>743000000000</t>
+  </si>
+  <si>
+    <t>701000000000</t>
+  </si>
+  <si>
+    <t>911000000000</t>
+  </si>
+  <si>
     <t>PADI</t>
   </si>
   <si>
@@ -9539,30 +9887,120 @@
     <t>PANI</t>
   </si>
   <si>
+    <t>283000000000</t>
+  </si>
+  <si>
+    <t>578000000000</t>
+  </si>
+  <si>
+    <t>2159000000000</t>
+  </si>
+  <si>
     <t>PANR</t>
   </si>
   <si>
+    <t>2133000000000</t>
+  </si>
+  <si>
+    <t>2006000000000</t>
+  </si>
+  <si>
+    <t>2037000000000</t>
+  </si>
+  <si>
+    <t>1527000000000</t>
+  </si>
+  <si>
+    <t>2859000000000</t>
+  </si>
+  <si>
+    <t>3094000000000</t>
+  </si>
+  <si>
     <t>PANS</t>
   </si>
   <si>
+    <t>549000000000</t>
+  </si>
+  <si>
+    <t>369000000000</t>
+  </si>
+  <si>
     <t>PART</t>
   </si>
   <si>
     <t>PBID</t>
   </si>
   <si>
+    <t>3168000000000</t>
+  </si>
+  <si>
+    <t>3490000000000</t>
+  </si>
+  <si>
+    <t>4633000000000</t>
+  </si>
+  <si>
+    <t>3871000000000</t>
+  </si>
+  <si>
+    <t>5030000000000</t>
+  </si>
+  <si>
+    <t>4703000000000</t>
+  </si>
+  <si>
     <t>PBRX</t>
   </si>
   <si>
+    <t>6417000000000</t>
+  </si>
+  <si>
+    <t>7353000000000</t>
+  </si>
+  <si>
+    <t>8712000000000</t>
+  </si>
+  <si>
+    <t>9408000000000</t>
+  </si>
+  <si>
+    <t>9984000000000</t>
+  </si>
+  <si>
+    <t>9867000000000</t>
+  </si>
+  <si>
+    <t>10265000000000</t>
+  </si>
+  <si>
+    <t>8872000000000</t>
+  </si>
+  <si>
+    <t>5071000000000</t>
+  </si>
+  <si>
     <t>PBSA</t>
   </si>
   <si>
+    <t>608000000000</t>
+  </si>
+  <si>
+    <t>573000000000</t>
+  </si>
+  <si>
+    <t>1154000000000</t>
+  </si>
+  <si>
     <t>PCAR</t>
   </si>
   <si>
     <t>PDES</t>
   </si>
   <si>
+    <t>515000000000</t>
+  </si>
+  <si>
     <t>PDPP</t>
   </si>
   <si>
@@ -9572,15 +10010,84 @@
     <t>PEHA</t>
   </si>
   <si>
+    <t>1002000000000</t>
+  </si>
+  <si>
+    <t>1023000000000</t>
+  </si>
+  <si>
+    <t>981000000000</t>
+  </si>
+  <si>
+    <t>1168000000000</t>
+  </si>
+  <si>
+    <t>1004000000000</t>
+  </si>
+  <si>
     <t>PEVE</t>
   </si>
   <si>
+    <t>1431000000000</t>
+  </si>
+  <si>
+    <t>1381000000000</t>
+  </si>
+  <si>
+    <t>1788000000000</t>
+  </si>
+  <si>
+    <t>2147000000000</t>
+  </si>
+  <si>
+    <t>2485000000000</t>
+  </si>
+  <si>
     <t>PGAS</t>
   </si>
   <si>
+    <t>39054000000000</t>
+  </si>
+  <si>
+    <t>39745000000000</t>
+  </si>
+  <si>
+    <t>55150000000000</t>
+  </si>
+  <si>
+    <t>54445000000000</t>
+  </si>
+  <si>
+    <t>42062000000000</t>
+  </si>
+  <si>
+    <t>43452000000000</t>
+  </si>
+  <si>
+    <t>53086000000000</t>
+  </si>
+  <si>
+    <t>55622000000000</t>
+  </si>
+  <si>
+    <t>60049000000000</t>
+  </si>
+  <si>
     <t>PGEO</t>
   </si>
   <si>
+    <t>9434000000000</t>
+  </si>
+  <si>
+    <t>5278000000000</t>
+  </si>
+  <si>
+    <t>6198000000000</t>
+  </si>
+  <si>
+    <t>6453000000000</t>
+  </si>
+  <si>
     <t>PGJO</t>
   </si>
   <si>
@@ -9590,7 +10097,19 @@
     <t>PGUN</t>
   </si>
   <si>
+    <t>475000000000</t>
+  </si>
+  <si>
     <t>PICO</t>
+  </si>
+  <si>
+    <t>706000000000</t>
+  </si>
+  <si>
+    <t>776000000000</t>
+  </si>
+  <si>
+    <t>308000000000</t>
   </si>
   <si>
     <t>PIPA</t>
@@ -11454,8 +11973,8 @@
   <sheetPr/>
   <dimension ref="A1:AY958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610"/>
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="B682" sqref="B682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -51329,31 +51848,31 @@
       <c r="B591" s="3" t="s">
         <v>3026</v>
       </c>
-      <c r="C591" s="14" t="s">
+      <c r="C591" s="10" t="s">
         <v>3027</v>
       </c>
-      <c r="D591" s="14" t="s">
+      <c r="D591" s="10" t="s">
         <v>3028</v>
       </c>
-      <c r="E591" s="14" t="s">
+      <c r="E591" s="10" t="s">
         <v>3029</v>
       </c>
-      <c r="F591" s="14" t="s">
+      <c r="F591" s="10" t="s">
         <v>3030</v>
       </c>
-      <c r="G591" s="14" t="s">
+      <c r="G591" s="10" t="s">
         <v>3031</v>
       </c>
-      <c r="H591" s="14" t="s">
+      <c r="H591" s="10" t="s">
         <v>3032</v>
       </c>
-      <c r="I591" s="14" t="s">
+      <c r="I591" s="10" t="s">
         <v>3033</v>
       </c>
-      <c r="J591" s="14" t="s">
+      <c r="J591" s="10" t="s">
         <v>3034</v>
       </c>
-      <c r="K591" s="14" t="s">
+      <c r="K591" s="10" t="s">
         <v>3035</v>
       </c>
       <c r="L591" s="3"/>
@@ -52607,11 +53126,21 @@
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
-      <c r="G610" s="3"/>
-      <c r="H610" s="3"/>
-      <c r="I610" s="3"/>
-      <c r="J610" s="3"/>
-      <c r="K610" s="3"/>
+      <c r="G610" s="10" t="s">
+        <v>3116</v>
+      </c>
+      <c r="H610" s="10" t="s">
+        <v>3117</v>
+      </c>
+      <c r="I610" s="10" t="s">
+        <v>3118</v>
+      </c>
+      <c r="J610" s="10" t="s">
+        <v>3119</v>
+      </c>
+      <c r="K610" s="10" t="s">
+        <v>3120</v>
+      </c>
       <c r="L610" s="3"/>
       <c r="M610" s="3"/>
       <c r="N610" s="3"/>
@@ -52653,17 +53182,35 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>3116</v>
-      </c>
-      <c r="C611" s="3"/>
-      <c r="D611" s="3"/>
-      <c r="E611" s="3"/>
-      <c r="F611" s="3"/>
-      <c r="G611" s="3"/>
-      <c r="H611" s="3"/>
-      <c r="I611" s="3"/>
-      <c r="J611" s="3"/>
-      <c r="K611" s="3"/>
+        <v>3121</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D611" s="10" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F611" s="10" t="s">
+        <v>3125</v>
+      </c>
+      <c r="G611" s="10" t="s">
+        <v>3126</v>
+      </c>
+      <c r="H611" s="10" t="s">
+        <v>3127</v>
+      </c>
+      <c r="I611" s="10" t="s">
+        <v>3128</v>
+      </c>
+      <c r="J611" s="10" t="s">
+        <v>3129</v>
+      </c>
+      <c r="K611" s="10" t="s">
+        <v>3130</v>
+      </c>
       <c r="L611" s="3"/>
       <c r="M611" s="3"/>
       <c r="N611" s="3"/>
@@ -52705,17 +53252,31 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>3117</v>
+        <v>3131</v>
       </c>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
-      <c r="E612" s="3"/>
-      <c r="F612" s="3"/>
-      <c r="G612" s="3"/>
-      <c r="H612" s="3"/>
-      <c r="I612" s="3"/>
-      <c r="J612" s="3"/>
-      <c r="K612" s="3"/>
+      <c r="E612" s="10" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F612" s="10" t="s">
+        <v>3133</v>
+      </c>
+      <c r="G612" s="10" t="s">
+        <v>3134</v>
+      </c>
+      <c r="H612" s="10" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I612" s="10" t="s">
+        <v>3136</v>
+      </c>
+      <c r="J612" s="10" t="s">
+        <v>3137</v>
+      </c>
+      <c r="K612" s="10" t="s">
+        <v>3138</v>
+      </c>
       <c r="L612" s="3"/>
       <c r="M612" s="3"/>
       <c r="N612" s="3"/>
@@ -52757,17 +53318,33 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>3118</v>
+        <v>3139</v>
       </c>
       <c r="C613" s="3"/>
-      <c r="D613" s="3"/>
-      <c r="E613" s="3"/>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="3"/>
-      <c r="I613" s="3"/>
-      <c r="J613" s="3"/>
-      <c r="K613" s="3"/>
+      <c r="D613" s="10" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F613" s="10" t="s">
+        <v>3141</v>
+      </c>
+      <c r="G613" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H613" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I613" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J613" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K613" s="10" t="s">
+        <v>3142</v>
+      </c>
       <c r="L613" s="3"/>
       <c r="M613" s="3"/>
       <c r="N613" s="3"/>
@@ -52809,17 +53386,35 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>3119</v>
-      </c>
-      <c r="C614" s="3"/>
-      <c r="D614" s="3"/>
-      <c r="E614" s="3"/>
-      <c r="F614" s="3"/>
-      <c r="G614" s="3"/>
-      <c r="H614" s="3"/>
-      <c r="I614" s="3"/>
-      <c r="J614" s="3"/>
-      <c r="K614" s="3"/>
+        <v>3143</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D614" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E614" s="10" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F614" s="10" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G614" s="10" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H614" s="10" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I614" s="10" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J614" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="K614" s="10" t="s">
+        <v>3150</v>
+      </c>
       <c r="L614" s="3"/>
       <c r="M614" s="3"/>
       <c r="N614" s="3"/>
@@ -52861,17 +53456,31 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>3120</v>
+        <v>3151</v>
       </c>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
-      <c r="E615" s="3"/>
-      <c r="F615" s="3"/>
-      <c r="G615" s="3"/>
-      <c r="H615" s="3"/>
-      <c r="I615" s="3"/>
-      <c r="J615" s="3"/>
-      <c r="K615" s="3"/>
+      <c r="E615" s="10" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F615" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G615" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H615" s="10" t="s">
+        <v>3152</v>
+      </c>
+      <c r="I615" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J615" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K615" s="10" t="s">
+        <v>3153</v>
+      </c>
       <c r="L615" s="3"/>
       <c r="M615" s="3"/>
       <c r="N615" s="3"/>
@@ -52913,17 +53522,31 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>3121</v>
+        <v>3154</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
-      <c r="E616" s="3"/>
-      <c r="F616" s="3"/>
-      <c r="G616" s="3"/>
-      <c r="H616" s="3"/>
-      <c r="I616" s="3"/>
-      <c r="J616" s="3"/>
-      <c r="K616" s="3"/>
+      <c r="E616" s="10" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F616" s="10" t="s">
+        <v>2795</v>
+      </c>
+      <c r="G616" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H616" s="3">
+        <v>55000000000</v>
+      </c>
+      <c r="I616" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="J616" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="K616" s="3">
+        <v>1000000000</v>
+      </c>
       <c r="L616" s="3"/>
       <c r="M616" s="3"/>
       <c r="N616" s="3"/>
@@ -52965,17 +53588,31 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>3122</v>
+        <v>3155</v>
       </c>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
-      <c r="E617" s="3"/>
-      <c r="F617" s="3"/>
-      <c r="G617" s="3"/>
-      <c r="H617" s="3"/>
-      <c r="I617" s="3"/>
-      <c r="J617" s="3"/>
-      <c r="K617" s="3"/>
+      <c r="E617" s="10" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F617" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G617" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H617" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="I617" s="10" t="s">
+        <v>3045</v>
+      </c>
+      <c r="J617" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="K617" s="3">
+        <v>17000000000</v>
+      </c>
       <c r="L617" s="3"/>
       <c r="M617" s="3"/>
       <c r="N617" s="3"/>
@@ -53017,17 +53654,35 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>3123</v>
-      </c>
-      <c r="C618" s="3"/>
-      <c r="D618" s="3"/>
-      <c r="E618" s="3"/>
-      <c r="F618" s="3"/>
-      <c r="G618" s="3"/>
-      <c r="H618" s="3"/>
-      <c r="I618" s="3"/>
-      <c r="J618" s="3"/>
-      <c r="K618" s="3"/>
+        <v>3156</v>
+      </c>
+      <c r="C618" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="D618" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="E618" s="3">
+        <v>28000000000</v>
+      </c>
+      <c r="F618" s="3">
+        <v>30000000000</v>
+      </c>
+      <c r="G618" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="H618" s="3">
+        <v>27000000000</v>
+      </c>
+      <c r="I618" s="3">
+        <v>22000000000</v>
+      </c>
+      <c r="J618" s="3">
+        <v>26000000000</v>
+      </c>
+      <c r="K618" s="3">
+        <v>27000000000</v>
+      </c>
       <c r="L618" s="3"/>
       <c r="M618" s="3"/>
       <c r="N618" s="3"/>
@@ -53069,17 +53724,35 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C619" s="3"/>
-      <c r="D619" s="3"/>
-      <c r="E619" s="3"/>
-      <c r="F619" s="3"/>
-      <c r="G619" s="3"/>
-      <c r="H619" s="3"/>
-      <c r="I619" s="3"/>
-      <c r="J619" s="3"/>
-      <c r="K619" s="3"/>
+        <v>3157</v>
+      </c>
+      <c r="C619" s="3">
+        <v>80000000000</v>
+      </c>
+      <c r="D619" s="3">
+        <v>91000000000</v>
+      </c>
+      <c r="E619" s="3">
+        <v>95000000000</v>
+      </c>
+      <c r="F619" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G619" s="10" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H619" s="3">
+        <v>86000000000</v>
+      </c>
+      <c r="I619" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="J619" s="10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K619" s="10" t="s">
+        <v>2646</v>
+      </c>
       <c r="L619" s="3"/>
       <c r="M619" s="3"/>
       <c r="N619" s="3"/>
@@ -53121,17 +53794,27 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>3125</v>
+        <v>3158</v>
       </c>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
-      <c r="G620" s="3"/>
-      <c r="H620" s="3"/>
-      <c r="I620" s="3"/>
-      <c r="J620" s="3"/>
-      <c r="K620" s="3"/>
+      <c r="G620" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H620" s="10" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I620" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J620" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K620" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="L620" s="3"/>
       <c r="M620" s="3"/>
       <c r="N620" s="3"/>
@@ -53173,17 +53856,35 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>3126</v>
-      </c>
-      <c r="C621" s="3"/>
-      <c r="D621" s="3"/>
-      <c r="E621" s="3"/>
-      <c r="F621" s="3"/>
-      <c r="G621" s="3"/>
-      <c r="H621" s="3"/>
-      <c r="I621" s="3"/>
-      <c r="J621" s="3"/>
-      <c r="K621" s="3"/>
+        <v>3159</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D621" s="10" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F621" s="10" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G621" s="10" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H621" s="10" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I621" s="10" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J621" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K621" s="10" t="s">
+        <v>3165</v>
+      </c>
       <c r="L621" s="3"/>
       <c r="M621" s="3"/>
       <c r="N621" s="3"/>
@@ -53225,17 +53926,35 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C622" s="3"/>
-      <c r="D622" s="3"/>
-      <c r="E622" s="3"/>
-      <c r="F622" s="3"/>
-      <c r="G622" s="3"/>
-      <c r="H622" s="3"/>
-      <c r="I622" s="3"/>
-      <c r="J622" s="3"/>
-      <c r="K622" s="3"/>
+        <v>3166</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D622" s="10" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E622" s="10" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F622" s="10" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G622" s="10" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H622" s="10" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I622" s="10" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J622" s="10" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K622" s="10" t="s">
+        <v>3175</v>
+      </c>
       <c r="L622" s="3"/>
       <c r="M622" s="3"/>
       <c r="N622" s="3"/>
@@ -53277,17 +53996,35 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="C623" s="3"/>
-      <c r="D623" s="3"/>
-      <c r="E623" s="3"/>
-      <c r="F623" s="3"/>
-      <c r="G623" s="3"/>
-      <c r="H623" s="3"/>
-      <c r="I623" s="3"/>
-      <c r="J623" s="3"/>
-      <c r="K623" s="3"/>
+        <v>3176</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D623" s="10" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F623" s="10" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G623" s="10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H623" s="10" t="s">
+        <v>3093</v>
+      </c>
+      <c r="I623" s="10" t="s">
+        <v>2409</v>
+      </c>
+      <c r="J623" s="10" t="s">
+        <v>3181</v>
+      </c>
+      <c r="K623" s="10" t="s">
+        <v>2175</v>
+      </c>
       <c r="L623" s="3"/>
       <c r="M623" s="3"/>
       <c r="N623" s="3"/>
@@ -53329,17 +54066,25 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>3129</v>
+        <v>3182</v>
       </c>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
-      <c r="H624" s="3"/>
-      <c r="I624" s="3"/>
-      <c r="J624" s="3"/>
-      <c r="K624" s="3"/>
+      <c r="H624" s="3">
+        <v>78000000000</v>
+      </c>
+      <c r="I624" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="J624" s="10" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K624" s="10" t="s">
+        <v>2795</v>
+      </c>
       <c r="L624" s="3"/>
       <c r="M624" s="3"/>
       <c r="N624" s="3"/>
@@ -53381,17 +54126,29 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>3130</v>
+        <v>3183</v>
       </c>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
-      <c r="F625" s="3"/>
-      <c r="G625" s="3"/>
-      <c r="H625" s="3"/>
-      <c r="I625" s="3"/>
-      <c r="J625" s="3"/>
-      <c r="K625" s="3"/>
+      <c r="F625" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="G625" s="3">
+        <v>16000000000</v>
+      </c>
+      <c r="H625" s="3">
+        <v>27000000000</v>
+      </c>
+      <c r="I625" s="3">
+        <v>45000000000</v>
+      </c>
+      <c r="J625" s="3">
+        <v>84000000000</v>
+      </c>
+      <c r="K625" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="L625" s="3"/>
       <c r="M625" s="3"/>
       <c r="N625" s="3"/>
@@ -53433,17 +54190,35 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>3131</v>
-      </c>
-      <c r="C626" s="3"/>
-      <c r="D626" s="3"/>
-      <c r="E626" s="3"/>
-      <c r="F626" s="3"/>
-      <c r="G626" s="3"/>
-      <c r="H626" s="3"/>
-      <c r="I626" s="3"/>
-      <c r="J626" s="3"/>
-      <c r="K626" s="3"/>
+        <v>3184</v>
+      </c>
+      <c r="C626" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="D626" s="3">
+        <v>14000000000</v>
+      </c>
+      <c r="E626" s="3">
+        <v>16000000000</v>
+      </c>
+      <c r="F626" s="3">
+        <v>13000000000</v>
+      </c>
+      <c r="G626" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H626" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="I626" s="3">
+        <v>14000000000</v>
+      </c>
+      <c r="J626" s="3">
+        <v>15000000000</v>
+      </c>
+      <c r="K626" s="3">
+        <v>15000000000</v>
+      </c>
       <c r="L626" s="3"/>
       <c r="M626" s="3"/>
       <c r="N626" s="3"/>
@@ -53485,17 +54260,29 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>3132</v>
+        <v>3185</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
-      <c r="F627" s="3"/>
-      <c r="G627" s="3"/>
-      <c r="H627" s="3"/>
-      <c r="I627" s="3"/>
-      <c r="J627" s="3"/>
-      <c r="K627" s="3"/>
+      <c r="F627" s="3">
+        <v>36000000000</v>
+      </c>
+      <c r="G627" s="3">
+        <v>41000000000</v>
+      </c>
+      <c r="H627" s="3">
+        <v>45000000000</v>
+      </c>
+      <c r="I627" s="3">
+        <v>59000000000</v>
+      </c>
+      <c r="J627" s="3">
+        <v>79000000000</v>
+      </c>
+      <c r="K627" s="3">
+        <v>88000000000</v>
+      </c>
       <c r="L627" s="3"/>
       <c r="M627" s="3"/>
       <c r="N627" s="3"/>
@@ -53537,17 +54324,33 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>3133</v>
+        <v>3186</v>
       </c>
       <c r="C628" s="3"/>
-      <c r="D628" s="3"/>
-      <c r="E628" s="3"/>
-      <c r="F628" s="3"/>
-      <c r="G628" s="3"/>
-      <c r="H628" s="3"/>
-      <c r="I628" s="3"/>
-      <c r="J628" s="3"/>
-      <c r="K628" s="3"/>
+      <c r="D628" s="3">
+        <v>0</v>
+      </c>
+      <c r="E628" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="F628" s="3">
+        <v>18000000000</v>
+      </c>
+      <c r="G628" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="H628" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="I628" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="J628" s="3">
+        <v>12000000000</v>
+      </c>
+      <c r="K628" s="3">
+        <v>18000000000</v>
+      </c>
       <c r="L628" s="3"/>
       <c r="M628" s="3"/>
       <c r="N628" s="3"/>
@@ -53589,17 +54392,27 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>3134</v>
+        <v>3187</v>
       </c>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
-      <c r="G629" s="3"/>
-      <c r="H629" s="3"/>
-      <c r="I629" s="3"/>
-      <c r="J629" s="3"/>
-      <c r="K629" s="3"/>
+      <c r="G629" s="3">
+        <v>21000000000</v>
+      </c>
+      <c r="H629" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="I629" s="3">
+        <v>42000000000</v>
+      </c>
+      <c r="J629" s="3">
+        <v>48000000000</v>
+      </c>
+      <c r="K629" s="3">
+        <v>35000000000</v>
+      </c>
       <c r="L629" s="3"/>
       <c r="M629" s="3"/>
       <c r="N629" s="3"/>
@@ -53641,7 +54454,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>3135</v>
+        <v>3188</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -53649,9 +54462,15 @@
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
-      <c r="I630" s="3"/>
-      <c r="J630" s="3"/>
-      <c r="K630" s="3"/>
+      <c r="I630" s="10" t="s">
+        <v>3189</v>
+      </c>
+      <c r="J630" s="10" t="s">
+        <v>3190</v>
+      </c>
+      <c r="K630" s="10" t="s">
+        <v>3191</v>
+      </c>
       <c r="L630" s="3"/>
       <c r="M630" s="3"/>
       <c r="N630" s="3"/>
@@ -53693,17 +54512,35 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>3136</v>
-      </c>
-      <c r="C631" s="3"/>
-      <c r="D631" s="3"/>
-      <c r="E631" s="3"/>
-      <c r="F631" s="3"/>
-      <c r="G631" s="3"/>
-      <c r="H631" s="3"/>
-      <c r="I631" s="3"/>
-      <c r="J631" s="3"/>
-      <c r="K631" s="3"/>
+        <v>3192</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D631" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F631" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G631" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H631" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I631" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J631" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K631" s="10" t="s">
+        <v>1293</v>
+      </c>
       <c r="L631" s="3"/>
       <c r="M631" s="3"/>
       <c r="N631" s="3"/>
@@ -53745,17 +54582,25 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>3137</v>
+        <v>3193</v>
       </c>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
-      <c r="H632" s="3"/>
-      <c r="I632" s="3"/>
-      <c r="J632" s="3"/>
-      <c r="K632" s="3"/>
+      <c r="H632" s="10" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I632" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J632" s="10" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K632" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="L632" s="3"/>
       <c r="M632" s="3"/>
       <c r="N632" s="3"/>
@@ -53797,17 +54642,31 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>3138</v>
+        <v>3195</v>
       </c>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
-      <c r="E633" s="3"/>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
-      <c r="H633" s="3"/>
-      <c r="I633" s="3"/>
-      <c r="J633" s="3"/>
-      <c r="K633" s="3"/>
+      <c r="E633" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F633" s="10" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G633" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H633" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I633" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J633" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K633" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="L633" s="3"/>
       <c r="M633" s="3"/>
       <c r="N633" s="3"/>
@@ -53849,17 +54708,33 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>3139</v>
+        <v>3196</v>
       </c>
       <c r="C634" s="3"/>
-      <c r="D634" s="3"/>
-      <c r="E634" s="3"/>
-      <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
-      <c r="H634" s="3"/>
-      <c r="I634" s="3"/>
-      <c r="J634" s="3"/>
-      <c r="K634" s="3"/>
+      <c r="D634" s="10" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E634" s="10" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F634" s="10" t="s">
+        <v>3198</v>
+      </c>
+      <c r="G634" s="10" t="s">
+        <v>3199</v>
+      </c>
+      <c r="H634" s="10" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I634" s="10" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J634" s="10" t="s">
+        <v>3202</v>
+      </c>
+      <c r="K634" s="10" t="s">
+        <v>3203</v>
+      </c>
       <c r="L634" s="3"/>
       <c r="M634" s="3"/>
       <c r="N634" s="3"/>
@@ -53901,17 +54776,27 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>3140</v>
+        <v>3204</v>
       </c>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
-      <c r="H635" s="3"/>
-      <c r="I635" s="3"/>
-      <c r="J635" s="3"/>
-      <c r="K635" s="3"/>
+      <c r="G635" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H635" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I635" s="10" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J635" s="10" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K635" s="10" t="s">
+        <v>1539</v>
+      </c>
       <c r="L635" s="3"/>
       <c r="M635" s="3"/>
       <c r="N635" s="3"/>
@@ -53953,17 +54838,33 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>3141</v>
+        <v>3207</v>
       </c>
       <c r="C636" s="3"/>
-      <c r="D636" s="3"/>
-      <c r="E636" s="3"/>
-      <c r="F636" s="3"/>
-      <c r="G636" s="3"/>
-      <c r="H636" s="3"/>
-      <c r="I636" s="3"/>
-      <c r="J636" s="3"/>
-      <c r="K636" s="3"/>
+      <c r="D636" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="E636" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="F636" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="G636" s="3">
+        <v>-2000000000</v>
+      </c>
+      <c r="H636" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I636" s="3">
+        <v>-50000000000</v>
+      </c>
+      <c r="J636" s="3">
+        <v>-66000000000</v>
+      </c>
+      <c r="K636" s="3">
+        <v>6000000000</v>
+      </c>
       <c r="L636" s="3"/>
       <c r="M636" s="3"/>
       <c r="N636" s="3"/>
@@ -54005,17 +54906,27 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>3142</v>
+        <v>3208</v>
       </c>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
-      <c r="G637" s="3"/>
-      <c r="H637" s="3"/>
-      <c r="I637" s="3"/>
-      <c r="J637" s="3"/>
-      <c r="K637" s="3"/>
+      <c r="G637" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H637" s="10" t="s">
+        <v>2850</v>
+      </c>
+      <c r="I637" s="10" t="s">
+        <v>2701</v>
+      </c>
+      <c r="J637" s="10" t="s">
+        <v>3209</v>
+      </c>
+      <c r="K637" s="10" t="s">
+        <v>2257</v>
+      </c>
       <c r="L637" s="3"/>
       <c r="M637" s="3"/>
       <c r="N637" s="3"/>
@@ -54057,17 +54968,35 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C638" s="3"/>
-      <c r="D638" s="3"/>
-      <c r="E638" s="3"/>
-      <c r="F638" s="3"/>
-      <c r="G638" s="3"/>
-      <c r="H638" s="3"/>
-      <c r="I638" s="3"/>
-      <c r="J638" s="3"/>
-      <c r="K638" s="3"/>
+        <v>3210</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D638" s="10" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E638" s="10" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F638" s="10" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G638" s="10" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H638" s="10" t="s">
+        <v>3214</v>
+      </c>
+      <c r="I638" s="10" t="s">
+        <v>3215</v>
+      </c>
+      <c r="J638" s="10" t="s">
+        <v>3216</v>
+      </c>
+      <c r="K638" s="10" t="s">
+        <v>891</v>
+      </c>
       <c r="L638" s="3"/>
       <c r="M638" s="3"/>
       <c r="N638" s="3"/>
@@ -54109,17 +55038,27 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>3144</v>
+        <v>3217</v>
       </c>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
-      <c r="G639" s="3"/>
-      <c r="H639" s="3"/>
-      <c r="I639" s="3"/>
-      <c r="J639" s="3"/>
-      <c r="K639" s="3"/>
+      <c r="G639" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="H639" s="3">
+        <v>7000000000</v>
+      </c>
+      <c r="I639" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="J639" s="3">
+        <v>15000000000</v>
+      </c>
+      <c r="K639" s="3">
+        <v>9000000000</v>
+      </c>
       <c r="L639" s="3"/>
       <c r="M639" s="3"/>
       <c r="N639" s="3"/>
@@ -54161,17 +55100,35 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C640" s="3"/>
-      <c r="D640" s="3"/>
-      <c r="E640" s="3"/>
-      <c r="F640" s="3"/>
-      <c r="G640" s="3"/>
-      <c r="H640" s="3"/>
-      <c r="I640" s="3"/>
-      <c r="J640" s="3"/>
-      <c r="K640" s="3"/>
+        <v>3218</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D640" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E640" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F640" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G640" s="10" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H640" s="10" t="s">
+        <v>2516</v>
+      </c>
+      <c r="I640" s="10" t="s">
+        <v>3220</v>
+      </c>
+      <c r="J640" s="10" t="s">
+        <v>3221</v>
+      </c>
+      <c r="K640" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="L640" s="3"/>
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
@@ -54213,17 +55170,35 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C641" s="3"/>
-      <c r="D641" s="3"/>
-      <c r="E641" s="3"/>
-      <c r="F641" s="3"/>
-      <c r="G641" s="3"/>
-      <c r="H641" s="3"/>
-      <c r="I641" s="3"/>
-      <c r="J641" s="3"/>
-      <c r="K641" s="3"/>
+        <v>3222</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D641" s="10" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E641" s="10" t="s">
+        <v>3225</v>
+      </c>
+      <c r="F641" s="10" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G641" s="10" t="s">
+        <v>3227</v>
+      </c>
+      <c r="H641" s="10" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I641" s="10" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J641" s="10" t="s">
+        <v>3230</v>
+      </c>
+      <c r="K641" s="10" t="s">
+        <v>3231</v>
+      </c>
       <c r="L641" s="3"/>
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
@@ -54265,17 +55240,35 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C642" s="3"/>
-      <c r="D642" s="3"/>
-      <c r="E642" s="3"/>
-      <c r="F642" s="3"/>
-      <c r="G642" s="3"/>
-      <c r="H642" s="3"/>
-      <c r="I642" s="3"/>
-      <c r="J642" s="3"/>
-      <c r="K642" s="3"/>
+        <v>3232</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D642" s="10" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E642" s="10" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F642" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G642" s="10" t="s">
+        <v>3234</v>
+      </c>
+      <c r="H642" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="I642" s="10" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J642" s="10" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K642" s="10" t="s">
+        <v>3236</v>
+      </c>
       <c r="L642" s="3"/>
       <c r="M642" s="3"/>
       <c r="N642" s="3"/>
@@ -54317,17 +55310,33 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>3148</v>
+        <v>3237</v>
       </c>
       <c r="C643" s="3"/>
-      <c r="D643" s="3"/>
-      <c r="E643" s="3"/>
-      <c r="F643" s="3"/>
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
-      <c r="I643" s="3"/>
-      <c r="J643" s="3"/>
-      <c r="K643" s="3"/>
+      <c r="D643" s="10" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E643" s="10" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F643" s="10" t="s">
+        <v>3238</v>
+      </c>
+      <c r="G643" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H643" s="10" t="s">
+        <v>3239</v>
+      </c>
+      <c r="I643" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="J643" s="3">
+        <v>52000000000</v>
+      </c>
+      <c r="K643" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="L643" s="3"/>
       <c r="M643" s="3"/>
       <c r="N643" s="3"/>
@@ -54369,17 +55378,35 @@
         <v>643</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C644" s="3"/>
-      <c r="D644" s="3"/>
-      <c r="E644" s="3"/>
-      <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
-      <c r="H644" s="3"/>
-      <c r="I644" s="3"/>
-      <c r="J644" s="3"/>
-      <c r="K644" s="3"/>
+        <v>3240</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D644" s="10" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E644" s="10" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F644" s="10" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G644" s="10" t="s">
+        <v>3245</v>
+      </c>
+      <c r="H644" s="10" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I644" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J644" s="10" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K644" s="10" t="s">
+        <v>3248</v>
+      </c>
       <c r="L644" s="3"/>
       <c r="M644" s="3"/>
       <c r="N644" s="3"/>
@@ -54421,17 +55448,29 @@
         <v>644</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>3150</v>
+        <v>3249</v>
       </c>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
-      <c r="I645" s="3"/>
-      <c r="J645" s="3"/>
-      <c r="K645" s="3"/>
+      <c r="F645" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="G645" s="10" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H645" s="10" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I645" s="10" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J645" s="10" t="s">
+        <v>3251</v>
+      </c>
+      <c r="K645" s="10" t="s">
+        <v>2563</v>
+      </c>
       <c r="L645" s="3"/>
       <c r="M645" s="3"/>
       <c r="N645" s="3"/>
@@ -54473,17 +55512,31 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>3151</v>
+        <v>3252</v>
       </c>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
-      <c r="E646" s="3"/>
-      <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
-      <c r="H646" s="3"/>
-      <c r="I646" s="3"/>
-      <c r="J646" s="3"/>
-      <c r="K646" s="3"/>
+      <c r="E646" s="3">
+        <v>62000000000</v>
+      </c>
+      <c r="F646" s="3">
+        <v>33000000000</v>
+      </c>
+      <c r="G646" s="3">
+        <v>43000000000</v>
+      </c>
+      <c r="H646" s="3">
+        <v>53000000000</v>
+      </c>
+      <c r="I646" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J646" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K646" s="10" t="s">
+        <v>434</v>
+      </c>
       <c r="L646" s="3"/>
       <c r="M646" s="3"/>
       <c r="N646" s="3"/>
@@ -54525,11 +55578,15 @@
         <v>646</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>3152</v>
+        <v>3253</v>
       </c>
       <c r="C647" s="3"/>
-      <c r="D647" s="3"/>
-      <c r="E647" s="3"/>
+      <c r="D647" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="E647" s="3">
+        <v>14000000000</v>
+      </c>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
@@ -54577,17 +55634,31 @@
         <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>3153</v>
+        <v>3254</v>
       </c>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
-      <c r="E648" s="3"/>
-      <c r="F648" s="3"/>
-      <c r="G648" s="3"/>
-      <c r="H648" s="3"/>
-      <c r="I648" s="3"/>
-      <c r="J648" s="3"/>
-      <c r="K648" s="3"/>
+      <c r="E648" s="3">
+        <v>43000000000</v>
+      </c>
+      <c r="F648" s="3">
+        <v>24000000000</v>
+      </c>
+      <c r="G648" s="3">
+        <v>81000000000</v>
+      </c>
+      <c r="H648" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="I648" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="J648" s="3">
+        <v>45000000000</v>
+      </c>
+      <c r="K648" s="3">
+        <v>64000000000</v>
+      </c>
       <c r="L648" s="3"/>
       <c r="M648" s="3"/>
       <c r="N648" s="3"/>
@@ -54629,17 +55700,35 @@
         <v>648</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>3154</v>
-      </c>
-      <c r="C649" s="3"/>
-      <c r="D649" s="3"/>
-      <c r="E649" s="3"/>
-      <c r="F649" s="3"/>
-      <c r="G649" s="3"/>
-      <c r="H649" s="3"/>
-      <c r="I649" s="3"/>
-      <c r="J649" s="3"/>
-      <c r="K649" s="3"/>
+        <v>3255</v>
+      </c>
+      <c r="C649" s="3">
+        <v>7000000000</v>
+      </c>
+      <c r="D649" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="E649" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="F649" s="3">
+        <v>17000000000</v>
+      </c>
+      <c r="G649" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H649" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="I649" s="3">
+        <v>41000000000</v>
+      </c>
+      <c r="J649" s="3">
+        <v>44000000000</v>
+      </c>
+      <c r="K649" s="3">
+        <v>67000000000</v>
+      </c>
       <c r="L649" s="3"/>
       <c r="M649" s="3"/>
       <c r="N649" s="3"/>
@@ -54681,17 +55770,25 @@
         <v>649</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>3155</v>
+        <v>3256</v>
       </c>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
-      <c r="H650" s="3"/>
-      <c r="I650" s="3"/>
-      <c r="J650" s="3"/>
-      <c r="K650" s="3"/>
+      <c r="H650" s="3">
+        <v>38000000000</v>
+      </c>
+      <c r="I650" s="3">
+        <v>38000000000</v>
+      </c>
+      <c r="J650" s="3">
+        <v>57000000000</v>
+      </c>
+      <c r="K650" s="10" t="s">
+        <v>1718</v>
+      </c>
       <c r="L650" s="3"/>
       <c r="M650" s="3"/>
       <c r="N650" s="3"/>
@@ -54733,17 +55830,31 @@
         <v>650</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>3156</v>
+        <v>3257</v>
       </c>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
-      <c r="E651" s="3"/>
-      <c r="F651" s="3"/>
-      <c r="G651" s="3"/>
-      <c r="H651" s="3"/>
-      <c r="I651" s="3"/>
-      <c r="J651" s="3"/>
-      <c r="K651" s="3"/>
+      <c r="E651" s="3">
+        <v>49000000000</v>
+      </c>
+      <c r="F651" s="3">
+        <v>63000000000</v>
+      </c>
+      <c r="G651" s="3">
+        <v>60000000000</v>
+      </c>
+      <c r="H651" s="3">
+        <v>67000000000</v>
+      </c>
+      <c r="I651" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="J651" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K651" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L651" s="3"/>
       <c r="M651" s="3"/>
       <c r="N651" s="3"/>
@@ -54785,17 +55896,33 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>3157</v>
+        <v>3258</v>
       </c>
       <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3"/>
-      <c r="F652" s="3"/>
-      <c r="G652" s="3"/>
-      <c r="H652" s="3"/>
-      <c r="I652" s="3"/>
-      <c r="J652" s="3"/>
-      <c r="K652" s="3"/>
+      <c r="D652" s="3">
+        <v>-23000000000</v>
+      </c>
+      <c r="E652" s="3">
+        <v>-44000000000</v>
+      </c>
+      <c r="F652" s="3">
+        <v>-27000000000</v>
+      </c>
+      <c r="G652" s="3">
+        <v>-1000000000</v>
+      </c>
+      <c r="H652" s="3">
+        <v>-9000000000</v>
+      </c>
+      <c r="I652" s="3">
+        <v>-32000000000</v>
+      </c>
+      <c r="J652" s="3">
+        <v>-6000000000</v>
+      </c>
+      <c r="K652" s="3">
+        <v>-12000000000</v>
+      </c>
       <c r="L652" s="3"/>
       <c r="M652" s="3"/>
       <c r="N652" s="3"/>
@@ -54837,17 +55964,31 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>3158</v>
+        <v>3259</v>
       </c>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
-      <c r="E653" s="3"/>
-      <c r="F653" s="3"/>
-      <c r="G653" s="3"/>
-      <c r="H653" s="3"/>
-      <c r="I653" s="3"/>
-      <c r="J653" s="3"/>
-      <c r="K653" s="3"/>
+      <c r="E653" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F653" s="10" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G653" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H653" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I653" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J653" s="10" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K653" s="10" t="s">
+        <v>646</v>
+      </c>
       <c r="L653" s="3"/>
       <c r="M653" s="3"/>
       <c r="N653" s="3"/>
@@ -54889,17 +56030,35 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>3159</v>
-      </c>
-      <c r="C654" s="3"/>
-      <c r="D654" s="3"/>
-      <c r="E654" s="3"/>
-      <c r="F654" s="3"/>
-      <c r="G654" s="3"/>
-      <c r="H654" s="3"/>
-      <c r="I654" s="3"/>
-      <c r="J654" s="3"/>
-      <c r="K654" s="3"/>
+        <v>3260</v>
+      </c>
+      <c r="C654" s="10" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D654" s="10" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E654" s="10" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F654" s="10" t="s">
+        <v>3262</v>
+      </c>
+      <c r="G654" s="10" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H654" s="10" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I654" s="10" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J654" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K654" s="10" t="s">
+        <v>3266</v>
+      </c>
       <c r="L654" s="3"/>
       <c r="M654" s="3"/>
       <c r="N654" s="3"/>
@@ -54941,17 +56100,27 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>3160</v>
+        <v>3267</v>
       </c>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
-      <c r="G655" s="3"/>
-      <c r="H655" s="3"/>
-      <c r="I655" s="3"/>
-      <c r="J655" s="3"/>
-      <c r="K655" s="3"/>
+      <c r="G655" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="H655" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="I655" s="3">
+        <v>58000000000</v>
+      </c>
+      <c r="J655" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="K655" s="3">
+        <v>11000000000</v>
+      </c>
       <c r="L655" s="3"/>
       <c r="M655" s="3"/>
       <c r="N655" s="3"/>
@@ -54993,17 +56162,35 @@
         <v>655</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>3161</v>
-      </c>
-      <c r="C656" s="3"/>
-      <c r="D656" s="3"/>
-      <c r="E656" s="3"/>
-      <c r="F656" s="3"/>
-      <c r="G656" s="3"/>
-      <c r="H656" s="3"/>
-      <c r="I656" s="3"/>
-      <c r="J656" s="3"/>
-      <c r="K656" s="3"/>
+        <v>3268</v>
+      </c>
+      <c r="C656" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D656" s="10" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E656" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F656" s="10" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G656" s="10" t="s">
+        <v>3271</v>
+      </c>
+      <c r="H656" s="10" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I656" s="10" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J656" s="10" t="s">
+        <v>3273</v>
+      </c>
+      <c r="K656" s="10" t="s">
+        <v>3274</v>
+      </c>
       <c r="L656" s="3"/>
       <c r="M656" s="3"/>
       <c r="N656" s="3"/>
@@ -55045,17 +56232,35 @@
         <v>656</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C657" s="3"/>
-      <c r="D657" s="3"/>
-      <c r="E657" s="3"/>
-      <c r="F657" s="3"/>
-      <c r="G657" s="3"/>
-      <c r="H657" s="3"/>
-      <c r="I657" s="3"/>
-      <c r="J657" s="3"/>
-      <c r="K657" s="3"/>
+        <v>3275</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="D657" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E657" s="10" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F657" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G657" s="3">
+        <v>73000000000</v>
+      </c>
+      <c r="H657" s="3">
+        <v>85000000000</v>
+      </c>
+      <c r="I657" s="3">
+        <v>88000000000</v>
+      </c>
+      <c r="J657" s="3">
+        <v>71000000000</v>
+      </c>
+      <c r="K657" s="3">
+        <v>63000000000</v>
+      </c>
       <c r="L657" s="3"/>
       <c r="M657" s="3"/>
       <c r="N657" s="3"/>
@@ -55097,17 +56302,31 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>3163</v>
+        <v>3276</v>
       </c>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
-      <c r="E658" s="3"/>
-      <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
-      <c r="H658" s="3"/>
-      <c r="I658" s="3"/>
-      <c r="J658" s="3"/>
-      <c r="K658" s="3"/>
+      <c r="E658" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F658" s="3">
+        <v>88000000000</v>
+      </c>
+      <c r="G658" s="3">
+        <v>35000000000</v>
+      </c>
+      <c r="H658" s="3">
+        <v>41000000000</v>
+      </c>
+      <c r="I658" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="J658" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="K658" s="3">
+        <v>41000000000</v>
+      </c>
       <c r="L658" s="3"/>
       <c r="M658" s="3"/>
       <c r="N658" s="3"/>
@@ -55149,17 +56368,31 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>3164</v>
+        <v>3277</v>
       </c>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
-      <c r="E659" s="3"/>
-      <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
-      <c r="H659" s="3"/>
-      <c r="I659" s="3"/>
-      <c r="J659" s="3"/>
-      <c r="K659" s="3"/>
+      <c r="E659" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="F659" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="G659" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H659" s="3">
+        <v>0</v>
+      </c>
+      <c r="I659" s="3">
+        <v>-1000000000</v>
+      </c>
+      <c r="J659" s="3">
+        <v>-5000000000</v>
+      </c>
+      <c r="K659" s="3">
+        <v>-8000000000</v>
+      </c>
       <c r="L659" s="3"/>
       <c r="M659" s="3"/>
       <c r="N659" s="3"/>
@@ -55201,17 +56434,29 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>3165</v>
+        <v>3278</v>
       </c>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
-      <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
-      <c r="H660" s="3"/>
-      <c r="I660" s="3"/>
-      <c r="J660" s="3"/>
-      <c r="K660" s="3"/>
+      <c r="F660" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G660" s="10" t="s">
+        <v>3279</v>
+      </c>
+      <c r="H660" s="10" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I660" s="10" t="s">
+        <v>3280</v>
+      </c>
+      <c r="J660" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K660" s="10" t="s">
+        <v>3281</v>
+      </c>
       <c r="L660" s="3"/>
       <c r="M660" s="3"/>
       <c r="N660" s="3"/>
@@ -55253,17 +56498,35 @@
         <v>660</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C661" s="3"/>
-      <c r="D661" s="3"/>
-      <c r="E661" s="3"/>
-      <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
-      <c r="I661" s="3"/>
-      <c r="J661" s="3"/>
-      <c r="K661" s="3"/>
+        <v>3282</v>
+      </c>
+      <c r="C661" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="D661" s="3">
+        <v>72000000000</v>
+      </c>
+      <c r="E661" s="3">
+        <v>22000000000</v>
+      </c>
+      <c r="F661" s="3">
+        <v>-89000000000</v>
+      </c>
+      <c r="G661" s="3">
+        <v>-61000000000</v>
+      </c>
+      <c r="H661" s="3">
+        <v>-41000000000</v>
+      </c>
+      <c r="I661" s="3">
+        <v>-10000000000</v>
+      </c>
+      <c r="J661" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="K661" s="3">
+        <v>2000000000</v>
+      </c>
       <c r="L661" s="3"/>
       <c r="M661" s="3"/>
       <c r="N661" s="3"/>
@@ -55305,14 +56568,26 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C662" s="3"/>
-      <c r="D662" s="3"/>
-      <c r="E662" s="3"/>
-      <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
-      <c r="H662" s="3"/>
+        <v>3283</v>
+      </c>
+      <c r="C662" s="10" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D662" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E662" s="10" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F662" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G662" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H662" s="10" t="s">
+        <v>836</v>
+      </c>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
       <c r="K662" s="3"/>
@@ -55357,17 +56632,31 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>3168</v>
+        <v>3284</v>
       </c>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
-      <c r="E663" s="3"/>
-      <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
-      <c r="H663" s="3"/>
-      <c r="I663" s="3"/>
-      <c r="J663" s="3"/>
-      <c r="K663" s="3"/>
+      <c r="E663" s="3">
+        <v>75000000000</v>
+      </c>
+      <c r="F663" s="3">
+        <v>72000000000</v>
+      </c>
+      <c r="G663" s="3">
+        <v>48000000000</v>
+      </c>
+      <c r="H663" s="3">
+        <v>47000000000</v>
+      </c>
+      <c r="I663" s="3">
+        <v>55000000000</v>
+      </c>
+      <c r="J663" s="3">
+        <v>51000000000</v>
+      </c>
+      <c r="K663" s="3">
+        <v>52000000000</v>
+      </c>
       <c r="L663" s="3"/>
       <c r="M663" s="3"/>
       <c r="N663" s="3"/>
@@ -55409,17 +56698,33 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>3169</v>
+        <v>3285</v>
       </c>
       <c r="C664" s="3"/>
-      <c r="D664" s="3"/>
-      <c r="E664" s="3"/>
-      <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
-      <c r="H664" s="3"/>
-      <c r="I664" s="3"/>
-      <c r="J664" s="3"/>
-      <c r="K664" s="3"/>
+      <c r="D664" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E664" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F664" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="G664" s="10" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H664" s="10" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I664" s="10" t="s">
+        <v>3287</v>
+      </c>
+      <c r="J664" s="10" t="s">
+        <v>3288</v>
+      </c>
+      <c r="K664" s="10" t="s">
+        <v>2705</v>
+      </c>
       <c r="L664" s="3"/>
       <c r="M664" s="3"/>
       <c r="N664" s="3"/>
@@ -55461,17 +56766,35 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C665" s="3"/>
-      <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
-      <c r="H665" s="3"/>
-      <c r="I665" s="3"/>
-      <c r="J665" s="3"/>
-      <c r="K665" s="3"/>
+        <v>3289</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D665" s="10" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E665" s="10" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F665" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G665" s="10" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H665" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I665" s="10" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J665" s="10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K665" s="10" t="s">
+        <v>3295</v>
+      </c>
       <c r="L665" s="3"/>
       <c r="M665" s="3"/>
       <c r="N665" s="3"/>
@@ -55513,17 +56836,35 @@
         <v>665</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>3171</v>
-      </c>
-      <c r="C666" s="3"/>
-      <c r="D666" s="3"/>
-      <c r="E666" s="3"/>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
-      <c r="H666" s="3"/>
-      <c r="I666" s="3"/>
-      <c r="J666" s="3"/>
-      <c r="K666" s="3"/>
+        <v>3296</v>
+      </c>
+      <c r="C666" s="10" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D666" s="10" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E666" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F666" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G666" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="H666" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I666" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J666" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K666" s="10" t="s">
+        <v>3298</v>
+      </c>
       <c r="L666" s="3"/>
       <c r="M666" s="3"/>
       <c r="N666" s="3"/>
@@ -55565,17 +56906,25 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>3172</v>
+        <v>3299</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
-      <c r="H667" s="3"/>
-      <c r="I667" s="3"/>
-      <c r="J667" s="3"/>
-      <c r="K667" s="3"/>
+      <c r="H667" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I667" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="J667" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="K667" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="L667" s="3"/>
       <c r="M667" s="3"/>
       <c r="N667" s="3"/>
@@ -55617,17 +56966,35 @@
         <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C668" s="3"/>
-      <c r="D668" s="3"/>
-      <c r="E668" s="3"/>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
-      <c r="H668" s="3"/>
-      <c r="I668" s="3"/>
-      <c r="J668" s="3"/>
-      <c r="K668" s="3"/>
+        <v>3300</v>
+      </c>
+      <c r="C668" s="10" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D668" s="10" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E668" s="10" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F668" s="10" t="s">
+        <v>3303</v>
+      </c>
+      <c r="G668" s="10" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H668" s="10" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I668" s="10" t="s">
+        <v>3305</v>
+      </c>
+      <c r="J668" s="10" t="s">
+        <v>3306</v>
+      </c>
+      <c r="K668" s="10" t="s">
+        <v>2760</v>
+      </c>
       <c r="L668" s="3"/>
       <c r="M668" s="3"/>
       <c r="N668" s="3"/>
@@ -55669,17 +57036,35 @@
         <v>668</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>3174</v>
-      </c>
-      <c r="C669" s="3"/>
-      <c r="D669" s="3"/>
-      <c r="E669" s="3"/>
-      <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
-      <c r="H669" s="3"/>
-      <c r="I669" s="3"/>
-      <c r="J669" s="3"/>
-      <c r="K669" s="3"/>
+        <v>3307</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D669" s="10" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E669" s="10" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F669" s="10" t="s">
+        <v>3311</v>
+      </c>
+      <c r="G669" s="10" t="s">
+        <v>3312</v>
+      </c>
+      <c r="H669" s="10" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I669" s="10" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J669" s="10" t="s">
+        <v>3315</v>
+      </c>
+      <c r="K669" s="10" t="s">
+        <v>3316</v>
+      </c>
       <c r="L669" s="3"/>
       <c r="M669" s="3"/>
       <c r="N669" s="3"/>
@@ -55721,17 +57106,35 @@
         <v>669</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>3175</v>
-      </c>
-      <c r="C670" s="3"/>
-      <c r="D670" s="3"/>
-      <c r="E670" s="3"/>
-      <c r="F670" s="3"/>
-      <c r="G670" s="3"/>
-      <c r="H670" s="3"/>
-      <c r="I670" s="3"/>
-      <c r="J670" s="3"/>
-      <c r="K670" s="3"/>
+        <v>3317</v>
+      </c>
+      <c r="C670" s="10" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D670" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="E670" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F670" s="10" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G670" s="10" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H670" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I670" s="10" t="s">
+        <v>2847</v>
+      </c>
+      <c r="J670" s="10" t="s">
+        <v>3319</v>
+      </c>
+      <c r="K670" s="10" t="s">
+        <v>3320</v>
+      </c>
       <c r="L670" s="3"/>
       <c r="M670" s="3"/>
       <c r="N670" s="3"/>
@@ -55773,17 +57176,35 @@
         <v>670</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C671" s="3"/>
-      <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
-      <c r="H671" s="3"/>
-      <c r="I671" s="3"/>
-      <c r="J671" s="3"/>
-      <c r="K671" s="3"/>
+        <v>3321</v>
+      </c>
+      <c r="C671" s="9">
+        <v>66000000000</v>
+      </c>
+      <c r="D671" s="14" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E671" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F671" s="9">
+        <v>63000000000</v>
+      </c>
+      <c r="G671" s="9">
+        <v>47000000000</v>
+      </c>
+      <c r="H671" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="I671" s="14" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J671" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K671" s="14" t="s">
+        <v>1094</v>
+      </c>
       <c r="L671" s="3"/>
       <c r="M671" s="3"/>
       <c r="N671" s="3"/>
@@ -55825,17 +57246,35 @@
         <v>671</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>3177</v>
-      </c>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
-      <c r="H672" s="3"/>
-      <c r="I672" s="3"/>
-      <c r="J672" s="3"/>
-      <c r="K672" s="3"/>
+        <v>3322</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D672" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E672" s="10" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F672" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G672" s="3">
+        <v>73000000000</v>
+      </c>
+      <c r="H672" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="I672" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="J672" s="10" t="s">
+        <v>3298</v>
+      </c>
+      <c r="K672" s="10" t="s">
+        <v>2178</v>
+      </c>
       <c r="L672" s="3"/>
       <c r="M672" s="3"/>
       <c r="N672" s="3"/>
@@ -55877,17 +57316,29 @@
         <v>672</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>3178</v>
+        <v>3324</v>
       </c>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
-      <c r="H673" s="3"/>
-      <c r="I673" s="3"/>
-      <c r="J673" s="3"/>
-      <c r="K673" s="3"/>
+      <c r="F673" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G673" s="10" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H673" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I673" s="10" t="s">
+        <v>2549</v>
+      </c>
+      <c r="J673" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="K673" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="L673" s="3"/>
       <c r="M673" s="3"/>
       <c r="N673" s="3"/>
@@ -55929,17 +57380,35 @@
         <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>3179</v>
-      </c>
-      <c r="C674" s="3"/>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
-      <c r="F674" s="3"/>
-      <c r="G674" s="3"/>
-      <c r="H674" s="3"/>
-      <c r="I674" s="3"/>
-      <c r="J674" s="3"/>
-      <c r="K674" s="3"/>
+        <v>3325</v>
+      </c>
+      <c r="C674" s="3">
+        <v>24000000000</v>
+      </c>
+      <c r="D674" s="3">
+        <v>31000000000</v>
+      </c>
+      <c r="E674" s="3">
+        <v>57000000000</v>
+      </c>
+      <c r="F674" s="3">
+        <v>28000000000</v>
+      </c>
+      <c r="G674" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="H674" s="3">
+        <v>-95000000000</v>
+      </c>
+      <c r="I674" s="3">
+        <v>-102000000000</v>
+      </c>
+      <c r="J674" s="3">
+        <v>-71000000000</v>
+      </c>
+      <c r="K674" s="3">
+        <v>-24000000000</v>
+      </c>
       <c r="L674" s="3"/>
       <c r="M674" s="3"/>
       <c r="N674" s="3"/>
@@ -55981,17 +57450,33 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>3180</v>
+        <v>3326</v>
       </c>
       <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
-      <c r="H675" s="3"/>
-      <c r="I675" s="3"/>
-      <c r="J675" s="3"/>
-      <c r="K675" s="3"/>
+      <c r="D675" s="10" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E675" s="10" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F675" s="10" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G675" s="10" t="s">
+        <v>3329</v>
+      </c>
+      <c r="H675" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="I675" s="10" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J675" s="10" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K675" s="10" t="s">
+        <v>1559</v>
+      </c>
       <c r="L675" s="3"/>
       <c r="M675" s="3"/>
       <c r="N675" s="3"/>
@@ -56033,17 +57518,29 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>3181</v>
+        <v>3332</v>
       </c>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
-      <c r="H676" s="3"/>
-      <c r="I676" s="3"/>
-      <c r="J676" s="3"/>
-      <c r="K676" s="3"/>
+      <c r="F676" s="14" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G676" s="14" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H676" s="14" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I676" s="14" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J676" s="14" t="s">
+        <v>3337</v>
+      </c>
+      <c r="K676" s="14" t="s">
+        <v>631</v>
+      </c>
       <c r="L676" s="3"/>
       <c r="M676" s="3"/>
       <c r="N676" s="3"/>
@@ -56085,17 +57582,35 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
-      <c r="H677" s="3"/>
-      <c r="I677" s="3"/>
-      <c r="J677" s="3"/>
-      <c r="K677" s="3"/>
+        <v>3338</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D677" s="10" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E677" s="10" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F677" s="10" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G677" s="10" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H677" s="10" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I677" s="10" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J677" s="10" t="s">
+        <v>3346</v>
+      </c>
+      <c r="K677" s="10" t="s">
+        <v>3347</v>
+      </c>
       <c r="L677" s="3"/>
       <c r="M677" s="3"/>
       <c r="N677" s="3"/>
@@ -56137,17 +57652,29 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>3183</v>
+        <v>3348</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
-      <c r="I678" s="3"/>
-      <c r="J678" s="3"/>
-      <c r="K678" s="3"/>
+      <c r="F678" s="10" t="s">
+        <v>3349</v>
+      </c>
+      <c r="G678" s="10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H678" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I678" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J678" s="10" t="s">
+        <v>3351</v>
+      </c>
+      <c r="K678" s="10" t="s">
+        <v>3352</v>
+      </c>
       <c r="L678" s="3"/>
       <c r="M678" s="3"/>
       <c r="N678" s="3"/>
@@ -56189,17 +57716,31 @@
         <v>678</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>3184</v>
+        <v>3353</v>
       </c>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
-      <c r="H679" s="3"/>
-      <c r="I679" s="3"/>
-      <c r="J679" s="3"/>
-      <c r="K679" s="3"/>
+      <c r="E679" s="9">
+        <v>0</v>
+      </c>
+      <c r="F679" s="9">
+        <v>0</v>
+      </c>
+      <c r="G679" s="9">
+        <v>0</v>
+      </c>
+      <c r="H679" s="9">
+        <v>1000000000</v>
+      </c>
+      <c r="I679" s="9">
+        <v>3000000000</v>
+      </c>
+      <c r="J679" s="9">
+        <v>10000000000</v>
+      </c>
+      <c r="K679" s="9">
+        <v>2000000000</v>
+      </c>
       <c r="L679" s="3"/>
       <c r="M679" s="3"/>
       <c r="N679" s="3"/>
@@ -56241,17 +57782,35 @@
         <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
-      <c r="I680" s="3"/>
-      <c r="J680" s="3"/>
-      <c r="K680" s="3"/>
+        <v>3354</v>
+      </c>
+      <c r="C680" s="3">
+        <v>24000000000</v>
+      </c>
+      <c r="D680" s="3">
+        <v>23000000000</v>
+      </c>
+      <c r="E680" s="3">
+        <v>22000000000</v>
+      </c>
+      <c r="F680" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="G680" s="3">
+        <v>13000000000</v>
+      </c>
+      <c r="H680" s="3">
+        <v>14000000000</v>
+      </c>
+      <c r="I680" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="J680" s="3">
+        <v>19000000000</v>
+      </c>
+      <c r="K680" s="3">
+        <v>20000000000</v>
+      </c>
       <c r="L680" s="3"/>
       <c r="M680" s="3"/>
       <c r="N680" s="3"/>
@@ -56293,17 +57852,29 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>3186</v>
+        <v>3355</v>
       </c>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
-      <c r="H681" s="3"/>
-      <c r="I681" s="3"/>
-      <c r="J681" s="3"/>
-      <c r="K681" s="3"/>
+      <c r="F681" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G681" s="10" t="s">
+        <v>3356</v>
+      </c>
+      <c r="H681" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I681" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J681" s="10" t="s">
+        <v>3205</v>
+      </c>
+      <c r="K681" s="10" t="s">
+        <v>2116</v>
+      </c>
       <c r="L681" s="3"/>
       <c r="M681" s="3"/>
       <c r="N681" s="3"/>
@@ -56345,17 +57916,35 @@
         <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C682" s="3"/>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
-      <c r="F682" s="3"/>
-      <c r="G682" s="3"/>
-      <c r="H682" s="3"/>
-      <c r="I682" s="3"/>
-      <c r="J682" s="3"/>
-      <c r="K682" s="3"/>
+        <v>3357</v>
+      </c>
+      <c r="C682" s="10" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D682" s="10" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E682" s="10" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F682" s="10" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G682" s="10" t="s">
+        <v>3360</v>
+      </c>
+      <c r="H682" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I682" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="J682" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K682" s="10" t="s">
+        <v>2249</v>
+      </c>
       <c r="L682" s="3"/>
       <c r="M682" s="3"/>
       <c r="N682" s="3"/>
@@ -56397,7 +57986,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>3188</v>
+        <v>3361</v>
       </c>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -56449,7 +58038,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>3189</v>
+        <v>3362</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -56501,7 +58090,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>3190</v>
+        <v>3363</v>
       </c>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -56553,7 +58142,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>3191</v>
+        <v>3364</v>
       </c>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -56605,7 +58194,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>3192</v>
+        <v>3365</v>
       </c>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -56657,7 +58246,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>3193</v>
+        <v>3366</v>
       </c>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -56709,7 +58298,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>3194</v>
+        <v>3367</v>
       </c>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -56761,7 +58350,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>3195</v>
+        <v>3368</v>
       </c>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -56813,7 +58402,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>3196</v>
+        <v>3369</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -56865,7 +58454,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>3197</v>
+        <v>3370</v>
       </c>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -56917,7 +58506,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>3198</v>
+        <v>3371</v>
       </c>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -56969,7 +58558,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>3199</v>
+        <v>3372</v>
       </c>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -57021,7 +58610,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>3200</v>
+        <v>3373</v>
       </c>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -57073,7 +58662,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>3201</v>
+        <v>3374</v>
       </c>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -57125,7 +58714,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>3202</v>
+        <v>3375</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -57177,7 +58766,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>3203</v>
+        <v>3376</v>
       </c>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -57229,7 +58818,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>3204</v>
+        <v>3377</v>
       </c>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -57281,7 +58870,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>3205</v>
+        <v>3378</v>
       </c>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -57333,7 +58922,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>3206</v>
+        <v>3379</v>
       </c>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -57385,7 +58974,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>3207</v>
+        <v>3380</v>
       </c>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -57437,7 +59026,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>3208</v>
+        <v>3381</v>
       </c>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -57489,7 +59078,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>3209</v>
+        <v>3382</v>
       </c>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -57541,7 +59130,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>3210</v>
+        <v>3383</v>
       </c>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -57593,7 +59182,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>3211</v>
+        <v>3384</v>
       </c>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -57645,7 +59234,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>3212</v>
+        <v>3385</v>
       </c>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -57697,7 +59286,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>3213</v>
+        <v>3386</v>
       </c>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -57749,7 +59338,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>3214</v>
+        <v>3387</v>
       </c>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -57801,7 +59390,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>3215</v>
+        <v>3388</v>
       </c>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -57853,7 +59442,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>3216</v>
+        <v>3389</v>
       </c>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -57905,7 +59494,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>3217</v>
+        <v>3390</v>
       </c>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -57957,7 +59546,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>3218</v>
+        <v>3391</v>
       </c>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -58009,7 +59598,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>3219</v>
+        <v>3392</v>
       </c>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -58061,7 +59650,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>3220</v>
+        <v>3393</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -58113,7 +59702,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>3221</v>
+        <v>3394</v>
       </c>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -58165,7 +59754,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>3222</v>
+        <v>3395</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -58217,7 +59806,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>3223</v>
+        <v>3396</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -58269,7 +59858,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>3224</v>
+        <v>3397</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -58321,7 +59910,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>3225</v>
+        <v>3398</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -58373,7 +59962,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>3226</v>
+        <v>3399</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -58425,7 +60014,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>3227</v>
+        <v>3400</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -58477,7 +60066,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>3228</v>
+        <v>3401</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -58529,7 +60118,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>3229</v>
+        <v>3402</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -58581,7 +60170,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>3230</v>
+        <v>3403</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -58633,7 +60222,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>3231</v>
+        <v>3404</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -58685,7 +60274,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>3232</v>
+        <v>3405</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -58737,7 +60326,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>3233</v>
+        <v>3406</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -58789,7 +60378,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>3234</v>
+        <v>3407</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -58841,7 +60430,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>3235</v>
+        <v>3408</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -58893,7 +60482,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>3236</v>
+        <v>3409</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -58945,7 +60534,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>3237</v>
+        <v>3410</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -58997,7 +60586,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>3238</v>
+        <v>3411</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -59049,7 +60638,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>3239</v>
+        <v>3412</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -59101,7 +60690,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>3240</v>
+        <v>3413</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -59153,7 +60742,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>3241</v>
+        <v>3414</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -59205,7 +60794,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>3242</v>
+        <v>3415</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -59257,7 +60846,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>3243</v>
+        <v>3416</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -59309,7 +60898,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>3244</v>
+        <v>3417</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -59361,7 +60950,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>3245</v>
+        <v>3418</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -59413,7 +61002,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>3246</v>
+        <v>3419</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -59465,7 +61054,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>3247</v>
+        <v>3420</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -59517,7 +61106,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>3248</v>
+        <v>3421</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -59569,7 +61158,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>3249</v>
+        <v>3422</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -59621,7 +61210,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>3250</v>
+        <v>3423</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -59673,7 +61262,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>3251</v>
+        <v>3424</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -59725,7 +61314,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>3252</v>
+        <v>3425</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -59777,7 +61366,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>3253</v>
+        <v>3426</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -59829,7 +61418,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>3254</v>
+        <v>3427</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -59881,7 +61470,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>3255</v>
+        <v>3428</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -59933,7 +61522,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>3256</v>
+        <v>3429</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -59985,7 +61574,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>3257</v>
+        <v>3430</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -60037,7 +61626,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>3258</v>
+        <v>3431</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -60089,7 +61678,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>3259</v>
+        <v>3432</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -60141,7 +61730,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>3260</v>
+        <v>3433</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -60193,7 +61782,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>3261</v>
+        <v>3434</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -60245,7 +61834,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>3262</v>
+        <v>3435</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -60297,7 +61886,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>3263</v>
+        <v>3436</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -60349,7 +61938,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>3264</v>
+        <v>3437</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -60401,7 +61990,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>3265</v>
+        <v>3438</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -60453,7 +62042,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>3266</v>
+        <v>3439</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -60505,7 +62094,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>3267</v>
+        <v>3440</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -60557,7 +62146,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>3268</v>
+        <v>3441</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -60609,7 +62198,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>3269</v>
+        <v>3442</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -60661,7 +62250,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>3270</v>
+        <v>3443</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -60713,7 +62302,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>3271</v>
+        <v>3444</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -60765,7 +62354,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>3272</v>
+        <v>3445</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -60817,7 +62406,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>3273</v>
+        <v>3446</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -60869,7 +62458,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>3274</v>
+        <v>3447</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -60921,7 +62510,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>3275</v>
+        <v>3448</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -60973,7 +62562,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>3276</v>
+        <v>3449</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -61025,7 +62614,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>3277</v>
+        <v>3450</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -61077,7 +62666,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>3278</v>
+        <v>3451</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -61129,7 +62718,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>3279</v>
+        <v>3452</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -61181,7 +62770,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>3280</v>
+        <v>3453</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -61233,7 +62822,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>3281</v>
+        <v>3454</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -61285,7 +62874,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>3282</v>
+        <v>3455</v>
       </c>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -61337,7 +62926,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>3283</v>
+        <v>3456</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -61389,7 +62978,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>3284</v>
+        <v>3457</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -61441,7 +63030,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>3285</v>
+        <v>3458</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -61493,7 +63082,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>3286</v>
+        <v>3459</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -61545,7 +63134,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>3287</v>
+        <v>3460</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -61597,7 +63186,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>3288</v>
+        <v>3461</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -61649,7 +63238,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>3289</v>
+        <v>3462</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -61701,7 +63290,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>3290</v>
+        <v>3463</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -61753,7 +63342,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>3291</v>
+        <v>3464</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -61805,7 +63394,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>3292</v>
+        <v>3465</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -61857,7 +63446,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>3293</v>
+        <v>3466</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -61909,7 +63498,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>3294</v>
+        <v>3467</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -61961,7 +63550,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>3295</v>
+        <v>3468</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -62013,7 +63602,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>3296</v>
+        <v>3469</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -62065,7 +63654,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>3297</v>
+        <v>3470</v>
       </c>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -62117,7 +63706,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>3298</v>
+        <v>3471</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -62169,7 +63758,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>3299</v>
+        <v>3472</v>
       </c>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -62221,7 +63810,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>3300</v>
+        <v>3473</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -62273,7 +63862,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>3301</v>
+        <v>3474</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -62325,7 +63914,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>3302</v>
+        <v>3475</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -62377,7 +63966,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>3303</v>
+        <v>3476</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -62429,7 +64018,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>3304</v>
+        <v>3477</v>
       </c>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -62481,7 +64070,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>3305</v>
+        <v>3478</v>
       </c>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -62533,7 +64122,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>3306</v>
+        <v>3479</v>
       </c>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -62585,7 +64174,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>3307</v>
+        <v>3480</v>
       </c>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -62637,7 +64226,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>3308</v>
+        <v>3481</v>
       </c>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -62689,7 +64278,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>3309</v>
+        <v>3482</v>
       </c>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -62741,7 +64330,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>3310</v>
+        <v>3483</v>
       </c>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -62793,7 +64382,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>3311</v>
+        <v>3484</v>
       </c>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -62845,7 +64434,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>3312</v>
+        <v>3485</v>
       </c>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -62897,7 +64486,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>3313</v>
+        <v>3486</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -62949,7 +64538,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>3314</v>
+        <v>3487</v>
       </c>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -63001,7 +64590,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>3315</v>
+        <v>3488</v>
       </c>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -63053,7 +64642,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>3316</v>
+        <v>3489</v>
       </c>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -63105,7 +64694,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>3317</v>
+        <v>3490</v>
       </c>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -63157,7 +64746,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>3318</v>
+        <v>3491</v>
       </c>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -63209,7 +64798,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>3319</v>
+        <v>3492</v>
       </c>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -63261,7 +64850,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>3320</v>
+        <v>3493</v>
       </c>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -63313,7 +64902,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>3321</v>
+        <v>3494</v>
       </c>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -63365,7 +64954,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>3322</v>
+        <v>3495</v>
       </c>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -63417,7 +65006,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>3323</v>
+        <v>3496</v>
       </c>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -63469,7 +65058,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>3324</v>
+        <v>3497</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -63521,7 +65110,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>3325</v>
+        <v>3498</v>
       </c>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -63573,7 +65162,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>3326</v>
+        <v>3499</v>
       </c>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -63625,7 +65214,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>3327</v>
+        <v>3500</v>
       </c>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -63677,7 +65266,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>3328</v>
+        <v>3501</v>
       </c>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -63729,7 +65318,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>3329</v>
+        <v>3502</v>
       </c>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -63781,7 +65370,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>3330</v>
+        <v>3503</v>
       </c>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -63833,7 +65422,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>3331</v>
+        <v>3504</v>
       </c>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -63885,7 +65474,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>3332</v>
+        <v>3505</v>
       </c>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -63937,7 +65526,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>3333</v>
+        <v>3506</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -63989,7 +65578,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>3334</v>
+        <v>3507</v>
       </c>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -64041,7 +65630,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>3335</v>
+        <v>3508</v>
       </c>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -64093,7 +65682,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>3336</v>
+        <v>3509</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -64145,7 +65734,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>3337</v>
+        <v>3510</v>
       </c>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -64197,7 +65786,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>3338</v>
+        <v>3511</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -64249,7 +65838,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>3339</v>
+        <v>3512</v>
       </c>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -64301,7 +65890,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>3340</v>
+        <v>3513</v>
       </c>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -64353,7 +65942,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>3341</v>
+        <v>3514</v>
       </c>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -64405,7 +65994,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>3342</v>
+        <v>3515</v>
       </c>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -64457,7 +66046,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>3343</v>
+        <v>3516</v>
       </c>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -64509,7 +66098,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>3344</v>
+        <v>3517</v>
       </c>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -64561,7 +66150,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>3345</v>
+        <v>3518</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -64613,7 +66202,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>3346</v>
+        <v>3519</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -64665,7 +66254,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>3347</v>
+        <v>3520</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -64717,7 +66306,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>3348</v>
+        <v>3521</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -64769,7 +66358,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>3349</v>
+        <v>3522</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -64821,7 +66410,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>3350</v>
+        <v>3523</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -64873,7 +66462,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>3351</v>
+        <v>3524</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -64925,7 +66514,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>3352</v>
+        <v>3525</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -64977,7 +66566,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>3353</v>
+        <v>3526</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -65029,7 +66618,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>3354</v>
+        <v>3527</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -65081,7 +66670,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>3355</v>
+        <v>3528</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -65133,7 +66722,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>3356</v>
+        <v>3529</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -65185,7 +66774,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>3357</v>
+        <v>3530</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -65237,7 +66826,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>3358</v>
+        <v>3531</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -65289,7 +66878,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>3359</v>
+        <v>3532</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -65341,7 +66930,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>3360</v>
+        <v>3533</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -65393,7 +66982,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>3361</v>
+        <v>3534</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -65445,7 +67034,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>3362</v>
+        <v>3535</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -65497,7 +67086,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>3363</v>
+        <v>3536</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -65549,7 +67138,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>3364</v>
+        <v>3537</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -65601,7 +67190,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>3365</v>
+        <v>3538</v>
       </c>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -65653,7 +67242,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>3366</v>
+        <v>3539</v>
       </c>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -65705,7 +67294,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>3367</v>
+        <v>3540</v>
       </c>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -65757,7 +67346,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>3368</v>
+        <v>3541</v>
       </c>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -65809,7 +67398,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>3369</v>
+        <v>3542</v>
       </c>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -65861,7 +67450,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>3370</v>
+        <v>3543</v>
       </c>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -65913,7 +67502,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>3371</v>
+        <v>3544</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -65965,7 +67554,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>3372</v>
+        <v>3545</v>
       </c>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -66017,7 +67606,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>3373</v>
+        <v>3546</v>
       </c>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -66069,7 +67658,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>3374</v>
+        <v>3547</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -66121,7 +67710,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>3375</v>
+        <v>3548</v>
       </c>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -66173,7 +67762,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>3376</v>
+        <v>3549</v>
       </c>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -66225,7 +67814,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>3377</v>
+        <v>3550</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -66277,7 +67866,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>3378</v>
+        <v>3551</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -66329,7 +67918,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>3379</v>
+        <v>3552</v>
       </c>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -66381,7 +67970,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>3380</v>
+        <v>3553</v>
       </c>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -66433,7 +68022,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>3381</v>
+        <v>3554</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -66485,7 +68074,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>3382</v>
+        <v>3555</v>
       </c>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -66537,7 +68126,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>3383</v>
+        <v>3556</v>
       </c>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -66589,7 +68178,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>3384</v>
+        <v>3557</v>
       </c>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -66641,7 +68230,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>3385</v>
+        <v>3558</v>
       </c>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -66693,7 +68282,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>3386</v>
+        <v>3559</v>
       </c>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -66745,7 +68334,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>3387</v>
+        <v>3560</v>
       </c>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -66797,7 +68386,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>3388</v>
+        <v>3561</v>
       </c>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -66849,7 +68438,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>3389</v>
+        <v>3562</v>
       </c>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -66901,7 +68490,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>3390</v>
+        <v>3563</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -66953,7 +68542,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>3391</v>
+        <v>3564</v>
       </c>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -67005,7 +68594,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>3392</v>
+        <v>3565</v>
       </c>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -67057,7 +68646,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>3393</v>
+        <v>3566</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -67109,7 +68698,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>3394</v>
+        <v>3567</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -67161,7 +68750,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>3395</v>
+        <v>3568</v>
       </c>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -67213,7 +68802,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>3396</v>
+        <v>3569</v>
       </c>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -67265,7 +68854,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>3397</v>
+        <v>3570</v>
       </c>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -67317,7 +68906,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>3398</v>
+        <v>3571</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -67369,7 +68958,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>3399</v>
+        <v>3572</v>
       </c>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -67421,7 +69010,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>3400</v>
+        <v>3573</v>
       </c>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -67473,7 +69062,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>3401</v>
+        <v>3574</v>
       </c>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -67525,7 +69114,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>3402</v>
+        <v>3575</v>
       </c>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -67577,7 +69166,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>3403</v>
+        <v>3576</v>
       </c>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -67629,7 +69218,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>3404</v>
+        <v>3577</v>
       </c>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -67681,7 +69270,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>3405</v>
+        <v>3578</v>
       </c>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -67733,7 +69322,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>3406</v>
+        <v>3579</v>
       </c>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -67785,7 +69374,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>3407</v>
+        <v>3580</v>
       </c>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -67837,7 +69426,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>3408</v>
+        <v>3581</v>
       </c>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -67889,7 +69478,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>3409</v>
+        <v>3582</v>
       </c>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -67941,7 +69530,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>3410</v>
+        <v>3583</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -67993,7 +69582,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>3411</v>
+        <v>3584</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -68045,7 +69634,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>3412</v>
+        <v>3585</v>
       </c>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -68097,7 +69686,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>3413</v>
+        <v>3586</v>
       </c>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -68149,7 +69738,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>3414</v>
+        <v>3587</v>
       </c>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -68201,7 +69790,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>3415</v>
+        <v>3588</v>
       </c>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -68253,7 +69842,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>3416</v>
+        <v>3589</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -68305,7 +69894,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>3417</v>
+        <v>3590</v>
       </c>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -68357,7 +69946,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>3418</v>
+        <v>3591</v>
       </c>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -68409,7 +69998,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>3419</v>
+        <v>3592</v>
       </c>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -68461,7 +70050,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>3420</v>
+        <v>3593</v>
       </c>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -68513,7 +70102,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>3421</v>
+        <v>3594</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -68565,7 +70154,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>3422</v>
+        <v>3595</v>
       </c>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -68617,7 +70206,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>3423</v>
+        <v>3596</v>
       </c>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -68669,7 +70258,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>3424</v>
+        <v>3597</v>
       </c>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -68721,7 +70310,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>3425</v>
+        <v>3598</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -68773,7 +70362,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>3426</v>
+        <v>3599</v>
       </c>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -68825,7 +70414,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>3427</v>
+        <v>3600</v>
       </c>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -68877,7 +70466,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>3428</v>
+        <v>3601</v>
       </c>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -68929,7 +70518,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>3429</v>
+        <v>3602</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -68981,7 +70570,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>3430</v>
+        <v>3603</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -69033,7 +70622,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>3431</v>
+        <v>3604</v>
       </c>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -69085,7 +70674,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>3432</v>
+        <v>3605</v>
       </c>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -69137,7 +70726,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>3433</v>
+        <v>3606</v>
       </c>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -69189,7 +70778,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>3434</v>
+        <v>3607</v>
       </c>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -69241,7 +70830,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>3435</v>
+        <v>3608</v>
       </c>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -69293,7 +70882,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>3436</v>
+        <v>3609</v>
       </c>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -69345,7 +70934,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>3437</v>
+        <v>3610</v>
       </c>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -69397,7 +70986,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>3438</v>
+        <v>3611</v>
       </c>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -69449,7 +71038,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>3439</v>
+        <v>3612</v>
       </c>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -69501,7 +71090,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>3440</v>
+        <v>3613</v>
       </c>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -69553,7 +71142,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>3441</v>
+        <v>3614</v>
       </c>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -69605,7 +71194,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>3442</v>
+        <v>3615</v>
       </c>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -69657,7 +71246,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>3443</v>
+        <v>3616</v>
       </c>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -69709,7 +71298,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>3444</v>
+        <v>3617</v>
       </c>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -69761,7 +71350,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>3445</v>
+        <v>3618</v>
       </c>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -69813,7 +71402,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>3446</v>
+        <v>3619</v>
       </c>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -69865,7 +71454,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>3447</v>
+        <v>3620</v>
       </c>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -69917,7 +71506,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>3448</v>
+        <v>3621</v>
       </c>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -69969,7 +71558,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>3449</v>
+        <v>3622</v>
       </c>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -70021,7 +71610,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>3450</v>
+        <v>3623</v>
       </c>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -70073,7 +71662,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>3451</v>
+        <v>3624</v>
       </c>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -70125,7 +71714,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>3452</v>
+        <v>3625</v>
       </c>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -70177,7 +71766,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>3453</v>
+        <v>3626</v>
       </c>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -70229,7 +71818,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>3454</v>
+        <v>3627</v>
       </c>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -70281,7 +71870,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>3455</v>
+        <v>3628</v>
       </c>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -70333,7 +71922,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>3456</v>
+        <v>3629</v>
       </c>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -70385,7 +71974,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>3457</v>
+        <v>3630</v>
       </c>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -70437,7 +72026,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>3458</v>
+        <v>3631</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -70489,7 +72078,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>3459</v>
+        <v>3632</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -70541,7 +72130,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>3460</v>
+        <v>3633</v>
       </c>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -70593,7 +72182,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>3461</v>
+        <v>3634</v>
       </c>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -70645,7 +72234,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>3462</v>
+        <v>3635</v>
       </c>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -70697,7 +72286,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>3463</v>
+        <v>3636</v>
       </c>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>
